--- a/Конспект_Python.xlsx
+++ b/Конспект_Python.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Work\__Документы\__Учеба\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\my_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B708F6-60E3-4A65-98AF-2F4C5DCAB99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CABE39-9671-4017-9DFD-B0710CD23625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="728" xr2:uid="{65C49AB7-91AD-4F1F-B814-EFF7DAC5AF74}"/>
+    <workbookView xWindow="230" yWindow="1580" windowWidth="17780" windowHeight="19020" tabRatio="728" xr2:uid="{65C49AB7-91AD-4F1F-B814-EFF7DAC5AF74}"/>
   </bookViews>
   <sheets>
     <sheet name="Операторы" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Атрибуты!$A$1:$D$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Генераторы списков'!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Операторы!$A$1:$D$295</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Операторы!$A$1:$D$297</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Функции!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="752">
   <si>
     <t>Функция</t>
   </si>
@@ -2306,6 +2306,34 @@
   </si>
   <si>
     <t>Логическое "В"</t>
+  </si>
+  <si>
+    <t>end="\n"</t>
+  </si>
+  <si>
+    <t>Устанавливает окончание строки</t>
+  </si>
+  <si>
+    <t>Устанавливает разделитель, который идет после запятой, по умолчанию " "</t>
+  </si>
+  <si>
+    <t>sep="val"</t>
+  </si>
+  <si>
+    <t>Возвращает целое число в заданном диапазоне</t>
+  </si>
+  <si>
+    <t>random.randint(val, val)</t>
+  </si>
+  <si>
+    <t>try:
+    print(777 / 0)
+except:
+    print('Нельзя делить на ноль!')
+    print('Идём дальше!')</t>
+  </si>
+  <si>
+    <t>Оператор обработки исключений</t>
   </si>
 </sst>
 </file>
@@ -2401,7 +2429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2427,6 +2455,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2742,11 +2773,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D296"/>
+  <dimension ref="A1:D297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -6878,8 +6909,22 @@
         <v>743</v>
       </c>
     </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B297" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="C297" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D297" s="6" t="s">
+        <v>748</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D295" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}"/>
+  <autoFilter ref="A1:D297" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -6887,11 +6932,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F587FCC2-7934-4352-99C9-11C970FBF59E}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -7634,7 +7679,32 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B54" s="11"/>
+      <c r="A54" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>747</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>744</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>745</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D10" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}"/>
@@ -7690,25 +7760,34 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF16D9A-2AFF-418B-B6EF-6574DC3419E2}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="53.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>751</v>
       </c>
     </row>
   </sheetData>

--- a/Конспект_Python.xlsx
+++ b/Конспект_Python.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\my_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CABE39-9671-4017-9DFD-B0710CD23625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65861025-7D06-4055-B947-F9E80E01EABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="230" yWindow="1580" windowWidth="17780" windowHeight="19020" tabRatio="728" xr2:uid="{65C49AB7-91AD-4F1F-B814-EFF7DAC5AF74}"/>
+    <workbookView xWindow="21900" yWindow="2020" windowWidth="16290" windowHeight="17920" tabRatio="728" xr2:uid="{65C49AB7-91AD-4F1F-B814-EFF7DAC5AF74}"/>
   </bookViews>
   <sheets>
     <sheet name="Операторы" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,9 @@
     <sheet name="Генераторы списков" sheetId="4" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Атрибуты!$A$1:$D$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Атрибуты!$A$1:$D$54</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Генераторы списков'!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Операторы!$A$1:$D$297</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Операторы!$A$1:$D$310</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Функции!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="780">
   <si>
     <t>Функция</t>
   </si>
@@ -185,9 +185,6 @@
     <t>sorted(list)</t>
   </si>
   <si>
-    <t>Сортирует указанный массив</t>
-  </si>
-  <si>
     <t>map(func, list)</t>
   </si>
   <si>
@@ -243,9 +240,6 @@
   </si>
   <si>
     <t>Информация</t>
-  </si>
-  <si>
-    <t>"{}".format(val)</t>
   </si>
   <si>
     <t>Числа с плавающей точкой</t>
@@ -444,9 +438,6 @@
   </si>
   <si>
     <t>import math</t>
-  </si>
-  <si>
-    <t>factorial(var)</t>
   </si>
   <si>
     <t>Возвращает факториал числа</t>
@@ -2334,6 +2325,102 @@
   </si>
   <si>
     <t>Оператор обработки исключений</t>
+  </si>
+  <si>
+    <t>str.replace('old-val', 'new-val')</t>
+  </si>
+  <si>
+    <t>Ищет в строке значение 'old-val' и заменяет его на 'new-val'</t>
+  </si>
+  <si>
+    <t>Возвращает индекс первого найденного значения в промежутке startindex - endindex</t>
+  </si>
+  <si>
+    <t>str.find('val', startindex, endindex)</t>
+  </si>
+  <si>
+    <t>f'val1 {var1} val2 {var2}'</t>
+  </si>
+  <si>
+    <t>F-Строки. Вставляет в {} значение вписанной переменной и возвращает строку.</t>
+  </si>
+  <si>
+    <t>f'val {var:.n%}'</t>
+  </si>
+  <si>
+    <t>f'val {var:.nf}'</t>
+  </si>
+  <si>
+    <t>Форматирование внутри F-строк. n - это количество символов после запятой</t>
+  </si>
+  <si>
+    <t>n - это количество символов после запятой. f - указывает что идет формат вещественных чисел</t>
+  </si>
+  <si>
+    <t>"{0}, {1}".format(var1, var2)</t>
+  </si>
+  <si>
+    <t>list.extend(list)</t>
+  </si>
+  <si>
+    <t>Распаковывает список из аргумента и добавляет его элементы в конец списка</t>
+  </si>
+  <si>
+    <t>list.insert(index, val)</t>
+  </si>
+  <si>
+    <t>Вставляет значение в поизвольное место в списке. Первый аргумент номер элемента, второй значение</t>
+  </si>
+  <si>
+    <t>list.pop()</t>
+  </si>
+  <si>
+    <t>Удаляет один элемент в конце списка</t>
+  </si>
+  <si>
+    <t>list.sort()</t>
+  </si>
+  <si>
+    <t>Сортирует список</t>
+  </si>
+  <si>
+    <t>Сортирует список в обратном порядке</t>
+  </si>
+  <si>
+    <t>list.sort(reverse=True)</t>
+  </si>
+  <si>
+    <t>Сортирует указанный массив. Итог работы создание нового массива</t>
+  </si>
+  <si>
+    <t>sorted(list, reverse=True)</t>
+  </si>
+  <si>
+    <t>Сортирует указанный массив в обратном порядке. Итог работы создание нового массива</t>
+  </si>
+  <si>
+    <t>list.index(listitem)</t>
+  </si>
+  <si>
+    <t>Принимает в качестве аргумента элемент массива и возвращает его индекс</t>
+  </si>
+  <si>
+    <t>prices = [1500, 2999, 7499, 3220]
+for i in range(len(prices)):
+    prices[i] -= 1000
+print('Результат:', prices)</t>
+  </si>
+  <si>
+    <t>Уменьшаем каждый элемент списка на 1000</t>
+  </si>
+  <si>
+    <t>prod()</t>
+  </si>
+  <si>
+    <t>Считает произведение элементов</t>
+  </si>
+  <si>
+    <t>factorial(val)</t>
   </si>
 </sst>
 </file>
@@ -2772,18 +2859,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}">
-  <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D297"/>
+  <sheetPr codeName="Лист1" filterMode="1"/>
+  <dimension ref="A1:D310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomLeft" activeCell="B311" sqref="B311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.36328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.54296875" style="11" customWidth="1"/>
     <col min="3" max="3" width="10.81640625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70.453125" style="6" customWidth="1"/>
     <col min="5" max="16384" width="8.7265625" style="10"/>
@@ -2803,147 +2890,147 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" s="11" t="s">
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
@@ -2954,10 +3041,10 @@
         <v>2</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>35</v>
       </c>
@@ -2971,133 +3058,133 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>126</v>
-      </c>
       <c r="C15" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="C17" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D18" s="6" t="s">
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="B19" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>15</v>
       </c>
@@ -3113,1769 +3200,1769 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>779</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D29" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="C30" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>494</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>497</v>
-      </c>
       <c r="C31" s="6" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="B34" s="11" t="s">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="B42" s="11" t="s">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="6" t="s">
+      <c r="C69" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="11" t="s">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="11" t="s">
         <v>567</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="6" t="s">
+      <c r="C77" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="6" t="s">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="11" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" s="11" t="s">
+      <c r="C79" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" s="6" t="s">
+    </row>
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B143" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B145" s="11" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="11" t="s">
+      <c r="C145" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D145" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="6" t="s">
+    </row>
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B146" s="11" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>596</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>569</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B73" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>570</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>530</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B89" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B91" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B92" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B94" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B99" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B100" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B101" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B102" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B103" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B104" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B105" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B106" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B107" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B109" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B110" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B111" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B112" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B113" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B114" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B115" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B116" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B118" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B119" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B121" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B122" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B123" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B124" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B125" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B126" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B127" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B128" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B129" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D129" s="6" t="s">
+      <c r="C146" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B147" s="11" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B130" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B131" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B132" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B133" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B134" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B135" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D135" s="6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B136" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D136" s="6" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B137" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D137" s="6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B138" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D138" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B139" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D139" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B140" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D140" s="6" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B141" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D141" s="6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B142" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D142" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A143" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B143" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D143" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B144" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="C144" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D144" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B145" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="C145" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D145" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B146" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="C146" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D146" s="6" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A147" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B147" s="11" t="s">
-        <v>513</v>
-      </c>
       <c r="C147" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D147" s="6" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B148" s="11" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A148" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B148" s="11" t="s">
-        <v>517</v>
-      </c>
       <c r="C148" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
         <v>6</v>
       </c>
@@ -4889,21 +4976,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>6</v>
       </c>
@@ -4911,531 +4998,531 @@
         <v>22</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D152" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B153" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B154" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B155" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D156" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="C153" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D153" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A154" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B154" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D154" s="6" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A155" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B155" s="11" t="s">
-        <v>565</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D155" s="6" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A156" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B156" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D156" s="6" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D157" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D160" s="6" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A158" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B158" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="C158" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D158" s="6" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A159" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B159" s="11" t="s">
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B161" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B163" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B165" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B167" s="11" t="s">
+        <v>759</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B168" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B171" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B172" s="11" t="s">
         <v>512</v>
       </c>
-      <c r="C159" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D159" s="6" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A160" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B160" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D160" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B161" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D161" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A162" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B162" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D162" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A163" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B163" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D163" s="6" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B164" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D164" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A165" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B165" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D165" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A166" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B166" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D166" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A167" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B167" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C167" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D167" s="6" t="s">
+      <c r="C172" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B173" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B174" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B175" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B176" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B177" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B178" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B179" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B180" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B181" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B182" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B183" s="11" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A168" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B168" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D168" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A169" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B169" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D169" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A170" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B170" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D170" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A171" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B171" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D171" s="6" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A172" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B172" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D172" s="6" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A173" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B173" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D173" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A174" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B174" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D174" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A175" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B175" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="C175" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D175" s="6" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A176" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B176" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C176" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D176" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A177" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B177" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="C177" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D177" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A178" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B178" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D178" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A179" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B179" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C179" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D179" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A180" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B180" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C180" s="6" t="s">
+      <c r="C183" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B184" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B185" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D180" s="6" t="s">
+      <c r="C185" s="6" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A181" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B181" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="C181" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D181" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A182" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B182" s="11" t="s">
+      <c r="D185" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B186" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B187" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B188" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C182" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D182" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A183" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B183" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C183" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D183" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A184" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B184" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C184" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D184" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A185" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B185" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C185" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D185" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A186" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B186" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C186" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D186" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A187" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B187" s="11" t="s">
+      <c r="C188" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B189" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C187" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D187" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A188" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B188" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C188" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D188" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A189" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B189" s="11" t="s">
+      <c r="C189" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D189" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C189" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D189" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
         <v>7</v>
       </c>
@@ -5449,63 +5536,63 @@
         <v>29</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B191" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B192" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B193" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D193" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C191" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D191" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A192" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B192" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D192" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A193" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B193" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C193" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D193" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
         <v>7</v>
       </c>
@@ -5516,80 +5603,80 @@
         <v>33</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D196" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B197" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B198" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D198" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A197" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B197" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C197" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D197" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A198" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B198" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C198" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D198" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
         <v>7</v>
       </c>
@@ -5603,21 +5690,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
         <v>7</v>
       </c>
@@ -5628,52 +5715,52 @@
         <v>21</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C204" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C205" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
         <v>7</v>
       </c>
@@ -5687,21 +5774,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
         <v>7</v>
       </c>
@@ -5715,21 +5802,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B210" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D210" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C210" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D210" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
         <v>7</v>
       </c>
@@ -5740,136 +5827,136 @@
         <v>33</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B212" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D212" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C212" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D212" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B213" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D213" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C213" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D213" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C214" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C215" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C216" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B217" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D217" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C217" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D217" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C218" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B219" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D219" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C219" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D219" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C220" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
         <v>7</v>
       </c>
@@ -5880,10 +5967,10 @@
         <v>33</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
         <v>7</v>
       </c>
@@ -5897,12 +5984,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C223" s="6" t="s">
         <v>0</v>
@@ -5911,7 +5998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
         <v>7</v>
       </c>
@@ -5922,108 +6009,108 @@
         <v>33</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B225" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D225" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B226" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D226" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C225" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D225" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A226" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B226" s="11" t="s">
+    </row>
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B227" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D227" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B228" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D228" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B229" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D229" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B230" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B231" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C226" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D226" s="6" t="s">
+      <c r="C231" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D231" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A227" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B227" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C227" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D227" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A228" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B228" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C228" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D228" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A229" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B229" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C229" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D229" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A230" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B230" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C230" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D230" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A231" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B231" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C231" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D231" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="6" t="s">
         <v>7</v>
       </c>
@@ -6034,10 +6121,10 @@
         <v>0</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="6" t="s">
         <v>7</v>
       </c>
@@ -6051,82 +6138,82 @@
         <v>27</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B234" s="11" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C234" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B235" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D235" s="6" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B236" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D236" s="6" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B237" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="C235" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D235" s="6" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A236" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B236" s="11" t="s">
-        <v>603</v>
-      </c>
-      <c r="C236" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D236" s="6" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A237" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B237" s="11" t="s">
+      <c r="C237" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D237" s="6" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B238" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="C237" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D237" s="6" t="s">
+      <c r="C238" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D238" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B239" s="11" t="s">
         <v>599</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A238" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B238" s="11" t="s">
-        <v>601</v>
-      </c>
-      <c r="C238" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D238" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A239" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B239" s="11" t="s">
-        <v>602</v>
       </c>
       <c r="C239" s="6" t="s">
         <v>19</v>
@@ -6135,63 +6222,63 @@
         <v>32</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C240" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B241" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D241" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B242" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="C241" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D241" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A242" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B242" s="11" t="s">
-        <v>600</v>
-      </c>
       <c r="C242" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B243" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C243" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
         <v>7</v>
       </c>
@@ -6202,15 +6289,15 @@
         <v>33</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C245" s="6" t="s">
         <v>0</v>
@@ -6219,40 +6306,40 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B246" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C246" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C247" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C248" s="6" t="s">
         <v>19</v>
@@ -6261,77 +6348,77 @@
         <v>34</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C249" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B250" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D250" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B251" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C250" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D250" s="6" t="s">
+      <c r="C251" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D251" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A251" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B251" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C251" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D251" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C252" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B253" s="11" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C253" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="6" t="s">
         <v>7</v>
       </c>
@@ -6342,589 +6429,777 @@
         <v>0</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B255" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C255" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B256" s="11" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C256" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C257" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B258" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C258" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D258" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B258" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="C258" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D258" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="6" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C259" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="6" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B260" s="11" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C260" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="6" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B261" s="11" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C261" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D261" s="6" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B262" s="11" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A262" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B262" s="11" t="s">
+      <c r="C262" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D262" s="6" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B263" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="C263" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D263" s="6" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B264" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="C264" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D264" s="6" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B265" s="11" t="s">
         <v>644</v>
       </c>
-      <c r="C262" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D262" s="6" t="s">
+      <c r="C265" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D265" s="6" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A263" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B263" s="11" t="s">
-        <v>651</v>
-      </c>
-      <c r="C263" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D263" s="6" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A264" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B264" s="11" t="s">
-        <v>651</v>
-      </c>
-      <c r="C264" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D264" s="6" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A265" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B265" s="11" t="s">
-        <v>647</v>
-      </c>
-      <c r="C265" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D265" s="6" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="6" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B266" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="C266" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D266" s="6" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B267" s="11" t="s">
         <v>660</v>
       </c>
-      <c r="C266" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D266" s="6" t="s">
+      <c r="C267" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D267" s="6" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A267" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B267" s="11" t="s">
-        <v>663</v>
-      </c>
-      <c r="C267" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D267" s="6" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="6" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B268" s="11" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C268" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="6" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B269" s="11" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C269" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="6" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B270" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="C270" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D270" s="6" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B271" s="11" t="s">
+        <v>680</v>
+      </c>
+      <c r="C271" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D271" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="C270" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D270" s="6" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A271" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B271" s="11" t="s">
+    </row>
+    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B272" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="C272" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D272" s="6" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B273" s="11" t="s">
+        <v>728</v>
+      </c>
+      <c r="C273" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D273" s="6" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="C271" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D271" s="6" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A272" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B272" s="11" t="s">
+      <c r="B274" s="11" t="s">
         <v>684</v>
-      </c>
-      <c r="C272" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D272" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A273" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B273" s="11" t="s">
-        <v>731</v>
-      </c>
-      <c r="C273" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D273" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A274" s="6" t="s">
-        <v>686</v>
-      </c>
-      <c r="B274" s="11" t="s">
-        <v>687</v>
       </c>
       <c r="C274" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D274" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="B275" s="11" t="s">
+        <v>685</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="D275" s="6" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="B276" s="11" t="s">
+        <v>689</v>
+      </c>
+      <c r="C276" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="D276" s="6" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A275" s="6" t="s">
+    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="B277" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="C277" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D277" s="6" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="B278" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="C278" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D278" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="B279" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="C279" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D279" s="6" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="B280" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="C280" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D280" s="6" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="B281" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="C281" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D281" s="6" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B282" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="C282" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D282" s="6" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B283" s="11" t="s">
+        <v>713</v>
+      </c>
+      <c r="C283" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D283" s="6" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B284" s="11" t="s">
+        <v>714</v>
+      </c>
+      <c r="C284" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="B275" s="11" t="s">
-        <v>688</v>
-      </c>
-      <c r="C275" s="6" t="s">
-        <v>689</v>
-      </c>
-      <c r="D275" s="6" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A276" s="6" t="s">
-        <v>686</v>
-      </c>
-      <c r="B276" s="11" t="s">
-        <v>692</v>
-      </c>
-      <c r="C276" s="6" t="s">
-        <v>689</v>
-      </c>
-      <c r="D276" s="6" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A277" s="6" t="s">
-        <v>686</v>
-      </c>
-      <c r="B277" s="11" t="s">
-        <v>694</v>
-      </c>
-      <c r="C277" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D277" s="6" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A278" s="6" t="s">
-        <v>686</v>
-      </c>
-      <c r="B278" s="11" t="s">
-        <v>696</v>
-      </c>
-      <c r="C278" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D278" s="6" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A279" s="6" t="s">
-        <v>686</v>
-      </c>
-      <c r="B279" s="11" t="s">
-        <v>698</v>
-      </c>
-      <c r="C279" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D279" s="6" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A280" s="6" t="s">
-        <v>686</v>
-      </c>
-      <c r="B280" s="11" t="s">
-        <v>700</v>
-      </c>
-      <c r="C280" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D280" s="6" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A281" s="6" t="s">
-        <v>686</v>
-      </c>
-      <c r="B281" s="11" t="s">
-        <v>702</v>
-      </c>
-      <c r="C281" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D281" s="6" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A282" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B282" s="11" t="s">
-        <v>704</v>
-      </c>
-      <c r="C282" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D282" s="6" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A283" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B283" s="11" t="s">
-        <v>716</v>
-      </c>
-      <c r="C283" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D283" s="6" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A284" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B284" s="11" t="s">
+      <c r="D284" s="6" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B285" s="11" t="s">
         <v>717</v>
       </c>
-      <c r="C284" s="6" t="s">
-        <v>689</v>
-      </c>
-      <c r="D284" s="6" t="s">
+      <c r="C285" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D285" s="6" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A285" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B285" s="11" t="s">
-        <v>720</v>
-      </c>
-      <c r="C285" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D285" s="6" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C286" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D286" s="6" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="B287" s="11" t="s">
+        <v>738</v>
+      </c>
+      <c r="C287" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D287" s="6" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="B288" s="11" t="s">
+        <v>725</v>
+      </c>
+      <c r="C288" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="D288" s="6" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A287" s="6" t="s">
-        <v>726</v>
-      </c>
-      <c r="B287" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="C287" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D287" s="6" t="s">
+    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="B289" s="11" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A288" s="6" t="s">
-        <v>686</v>
-      </c>
-      <c r="B288" s="11" t="s">
-        <v>728</v>
-      </c>
-      <c r="C288" s="6" t="s">
-        <v>689</v>
-      </c>
-      <c r="D288" s="6" t="s">
+    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="B290" s="11" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A289" s="6" t="s">
-        <v>686</v>
-      </c>
-      <c r="B289" s="11" t="s">
+    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="B291" s="11" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B292" s="11" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A290" s="6" t="s">
-        <v>686</v>
-      </c>
-      <c r="B290" s="11" t="s">
+      <c r="C292" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D292" s="6" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A291" s="6" t="s">
-        <v>686</v>
-      </c>
-      <c r="B291" s="11" t="s">
+    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B293" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="C293" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D293" s="6" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="B294" s="11" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A292" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B292" s="11" t="s">
+    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B295" s="11" t="s">
+        <v>736</v>
+      </c>
+      <c r="C295" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D295" s="6" t="s">
         <v>735</v>
       </c>
-      <c r="C292" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D292" s="6" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A293" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B293" s="11" t="s">
+    </row>
+    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B296" s="11" t="s">
+        <v>739</v>
+      </c>
+      <c r="C296" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D296" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="C293" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D293" s="6" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A294" s="6" t="s">
-        <v>686</v>
-      </c>
-      <c r="B294" s="11" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A295" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B295" s="11" t="s">
-        <v>739</v>
-      </c>
-      <c r="C295" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D295" s="6" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A296" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B296" s="11" t="s">
-        <v>742</v>
-      </c>
-      <c r="C296" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D296" s="6" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B297" s="11" t="s">
+        <v>746</v>
+      </c>
+      <c r="C297" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D297" s="6" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A298" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B298" s="11" t="s">
         <v>749</v>
       </c>
-      <c r="C297" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D297" s="6" t="s">
-        <v>748</v>
+      <c r="C298" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D298" s="6" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B299" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="C299" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D299" s="6" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B300" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="C300" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D300" s="6" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B301" s="11" t="s">
+        <v>755</v>
+      </c>
+      <c r="C301" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" s="6" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B302" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="C302" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D302" s="6" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A303" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B303" s="11" t="s">
+        <v>760</v>
+      </c>
+      <c r="C303" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D303" s="6" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A304" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B304" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="C304" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D304" s="6" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A305" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B305" s="11" t="s">
+        <v>764</v>
+      </c>
+      <c r="C305" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D305" s="6" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B306" s="11" t="s">
+        <v>766</v>
+      </c>
+      <c r="C306" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D306" s="6" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A307" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B307" s="11" t="s">
+        <v>769</v>
+      </c>
+      <c r="C307" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D307" s="6" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A308" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B308" s="11" t="s">
+        <v>771</v>
+      </c>
+      <c r="C308" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D308" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A309" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B309" s="11" t="s">
+        <v>773</v>
+      </c>
+      <c r="C309" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D309" s="6" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A310" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B310" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="C310" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D310" s="6" t="s">
+        <v>778</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D297" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}"/>
+  <autoFilter ref="A1:D310" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="factorial(var)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -6932,11 +7207,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F587FCC2-7934-4352-99C9-11C970FBF59E}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -6967,13 +7242,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -6981,13 +7256,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -6995,13 +7270,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -7009,13 +7284,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -7023,13 +7298,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -7037,13 +7312,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -7051,10 +7326,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>554</v>
+        <v>412</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>625</v>
+        <v>627</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -7062,13 +7340,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -7076,13 +7354,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>624</v>
+        <v>533</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -7090,41 +7368,38 @@
         <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>415</v>
+        <v>551</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>416</v>
+        <v>622</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>631</v>
+        <v>584</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>585</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>520</v>
+        <v>586</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>630</v>
+        <v>584</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>632</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>556</v>
+        <v>587</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -7132,13 +7407,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -7146,13 +7421,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -7160,13 +7435,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -7174,13 +7449,13 @@
         <v>6</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -7188,13 +7463,13 @@
         <v>6</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -7202,13 +7477,13 @@
         <v>6</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>542</v>
+        <v>613</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -7216,13 +7491,13 @@
         <v>6</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -7230,13 +7505,13 @@
         <v>6</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>619</v>
+        <v>539</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>455</v>
+        <v>541</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -7244,13 +7519,13 @@
         <v>6</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -7258,21 +7533,27 @@
         <v>6</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>528</v>
+        <v>543</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -7280,13 +7561,13 @@
         <v>6</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>550</v>
+        <v>451</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -7294,13 +7575,13 @@
         <v>6</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -7308,374 +7589,374 @@
         <v>6</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>552</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>587</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>588</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>589</v>
+        <v>549</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>587</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>635</v>
+        <v>491</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>664</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>590</v>
+        <v>666</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>606</v>
+        <v>491</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>662</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>536</v>
+        <v>663</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>608</v>
+        <v>667</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>606</v>
+        <v>491</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>662</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>613</v>
+        <v>665</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>609</v>
+        <v>668</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>606</v>
+        <v>639</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>610</v>
+        <v>640</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>606</v>
+        <v>491</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>717</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>611</v>
+        <v>719</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>633</v>
+        <v>720</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>634</v>
+        <v>673</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>674</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>662</v>
+        <v>675</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>606</v>
+        <v>491</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>673</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>636</v>
+        <v>721</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>637</v>
+        <v>675</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>606</v>
+        <v>491</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>701</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>638</v>
+        <v>703</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>639</v>
+        <v>704</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>642</v>
+        <v>491</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>701</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>655</v>
+        <v>710</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>643</v>
+        <v>705</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>644</v>
+        <v>491</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>701</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>654</v>
+        <v>709</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>646</v>
+        <v>706</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>644</v>
+        <v>491</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>701</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>652</v>
+        <v>708</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>653</v>
+        <v>707</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>644</v>
+        <v>491</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>701</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>656</v>
+        <v>711</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>657</v>
+        <v>712</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>644</v>
+        <v>603</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>658</v>
+        <v>533</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>659</v>
+        <v>605</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>665</v>
+        <v>491</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>603</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>667</v>
+        <v>610</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>669</v>
+        <v>606</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>665</v>
+        <v>491</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>603</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>666</v>
+        <v>609</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>670</v>
+        <v>607</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>665</v>
+        <v>491</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>603</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>668</v>
+        <v>608</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>671</v>
+        <v>630</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>675</v>
+        <v>603</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>631</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>681</v>
+        <v>659</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>676</v>
+        <v>603</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>677</v>
+        <v>633</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>678</v>
+        <v>634</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>704</v>
+        <v>491</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>603</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>706</v>
+        <v>635</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>707</v>
+        <v>636</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>704</v>
+        <v>491</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>603</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>713</v>
+        <v>672</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>708</v>
+        <v>678</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>704</v>
+        <v>491</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>641</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>712</v>
+        <v>651</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>709</v>
+        <v>643</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>704</v>
+        <v>491</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>641</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>711</v>
+        <v>649</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>710</v>
+        <v>650</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>704</v>
+        <v>491</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>641</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>714</v>
+        <v>653</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>715</v>
+        <v>654</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>720</v>
+        <v>491</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>641</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>722</v>
+        <v>655</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>723</v>
+        <v>656</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>494</v>
+        <v>7</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>676</v>
+        <v>525</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>724</v>
+        <v>744</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>678</v>
+        <v>743</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -7683,31 +7964,21 @@
         <v>7</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>744</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D10" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}"/>
+  <autoFilter ref="A1:D54" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D54">
+      <sortCondition ref="B1:B54"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -7740,17 +8011,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -7763,7 +8034,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7774,20 +8045,20 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
   </sheetData>
@@ -7812,65 +8083,65 @@
   <sheetData>
     <row r="1" spans="1:2" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -7885,20 +8156,29 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E42550-ED0C-4E5E-8781-47DFC06695E2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="41.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7265625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>776</v>
       </c>
     </row>
   </sheetData>
@@ -7923,52 +8203,52 @@
   <sheetData>
     <row r="1" spans="1:2" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/Конспект_Python.xlsx
+++ b/Конспект_Python.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\my_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65861025-7D06-4055-B947-F9E80E01EABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BD8933-C6C4-4BD8-9A25-1F5953D02F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21900" yWindow="2020" windowWidth="16290" windowHeight="17920" tabRatio="728" xr2:uid="{65C49AB7-91AD-4F1F-B814-EFF7DAC5AF74}"/>
+    <workbookView xWindow="23550" yWindow="1940" windowWidth="17140" windowHeight="17920" tabRatio="728" activeTab="6" xr2:uid="{65C49AB7-91AD-4F1F-B814-EFF7DAC5AF74}"/>
   </bookViews>
   <sheets>
     <sheet name="Операторы" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Атрибуты!$A$1:$D$54</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Генераторы списков'!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Операторы!$A$1:$D$310</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Операторы!$A$1:$D$316</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Функции!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="796">
   <si>
     <t>Функция</t>
   </si>
@@ -274,9 +274,6 @@
     <t>round(var, val)</t>
   </si>
   <si>
-    <t>var[int:int:int]</t>
-  </si>
-  <si>
     <t>\n</t>
   </si>
   <si>
@@ -295,13 +292,7 @@
     <t>Проверка на равенство</t>
   </si>
   <si>
-    <t>var[int]</t>
-  </si>
-  <si>
     <t>Обращение к элементу по индексу [Индекс элемента]</t>
-  </si>
-  <si>
-    <t>var[int][int:int:int]</t>
   </si>
   <si>
     <t>Двухуровневое обращение, Индекс, потом Срез по этому индексу</t>
@@ -2421,6 +2412,69 @@
   </si>
   <si>
     <t>factorial(val)</t>
+  </si>
+  <si>
+    <t>list[int][int:int:int]</t>
+  </si>
+  <si>
+    <t>list[int]</t>
+  </si>
+  <si>
+    <t>list[int:int:int]</t>
+  </si>
+  <si>
+    <t>f'{var:&lt;45}'</t>
+  </si>
+  <si>
+    <t>выравнивание каждого элемента по левому краю с фиксированной шириной строки 45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">movies_table_sorted = sorted(movies_table, key=lambda row: row[5]) </t>
+  </si>
+  <si>
+    <t>sorted(list, key=)</t>
+  </si>
+  <si>
+    <t>Сортирует по конкретному ключу(элементу)</t>
+  </si>
+  <si>
+    <t>sorted(list, key=lambda name: name[index])</t>
+  </si>
+  <si>
+    <t>Сортирует по конкретному ключу(элементу) во вложенном списке</t>
+  </si>
+  <si>
+    <t>Лямбда-функции — функции, которые создаются в одну строку. После ключевого слова lambda указывают две части лямбда-функции:
+перед двоеточием: аргумент, который получит функция;
+после двоеточия: инструкция, которую функция выполнит.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lambda &lt;аргумент&gt;: &lt;инструкция&gt; </t>
+  </si>
+  <si>
+    <t>str.islower()</t>
+  </si>
+  <si>
+    <t>Возвращает True, если в строке нет прописных букв</t>
+  </si>
+  <si>
+    <t>Возвращает True, если строка состоит только из числовых знаков;</t>
+  </si>
+  <si>
+    <t>str.isalpha()</t>
+  </si>
+  <si>
+    <t>возвращает True, если в строке только буквы, без пробелов и знаков препинания</t>
+  </si>
+  <si>
+    <t>while total_weight &lt; capacity:
+    person_weight = randint(30, 120)
+    total_weight += person_weight</t>
+  </si>
+  <si>
+    <t># пока суммарный вес меньше грузоподъёмности лифта
+# генерируется случайное целое число от 30 до 120
+# сгенерированный вес добавляется к суммарному весу</t>
   </si>
 </sst>
 </file>
@@ -2516,7 +2570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2544,6 +2598,9 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2859,18 +2916,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}">
-  <sheetPr codeName="Лист1" filterMode="1"/>
-  <dimension ref="A1:D310"/>
+  <sheetPr codeName="Лист1"/>
+  <dimension ref="A1:D316"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B311" sqref="B311"/>
+      <selection pane="bottomLeft" activeCell="D208" sqref="D208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.36328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.54296875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" style="11" customWidth="1"/>
     <col min="3" max="3" width="10.81640625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70.453125" style="6" customWidth="1"/>
     <col min="5" max="16384" width="8.7265625" style="10"/>
@@ -2890,147 +2947,147 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="11" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
@@ -3041,10 +3098,10 @@
         <v>2</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>35</v>
       </c>
@@ -3058,133 +3115,133 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="C17" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D18" s="6" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="B19" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>15</v>
       </c>
@@ -3200,1769 +3257,1769 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D29" s="6" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="C30" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>491</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>494</v>
-      </c>
       <c r="C31" s="6" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="B34" s="11" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="B42" s="11" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="11" t="s">
         <v>271</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>565</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>566</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>274</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B74" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="C74" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>567</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D82" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" s="11" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B89" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B91" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B92" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B94" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B99" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B100" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B101" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B102" s="11" t="s">
-        <v>311</v>
-      </c>
       <c r="C102" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B105" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" s="11" t="s">
         <v>327</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B106" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B107" s="11" t="s">
-        <v>330</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D107" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B139" s="11" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B109" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B110" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B111" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B112" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B113" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B114" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B115" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B116" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B118" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B119" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B121" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B122" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B123" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B124" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B125" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B126" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B127" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B128" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D128" s="6" t="s">
+      <c r="C139" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B143" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D144" s="6" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B129" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D129" s="6" t="s">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B147" s="11" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B130" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B131" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B132" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B133" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B134" s="11" t="s">
-        <v>580</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B135" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D135" s="6" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B136" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D136" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B137" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D137" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B138" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D138" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B139" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D139" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B140" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D140" s="6" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B141" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D141" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B142" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D142" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B143" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D143" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B144" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="C144" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D144" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B145" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="C145" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D145" s="6" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B146" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="C146" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D146" s="6" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B147" s="11" t="s">
-        <v>510</v>
-      </c>
       <c r="C147" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D147" s="6" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B148" s="11" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B148" s="11" t="s">
-        <v>514</v>
-      </c>
       <c r="C148" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
         <v>6</v>
       </c>
@@ -4976,21 +5033,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>6</v>
       </c>
@@ -5004,483 +5061,483 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B153" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B154" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B155" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D156" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="C153" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D153" s="6" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B154" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D154" s="6" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B155" s="11" t="s">
-        <v>562</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D155" s="6" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B156" s="11" t="s">
-        <v>523</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D156" s="6" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D157" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D160" s="6" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B158" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="C158" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D158" s="6" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B159" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="C159" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D159" s="6" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B160" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D160" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C166" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B167" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B168" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B171" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B172" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B173" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B174" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B175" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B176" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B177" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B178" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B179" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B180" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B181" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B182" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B183" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B184" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B185" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D185" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D166" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B167" s="11" t="s">
-        <v>759</v>
-      </c>
-      <c r="C167" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D167" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B168" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D168" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B169" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D169" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B170" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D170" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B171" s="11" t="s">
-        <v>556</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D171" s="6" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B172" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D172" s="6" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B173" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D173" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B174" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D174" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B175" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="C175" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D175" s="6" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B176" s="11" t="s">
-        <v>590</v>
-      </c>
-      <c r="C176" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D176" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B177" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="C177" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D177" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B178" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D178" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B179" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C179" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D179" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B180" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C180" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D180" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B181" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C181" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D181" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B182" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C182" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D182" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B183" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C183" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D183" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B184" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C184" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D184" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B185" s="11" t="s">
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B186" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C186" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C185" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D185" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B186" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C186" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="D186" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
         <v>7</v>
       </c>
@@ -5494,21 +5551,21 @@
         <v>57</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
         <v>7</v>
       </c>
@@ -5522,7 +5579,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
         <v>7</v>
       </c>
@@ -5536,63 +5593,63 @@
         <v>29</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B191" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B192" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B193" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D193" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C191" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D191" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B192" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D192" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B193" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="C193" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D193" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
         <v>7</v>
       </c>
@@ -5603,80 +5660,80 @@
         <v>33</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D196" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B197" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B198" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D198" s="6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B197" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C197" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D197" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B198" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="C198" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D198" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
         <v>7</v>
       </c>
@@ -5690,21 +5747,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
         <v>7</v>
       </c>
@@ -5718,49 +5775,49 @@
         <v>64</v>
       </c>
     </row>
-    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C204" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C205" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
         <v>7</v>
       </c>
@@ -5774,21 +5831,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
         <v>7</v>
       </c>
@@ -5802,7 +5859,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
         <v>7</v>
       </c>
@@ -5816,7 +5873,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
         <v>7</v>
       </c>
@@ -5827,10 +5884,10 @@
         <v>33</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="6" t="s">
         <v>7</v>
       </c>
@@ -5844,7 +5901,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="6" t="s">
         <v>7</v>
       </c>
@@ -5858,7 +5915,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="6" t="s">
         <v>7</v>
       </c>
@@ -5872,7 +5929,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="6" t="s">
         <v>7</v>
       </c>
@@ -5886,7 +5943,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
         <v>7</v>
       </c>
@@ -5900,63 +5957,63 @@
         <v>51</v>
       </c>
     </row>
-    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B217" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D217" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C217" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D217" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C218" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B219" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D219" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C219" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D219" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C220" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
         <v>7</v>
       </c>
@@ -5967,10 +6024,10 @@
         <v>33</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
         <v>7</v>
       </c>
@@ -5984,7 +6041,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
         <v>7</v>
       </c>
@@ -5998,7 +6055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
         <v>7</v>
       </c>
@@ -6009,108 +6066,108 @@
         <v>33</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B225" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D225" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B226" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D226" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B227" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D227" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B228" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D228" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B229" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D229" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B230" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B231" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C225" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D225" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B226" s="11" t="s">
+      <c r="C231" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D231" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C226" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D226" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B227" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C227" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D227" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B228" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C228" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D228" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B229" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C229" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D229" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B230" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C230" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D230" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B231" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C231" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D231" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="6" t="s">
         <v>7</v>
       </c>
@@ -6121,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="6" t="s">
         <v>7</v>
       </c>
@@ -6138,68 +6195,68 @@
         <v>27</v>
       </c>
     </row>
-    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B234" s="11" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C234" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B235" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D235" s="6" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B236" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D236" s="6" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B237" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="C235" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D235" s="6" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B236" s="11" t="s">
-        <v>600</v>
-      </c>
-      <c r="C236" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D236" s="6" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B237" s="11" t="s">
+      <c r="C237" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D237" s="6" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B238" s="11" t="s">
         <v>595</v>
-      </c>
-      <c r="C237" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D237" s="6" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B238" s="11" t="s">
-        <v>598</v>
       </c>
       <c r="C238" s="6" t="s">
         <v>19</v>
@@ -6208,12 +6265,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B239" s="11" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C239" s="6" t="s">
         <v>19</v>
@@ -6222,40 +6279,40 @@
         <v>32</v>
       </c>
     </row>
-    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C240" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B241" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D241" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B242" s="11" t="s">
         <v>594</v>
-      </c>
-      <c r="C241" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D241" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B242" s="11" t="s">
-        <v>597</v>
       </c>
       <c r="C242" s="6" t="s">
         <v>19</v>
@@ -6264,7 +6321,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="6" t="s">
         <v>7</v>
       </c>
@@ -6278,7 +6335,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
         <v>7</v>
       </c>
@@ -6289,10 +6346,10 @@
         <v>33</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="6" t="s">
         <v>7</v>
       </c>
@@ -6306,26 +6363,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B246" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C246" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C247" s="6" t="s">
         <v>0</v>
@@ -6334,12 +6391,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C248" s="6" t="s">
         <v>19</v>
@@ -6348,12 +6405,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>73</v>
+        <v>779</v>
       </c>
       <c r="C249" s="6" t="s">
         <v>19</v>
@@ -6362,63 +6419,63 @@
         <v>70</v>
       </c>
     </row>
-    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B250" s="11" t="s">
+        <v>778</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D250" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B251" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D251" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C250" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D250" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B251" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C251" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D251" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C252" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B253" s="11" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C253" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="6" t="s">
         <v>7</v>
       </c>
@@ -6429,777 +6486,855 @@
         <v>0</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B255" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C255" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B256" s="11" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C256" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C257" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B258" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C258" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D258" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="B258" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="C258" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D258" s="6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C259" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B260" s="11" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C260" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B261" s="11" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C261" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D261" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B262" s="11" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="B262" s="11" t="s">
+      <c r="C262" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D262" s="6" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B263" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="C263" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D263" s="6" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B264" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="C264" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D264" s="6" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B265" s="11" t="s">
         <v>641</v>
       </c>
-      <c r="C262" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D262" s="6" t="s">
+      <c r="C265" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D265" s="6" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="B263" s="11" t="s">
-        <v>648</v>
-      </c>
-      <c r="C263" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D263" s="6" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="B264" s="11" t="s">
-        <v>648</v>
-      </c>
-      <c r="C264" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D264" s="6" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="B265" s="11" t="s">
-        <v>644</v>
-      </c>
-      <c r="C265" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D265" s="6" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B266" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="C266" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D266" s="6" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B267" s="11" t="s">
         <v>657</v>
       </c>
-      <c r="C266" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D266" s="6" t="s">
+      <c r="C267" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D267" s="6" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="B267" s="11" t="s">
-        <v>660</v>
-      </c>
-      <c r="C267" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D267" s="6" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B268" s="11" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C268" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B269" s="11" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C269" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B270" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="C270" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D270" s="6" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B271" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="C271" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D271" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="C270" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D270" s="6" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="B271" s="11" t="s">
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B272" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="C272" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D272" s="6" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B273" s="11" t="s">
+        <v>725</v>
+      </c>
+      <c r="C273" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D273" s="6" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="C271" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D271" s="6" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="B272" s="11" t="s">
+      <c r="B274" s="11" t="s">
         <v>681</v>
-      </c>
-      <c r="C272" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D272" s="6" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="B273" s="11" t="s">
-        <v>728</v>
-      </c>
-      <c r="C273" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D273" s="6" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="B274" s="11" t="s">
-        <v>684</v>
       </c>
       <c r="C274" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D274" s="6" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="B275" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="D275" s="6" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="B276" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="C276" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="D276" s="6" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="B275" s="11" t="s">
-        <v>685</v>
-      </c>
-      <c r="C275" s="6" t="s">
-        <v>686</v>
-      </c>
-      <c r="D275" s="6" t="s">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="B277" s="11" t="s">
         <v>688</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="B276" s="11" t="s">
-        <v>689</v>
-      </c>
-      <c r="C276" s="6" t="s">
-        <v>686</v>
-      </c>
-      <c r="D276" s="6" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="B277" s="11" t="s">
-        <v>691</v>
       </c>
       <c r="C277" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D277" s="6" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="6" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B278" s="11" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C278" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D278" s="6" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="6" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B279" s="11" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C279" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D279" s="6" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="6" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B280" s="11" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C280" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D280" s="6" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="6" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B281" s="11" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C281" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D281" s="6" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B282" s="11" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C282" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D282" s="6" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B283" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="C283" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D283" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="C283" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D283" s="6" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B284" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="C284" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="D284" s="6" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B285" s="11" t="s">
         <v>714</v>
       </c>
-      <c r="C284" s="6" t="s">
-        <v>686</v>
-      </c>
-      <c r="D284" s="6" t="s">
+      <c r="C285" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D285" s="6" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="B285" s="11" t="s">
-        <v>717</v>
-      </c>
-      <c r="C285" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D285" s="6" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C286" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D286" s="6" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="B287" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="C287" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D287" s="6" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="B288" s="11" t="s">
+        <v>722</v>
+      </c>
+      <c r="C288" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="D288" s="6" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A287" s="6" t="s">
-        <v>723</v>
-      </c>
-      <c r="B287" s="11" t="s">
-        <v>738</v>
-      </c>
-      <c r="C287" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D287" s="6" t="s">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="B289" s="11" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="B288" s="11" t="s">
-        <v>725</v>
-      </c>
-      <c r="C288" s="6" t="s">
-        <v>686</v>
-      </c>
-      <c r="D288" s="6" t="s">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="B290" s="11" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="B289" s="11" t="s">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="B291" s="11" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B292" s="11" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="B290" s="11" t="s">
+      <c r="C292" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D292" s="6" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="B291" s="11" t="s">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B293" s="11" t="s">
+        <v>734</v>
+      </c>
+      <c r="C293" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D293" s="6" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="B294" s="11" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A292" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="B292" s="11" t="s">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B295" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="C295" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D295" s="6" t="s">
         <v>732</v>
       </c>
-      <c r="C292" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D292" s="6" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="B293" s="11" t="s">
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B296" s="11" t="s">
+        <v>736</v>
+      </c>
+      <c r="C296" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D296" s="6" t="s">
         <v>737</v>
       </c>
-      <c r="C293" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D293" s="6" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A294" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="B294" s="11" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="B295" s="11" t="s">
-        <v>736</v>
-      </c>
-      <c r="C295" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D295" s="6" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A296" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B296" s="11" t="s">
-        <v>739</v>
-      </c>
-      <c r="C296" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D296" s="6" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B297" s="11" t="s">
+        <v>743</v>
+      </c>
+      <c r="C297" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D297" s="6" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B298" s="11" t="s">
         <v>746</v>
       </c>
-      <c r="C297" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D297" s="6" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A298" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B298" s="11" t="s">
+      <c r="C298" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D298" s="6" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B299" s="11" t="s">
         <v>749</v>
       </c>
-      <c r="C298" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D298" s="6" t="s">
+      <c r="C299" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D299" s="6" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B300" s="11" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A299" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B299" s="11" t="s">
+      <c r="C300" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D300" s="6" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B301" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="C299" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D299" s="6" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A300" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B300" s="11" t="s">
+      <c r="C301" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" s="6" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B302" s="11" t="s">
         <v>753</v>
       </c>
-      <c r="C300" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D300" s="6" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A301" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B301" s="11" t="s">
+      <c r="C302" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D302" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="C301" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D301" s="6" t="s">
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B303" s="11" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B302" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="C302" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D302" s="6" t="s">
+      <c r="C303" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D303" s="6" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A303" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B303" s="11" t="s">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B304" s="11" t="s">
+        <v>759</v>
+      </c>
+      <c r="C304" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D304" s="6" t="s">
         <v>760</v>
       </c>
-      <c r="C303" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D303" s="6" t="s">
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B305" s="11" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A304" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B304" s="11" t="s">
+      <c r="C305" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D305" s="6" t="s">
         <v>762</v>
       </c>
-      <c r="C304" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D304" s="6" t="s">
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B306" s="11" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A305" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B305" s="11" t="s">
+      <c r="C306" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D306" s="6" t="s">
         <v>764</v>
       </c>
-      <c r="C305" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D305" s="6" t="s">
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B307" s="11" t="s">
+        <v>766</v>
+      </c>
+      <c r="C307" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D307" s="6" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B306" s="11" t="s">
-        <v>766</v>
-      </c>
-      <c r="C306" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D306" s="6" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A307" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B307" s="11" t="s">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B308" s="11" t="s">
+        <v>768</v>
+      </c>
+      <c r="C308" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D308" s="6" t="s">
         <v>769</v>
       </c>
-      <c r="C307" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D307" s="6" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A308" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B308" s="11" t="s">
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B309" s="11" t="s">
+        <v>770</v>
+      </c>
+      <c r="C309" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D309" s="6" t="s">
         <v>771</v>
       </c>
-      <c r="C308" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D308" s="6" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A309" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B309" s="11" t="s">
-        <v>773</v>
-      </c>
-      <c r="C309" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D309" s="6" t="s">
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B310" s="11" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A310" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B310" s="11" t="s">
-        <v>777</v>
-      </c>
       <c r="C310" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D310" s="6" t="s">
-        <v>778</v>
+        <v>775</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B311" s="11" t="s">
+        <v>780</v>
+      </c>
+      <c r="C311" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D311" s="6" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B312" s="11" t="s">
+        <v>783</v>
+      </c>
+      <c r="C312" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D312" s="6" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B313" s="11" t="s">
+        <v>785</v>
+      </c>
+      <c r="C313" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D313" s="6" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B314" s="11" t="s">
+        <v>789</v>
+      </c>
+      <c r="C314" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D314" s="6" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B315" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="C315" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D315" s="6" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B316" s="11" t="s">
+        <v>792</v>
+      </c>
+      <c r="C316" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D316" s="6" t="s">
+        <v>793</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D310" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="factorial(var)"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D316" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -7242,13 +7377,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -7256,13 +7391,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -7270,13 +7405,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -7284,13 +7419,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -7298,13 +7433,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -7312,13 +7447,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -7326,13 +7461,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>412</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>627</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -7340,13 +7475,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -7354,13 +7489,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -7368,10 +7503,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -7379,13 +7514,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -7393,13 +7528,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>584</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>632</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -7407,13 +7542,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -7421,13 +7556,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -7435,13 +7570,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -7449,13 +7584,13 @@
         <v>6</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -7463,13 +7598,13 @@
         <v>6</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -7477,13 +7612,13 @@
         <v>6</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -7491,13 +7626,13 @@
         <v>6</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -7505,13 +7640,13 @@
         <v>6</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -7519,13 +7654,13 @@
         <v>6</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -7533,13 +7668,13 @@
         <v>6</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -7547,13 +7682,13 @@
         <v>6</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -7561,13 +7696,13 @@
         <v>6</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -7575,13 +7710,13 @@
         <v>6</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -7589,13 +7724,13 @@
         <v>6</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -7603,346 +7738,346 @@
         <v>6</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B31" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>662</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="D31" s="6" t="s">
         <v>665</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B33" s="11" t="s">
+        <v>714</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>717</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>719</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B36" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>701</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>703</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>603</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>610</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -7950,13 +8085,13 @@
         <v>7</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -7964,13 +8099,13 @@
         <v>7</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
   </sheetData>
@@ -8011,17 +8146,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8190,10 @@
     </row>
     <row r="3" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
   </sheetData>
@@ -8069,10 +8204,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809C98DC-D97E-4E08-93F8-C6E62F565ADA}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8083,65 +8218,80 @@
   <sheetData>
     <row r="1" spans="1:2" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" s="7" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B15" s="7" t="s">
+        <v>788</v>
       </c>
     </row>
   </sheetData>
@@ -8156,29 +8306,37 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E42550-ED0C-4E5E-8781-47DFC06695E2}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.7265625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="40.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.90625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>776</v>
+        <v>773</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>795</v>
       </c>
     </row>
   </sheetData>
@@ -8203,52 +8361,52 @@
   <sheetData>
     <row r="1" spans="1:2" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/Конспект_Python.xlsx
+++ b/Конспект_Python.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\my_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BD8933-C6C4-4BD8-9A25-1F5953D02F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E26169-D2F1-4C23-9098-A8974F9137AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23550" yWindow="1940" windowWidth="17140" windowHeight="17920" tabRatio="728" activeTab="6" xr2:uid="{65C49AB7-91AD-4F1F-B814-EFF7DAC5AF74}"/>
+    <workbookView xWindow="15150" yWindow="0" windowWidth="17430" windowHeight="11100" tabRatio="728" xr2:uid="{65C49AB7-91AD-4F1F-B814-EFF7DAC5AF74}"/>
   </bookViews>
   <sheets>
     <sheet name="Операторы" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="806">
   <si>
     <t>Функция</t>
   </si>
@@ -2475,6 +2475,47 @@
     <t># пока суммарный вес меньше грузоподъёмности лифта
 # генерируется случайное целое число от 30 до 120
 # сгенерированный вес добавляется к суммарному весу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def calculate_total_price(count, price): 
+    total = count * price 
+    if total &gt; 1000: 
+        total -= total * 0.05 
+    return total
+items_list = [
+    [3, 100.0],
+    [2, 501.0],
+    [10, 40]
+]
+for item in items_list:
+    print(calculate_total_price(item[0], item[1])) </t>
+  </si>
+  <si>
+    <t>dict.get(key)</t>
+  </si>
+  <si>
+    <t>Метод get() принимает ключ в качестве аргумента. Если ключ есть, вернет значение. В противном случае он вернёт — None</t>
+  </si>
+  <si>
+    <t>dict.get(key, val)</t>
+  </si>
+  <si>
+    <t>Метод get() принимает ключ в качестве аргумента. Если ключ есть, вернет значение. В противном случае он вернёт — Val</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>import dumps</t>
+  </si>
+  <si>
+    <t>Позволяет красиво выводить многомерные объекты</t>
+  </si>
+  <si>
+    <t>print(dumps(list, indent=4, ensure_ascii=False))</t>
+  </si>
+  <si>
+    <t>print(dumps(track, indent=4))</t>
   </si>
 </sst>
 </file>
@@ -2917,23 +2958,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D316"/>
+  <dimension ref="A1:D321"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D208" sqref="D208"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A306" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B322" sqref="B322"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.54296875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.453125" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="10"/>
+    <col min="1" max="1" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.42578125" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -2947,7 +2988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>131</v>
       </c>
@@ -2961,7 +3002,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>131</v>
       </c>
@@ -2975,7 +3016,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>131</v>
       </c>
@@ -2989,7 +3030,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>131</v>
       </c>
@@ -3003,7 +3044,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
@@ -3017,7 +3058,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
@@ -3031,7 +3072,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>35</v>
       </c>
@@ -3045,7 +3086,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
@@ -3059,7 +3100,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>35</v>
       </c>
@@ -3073,7 +3114,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>35</v>
       </c>
@@ -3087,7 +3128,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
@@ -3101,7 +3142,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>35</v>
       </c>
@@ -3115,7 +3156,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>119</v>
       </c>
@@ -3129,7 +3170,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>119</v>
       </c>
@@ -3143,7 +3184,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>133</v>
       </c>
@@ -3157,7 +3198,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>133</v>
       </c>
@@ -3171,7 +3212,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>133</v>
       </c>
@@ -3185,7 +3226,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>142</v>
       </c>
@@ -3199,7 +3240,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>142</v>
       </c>
@@ -3213,7 +3254,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>142</v>
       </c>
@@ -3227,7 +3268,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>142</v>
       </c>
@@ -3241,7 +3282,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>15</v>
       </c>
@@ -3255,7 +3296,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>123</v>
       </c>
@@ -3269,7 +3310,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>123</v>
       </c>
@@ -3283,7 +3324,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>123</v>
       </c>
@@ -3297,7 +3338,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>123</v>
       </c>
@@ -3311,7 +3352,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>488</v>
       </c>
@@ -3325,7 +3366,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>488</v>
       </c>
@@ -3339,7 +3380,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>488</v>
       </c>
@@ -3353,7 +3394,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>488</v>
       </c>
@@ -3367,7 +3408,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>377</v>
       </c>
@@ -3381,7 +3422,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>377</v>
       </c>
@@ -3395,7 +3436,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>377</v>
       </c>
@@ -3409,7 +3450,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>377</v>
       </c>
@@ -3423,7 +3464,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>377</v>
       </c>
@@ -3437,7 +3478,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>377</v>
       </c>
@@ -3451,7 +3492,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>253</v>
       </c>
@@ -3465,7 +3506,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>253</v>
       </c>
@@ -3479,7 +3520,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>253</v>
       </c>
@@ -3493,7 +3534,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>253</v>
       </c>
@@ -3507,7 +3548,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>253</v>
       </c>
@@ -3521,7 +3562,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>253</v>
       </c>
@@ -3535,7 +3576,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>253</v>
       </c>
@@ -3549,7 +3590,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>253</v>
       </c>
@@ -3563,7 +3604,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>6</v>
       </c>
@@ -3577,7 +3618,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>6</v>
       </c>
@@ -3591,7 +3632,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>6</v>
       </c>
@@ -3605,7 +3646,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>6</v>
       </c>
@@ -3619,7 +3660,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>6</v>
       </c>
@@ -3633,7 +3674,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>6</v>
       </c>
@@ -3647,7 +3688,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>6</v>
       </c>
@@ -3661,7 +3702,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>6</v>
       </c>
@@ -3675,7 +3716,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>6</v>
       </c>
@@ -3689,7 +3730,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>6</v>
       </c>
@@ -3703,7 +3744,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>6</v>
       </c>
@@ -3717,7 +3758,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>6</v>
       </c>
@@ -3731,7 +3772,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>6</v>
       </c>
@@ -3745,7 +3786,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>6</v>
       </c>
@@ -3759,7 +3800,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>6</v>
       </c>
@@ -3773,7 +3814,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>6</v>
       </c>
@@ -3787,7 +3828,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>6</v>
       </c>
@@ -3801,7 +3842,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>6</v>
       </c>
@@ -3815,7 +3856,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>6</v>
       </c>
@@ -3829,7 +3870,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>6</v>
       </c>
@@ -3843,7 +3884,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>6</v>
       </c>
@@ -3857,7 +3898,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>6</v>
       </c>
@@ -3871,7 +3912,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>6</v>
       </c>
@@ -3885,7 +3926,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>6</v>
       </c>
@@ -3899,7 +3940,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>6</v>
       </c>
@@ -3913,7 +3954,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>6</v>
       </c>
@@ -3927,7 +3968,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>6</v>
       </c>
@@ -3941,7 +3982,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>6</v>
       </c>
@@ -3955,7 +3996,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>6</v>
       </c>
@@ -3969,7 +4010,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>6</v>
       </c>
@@ -3983,7 +4024,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>6</v>
       </c>
@@ -3997,7 +4038,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>6</v>
       </c>
@@ -4011,7 +4052,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>6</v>
       </c>
@@ -4025,7 +4066,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>6</v>
       </c>
@@ -4039,7 +4080,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>6</v>
       </c>
@@ -4053,7 +4094,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>6</v>
       </c>
@@ -4067,7 +4108,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>6</v>
       </c>
@@ -4081,7 +4122,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>6</v>
       </c>
@@ -4095,7 +4136,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>6</v>
       </c>
@@ -4109,7 +4150,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>6</v>
       </c>
@@ -4123,7 +4164,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>6</v>
       </c>
@@ -4137,7 +4178,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>6</v>
       </c>
@@ -4151,7 +4192,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>6</v>
       </c>
@@ -4165,7 +4206,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>6</v>
       </c>
@@ -4179,7 +4220,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>6</v>
       </c>
@@ -4193,7 +4234,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>6</v>
       </c>
@@ -4207,7 +4248,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
         <v>6</v>
       </c>
@@ -4221,7 +4262,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>6</v>
       </c>
@@ -4235,7 +4276,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
         <v>6</v>
       </c>
@@ -4249,7 +4290,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>6</v>
       </c>
@@ -4263,7 +4304,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
         <v>6</v>
       </c>
@@ -4277,7 +4318,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
         <v>6</v>
       </c>
@@ -4291,7 +4332,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>6</v>
       </c>
@@ -4305,7 +4346,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>6</v>
       </c>
@@ -4319,7 +4360,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
         <v>6</v>
       </c>
@@ -4333,7 +4374,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>6</v>
       </c>
@@ -4347,7 +4388,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>6</v>
       </c>
@@ -4361,7 +4402,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>6</v>
       </c>
@@ -4375,7 +4416,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>6</v>
       </c>
@@ -4389,7 +4430,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>6</v>
       </c>
@@ -4403,7 +4444,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>6</v>
       </c>
@@ -4417,7 +4458,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
         <v>6</v>
       </c>
@@ -4431,7 +4472,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>6</v>
       </c>
@@ -4445,7 +4486,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>6</v>
       </c>
@@ -4459,7 +4500,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
         <v>6</v>
       </c>
@@ -4473,7 +4514,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
         <v>6</v>
       </c>
@@ -4487,7 +4528,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>6</v>
       </c>
@@ -4501,7 +4542,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
         <v>6</v>
       </c>
@@ -4515,7 +4556,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
         <v>6</v>
       </c>
@@ -4529,7 +4570,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
         <v>6</v>
       </c>
@@ -4543,7 +4584,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
         <v>6</v>
       </c>
@@ -4557,7 +4598,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
         <v>6</v>
       </c>
@@ -4571,7 +4612,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
         <v>6</v>
       </c>
@@ -4585,7 +4626,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
         <v>6</v>
       </c>
@@ -4599,7 +4640,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
         <v>6</v>
       </c>
@@ -4613,7 +4654,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
         <v>6</v>
       </c>
@@ -4627,7 +4668,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
         <v>6</v>
       </c>
@@ -4641,7 +4682,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>6</v>
       </c>
@@ -4655,7 +4696,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
         <v>6</v>
       </c>
@@ -4669,7 +4710,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
         <v>6</v>
       </c>
@@ -4683,7 +4724,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
         <v>6</v>
       </c>
@@ -4697,7 +4738,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
         <v>6</v>
       </c>
@@ -4711,7 +4752,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
         <v>6</v>
       </c>
@@ -4725,7 +4766,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
         <v>6</v>
       </c>
@@ -4739,7 +4780,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
         <v>6</v>
       </c>
@@ -4753,7 +4794,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
         <v>6</v>
       </c>
@@ -4767,7 +4808,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
         <v>6</v>
       </c>
@@ -4781,7 +4822,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
         <v>6</v>
       </c>
@@ -4795,7 +4836,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
         <v>6</v>
       </c>
@@ -4809,7 +4850,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
         <v>6</v>
       </c>
@@ -4823,7 +4864,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
         <v>6</v>
       </c>
@@ -4837,7 +4878,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
         <v>6</v>
       </c>
@@ -4851,7 +4892,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
         <v>6</v>
       </c>
@@ -4865,7 +4906,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
         <v>6</v>
       </c>
@@ -4879,7 +4920,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
         <v>6</v>
       </c>
@@ -4893,7 +4934,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
         <v>6</v>
       </c>
@@ -4907,7 +4948,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
         <v>6</v>
       </c>
@@ -4921,7 +4962,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
         <v>6</v>
       </c>
@@ -4935,7 +4976,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
         <v>6</v>
       </c>
@@ -4949,7 +4990,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
         <v>6</v>
       </c>
@@ -4963,7 +5004,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
         <v>6</v>
       </c>
@@ -4977,7 +5018,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
         <v>6</v>
       </c>
@@ -4991,7 +5032,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
         <v>6</v>
       </c>
@@ -5005,7 +5046,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
         <v>6</v>
       </c>
@@ -5019,7 +5060,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
         <v>6</v>
       </c>
@@ -5033,7 +5074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
         <v>6</v>
       </c>
@@ -5047,7 +5088,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
         <v>6</v>
       </c>
@@ -5061,7 +5102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
         <v>6</v>
       </c>
@@ -5075,7 +5116,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
         <v>6</v>
       </c>
@@ -5089,7 +5130,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
         <v>6</v>
       </c>
@@ -5103,7 +5144,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
         <v>6</v>
       </c>
@@ -5117,7 +5158,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
         <v>6</v>
       </c>
@@ -5131,7 +5172,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
         <v>6</v>
       </c>
@@ -5145,7 +5186,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
         <v>6</v>
       </c>
@@ -5159,7 +5200,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
         <v>6</v>
       </c>
@@ -5173,7 +5214,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="s">
         <v>6</v>
       </c>
@@ -5187,7 +5228,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
         <v>6</v>
       </c>
@@ -5201,7 +5242,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
         <v>6</v>
       </c>
@@ -5215,7 +5256,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="6" t="s">
         <v>6</v>
       </c>
@@ -5229,7 +5270,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
         <v>6</v>
       </c>
@@ -5243,7 +5284,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
         <v>7</v>
       </c>
@@ -5257,7 +5298,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
         <v>7</v>
       </c>
@@ -5271,7 +5312,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
         <v>7</v>
       </c>
@@ -5285,7 +5326,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="6" t="s">
         <v>7</v>
       </c>
@@ -5299,7 +5340,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
         <v>7</v>
       </c>
@@ -5313,7 +5354,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
         <v>7</v>
       </c>
@@ -5327,7 +5368,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
         <v>7</v>
       </c>
@@ -5341,7 +5382,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
         <v>7</v>
       </c>
@@ -5355,7 +5396,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="6" t="s">
         <v>7</v>
       </c>
@@ -5369,7 +5410,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
         <v>7</v>
       </c>
@@ -5383,7 +5424,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="6" t="s">
         <v>7</v>
       </c>
@@ -5397,7 +5438,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="6" t="s">
         <v>7</v>
       </c>
@@ -5411,7 +5452,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="6" t="s">
         <v>7</v>
       </c>
@@ -5425,7 +5466,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="6" t="s">
         <v>7</v>
       </c>
@@ -5439,7 +5480,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="6" t="s">
         <v>7</v>
       </c>
@@ -5453,7 +5494,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="6" t="s">
         <v>7</v>
       </c>
@@ -5467,7 +5508,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="s">
         <v>7</v>
       </c>
@@ -5481,7 +5522,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="6" t="s">
         <v>7</v>
       </c>
@@ -5495,7 +5536,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="6" t="s">
         <v>7</v>
       </c>
@@ -5509,7 +5550,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="6" t="s">
         <v>7</v>
       </c>
@@ -5523,7 +5564,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="6" t="s">
         <v>7</v>
       </c>
@@ -5537,7 +5578,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="6" t="s">
         <v>7</v>
       </c>
@@ -5551,7 +5592,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="6" t="s">
         <v>7</v>
       </c>
@@ -5565,7 +5606,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
         <v>7</v>
       </c>
@@ -5579,7 +5620,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="6" t="s">
         <v>7</v>
       </c>
@@ -5593,7 +5634,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="6" t="s">
         <v>7</v>
       </c>
@@ -5607,7 +5648,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="6" t="s">
         <v>7</v>
       </c>
@@ -5621,7 +5662,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="6" t="s">
         <v>7</v>
       </c>
@@ -5635,7 +5676,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="6" t="s">
         <v>7</v>
       </c>
@@ -5649,7 +5690,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="6" t="s">
         <v>7</v>
       </c>
@@ -5663,7 +5704,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="6" t="s">
         <v>7</v>
       </c>
@@ -5677,7 +5718,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="6" t="s">
         <v>7</v>
       </c>
@@ -5691,7 +5732,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="6" t="s">
         <v>7</v>
       </c>
@@ -5705,7 +5746,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
         <v>7</v>
       </c>
@@ -5719,7 +5760,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="6" t="s">
         <v>7</v>
       </c>
@@ -5733,7 +5774,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
         <v>7</v>
       </c>
@@ -5747,7 +5788,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
         <v>7</v>
       </c>
@@ -5761,7 +5802,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="6" t="s">
         <v>7</v>
       </c>
@@ -5775,7 +5816,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
         <v>7</v>
       </c>
@@ -5789,7 +5830,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
         <v>7</v>
       </c>
@@ -5803,7 +5844,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="6" t="s">
         <v>7</v>
       </c>
@@ -5817,7 +5858,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
         <v>7</v>
       </c>
@@ -5831,7 +5872,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="6" t="s">
         <v>7</v>
       </c>
@@ -5845,7 +5886,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="6" t="s">
         <v>7</v>
       </c>
@@ -5859,7 +5900,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="6" t="s">
         <v>7</v>
       </c>
@@ -5873,7 +5914,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="6" t="s">
         <v>7</v>
       </c>
@@ -5887,7 +5928,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="6" t="s">
         <v>7</v>
       </c>
@@ -5901,7 +5942,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="6" t="s">
         <v>7</v>
       </c>
@@ -5915,7 +5956,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
         <v>7</v>
       </c>
@@ -5929,7 +5970,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="6" t="s">
         <v>7</v>
       </c>
@@ -5943,7 +5984,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="6" t="s">
         <v>7</v>
       </c>
@@ -5957,7 +5998,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
         <v>7</v>
       </c>
@@ -5971,7 +6012,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
         <v>7</v>
       </c>
@@ -5985,7 +6026,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="6" t="s">
         <v>7</v>
       </c>
@@ -5999,7 +6040,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="6" t="s">
         <v>7</v>
       </c>
@@ -6013,7 +6054,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="6" t="s">
         <v>7</v>
       </c>
@@ -6027,7 +6068,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="6" t="s">
         <v>7</v>
       </c>
@@ -6041,7 +6082,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
         <v>7</v>
       </c>
@@ -6055,7 +6096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="6" t="s">
         <v>7</v>
       </c>
@@ -6069,7 +6110,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="6" t="s">
         <v>7</v>
       </c>
@@ -6083,7 +6124,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="6" t="s">
         <v>7</v>
       </c>
@@ -6097,7 +6138,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="6" t="s">
         <v>7</v>
       </c>
@@ -6111,7 +6152,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="6" t="s">
         <v>7</v>
       </c>
@@ -6125,7 +6166,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="6" t="s">
         <v>7</v>
       </c>
@@ -6139,7 +6180,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="6" t="s">
         <v>7</v>
       </c>
@@ -6153,7 +6194,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="6" t="s">
         <v>7</v>
       </c>
@@ -6167,7 +6208,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="6" t="s">
         <v>7</v>
       </c>
@@ -6181,7 +6222,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="6" t="s">
         <v>7</v>
       </c>
@@ -6195,7 +6236,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="s">
         <v>7</v>
       </c>
@@ -6209,7 +6250,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="s">
         <v>7</v>
       </c>
@@ -6223,7 +6264,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="6" t="s">
         <v>7</v>
       </c>
@@ -6237,7 +6278,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="6" t="s">
         <v>7</v>
       </c>
@@ -6251,7 +6292,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="6" t="s">
         <v>7</v>
       </c>
@@ -6265,7 +6306,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="6" t="s">
         <v>7</v>
       </c>
@@ -6279,7 +6320,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="6" t="s">
         <v>7</v>
       </c>
@@ -6293,7 +6334,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="6" t="s">
         <v>7</v>
       </c>
@@ -6307,7 +6348,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="6" t="s">
         <v>7</v>
       </c>
@@ -6321,7 +6362,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="6" t="s">
         <v>7</v>
       </c>
@@ -6335,7 +6376,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="6" t="s">
         <v>7</v>
       </c>
@@ -6349,7 +6390,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="6" t="s">
         <v>7</v>
       </c>
@@ -6363,7 +6404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="6" t="s">
         <v>7</v>
       </c>
@@ -6377,7 +6418,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="6" t="s">
         <v>7</v>
       </c>
@@ -6391,7 +6432,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="6" t="s">
         <v>7</v>
       </c>
@@ -6405,7 +6446,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="6" t="s">
         <v>7</v>
       </c>
@@ -6419,7 +6460,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="6" t="s">
         <v>7</v>
       </c>
@@ -6433,7 +6474,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="6" t="s">
         <v>7</v>
       </c>
@@ -6447,7 +6488,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="6" t="s">
         <v>7</v>
       </c>
@@ -6461,7 +6502,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="6" t="s">
         <v>7</v>
       </c>
@@ -6475,7 +6516,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="6" t="s">
         <v>7</v>
       </c>
@@ -6489,7 +6530,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="6" t="s">
         <v>166</v>
       </c>
@@ -6503,7 +6544,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="6" t="s">
         <v>235</v>
       </c>
@@ -6517,7 +6558,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="6" t="s">
         <v>235</v>
       </c>
@@ -6531,7 +6572,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="6" t="s">
         <v>235</v>
       </c>
@@ -6545,7 +6586,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="6" t="s">
         <v>488</v>
       </c>
@@ -6559,7 +6600,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="6" t="s">
         <v>488</v>
       </c>
@@ -6573,7 +6614,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="6" t="s">
         <v>488</v>
       </c>
@@ -6587,7 +6628,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="6" t="s">
         <v>488</v>
       </c>
@@ -6601,7 +6642,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="6" t="s">
         <v>488</v>
       </c>
@@ -6615,7 +6656,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="6" t="s">
         <v>488</v>
       </c>
@@ -6629,7 +6670,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="6" t="s">
         <v>488</v>
       </c>
@@ -6643,7 +6684,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="6" t="s">
         <v>488</v>
       </c>
@@ -6657,7 +6698,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="s">
         <v>488</v>
       </c>
@@ -6671,7 +6712,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="6" t="s">
         <v>488</v>
       </c>
@@ -6685,7 +6726,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="6" t="s">
         <v>488</v>
       </c>
@@ -6699,7 +6740,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="6" t="s">
         <v>488</v>
       </c>
@@ -6713,7 +6754,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="6" t="s">
         <v>488</v>
       </c>
@@ -6727,7 +6768,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="6" t="s">
         <v>488</v>
       </c>
@@ -6741,7 +6782,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="6" t="s">
         <v>488</v>
       </c>
@@ -6755,7 +6796,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="6" t="s">
         <v>680</v>
       </c>
@@ -6769,7 +6810,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="6" t="s">
         <v>680</v>
       </c>
@@ -6783,7 +6824,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="6" t="s">
         <v>680</v>
       </c>
@@ -6797,7 +6838,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="6" t="s">
         <v>680</v>
       </c>
@@ -6811,7 +6852,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="6" t="s">
         <v>680</v>
       </c>
@@ -6825,7 +6866,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="6" t="s">
         <v>680</v>
       </c>
@@ -6839,7 +6880,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="6" t="s">
         <v>680</v>
       </c>
@@ -6853,7 +6894,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="6" t="s">
         <v>680</v>
       </c>
@@ -6867,7 +6908,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="6" t="s">
         <v>488</v>
       </c>
@@ -6881,7 +6922,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="6" t="s">
         <v>488</v>
       </c>
@@ -6895,7 +6936,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="6" t="s">
         <v>488</v>
       </c>
@@ -6909,7 +6950,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="6" t="s">
         <v>488</v>
       </c>
@@ -6923,7 +6964,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="6" t="s">
         <v>720</v>
       </c>
@@ -6937,7 +6978,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="6" t="s">
         <v>720</v>
       </c>
@@ -6951,7 +6992,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="6" t="s">
         <v>680</v>
       </c>
@@ -6965,7 +7006,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="6" t="s">
         <v>680</v>
       </c>
@@ -6973,7 +7014,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="6" t="s">
         <v>680</v>
       </c>
@@ -6981,7 +7022,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="6" t="s">
         <v>680</v>
       </c>
@@ -6989,7 +7030,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="6" t="s">
         <v>488</v>
       </c>
@@ -7003,7 +7044,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="6" t="s">
         <v>488</v>
       </c>
@@ -7017,7 +7058,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="6" t="s">
         <v>680</v>
       </c>
@@ -7025,7 +7066,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="6" t="s">
         <v>488</v>
       </c>
@@ -7039,7 +7080,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="6" t="s">
         <v>7</v>
       </c>
@@ -7053,7 +7094,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="6" t="s">
         <v>166</v>
       </c>
@@ -7067,7 +7108,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="6" t="s">
         <v>7</v>
       </c>
@@ -7081,7 +7122,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="6" t="s">
         <v>7</v>
       </c>
@@ -7095,7 +7136,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="6" t="s">
         <v>7</v>
       </c>
@@ -7109,7 +7150,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="6" t="s">
         <v>7</v>
       </c>
@@ -7123,7 +7164,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="6" t="s">
         <v>7</v>
       </c>
@@ -7137,7 +7178,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="6" t="s">
         <v>7</v>
       </c>
@@ -7151,7 +7192,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="6" t="s">
         <v>7</v>
       </c>
@@ -7165,7 +7206,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" s="6" t="s">
         <v>7</v>
       </c>
@@ -7179,7 +7220,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="6" t="s">
         <v>7</v>
       </c>
@@ -7193,7 +7234,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" s="6" t="s">
         <v>7</v>
       </c>
@@ -7207,7 +7248,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="6" t="s">
         <v>7</v>
       </c>
@@ -7221,7 +7262,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" s="6" t="s">
         <v>7</v>
       </c>
@@ -7235,7 +7276,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" s="6" t="s">
         <v>123</v>
       </c>
@@ -7249,7 +7290,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" s="6" t="s">
         <v>7</v>
       </c>
@@ -7263,7 +7304,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" s="6" t="s">
         <v>7</v>
       </c>
@@ -7277,7 +7318,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" s="6" t="s">
         <v>7</v>
       </c>
@@ -7291,7 +7332,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" s="6" t="s">
         <v>7</v>
       </c>
@@ -7305,7 +7346,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" s="6" t="s">
         <v>7</v>
       </c>
@@ -7319,7 +7360,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" s="6" t="s">
         <v>7</v>
       </c>
@@ -7331,6 +7372,76 @@
       </c>
       <c r="D316" s="6" t="s">
         <v>793</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A317" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B317" s="11" t="s">
+        <v>797</v>
+      </c>
+      <c r="C317" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D317" s="6" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A318" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B318" s="11" t="s">
+        <v>799</v>
+      </c>
+      <c r="C318" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D318" s="6" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A319" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="B319" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="C319" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D319" s="6" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A320" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="B320" s="11" t="s">
+        <v>804</v>
+      </c>
+      <c r="C320" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D320" s="6" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A321" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="B321" s="11" t="s">
+        <v>805</v>
+      </c>
+      <c r="C321" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D321" s="6" t="s">
+        <v>803</v>
       </c>
     </row>
   </sheetData>
@@ -7349,16 +7460,16 @@
       <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.26953125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="83.90625" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="10"/>
+    <col min="1" max="1" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="83.85546875" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -7372,7 +7483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -7386,7 +7497,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -7400,7 +7511,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -7414,7 +7525,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -7428,7 +7539,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -7442,7 +7553,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -7456,7 +7567,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -7470,7 +7581,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -7484,7 +7595,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -7498,7 +7609,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
@@ -7509,7 +7620,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>7</v>
       </c>
@@ -7523,7 +7634,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
@@ -7537,7 +7648,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
@@ -7551,7 +7662,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -7565,7 +7676,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -7579,7 +7690,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -7593,7 +7704,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -7607,7 +7718,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -7621,7 +7732,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
@@ -7635,7 +7746,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -7649,7 +7760,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
@@ -7663,7 +7774,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
@@ -7677,7 +7788,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
@@ -7691,7 +7802,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
@@ -7705,7 +7816,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
@@ -7719,7 +7830,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -7733,7 +7844,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
@@ -7744,7 +7855,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>488</v>
       </c>
@@ -7758,7 +7869,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>488</v>
       </c>
@@ -7772,7 +7883,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>488</v>
       </c>
@@ -7786,7 +7897,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>488</v>
       </c>
@@ -7800,7 +7911,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>488</v>
       </c>
@@ -7814,7 +7925,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>488</v>
       </c>
@@ -7828,7 +7939,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>488</v>
       </c>
@@ -7842,7 +7953,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>488</v>
       </c>
@@ -7856,7 +7967,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>488</v>
       </c>
@@ -7870,7 +7981,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>488</v>
       </c>
@@ -7884,7 +7995,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>488</v>
       </c>
@@ -7898,7 +8009,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>488</v>
       </c>
@@ -7912,7 +8023,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>488</v>
       </c>
@@ -7926,7 +8037,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>488</v>
       </c>
@@ -7940,7 +8051,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>488</v>
       </c>
@@ -7954,7 +8065,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>488</v>
       </c>
@@ -7968,7 +8079,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>488</v>
       </c>
@@ -7982,7 +8093,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>488</v>
       </c>
@@ -7996,7 +8107,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>488</v>
       </c>
@@ -8010,7 +8121,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>488</v>
       </c>
@@ -8024,7 +8135,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>488</v>
       </c>
@@ -8038,7 +8149,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>488</v>
       </c>
@@ -8052,7 +8163,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>488</v>
       </c>
@@ -8066,7 +8177,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>488</v>
       </c>
@@ -8080,7 +8191,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>7</v>
       </c>
@@ -8094,7 +8205,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>7</v>
       </c>
@@ -8125,7 +8236,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8139,22 +8250,22 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="103.1796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="103.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>186</v>
       </c>
@@ -8172,23 +8283,23 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.54296875" customWidth="1"/>
+    <col min="1" max="1" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>744</v>
       </c>
@@ -8204,19 +8315,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809C98DC-D97E-4E08-93F8-C6E62F565ADA}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="80.81640625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="69.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="89" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>209</v>
       </c>
@@ -8224,7 +8335,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>211</v>
       </c>
@@ -8232,7 +8343,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>213</v>
       </c>
@@ -8240,7 +8351,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>214</v>
       </c>
@@ -8248,50 +8359,55 @@
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>788</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>796</v>
       </c>
     </row>
   </sheetData>
@@ -8308,22 +8424,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E42550-ED0C-4E5E-8781-47DFC06695E2}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.90625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.85546875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>772</v>
       </c>
@@ -8331,7 +8447,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>794</v>
       </c>
@@ -8352,14 +8468,14 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="94.1796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="50.26953125" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="8.90625" style="4"/>
+    <col min="1" max="1" width="94.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="50.28515625" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>224</v>
       </c>
@@ -8367,7 +8483,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>227</v>
       </c>
@@ -8375,7 +8491,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>229</v>
       </c>
@@ -8383,7 +8499,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>223</v>
       </c>
@@ -8391,17 +8507,17 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>231</v>
       </c>

--- a/Конспект_Python.xlsx
+++ b/Конспект_Python.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\my_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E26169-D2F1-4C23-9098-A8974F9137AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9086F808-E060-41D7-B5D0-B523889952F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15150" yWindow="0" windowWidth="17430" windowHeight="11100" tabRatio="728" xr2:uid="{65C49AB7-91AD-4F1F-B814-EFF7DAC5AF74}"/>
+    <workbookView xWindow="12870" yWindow="3800" windowWidth="20790" windowHeight="15450" tabRatio="728" xr2:uid="{65C49AB7-91AD-4F1F-B814-EFF7DAC5AF74}"/>
   </bookViews>
   <sheets>
     <sheet name="Операторы" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Атрибуты!$A$1:$D$54</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Генераторы списков'!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Операторы!$A$1:$D$316</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Операторы!$A$1:$D$322</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Функции!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="808">
   <si>
     <t>Функция</t>
   </si>
@@ -2516,6 +2516,12 @@
   </si>
   <si>
     <t>print(dumps(track, indent=4))</t>
+  </si>
+  <si>
+    <t>pd.DataFrame(data=list(list), columns=list)</t>
+  </si>
+  <si>
+    <t>Создает ДатаФрейм из двух списков. Первый список данные, второй названия колонок.</t>
   </si>
 </sst>
 </file>
@@ -2957,24 +2963,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}">
-  <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D321"/>
+  <sheetPr codeName="Лист1" filterMode="1"/>
+  <dimension ref="A1:D322"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A306" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B322" sqref="B322"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D331" sqref="D331"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.42578125" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="8.7109375" style="10"/>
+    <col min="1" max="1" width="15.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.453125" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -2988,7 +2994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>131</v>
       </c>
@@ -3002,7 +3008,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>131</v>
       </c>
@@ -3016,7 +3022,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>131</v>
       </c>
@@ -3030,7 +3036,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>131</v>
       </c>
@@ -3044,7 +3050,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
@@ -3058,7 +3064,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
@@ -3072,7 +3078,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>35</v>
       </c>
@@ -3086,7 +3092,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
@@ -3100,7 +3106,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>35</v>
       </c>
@@ -3114,7 +3120,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>35</v>
       </c>
@@ -3128,7 +3134,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
@@ -3142,7 +3148,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>35</v>
       </c>
@@ -3156,7 +3162,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>119</v>
       </c>
@@ -3170,7 +3176,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>119</v>
       </c>
@@ -3184,7 +3190,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>133</v>
       </c>
@@ -3198,7 +3204,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>133</v>
       </c>
@@ -3212,7 +3218,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>133</v>
       </c>
@@ -3226,7 +3232,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>142</v>
       </c>
@@ -3240,7 +3246,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>142</v>
       </c>
@@ -3254,7 +3260,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>142</v>
       </c>
@@ -3268,7 +3274,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>142</v>
       </c>
@@ -3282,7 +3288,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>15</v>
       </c>
@@ -3296,7 +3302,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>123</v>
       </c>
@@ -3310,7 +3316,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>123</v>
       </c>
@@ -3324,7 +3330,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>123</v>
       </c>
@@ -3338,7 +3344,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>123</v>
       </c>
@@ -3352,7 +3358,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>488</v>
       </c>
@@ -3366,7 +3372,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>488</v>
       </c>
@@ -3380,7 +3386,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>488</v>
       </c>
@@ -3394,7 +3400,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>488</v>
       </c>
@@ -3408,7 +3414,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>377</v>
       </c>
@@ -3422,7 +3428,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>377</v>
       </c>
@@ -3436,7 +3442,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>377</v>
       </c>
@@ -3450,7 +3456,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>377</v>
       </c>
@@ -3464,7 +3470,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>377</v>
       </c>
@@ -3478,7 +3484,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>377</v>
       </c>
@@ -3492,7 +3498,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>253</v>
       </c>
@@ -3506,7 +3512,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>253</v>
       </c>
@@ -3520,7 +3526,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>253</v>
       </c>
@@ -3534,7 +3540,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>253</v>
       </c>
@@ -3548,7 +3554,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>253</v>
       </c>
@@ -3562,7 +3568,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>253</v>
       </c>
@@ -3576,7 +3582,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>253</v>
       </c>
@@ -3590,7 +3596,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>253</v>
       </c>
@@ -3604,7 +3610,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>6</v>
       </c>
@@ -3618,7 +3624,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>6</v>
       </c>
@@ -3632,7 +3638,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>6</v>
       </c>
@@ -3646,7 +3652,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>6</v>
       </c>
@@ -3660,7 +3666,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>6</v>
       </c>
@@ -3674,7 +3680,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>6</v>
       </c>
@@ -3688,7 +3694,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>6</v>
       </c>
@@ -3702,7 +3708,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>6</v>
       </c>
@@ -3716,7 +3722,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>6</v>
       </c>
@@ -3730,7 +3736,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>6</v>
       </c>
@@ -3744,7 +3750,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>6</v>
       </c>
@@ -3758,7 +3764,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>6</v>
       </c>
@@ -3772,7 +3778,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>6</v>
       </c>
@@ -3786,7 +3792,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>6</v>
       </c>
@@ -3800,7 +3806,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>6</v>
       </c>
@@ -3814,7 +3820,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>6</v>
       </c>
@@ -3828,7 +3834,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>6</v>
       </c>
@@ -3842,7 +3848,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>6</v>
       </c>
@@ -3856,7 +3862,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>6</v>
       </c>
@@ -3870,7 +3876,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>6</v>
       </c>
@@ -3884,7 +3890,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>6</v>
       </c>
@@ -3898,7 +3904,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>6</v>
       </c>
@@ -3912,7 +3918,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>6</v>
       </c>
@@ -3926,7 +3932,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>6</v>
       </c>
@@ -3940,7 +3946,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>6</v>
       </c>
@@ -3954,7 +3960,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>6</v>
       </c>
@@ -3968,7 +3974,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>6</v>
       </c>
@@ -3982,7 +3988,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>6</v>
       </c>
@@ -3996,7 +4002,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>6</v>
       </c>
@@ -4010,7 +4016,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>6</v>
       </c>
@@ -4024,7 +4030,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>6</v>
       </c>
@@ -4038,7 +4044,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>6</v>
       </c>
@@ -4052,7 +4058,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>6</v>
       </c>
@@ -4066,7 +4072,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>6</v>
       </c>
@@ -4080,7 +4086,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>6</v>
       </c>
@@ -4094,7 +4100,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>6</v>
       </c>
@@ -4108,7 +4114,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>6</v>
       </c>
@@ -4122,7 +4128,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>6</v>
       </c>
@@ -4136,7 +4142,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>6</v>
       </c>
@@ -4150,7 +4156,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>6</v>
       </c>
@@ -4164,7 +4170,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>6</v>
       </c>
@@ -4178,7 +4184,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>6</v>
       </c>
@@ -4192,7 +4198,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>6</v>
       </c>
@@ -4206,7 +4212,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>6</v>
       </c>
@@ -4220,7 +4226,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>6</v>
       </c>
@@ -4234,7 +4240,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>6</v>
       </c>
@@ -4248,7 +4254,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>6</v>
       </c>
@@ -4262,7 +4268,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>6</v>
       </c>
@@ -4276,7 +4282,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>6</v>
       </c>
@@ -4290,7 +4296,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>6</v>
       </c>
@@ -4304,7 +4310,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>6</v>
       </c>
@@ -4318,7 +4324,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>6</v>
       </c>
@@ -4332,7 +4338,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>6</v>
       </c>
@@ -4346,7 +4352,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>6</v>
       </c>
@@ -4360,7 +4366,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>6</v>
       </c>
@@ -4374,7 +4380,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>6</v>
       </c>
@@ -4388,7 +4394,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>6</v>
       </c>
@@ -4402,7 +4408,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>6</v>
       </c>
@@ -4416,7 +4422,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>6</v>
       </c>
@@ -4430,7 +4436,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
         <v>6</v>
       </c>
@@ -4444,7 +4450,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>6</v>
       </c>
@@ -4458,7 +4464,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>6</v>
       </c>
@@ -4472,7 +4478,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>6</v>
       </c>
@@ -4486,7 +4492,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>6</v>
       </c>
@@ -4500,7 +4506,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
         <v>6</v>
       </c>
@@ -4514,7 +4520,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>6</v>
       </c>
@@ -4528,7 +4534,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>6</v>
       </c>
@@ -4542,7 +4548,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
         <v>6</v>
       </c>
@@ -4556,7 +4562,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>6</v>
       </c>
@@ -4570,7 +4576,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>6</v>
       </c>
@@ -4584,7 +4590,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>6</v>
       </c>
@@ -4598,7 +4604,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>6</v>
       </c>
@@ -4612,7 +4618,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>6</v>
       </c>
@@ -4626,7 +4632,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>6</v>
       </c>
@@ -4640,7 +4646,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>6</v>
       </c>
@@ -4654,7 +4660,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>6</v>
       </c>
@@ -4668,7 +4674,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>6</v>
       </c>
@@ -4682,7 +4688,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
         <v>6</v>
       </c>
@@ -4696,7 +4702,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
         <v>6</v>
       </c>
@@ -4710,7 +4716,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>6</v>
       </c>
@@ -4724,7 +4730,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>6</v>
       </c>
@@ -4738,7 +4744,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>6</v>
       </c>
@@ -4752,7 +4758,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>6</v>
       </c>
@@ -4766,7 +4772,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
         <v>6</v>
       </c>
@@ -4780,7 +4786,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
         <v>6</v>
       </c>
@@ -4794,7 +4800,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
         <v>6</v>
       </c>
@@ -4808,7 +4814,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>6</v>
       </c>
@@ -4822,7 +4828,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>6</v>
       </c>
@@ -4836,7 +4842,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>6</v>
       </c>
@@ -4850,7 +4856,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>6</v>
       </c>
@@ -4864,7 +4870,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>6</v>
       </c>
@@ -4878,7 +4884,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
         <v>6</v>
       </c>
@@ -4892,7 +4898,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
         <v>6</v>
       </c>
@@ -4906,7 +4912,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
         <v>6</v>
       </c>
@@ -4920,7 +4926,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
         <v>6</v>
       </c>
@@ -4934,7 +4940,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
         <v>6</v>
       </c>
@@ -4948,7 +4954,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
         <v>6</v>
       </c>
@@ -4962,7 +4968,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
         <v>6</v>
       </c>
@@ -4976,7 +4982,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>6</v>
       </c>
@@ -4990,7 +4996,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
         <v>6</v>
       </c>
@@ -5004,7 +5010,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
         <v>6</v>
       </c>
@@ -5018,7 +5024,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
         <v>6</v>
       </c>
@@ -5032,7 +5038,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
         <v>6</v>
       </c>
@@ -5046,7 +5052,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
         <v>6</v>
       </c>
@@ -5060,7 +5066,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
         <v>6</v>
       </c>
@@ -5074,7 +5080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
         <v>6</v>
       </c>
@@ -5088,7 +5094,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>6</v>
       </c>
@@ -5102,7 +5108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
         <v>6</v>
       </c>
@@ -5116,7 +5122,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
         <v>6</v>
       </c>
@@ -5130,7 +5136,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
         <v>6</v>
       </c>
@@ -5144,7 +5150,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="6" t="s">
         <v>6</v>
       </c>
@@ -5158,7 +5164,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
         <v>6</v>
       </c>
@@ -5172,7 +5178,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
         <v>6</v>
       </c>
@@ -5186,7 +5192,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
         <v>6</v>
       </c>
@@ -5200,7 +5206,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
         <v>6</v>
       </c>
@@ -5214,7 +5220,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="6" t="s">
         <v>6</v>
       </c>
@@ -5228,7 +5234,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
         <v>6</v>
       </c>
@@ -5242,7 +5248,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="6" t="s">
         <v>6</v>
       </c>
@@ -5256,7 +5262,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
         <v>6</v>
       </c>
@@ -5270,7 +5276,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
         <v>6</v>
       </c>
@@ -5284,7 +5290,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
         <v>7</v>
       </c>
@@ -5298,7 +5304,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
         <v>7</v>
       </c>
@@ -5312,7 +5318,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
         <v>7</v>
       </c>
@@ -5326,7 +5332,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="6" t="s">
         <v>7</v>
       </c>
@@ -5340,7 +5346,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
         <v>7</v>
       </c>
@@ -5354,7 +5360,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
         <v>7</v>
       </c>
@@ -5368,7 +5374,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
         <v>7</v>
       </c>
@@ -5382,7 +5388,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
         <v>7</v>
       </c>
@@ -5396,7 +5402,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
         <v>7</v>
       </c>
@@ -5410,7 +5416,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>7</v>
       </c>
@@ -5424,7 +5430,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
         <v>7</v>
       </c>
@@ -5438,7 +5444,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
         <v>7</v>
       </c>
@@ -5452,7 +5458,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
         <v>7</v>
       </c>
@@ -5466,7 +5472,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
         <v>7</v>
       </c>
@@ -5480,7 +5486,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
         <v>7</v>
       </c>
@@ -5494,7 +5500,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
         <v>7</v>
       </c>
@@ -5508,7 +5514,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
         <v>7</v>
       </c>
@@ -5522,7 +5528,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
         <v>7</v>
       </c>
@@ -5536,7 +5542,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
         <v>7</v>
       </c>
@@ -5550,7 +5556,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
         <v>7</v>
       </c>
@@ -5564,7 +5570,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
         <v>7</v>
       </c>
@@ -5578,7 +5584,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
         <v>7</v>
       </c>
@@ -5592,7 +5598,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
         <v>7</v>
       </c>
@@ -5606,7 +5612,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
         <v>7</v>
       </c>
@@ -5620,7 +5626,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
         <v>7</v>
       </c>
@@ -5634,7 +5640,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
         <v>7</v>
       </c>
@@ -5648,7 +5654,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
         <v>7</v>
       </c>
@@ -5662,7 +5668,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="6" t="s">
         <v>7</v>
       </c>
@@ -5676,7 +5682,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
         <v>7</v>
       </c>
@@ -5690,7 +5696,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
         <v>7</v>
       </c>
@@ -5704,7 +5710,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
         <v>7</v>
       </c>
@@ -5718,7 +5724,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
         <v>7</v>
       </c>
@@ -5732,7 +5738,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
         <v>7</v>
       </c>
@@ -5746,7 +5752,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
         <v>7</v>
       </c>
@@ -5760,7 +5766,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
         <v>7</v>
       </c>
@@ -5774,7 +5780,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
         <v>7</v>
       </c>
@@ -5788,7 +5794,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
         <v>7</v>
       </c>
@@ -5802,7 +5808,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
         <v>7</v>
       </c>
@@ -5816,7 +5822,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
         <v>7</v>
       </c>
@@ -5830,7 +5836,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
         <v>7</v>
       </c>
@@ -5844,7 +5850,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
         <v>7</v>
       </c>
@@ -5858,7 +5864,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
         <v>7</v>
       </c>
@@ -5872,7 +5878,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
         <v>7</v>
       </c>
@@ -5886,7 +5892,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
         <v>7</v>
       </c>
@@ -5900,7 +5906,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
         <v>7</v>
       </c>
@@ -5914,7 +5920,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
         <v>7</v>
       </c>
@@ -5928,7 +5934,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="6" t="s">
         <v>7</v>
       </c>
@@ -5942,7 +5948,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="6" t="s">
         <v>7</v>
       </c>
@@ -5956,7 +5962,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="6" t="s">
         <v>7</v>
       </c>
@@ -5970,7 +5976,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="6" t="s">
         <v>7</v>
       </c>
@@ -5984,7 +5990,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
         <v>7</v>
       </c>
@@ -5998,7 +6004,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
         <v>7</v>
       </c>
@@ -6012,7 +6018,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
         <v>7</v>
       </c>
@@ -6026,7 +6032,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
         <v>7</v>
       </c>
@@ -6040,7 +6046,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
         <v>7</v>
       </c>
@@ -6054,7 +6060,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
         <v>7</v>
       </c>
@@ -6068,7 +6074,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
         <v>7</v>
       </c>
@@ -6082,7 +6088,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
         <v>7</v>
       </c>
@@ -6096,7 +6102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
         <v>7</v>
       </c>
@@ -6110,7 +6116,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="6" t="s">
         <v>7</v>
       </c>
@@ -6124,7 +6130,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="6" t="s">
         <v>7</v>
       </c>
@@ -6138,7 +6144,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="6" t="s">
         <v>7</v>
       </c>
@@ -6152,7 +6158,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
         <v>7</v>
       </c>
@@ -6166,7 +6172,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
         <v>7</v>
       </c>
@@ -6180,7 +6186,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
         <v>7</v>
       </c>
@@ -6194,7 +6200,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="6" t="s">
         <v>7</v>
       </c>
@@ -6208,7 +6214,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="6" t="s">
         <v>7</v>
       </c>
@@ -6222,7 +6228,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="6" t="s">
         <v>7</v>
       </c>
@@ -6236,7 +6242,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="6" t="s">
         <v>7</v>
       </c>
@@ -6250,7 +6256,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="6" t="s">
         <v>7</v>
       </c>
@@ -6264,7 +6270,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="6" t="s">
         <v>7</v>
       </c>
@@ -6278,7 +6284,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="6" t="s">
         <v>7</v>
       </c>
@@ -6292,7 +6298,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="6" t="s">
         <v>7</v>
       </c>
@@ -6306,7 +6312,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="6" t="s">
         <v>7</v>
       </c>
@@ -6320,7 +6326,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
         <v>7</v>
       </c>
@@ -6334,7 +6340,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="6" t="s">
         <v>7</v>
       </c>
@@ -6348,7 +6354,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="6" t="s">
         <v>7</v>
       </c>
@@ -6362,7 +6368,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="6" t="s">
         <v>7</v>
       </c>
@@ -6376,7 +6382,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
         <v>7</v>
       </c>
@@ -6390,7 +6396,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="6" t="s">
         <v>7</v>
       </c>
@@ -6404,7 +6410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
         <v>7</v>
       </c>
@@ -6418,7 +6424,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
         <v>7</v>
       </c>
@@ -6432,7 +6438,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
         <v>7</v>
       </c>
@@ -6446,7 +6452,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
         <v>7</v>
       </c>
@@ -6460,7 +6466,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="6" t="s">
         <v>7</v>
       </c>
@@ -6474,7 +6480,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="6" t="s">
         <v>7</v>
       </c>
@@ -6488,7 +6494,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="6" t="s">
         <v>7</v>
       </c>
@@ -6502,7 +6508,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="6" t="s">
         <v>7</v>
       </c>
@@ -6516,7 +6522,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="6" t="s">
         <v>7</v>
       </c>
@@ -6530,7 +6536,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="6" t="s">
         <v>166</v>
       </c>
@@ -6544,7 +6550,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
         <v>235</v>
       </c>
@@ -6558,7 +6564,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
         <v>235</v>
       </c>
@@ -6572,7 +6578,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="6" t="s">
         <v>235</v>
       </c>
@@ -6586,7 +6592,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="6" t="s">
         <v>488</v>
       </c>
@@ -6600,7 +6606,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="6" t="s">
         <v>488</v>
       </c>
@@ -6614,7 +6620,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="6" t="s">
         <v>488</v>
       </c>
@@ -6628,7 +6634,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="6" t="s">
         <v>488</v>
       </c>
@@ -6642,7 +6648,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="6" t="s">
         <v>488</v>
       </c>
@@ -6656,7 +6662,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="6" t="s">
         <v>488</v>
       </c>
@@ -6670,7 +6676,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="6" t="s">
         <v>488</v>
       </c>
@@ -6684,7 +6690,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="6" t="s">
         <v>488</v>
       </c>
@@ -6698,7 +6704,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
         <v>488</v>
       </c>
@@ -6712,7 +6718,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="6" t="s">
         <v>488</v>
       </c>
@@ -6726,7 +6732,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="6" t="s">
         <v>488</v>
       </c>
@@ -6740,7 +6746,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="6" t="s">
         <v>488</v>
       </c>
@@ -6754,7 +6760,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
         <v>488</v>
       </c>
@@ -6768,7 +6774,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
         <v>488</v>
       </c>
@@ -6782,7 +6788,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="6" t="s">
         <v>488</v>
       </c>
@@ -6796,7 +6802,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="6" t="s">
         <v>680</v>
       </c>
@@ -6810,7 +6816,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="6" t="s">
         <v>680</v>
       </c>
@@ -6824,7 +6830,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="6" t="s">
         <v>680</v>
       </c>
@@ -6838,7 +6844,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="6" t="s">
         <v>680</v>
       </c>
@@ -6852,7 +6858,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="6" t="s">
         <v>680</v>
       </c>
@@ -6866,7 +6872,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="6" t="s">
         <v>680</v>
       </c>
@@ -6880,7 +6886,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="6" t="s">
         <v>680</v>
       </c>
@@ -6894,7 +6900,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="6" t="s">
         <v>680</v>
       </c>
@@ -6908,7 +6914,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
         <v>488</v>
       </c>
@@ -6922,7 +6928,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
         <v>488</v>
       </c>
@@ -6936,7 +6942,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
         <v>488</v>
       </c>
@@ -6950,7 +6956,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
         <v>488</v>
       </c>
@@ -6964,7 +6970,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
         <v>720</v>
       </c>
@@ -6978,7 +6984,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
         <v>720</v>
       </c>
@@ -6992,7 +6998,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="6" t="s">
         <v>680</v>
       </c>
@@ -7006,7 +7012,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="6" t="s">
         <v>680</v>
       </c>
@@ -7014,7 +7020,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="6" t="s">
         <v>680</v>
       </c>
@@ -7022,7 +7028,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="6" t="s">
         <v>680</v>
       </c>
@@ -7030,7 +7036,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="6" t="s">
         <v>488</v>
       </c>
@@ -7044,7 +7050,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="6" t="s">
         <v>488</v>
       </c>
@@ -7058,7 +7064,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="6" t="s">
         <v>680</v>
       </c>
@@ -7066,7 +7072,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
         <v>488</v>
       </c>
@@ -7080,7 +7086,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
         <v>7</v>
       </c>
@@ -7094,7 +7100,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
         <v>166</v>
       </c>
@@ -7108,7 +7114,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
         <v>7</v>
       </c>
@@ -7122,7 +7128,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="6" t="s">
         <v>7</v>
       </c>
@@ -7136,7 +7142,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="6" t="s">
         <v>7</v>
       </c>
@@ -7150,7 +7156,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="6" t="s">
         <v>7</v>
       </c>
@@ -7164,7 +7170,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="6" t="s">
         <v>7</v>
       </c>
@@ -7178,7 +7184,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="6" t="s">
         <v>7</v>
       </c>
@@ -7192,7 +7198,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="6" t="s">
         <v>7</v>
       </c>
@@ -7206,7 +7212,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="6" t="s">
         <v>7</v>
       </c>
@@ -7220,7 +7226,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="6" t="s">
         <v>7</v>
       </c>
@@ -7234,7 +7240,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="6" t="s">
         <v>7</v>
       </c>
@@ -7248,7 +7254,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="6" t="s">
         <v>7</v>
       </c>
@@ -7262,7 +7268,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="6" t="s">
         <v>7</v>
       </c>
@@ -7276,7 +7282,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="6" t="s">
         <v>123</v>
       </c>
@@ -7290,7 +7296,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="6" t="s">
         <v>7</v>
       </c>
@@ -7304,7 +7310,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="6" t="s">
         <v>7</v>
       </c>
@@ -7318,7 +7324,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="6" t="s">
         <v>7</v>
       </c>
@@ -7332,7 +7338,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="6" t="s">
         <v>7</v>
       </c>
@@ -7346,7 +7352,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="6" t="s">
         <v>7</v>
       </c>
@@ -7360,7 +7366,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="6" t="s">
         <v>7</v>
       </c>
@@ -7374,7 +7380,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="6" t="s">
         <v>7</v>
       </c>
@@ -7388,7 +7394,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="6" t="s">
         <v>7</v>
       </c>
@@ -7402,7 +7408,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="6" t="s">
         <v>801</v>
       </c>
@@ -7416,7 +7422,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="6" t="s">
         <v>801</v>
       </c>
@@ -7430,7 +7436,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="6" t="s">
         <v>801</v>
       </c>
@@ -7444,8 +7450,28 @@
         <v>803</v>
       </c>
     </row>
+    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A322" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B322" s="11" t="s">
+        <v>806</v>
+      </c>
+      <c r="C322" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D322" s="6" t="s">
+        <v>807</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D316" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}"/>
+  <autoFilter ref="A1:D322" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="df.head(int)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -7460,16 +7486,16 @@
       <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="83.85546875" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="8.7109375" style="10"/>
+    <col min="1" max="1" width="15.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.26953125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="83.81640625" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -7483,7 +7509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -7497,7 +7523,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -7511,7 +7537,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -7525,7 +7551,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -7539,7 +7565,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -7553,7 +7579,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -7567,7 +7593,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -7581,7 +7607,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -7595,7 +7621,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -7609,7 +7635,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
@@ -7620,7 +7646,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>7</v>
       </c>
@@ -7634,7 +7660,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
@@ -7648,7 +7674,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
@@ -7662,7 +7688,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -7676,7 +7702,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -7690,7 +7716,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -7704,7 +7730,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -7718,7 +7744,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -7732,7 +7758,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
@@ -7746,7 +7772,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -7760,7 +7786,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
@@ -7774,7 +7800,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
@@ -7788,7 +7814,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
@@ -7802,7 +7828,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
@@ -7816,7 +7842,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
@@ -7830,7 +7856,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -7844,7 +7870,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
@@ -7855,7 +7881,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>488</v>
       </c>
@@ -7869,7 +7895,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>488</v>
       </c>
@@ -7883,7 +7909,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>488</v>
       </c>
@@ -7897,7 +7923,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>488</v>
       </c>
@@ -7911,7 +7937,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>488</v>
       </c>
@@ -7925,7 +7951,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>488</v>
       </c>
@@ -7939,7 +7965,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>488</v>
       </c>
@@ -7953,7 +7979,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>488</v>
       </c>
@@ -7967,7 +7993,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>488</v>
       </c>
@@ -7981,7 +8007,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>488</v>
       </c>
@@ -7995,7 +8021,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>488</v>
       </c>
@@ -8009,7 +8035,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>488</v>
       </c>
@@ -8023,7 +8049,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>488</v>
       </c>
@@ -8037,7 +8063,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>488</v>
       </c>
@@ -8051,7 +8077,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>488</v>
       </c>
@@ -8065,7 +8091,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>488</v>
       </c>
@@ -8079,7 +8105,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>488</v>
       </c>
@@ -8093,7 +8119,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>488</v>
       </c>
@@ -8107,7 +8133,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>488</v>
       </c>
@@ -8121,7 +8147,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>488</v>
       </c>
@@ -8135,7 +8161,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>488</v>
       </c>
@@ -8149,7 +8175,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>488</v>
       </c>
@@ -8163,7 +8189,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>488</v>
       </c>
@@ -8177,7 +8203,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>488</v>
       </c>
@@ -8191,7 +8217,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>7</v>
       </c>
@@ -8205,7 +8231,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>7</v>
       </c>
@@ -8236,7 +8262,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8250,22 +8276,22 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="103.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="103.1796875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>186</v>
       </c>
@@ -8283,23 +8309,23 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="53.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" customWidth="1"/>
+    <col min="1" max="1" width="53.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>744</v>
       </c>
@@ -8321,13 +8347,13 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="69.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="69.453125" style="1" customWidth="1"/>
     <col min="2" max="2" width="89" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>209</v>
       </c>
@@ -8335,7 +8361,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>211</v>
       </c>
@@ -8343,7 +8369,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>213</v>
       </c>
@@ -8351,7 +8377,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>214</v>
       </c>
@@ -8359,53 +8385,53 @@
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="8" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" s="7" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="B14" s="8" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>796</v>
       </c>
@@ -8428,18 +8454,18 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.85546875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="40.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.81640625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>772</v>
       </c>
@@ -8447,7 +8473,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>794</v>
       </c>
@@ -8468,14 +8494,14 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="94.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="50.28515625" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="94.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="50.26953125" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.81640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>224</v>
       </c>
@@ -8483,7 +8509,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>227</v>
       </c>
@@ -8491,7 +8517,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>229</v>
       </c>
@@ -8499,7 +8525,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>223</v>
       </c>
@@ -8507,17 +8533,17 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>231</v>
       </c>

--- a/Конспект_Python.xlsx
+++ b/Конспект_Python.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\my_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9086F808-E060-41D7-B5D0-B523889952F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE52FC3-5736-45FB-AF9F-CC6373CBA386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12870" yWindow="3800" windowWidth="20790" windowHeight="15450" tabRatio="728" xr2:uid="{65C49AB7-91AD-4F1F-B814-EFF7DAC5AF74}"/>
+    <workbookView xWindow="16320" yWindow="4330" windowWidth="20790" windowHeight="15450" tabRatio="728" xr2:uid="{65C49AB7-91AD-4F1F-B814-EFF7DAC5AF74}"/>
   </bookViews>
   <sheets>
     <sheet name="Операторы" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Атрибуты!$A$1:$D$54</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Генераторы списков'!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Операторы!$A$1:$D$322</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Операторы!$A$1:$D$335</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Функции!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="832">
   <si>
     <t>Функция</t>
   </si>
@@ -1450,16 +1450,10 @@
     <t>Получить DataFrame со строками из группы colname</t>
   </si>
   <si>
-    <t>.isnull()</t>
-  </si>
-  <si>
     <t>np.nan</t>
   </si>
   <si>
     <t>Возвращает значение NaN/NULL</t>
-  </si>
-  <si>
-    <t>Отбирает пустые ячейки</t>
   </si>
   <si>
     <t>Возвращает словрь из Ключей(групп) и значений (индексы) содержащие указанные группы</t>
@@ -2522,6 +2516,84 @@
   </si>
   <si>
     <t>Создает ДатаФрейм из двух списков. Первый список данные, второй названия колонок.</t>
+  </si>
+  <si>
+    <t>df.dtypes</t>
+  </si>
+  <si>
+    <t>Атрибут</t>
+  </si>
+  <si>
+    <t>Выводит сведения о типах данных в столбцах</t>
+  </si>
+  <si>
+    <t>df[df['columnname'] &lt;= val]['columnname'].count()</t>
+  </si>
+  <si>
+    <t>Подсчитать количество значиний отвечающих условию</t>
+  </si>
+  <si>
+    <t xml:space="preserve">df.loc[df.loc[:,'columnname'] == 'val']  </t>
+  </si>
+  <si>
+    <t>Найти все строки где встречается 'val' . Проверяется логическеое условие</t>
+  </si>
+  <si>
+    <t>df[df['columnname'] == 'val']['columnname'].count()</t>
+  </si>
+  <si>
+    <t>df[df['columnname'] == 'val']</t>
+  </si>
+  <si>
+    <t>Отфильтровать колонку по поределенному значению 'val'</t>
+  </si>
+  <si>
+    <t>Применить логическое условие к Series</t>
+  </si>
+  <si>
+    <t>series.loc[series &lt;= val]</t>
+  </si>
+  <si>
+    <t>series[series &lt; val].count()</t>
+  </si>
+  <si>
+    <t>df['colname'][series]</t>
+  </si>
+  <si>
+    <t>Вывод данных, сокращенная индексация</t>
+  </si>
+  <si>
+    <t>df.loc[: 'colname']</t>
+  </si>
+  <si>
+    <t>Вывести все строки из указанного столбца</t>
+  </si>
+  <si>
+    <t>df.isna()</t>
+  </si>
+  <si>
+    <t>Проверить всю таблицу на значения NaN и вернет True/False</t>
+  </si>
+  <si>
+    <t>df.isna().sum()</t>
+  </si>
+  <si>
+    <t>Посчитать сумму значений NaN (количество)</t>
+  </si>
+  <si>
+    <t>df.isnull()</t>
+  </si>
+  <si>
+    <t>Отбирает пустые ячейкию Проверяя на NaN (предпочтительнее использовать .isna()</t>
+  </si>
+  <si>
+    <t>df.dropna(subset=['colname1', 'colname2'])</t>
+  </si>
+  <si>
+    <t>Удаляет только те строки, где в столбцах colname1 и colname2 встречаются NaN</t>
+  </si>
+  <si>
+    <t>df.dropna(axis='columns')</t>
   </si>
 </sst>
 </file>
@@ -2964,17 +3036,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}">
   <sheetPr codeName="Лист1" filterMode="1"/>
-  <dimension ref="A1:D322"/>
+  <dimension ref="A1:D335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D331" sqref="D331"/>
+      <selection pane="bottomLeft" activeCell="B342" sqref="B342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.54296875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="46.1796875" style="11" customWidth="1"/>
     <col min="3" max="3" width="10.81640625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70.453125" style="6" customWidth="1"/>
     <col min="5" max="16384" width="8.7265625" style="10"/>
@@ -3055,13 +3127,13 @@
         <v>35</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -3069,13 +3141,13 @@
         <v>35</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -3083,13 +3155,13 @@
         <v>35</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -3097,13 +3169,13 @@
         <v>35</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -3111,13 +3183,13 @@
         <v>35</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -3125,13 +3197,13 @@
         <v>35</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -3307,7 +3379,7 @@
         <v>123</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>0</v>
@@ -3360,58 +3432,58 @@
     </row>
     <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B30" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>495</v>
-      </c>
       <c r="D30" s="6" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -3447,13 +3519,13 @@
         <v>377</v>
       </c>
       <c r="B34" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>466</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -3461,13 +3533,13 @@
         <v>377</v>
       </c>
       <c r="B35" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>459</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -3489,13 +3561,13 @@
         <v>377</v>
       </c>
       <c r="B37" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>467</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -3615,7 +3687,7 @@
         <v>6</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>19</v>
@@ -3629,7 +3701,7 @@
         <v>6</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>19</v>
@@ -3671,13 +3743,13 @@
         <v>6</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -3685,13 +3757,13 @@
         <v>6</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -3727,13 +3799,13 @@
         <v>6</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -3769,13 +3841,13 @@
         <v>6</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>458</v>
+        <v>827</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>461</v>
+        <v>828</v>
       </c>
     </row>
     <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -3853,13 +3925,13 @@
         <v>6</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -3923,7 +3995,7 @@
         <v>6</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>19</v>
@@ -3979,13 +4051,13 @@
         <v>6</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -4035,13 +4107,13 @@
         <v>6</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -4049,7 +4121,7 @@
         <v>6</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>19</v>
@@ -4175,7 +4247,7 @@
         <v>6</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>19</v>
@@ -4189,7 +4261,7 @@
         <v>6</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>19</v>
@@ -4198,7 +4270,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>6</v>
       </c>
@@ -4212,7 +4284,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>6</v>
       </c>
@@ -4226,7 +4298,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>6</v>
       </c>
@@ -4287,13 +4359,13 @@
         <v>6</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -4301,13 +4373,13 @@
         <v>6</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -4315,7 +4387,7 @@
         <v>6</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>19</v>
@@ -4329,13 +4401,13 @@
         <v>6</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -4343,13 +4415,13 @@
         <v>6</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -4357,13 +4429,13 @@
         <v>6</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -4371,13 +4443,13 @@
         <v>6</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -4394,7 +4466,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>6</v>
       </c>
@@ -4472,7 +4544,7 @@
         <v>327</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>304</v>
@@ -4777,13 +4849,13 @@
         <v>6</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -4794,7 +4866,7 @@
         <v>311</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>0</v>
+        <v>807</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>284</v>
@@ -4847,13 +4919,13 @@
         <v>6</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -4931,13 +5003,13 @@
         <v>6</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -5029,13 +5101,13 @@
         <v>6</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -5043,13 +5115,13 @@
         <v>6</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -5057,13 +5129,13 @@
         <v>6</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -5113,13 +5185,13 @@
         <v>6</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -5127,13 +5199,13 @@
         <v>6</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -5141,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -5155,13 +5227,13 @@
         <v>6</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -5183,13 +5255,13 @@
         <v>6</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -5197,13 +5269,13 @@
         <v>6</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -5253,13 +5325,13 @@
         <v>6</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -5309,7 +5381,7 @@
         <v>7</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>19</v>
@@ -5365,13 +5437,13 @@
         <v>7</v>
       </c>
       <c r="B171" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D171" s="6" t="s">
         <v>553</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D171" s="6" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -5379,13 +5451,13 @@
         <v>7</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -5421,13 +5493,13 @@
         <v>7</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -5435,7 +5507,7 @@
         <v>7</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C176" s="6" t="s">
         <v>19</v>
@@ -6225,7 +6297,7 @@
         <v>0</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6247,13 +6319,13 @@
         <v>7</v>
       </c>
       <c r="B234" s="11" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C234" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6261,13 +6333,13 @@
         <v>7</v>
       </c>
       <c r="B235" s="11" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C235" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6275,13 +6347,13 @@
         <v>7</v>
       </c>
       <c r="B236" s="11" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C236" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6289,13 +6361,13 @@
         <v>7</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C237" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6303,7 +6375,7 @@
         <v>7</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C238" s="6" t="s">
         <v>19</v>
@@ -6317,7 +6389,7 @@
         <v>7</v>
       </c>
       <c r="B239" s="11" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C239" s="6" t="s">
         <v>19</v>
@@ -6331,13 +6403,13 @@
         <v>7</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C240" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6345,7 +6417,7 @@
         <v>7</v>
       </c>
       <c r="B241" s="11" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C241" s="6" t="s">
         <v>19</v>
@@ -6359,7 +6431,7 @@
         <v>7</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C242" s="6" t="s">
         <v>19</v>
@@ -6457,7 +6529,7 @@
         <v>7</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C249" s="6" t="s">
         <v>19</v>
@@ -6471,7 +6543,7 @@
         <v>7</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C250" s="6" t="s">
         <v>19</v>
@@ -6485,7 +6557,7 @@
         <v>7</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C251" s="6" t="s">
         <v>19</v>
@@ -6594,496 +6666,496 @@
     </row>
     <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C259" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B260" s="11" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C260" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B261" s="11" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C261" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C262" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B263" s="11" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C263" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B264" s="11" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C264" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B265" s="11" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C265" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B266" s="11" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C266" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B267" s="11" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C267" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B268" s="11" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C268" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B269" s="11" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C269" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C270" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B271" s="11" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C271" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D271" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B272" s="11" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C272" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D272" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B273" s="11" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C273" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D273" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="6" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B274" s="11" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C274" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D274" s="6" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="B275" s="11" t="s">
         <v>680</v>
       </c>
-      <c r="B275" s="11" t="s">
-        <v>682</v>
-      </c>
       <c r="C275" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="D275" s="6" t="s">
         <v>683</v>
-      </c>
-      <c r="D275" s="6" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="6" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B276" s="11" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D276" s="6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="6" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B277" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C277" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D277" s="6" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="6" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B278" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C278" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D278" s="6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="6" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B279" s="11" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C279" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D279" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="6" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B280" s="11" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C280" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D280" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="6" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B281" s="11" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C281" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D281" s="6" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B282" s="11" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C282" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D282" s="6" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B283" s="11" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C283" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D283" s="6" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B284" s="11" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D284" s="6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B285" s="11" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C285" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D285" s="6" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C286" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D286" s="6" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B287" s="11" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C287" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D287" s="6" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="6" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B288" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="C288" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="D288" s="6" t="s">
         <v>722</v>
-      </c>
-      <c r="C288" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="D288" s="6" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="6" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B289" s="11" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="6" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B290" s="11" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="6" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C292" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D292" s="6" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B293" s="11" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C293" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D293" s="6" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="6" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B294" s="11" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B295" s="11" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C295" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D295" s="6" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7091,13 +7163,13 @@
         <v>7</v>
       </c>
       <c r="B296" s="11" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C296" s="6" t="s">
         <v>77</v>
       </c>
       <c r="D296" s="6" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7105,13 +7177,13 @@
         <v>166</v>
       </c>
       <c r="B297" s="11" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C297" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D297" s="6" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7119,13 +7191,13 @@
         <v>7</v>
       </c>
       <c r="B298" s="11" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C298" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D298" s="6" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7133,13 +7205,13 @@
         <v>7</v>
       </c>
       <c r="B299" s="11" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C299" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D299" s="6" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7147,13 +7219,13 @@
         <v>7</v>
       </c>
       <c r="B300" s="11" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C300" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D300" s="6" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7161,13 +7233,13 @@
         <v>7</v>
       </c>
       <c r="B301" s="11" t="s">
+        <v>750</v>
+      </c>
+      <c r="C301" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" s="6" t="s">
         <v>752</v>
-      </c>
-      <c r="C301" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D301" s="6" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7175,13 +7247,13 @@
         <v>7</v>
       </c>
       <c r="B302" s="11" t="s">
+        <v>751</v>
+      </c>
+      <c r="C302" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D302" s="6" t="s">
         <v>753</v>
-      </c>
-      <c r="C302" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D302" s="6" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7189,13 +7261,13 @@
         <v>7</v>
       </c>
       <c r="B303" s="11" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C303" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D303" s="6" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7203,13 +7275,13 @@
         <v>7</v>
       </c>
       <c r="B304" s="11" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C304" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D304" s="6" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7217,13 +7289,13 @@
         <v>7</v>
       </c>
       <c r="B305" s="11" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C305" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D305" s="6" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7231,13 +7303,13 @@
         <v>7</v>
       </c>
       <c r="B306" s="11" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C306" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D306" s="6" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7245,13 +7317,13 @@
         <v>7</v>
       </c>
       <c r="B307" s="11" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C307" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D307" s="6" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7259,13 +7331,13 @@
         <v>7</v>
       </c>
       <c r="B308" s="11" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C308" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D308" s="6" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7273,13 +7345,13 @@
         <v>7</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C309" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7287,13 +7359,13 @@
         <v>123</v>
       </c>
       <c r="B310" s="11" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C310" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D310" s="6" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7301,13 +7373,13 @@
         <v>7</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C311" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D311" s="6" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7315,13 +7387,13 @@
         <v>7</v>
       </c>
       <c r="B312" s="11" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C312" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D312" s="6" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7329,13 +7401,13 @@
         <v>7</v>
       </c>
       <c r="B313" s="11" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C313" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D313" s="6" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7343,13 +7415,13 @@
         <v>7</v>
       </c>
       <c r="B314" s="11" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C314" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D314" s="6" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7357,13 +7429,13 @@
         <v>7</v>
       </c>
       <c r="B315" s="11" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C315" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D315" s="6" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7371,13 +7443,13 @@
         <v>7</v>
       </c>
       <c r="B316" s="11" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C316" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D316" s="6" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7385,13 +7457,13 @@
         <v>7</v>
       </c>
       <c r="B317" s="11" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C317" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D317" s="6" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7399,55 +7471,55 @@
         <v>7</v>
       </c>
       <c r="B318" s="11" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C318" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D318" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="B319" s="11" t="s">
+        <v>800</v>
+      </c>
+      <c r="C319" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D319" s="6" t="s">
         <v>801</v>
-      </c>
-      <c r="B319" s="11" t="s">
-        <v>802</v>
-      </c>
-      <c r="C319" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D319" s="6" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="B320" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="C320" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D320" s="6" t="s">
         <v>801</v>
-      </c>
-      <c r="B320" s="11" t="s">
-        <v>804</v>
-      </c>
-      <c r="C320" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D320" s="6" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="B321" s="11" t="s">
+        <v>803</v>
+      </c>
+      <c r="C321" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D321" s="6" t="s">
         <v>801</v>
-      </c>
-      <c r="B321" s="11" t="s">
-        <v>805</v>
-      </c>
-      <c r="C321" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D321" s="6" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7455,20 +7527,206 @@
         <v>6</v>
       </c>
       <c r="B322" s="11" t="s">
+        <v>804</v>
+      </c>
+      <c r="C322" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D322" s="6" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A323" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B323" s="11" t="s">
         <v>806</v>
       </c>
-      <c r="C322" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D322" s="6" t="s">
+      <c r="C323" s="6" t="s">
         <v>807</v>
       </c>
+      <c r="D323" s="6" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A324" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B324" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="C324" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D324" s="6" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A325" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B325" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="C325" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D325" s="6" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A326" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B326" s="11" t="s">
+        <v>813</v>
+      </c>
+      <c r="C326" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D326" s="6" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A327" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B327" s="11" t="s">
+        <v>814</v>
+      </c>
+      <c r="C327" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D327" s="6" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A328" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B328" s="11" t="s">
+        <v>817</v>
+      </c>
+      <c r="C328" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D328" s="6" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A329" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B329" s="11" t="s">
+        <v>818</v>
+      </c>
+      <c r="C329" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D329" s="6" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A330" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B330" s="11" t="s">
+        <v>819</v>
+      </c>
+      <c r="C330" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D330" s="6" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A331" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B331" s="11" t="s">
+        <v>821</v>
+      </c>
+      <c r="C331" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D331" s="6" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A332" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B332" s="11" t="s">
+        <v>823</v>
+      </c>
+      <c r="C332" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D332" s="6" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A333" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B333" s="11" t="s">
+        <v>825</v>
+      </c>
+      <c r="C333" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D333" s="6" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B334" s="11" t="s">
+        <v>829</v>
+      </c>
+      <c r="C334" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D334" s="6" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B335" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="C335" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D335" s="6" t="s">
+        <v>412</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D322" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}">
+  <autoFilter ref="A1:D335" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}">
     <filterColumn colId="1">
       <filters>
-        <filter val="df.head(int)"/>
+        <filter val="df.dropna()"/>
+        <filter val="df.dropna(axis=1)"/>
+        <filter val="df.dropna(axis='columns')"/>
+        <filter val="df.dropna(how='all')"/>
+        <filter val="df.dropna(subset=['colname1', 'colname2'])"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -7514,13 +7772,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -7528,13 +7786,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>541</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>622</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -7548,7 +7806,7 @@
         <v>403</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -7559,7 +7817,7 @@
         <v>335</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>355</v>
@@ -7573,7 +7831,7 @@
         <v>335</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>356</v>
@@ -7584,13 +7842,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -7601,7 +7859,7 @@
         <v>409</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>412</v>
@@ -7615,7 +7873,7 @@
         <v>409</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>414</v>
@@ -7629,7 +7887,7 @@
         <v>409</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>410</v>
@@ -7640,10 +7898,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -7651,13 +7909,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>581</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>582</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -7665,13 +7923,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -7679,13 +7937,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -7693,13 +7951,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -7707,13 +7965,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -7721,13 +7979,13 @@
         <v>6</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -7735,13 +7993,13 @@
         <v>6</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -7749,13 +8007,13 @@
         <v>6</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -7763,13 +8021,13 @@
         <v>6</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -7777,13 +8035,13 @@
         <v>6</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C21" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>536</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -7791,13 +8049,13 @@
         <v>6</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -7805,10 +8063,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>449</v>
@@ -7819,13 +8077,13 @@
         <v>6</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -7833,10 +8091,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>448</v>
@@ -7847,13 +8105,13 @@
         <v>6</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -7861,13 +8119,13 @@
         <v>6</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -7875,346 +8133,346 @@
         <v>6</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B29" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>659</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="D29" s="6" t="s">
         <v>661</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B33" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>714</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>716</v>
-      </c>
       <c r="D33" s="6" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>670</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>671</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B35" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>670</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>718</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B36" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>698</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>700</v>
-      </c>
       <c r="D36" s="6" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>600</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>530</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>638</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>648</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -8222,13 +8480,13 @@
         <v>7</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -8236,13 +8494,13 @@
         <v>7</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
   </sheetData>
@@ -8327,10 +8585,10 @@
     </row>
     <row r="3" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
   </sheetData>
@@ -8418,22 +8676,22 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" s="7" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="B14" s="8" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
   </sheetData>
@@ -8467,18 +8725,18 @@
     </row>
     <row r="2" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
   </sheetData>

--- a/Конспект_Python.xlsx
+++ b/Конспект_Python.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\my_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE52FC3-5736-45FB-AF9F-CC6373CBA386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91470252-E532-42BC-844F-C5141860F2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16320" yWindow="4330" windowWidth="20790" windowHeight="15450" tabRatio="728" xr2:uid="{65C49AB7-91AD-4F1F-B814-EFF7DAC5AF74}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="728" xr2:uid="{65C49AB7-91AD-4F1F-B814-EFF7DAC5AF74}"/>
   </bookViews>
   <sheets>
     <sheet name="Операторы" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Атрибуты!$A$1:$D$54</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Генераторы списков'!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Операторы!$A$1:$D$335</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Операторы!$A$1:$D$341</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Функции!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="844">
   <si>
     <t>Функция</t>
   </si>
@@ -2594,6 +2594,42 @@
   </si>
   <si>
     <t>df.dropna(axis='columns')</t>
+  </si>
+  <si>
+    <t>df.duplicated().sum()</t>
+  </si>
+  <si>
+    <t>df.duplicated()</t>
+  </si>
+  <si>
+    <t>Выводит список Series где указано является ли строка дубликатом или нет</t>
+  </si>
+  <si>
+    <t>Считает сумму задублированных строк</t>
+  </si>
+  <si>
+    <t>df[df.duplicated()]</t>
+  </si>
+  <si>
+    <t>Выводит ДатаФрейм состоящий из дубликатов</t>
+  </si>
+  <si>
+    <t>df.reset_index()</t>
+  </si>
+  <si>
+    <t>Обновляет индексы по всему ДатаФрейму выстраивая их по порядку от 0</t>
+  </si>
+  <si>
+    <t>df.drop_duplicates().reset_index()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">df.drop_duplicates().reset_index(drop=True) </t>
+  </si>
+  <si>
+    <t>Выкидываем дубликаты из таблицы и обновляем индексы (старые сохраняем в отдельном столбце)</t>
+  </si>
+  <si>
+    <t>Выкидываем дубликаты из таблицы и обновляем индексы (старые удаляются)</t>
   </si>
 </sst>
 </file>
@@ -3036,23 +3072,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}">
   <sheetPr codeName="Лист1" filterMode="1"/>
-  <dimension ref="A1:D335"/>
+  <dimension ref="A1:D341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B342" sqref="B342"/>
+      <selection pane="bottomLeft" activeCell="D342" sqref="D342"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.1796875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.453125" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="10"/>
+    <col min="1" max="1" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.140625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.42578125" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -3066,7 +3102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>131</v>
       </c>
@@ -3080,7 +3116,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>131</v>
       </c>
@@ -3094,7 +3130,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>131</v>
       </c>
@@ -3108,7 +3144,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>131</v>
       </c>
@@ -3122,7 +3158,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
@@ -3136,7 +3172,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
@@ -3150,7 +3186,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>35</v>
       </c>
@@ -3164,7 +3200,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
@@ -3178,7 +3214,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>35</v>
       </c>
@@ -3192,7 +3228,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>35</v>
       </c>
@@ -3206,7 +3242,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
@@ -3220,7 +3256,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>35</v>
       </c>
@@ -3234,7 +3270,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>119</v>
       </c>
@@ -3248,7 +3284,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>119</v>
       </c>
@@ -3262,7 +3298,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>133</v>
       </c>
@@ -3276,7 +3312,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>133</v>
       </c>
@@ -3290,7 +3326,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>133</v>
       </c>
@@ -3304,7 +3340,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>142</v>
       </c>
@@ -3318,7 +3354,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>142</v>
       </c>
@@ -3332,7 +3368,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>142</v>
       </c>
@@ -3346,7 +3382,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>142</v>
       </c>
@@ -3360,7 +3396,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>15</v>
       </c>
@@ -3374,7 +3410,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>123</v>
       </c>
@@ -3388,7 +3424,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>123</v>
       </c>
@@ -3402,7 +3438,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>123</v>
       </c>
@@ -3416,7 +3452,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>123</v>
       </c>
@@ -3430,7 +3466,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>486</v>
       </c>
@@ -3444,7 +3480,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>486</v>
       </c>
@@ -3458,7 +3494,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>486</v>
       </c>
@@ -3472,7 +3508,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>486</v>
       </c>
@@ -3486,7 +3522,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>377</v>
       </c>
@@ -3500,7 +3536,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>377</v>
       </c>
@@ -3514,7 +3550,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>377</v>
       </c>
@@ -3528,7 +3564,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>377</v>
       </c>
@@ -3542,7 +3578,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>377</v>
       </c>
@@ -3556,7 +3592,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>377</v>
       </c>
@@ -3570,7 +3606,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>253</v>
       </c>
@@ -3584,7 +3620,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>253</v>
       </c>
@@ -3598,7 +3634,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>253</v>
       </c>
@@ -3612,7 +3648,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>253</v>
       </c>
@@ -3626,7 +3662,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>253</v>
       </c>
@@ -3640,7 +3676,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>253</v>
       </c>
@@ -3654,7 +3690,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>253</v>
       </c>
@@ -3668,7 +3704,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>253</v>
       </c>
@@ -3682,7 +3718,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>6</v>
       </c>
@@ -3696,7 +3732,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>6</v>
       </c>
@@ -3710,7 +3746,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>6</v>
       </c>
@@ -3724,7 +3760,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>6</v>
       </c>
@@ -3738,7 +3774,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>6</v>
       </c>
@@ -3752,7 +3788,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>6</v>
       </c>
@@ -3766,7 +3802,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>6</v>
       </c>
@@ -3780,7 +3816,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>6</v>
       </c>
@@ -3794,7 +3830,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>6</v>
       </c>
@@ -3808,7 +3844,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>6</v>
       </c>
@@ -3822,7 +3858,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>6</v>
       </c>
@@ -3836,7 +3872,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>6</v>
       </c>
@@ -3850,7 +3886,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>6</v>
       </c>
@@ -3864,7 +3900,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>6</v>
       </c>
@@ -3878,7 +3914,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>6</v>
       </c>
@@ -3892,7 +3928,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>6</v>
       </c>
@@ -3906,7 +3942,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>6</v>
       </c>
@@ -3920,7 +3956,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>6</v>
       </c>
@@ -3934,7 +3970,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>6</v>
       </c>
@@ -3948,7 +3984,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>6</v>
       </c>
@@ -3962,7 +3998,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>6</v>
       </c>
@@ -3976,7 +4012,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>6</v>
       </c>
@@ -3990,7 +4026,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>6</v>
       </c>
@@ -4004,7 +4040,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>6</v>
       </c>
@@ -4018,7 +4054,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>6</v>
       </c>
@@ -4032,7 +4068,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>6</v>
       </c>
@@ -4046,7 +4082,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>6</v>
       </c>
@@ -4060,7 +4096,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>6</v>
       </c>
@@ -4074,7 +4110,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>6</v>
       </c>
@@ -4088,7 +4124,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>6</v>
       </c>
@@ -4102,7 +4138,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>6</v>
       </c>
@@ -4116,7 +4152,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>6</v>
       </c>
@@ -4130,7 +4166,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>6</v>
       </c>
@@ -4144,7 +4180,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>6</v>
       </c>
@@ -4158,7 +4194,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>6</v>
       </c>
@@ -4172,7 +4208,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>6</v>
       </c>
@@ -4186,7 +4222,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>6</v>
       </c>
@@ -4200,7 +4236,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>6</v>
       </c>
@@ -4214,7 +4250,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>6</v>
       </c>
@@ -4228,7 +4264,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>6</v>
       </c>
@@ -4242,7 +4278,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>6</v>
       </c>
@@ -4256,7 +4292,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>6</v>
       </c>
@@ -4270,7 +4306,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>6</v>
       </c>
@@ -4284,7 +4320,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>6</v>
       </c>
@@ -4298,7 +4334,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>6</v>
       </c>
@@ -4312,7 +4348,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>6</v>
       </c>
@@ -4326,7 +4362,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
         <v>6</v>
       </c>
@@ -4340,7 +4376,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>6</v>
       </c>
@@ -4354,7 +4390,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
         <v>6</v>
       </c>
@@ -4368,7 +4404,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>6</v>
       </c>
@@ -4382,7 +4418,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
         <v>6</v>
       </c>
@@ -4396,7 +4432,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
         <v>6</v>
       </c>
@@ -4410,7 +4446,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>6</v>
       </c>
@@ -4424,7 +4460,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>6</v>
       </c>
@@ -4438,7 +4474,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
         <v>6</v>
       </c>
@@ -4452,7 +4488,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>6</v>
       </c>
@@ -4466,7 +4502,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>6</v>
       </c>
@@ -4480,7 +4516,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>6</v>
       </c>
@@ -4494,7 +4530,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>6</v>
       </c>
@@ -4508,7 +4544,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>6</v>
       </c>
@@ -4522,7 +4558,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>6</v>
       </c>
@@ -4536,7 +4572,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
         <v>6</v>
       </c>
@@ -4550,7 +4586,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>6</v>
       </c>
@@ -4564,7 +4600,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>6</v>
       </c>
@@ -4578,7 +4614,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
         <v>6</v>
       </c>
@@ -4592,7 +4628,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
         <v>6</v>
       </c>
@@ -4606,7 +4642,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>6</v>
       </c>
@@ -4620,7 +4656,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
         <v>6</v>
       </c>
@@ -4634,7 +4670,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
         <v>6</v>
       </c>
@@ -4648,7 +4684,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
         <v>6</v>
       </c>
@@ -4662,7 +4698,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
         <v>6</v>
       </c>
@@ -4676,7 +4712,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
         <v>6</v>
       </c>
@@ -4690,7 +4726,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
         <v>6</v>
       </c>
@@ -4704,7 +4740,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
         <v>6</v>
       </c>
@@ -4718,7 +4754,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
         <v>6</v>
       </c>
@@ -4732,7 +4768,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
         <v>6</v>
       </c>
@@ -4746,7 +4782,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
         <v>6</v>
       </c>
@@ -4760,7 +4796,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>6</v>
       </c>
@@ -4774,7 +4810,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
         <v>6</v>
       </c>
@@ -4788,7 +4824,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
         <v>6</v>
       </c>
@@ -4802,7 +4838,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
         <v>6</v>
       </c>
@@ -4816,7 +4852,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
         <v>6</v>
       </c>
@@ -4830,7 +4866,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
         <v>6</v>
       </c>
@@ -4844,7 +4880,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
         <v>6</v>
       </c>
@@ -4858,7 +4894,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
         <v>6</v>
       </c>
@@ -4872,7 +4908,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
         <v>6</v>
       </c>
@@ -4886,7 +4922,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
         <v>6</v>
       </c>
@@ -4900,7 +4936,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
         <v>6</v>
       </c>
@@ -4914,7 +4950,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
         <v>6</v>
       </c>
@@ -4928,7 +4964,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
         <v>6</v>
       </c>
@@ -4942,7 +4978,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
         <v>6</v>
       </c>
@@ -4956,7 +4992,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
         <v>6</v>
       </c>
@@ -4970,7 +5006,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
         <v>6</v>
       </c>
@@ -4984,7 +5020,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
         <v>6</v>
       </c>
@@ -4998,7 +5034,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
         <v>6</v>
       </c>
@@ -5012,7 +5048,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
         <v>6</v>
       </c>
@@ -5026,7 +5062,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
         <v>6</v>
       </c>
@@ -5040,7 +5076,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
         <v>6</v>
       </c>
@@ -5054,7 +5090,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
         <v>6</v>
       </c>
@@ -5068,7 +5104,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
         <v>6</v>
       </c>
@@ -5082,7 +5118,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
         <v>6</v>
       </c>
@@ -5096,7 +5132,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
         <v>6</v>
       </c>
@@ -5110,7 +5146,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
         <v>6</v>
       </c>
@@ -5124,7 +5160,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
         <v>6</v>
       </c>
@@ -5138,7 +5174,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
         <v>6</v>
       </c>
@@ -5152,7 +5188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
         <v>6</v>
       </c>
@@ -5166,7 +5202,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
         <v>6</v>
       </c>
@@ -5180,7 +5216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
         <v>6</v>
       </c>
@@ -5194,7 +5230,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
         <v>6</v>
       </c>
@@ -5208,7 +5244,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
         <v>6</v>
       </c>
@@ -5222,7 +5258,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
         <v>6</v>
       </c>
@@ -5236,7 +5272,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
         <v>6</v>
       </c>
@@ -5250,7 +5286,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
         <v>6</v>
       </c>
@@ -5264,7 +5300,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
         <v>6</v>
       </c>
@@ -5278,7 +5314,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
         <v>6</v>
       </c>
@@ -5292,7 +5328,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="s">
         <v>6</v>
       </c>
@@ -5306,7 +5342,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
         <v>6</v>
       </c>
@@ -5320,7 +5356,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
         <v>6</v>
       </c>
@@ -5334,7 +5370,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="6" t="s">
         <v>6</v>
       </c>
@@ -5348,7 +5384,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
         <v>6</v>
       </c>
@@ -5362,7 +5398,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
         <v>7</v>
       </c>
@@ -5376,7 +5412,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
         <v>7</v>
       </c>
@@ -5390,7 +5426,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
         <v>7</v>
       </c>
@@ -5404,7 +5440,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="6" t="s">
         <v>7</v>
       </c>
@@ -5418,7 +5454,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
         <v>7</v>
       </c>
@@ -5432,7 +5468,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
         <v>7</v>
       </c>
@@ -5446,7 +5482,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
         <v>7</v>
       </c>
@@ -5460,7 +5496,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
         <v>7</v>
       </c>
@@ -5474,7 +5510,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="6" t="s">
         <v>7</v>
       </c>
@@ -5488,7 +5524,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
         <v>7</v>
       </c>
@@ -5502,7 +5538,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="6" t="s">
         <v>7</v>
       </c>
@@ -5516,7 +5552,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="6" t="s">
         <v>7</v>
       </c>
@@ -5530,7 +5566,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="6" t="s">
         <v>7</v>
       </c>
@@ -5544,7 +5580,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="6" t="s">
         <v>7</v>
       </c>
@@ -5558,7 +5594,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="6" t="s">
         <v>7</v>
       </c>
@@ -5572,7 +5608,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="6" t="s">
         <v>7</v>
       </c>
@@ -5586,7 +5622,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="s">
         <v>7</v>
       </c>
@@ -5600,7 +5636,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="6" t="s">
         <v>7</v>
       </c>
@@ -5614,7 +5650,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="6" t="s">
         <v>7</v>
       </c>
@@ -5628,7 +5664,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="6" t="s">
         <v>7</v>
       </c>
@@ -5642,7 +5678,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="6" t="s">
         <v>7</v>
       </c>
@@ -5656,7 +5692,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="6" t="s">
         <v>7</v>
       </c>
@@ -5670,7 +5706,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="6" t="s">
         <v>7</v>
       </c>
@@ -5684,7 +5720,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
         <v>7</v>
       </c>
@@ -5698,7 +5734,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="6" t="s">
         <v>7</v>
       </c>
@@ -5712,7 +5748,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="6" t="s">
         <v>7</v>
       </c>
@@ -5726,7 +5762,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="6" t="s">
         <v>7</v>
       </c>
@@ -5740,7 +5776,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="6" t="s">
         <v>7</v>
       </c>
@@ -5754,7 +5790,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="6" t="s">
         <v>7</v>
       </c>
@@ -5768,7 +5804,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="6" t="s">
         <v>7</v>
       </c>
@@ -5782,7 +5818,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="6" t="s">
         <v>7</v>
       </c>
@@ -5796,7 +5832,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="6" t="s">
         <v>7</v>
       </c>
@@ -5810,7 +5846,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="6" t="s">
         <v>7</v>
       </c>
@@ -5824,7 +5860,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
         <v>7</v>
       </c>
@@ -5838,7 +5874,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="6" t="s">
         <v>7</v>
       </c>
@@ -5852,7 +5888,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
         <v>7</v>
       </c>
@@ -5866,7 +5902,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
         <v>7</v>
       </c>
@@ -5880,7 +5916,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="6" t="s">
         <v>7</v>
       </c>
@@ -5894,7 +5930,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
         <v>7</v>
       </c>
@@ -5908,7 +5944,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
         <v>7</v>
       </c>
@@ -5922,7 +5958,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="6" t="s">
         <v>7</v>
       </c>
@@ -5936,7 +5972,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
         <v>7</v>
       </c>
@@ -5950,7 +5986,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="6" t="s">
         <v>7</v>
       </c>
@@ -5964,7 +6000,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="6" t="s">
         <v>7</v>
       </c>
@@ -5978,7 +6014,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="6" t="s">
         <v>7</v>
       </c>
@@ -5992,7 +6028,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="6" t="s">
         <v>7</v>
       </c>
@@ -6006,7 +6042,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="6" t="s">
         <v>7</v>
       </c>
@@ -6020,7 +6056,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="6" t="s">
         <v>7</v>
       </c>
@@ -6034,7 +6070,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
         <v>7</v>
       </c>
@@ -6048,7 +6084,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="6" t="s">
         <v>7</v>
       </c>
@@ -6062,7 +6098,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="6" t="s">
         <v>7</v>
       </c>
@@ -6076,7 +6112,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
         <v>7</v>
       </c>
@@ -6090,7 +6126,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
         <v>7</v>
       </c>
@@ -6104,7 +6140,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="6" t="s">
         <v>7</v>
       </c>
@@ -6118,7 +6154,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="6" t="s">
         <v>7</v>
       </c>
@@ -6132,7 +6168,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="6" t="s">
         <v>7</v>
       </c>
@@ -6146,7 +6182,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="6" t="s">
         <v>7</v>
       </c>
@@ -6160,7 +6196,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
         <v>7</v>
       </c>
@@ -6174,7 +6210,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="6" t="s">
         <v>7</v>
       </c>
@@ -6188,7 +6224,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="6" t="s">
         <v>7</v>
       </c>
@@ -6202,7 +6238,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="6" t="s">
         <v>7</v>
       </c>
@@ -6216,7 +6252,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="6" t="s">
         <v>7</v>
       </c>
@@ -6230,7 +6266,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="6" t="s">
         <v>7</v>
       </c>
@@ -6244,7 +6280,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="6" t="s">
         <v>7</v>
       </c>
@@ -6258,7 +6294,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="6" t="s">
         <v>7</v>
       </c>
@@ -6272,7 +6308,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="6" t="s">
         <v>7</v>
       </c>
@@ -6286,7 +6322,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="6" t="s">
         <v>7</v>
       </c>
@@ -6300,7 +6336,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="6" t="s">
         <v>7</v>
       </c>
@@ -6314,7 +6350,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="s">
         <v>7</v>
       </c>
@@ -6328,7 +6364,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="s">
         <v>7</v>
       </c>
@@ -6342,7 +6378,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="6" t="s">
         <v>7</v>
       </c>
@@ -6356,7 +6392,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="6" t="s">
         <v>7</v>
       </c>
@@ -6370,7 +6406,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="6" t="s">
         <v>7</v>
       </c>
@@ -6384,7 +6420,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="6" t="s">
         <v>7</v>
       </c>
@@ -6398,7 +6434,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="6" t="s">
         <v>7</v>
       </c>
@@ -6412,7 +6448,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="6" t="s">
         <v>7</v>
       </c>
@@ -6426,7 +6462,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="6" t="s">
         <v>7</v>
       </c>
@@ -6440,7 +6476,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="6" t="s">
         <v>7</v>
       </c>
@@ -6454,7 +6490,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="6" t="s">
         <v>7</v>
       </c>
@@ -6468,7 +6504,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="6" t="s">
         <v>7</v>
       </c>
@@ -6482,7 +6518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="6" t="s">
         <v>7</v>
       </c>
@@ -6496,7 +6532,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="6" t="s">
         <v>7</v>
       </c>
@@ -6510,7 +6546,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="6" t="s">
         <v>7</v>
       </c>
@@ -6524,7 +6560,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="6" t="s">
         <v>7</v>
       </c>
@@ -6538,7 +6574,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="6" t="s">
         <v>7</v>
       </c>
@@ -6552,7 +6588,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="6" t="s">
         <v>7</v>
       </c>
@@ -6566,7 +6602,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="6" t="s">
         <v>7</v>
       </c>
@@ -6580,7 +6616,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="6" t="s">
         <v>7</v>
       </c>
@@ -6594,7 +6630,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="6" t="s">
         <v>7</v>
       </c>
@@ -6608,7 +6644,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="6" t="s">
         <v>166</v>
       </c>
@@ -6622,7 +6658,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="6" t="s">
         <v>235</v>
       </c>
@@ -6636,7 +6672,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="6" t="s">
         <v>235</v>
       </c>
@@ -6650,7 +6686,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="6" t="s">
         <v>235</v>
       </c>
@@ -6664,7 +6700,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="6" t="s">
         <v>486</v>
       </c>
@@ -6678,7 +6714,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="6" t="s">
         <v>486</v>
       </c>
@@ -6692,7 +6728,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="6" t="s">
         <v>486</v>
       </c>
@@ -6706,7 +6742,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="6" t="s">
         <v>486</v>
       </c>
@@ -6720,7 +6756,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="6" t="s">
         <v>486</v>
       </c>
@@ -6734,7 +6770,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="6" t="s">
         <v>486</v>
       </c>
@@ -6748,7 +6784,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="6" t="s">
         <v>486</v>
       </c>
@@ -6762,7 +6798,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="6" t="s">
         <v>486</v>
       </c>
@@ -6776,7 +6812,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="s">
         <v>486</v>
       </c>
@@ -6790,7 +6826,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="6" t="s">
         <v>486</v>
       </c>
@@ -6804,7 +6840,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="6" t="s">
         <v>486</v>
       </c>
@@ -6818,7 +6854,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="6" t="s">
         <v>486</v>
       </c>
@@ -6832,7 +6868,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="6" t="s">
         <v>486</v>
       </c>
@@ -6846,7 +6882,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="6" t="s">
         <v>486</v>
       </c>
@@ -6860,7 +6896,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="6" t="s">
         <v>486</v>
       </c>
@@ -6874,7 +6910,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="6" t="s">
         <v>678</v>
       </c>
@@ -6888,7 +6924,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="6" t="s">
         <v>678</v>
       </c>
@@ -6902,7 +6938,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="6" t="s">
         <v>678</v>
       </c>
@@ -6916,7 +6952,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="6" t="s">
         <v>678</v>
       </c>
@@ -6930,7 +6966,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="6" t="s">
         <v>678</v>
       </c>
@@ -6944,7 +6980,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="6" t="s">
         <v>678</v>
       </c>
@@ -6958,7 +6994,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="6" t="s">
         <v>678</v>
       </c>
@@ -6972,7 +7008,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="6" t="s">
         <v>678</v>
       </c>
@@ -6986,7 +7022,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="6" t="s">
         <v>486</v>
       </c>
@@ -7000,7 +7036,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="6" t="s">
         <v>486</v>
       </c>
@@ -7014,7 +7050,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="6" t="s">
         <v>486</v>
       </c>
@@ -7028,7 +7064,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="6" t="s">
         <v>486</v>
       </c>
@@ -7042,7 +7078,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="6" t="s">
         <v>718</v>
       </c>
@@ -7056,7 +7092,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="6" t="s">
         <v>718</v>
       </c>
@@ -7070,7 +7106,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="6" t="s">
         <v>678</v>
       </c>
@@ -7084,7 +7120,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="6" t="s">
         <v>678</v>
       </c>
@@ -7092,7 +7128,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="6" t="s">
         <v>678</v>
       </c>
@@ -7100,7 +7136,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="6" t="s">
         <v>678</v>
       </c>
@@ -7108,7 +7144,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="6" t="s">
         <v>486</v>
       </c>
@@ -7122,7 +7158,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="6" t="s">
         <v>486</v>
       </c>
@@ -7136,7 +7172,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="6" t="s">
         <v>678</v>
       </c>
@@ -7144,7 +7180,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="6" t="s">
         <v>486</v>
       </c>
@@ -7158,7 +7194,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="6" t="s">
         <v>7</v>
       </c>
@@ -7172,7 +7208,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="6" t="s">
         <v>166</v>
       </c>
@@ -7186,7 +7222,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="6" t="s">
         <v>7</v>
       </c>
@@ -7200,7 +7236,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="6" t="s">
         <v>7</v>
       </c>
@@ -7214,7 +7250,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="6" t="s">
         <v>7</v>
       </c>
@@ -7228,7 +7264,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="6" t="s">
         <v>7</v>
       </c>
@@ -7242,7 +7278,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="6" t="s">
         <v>7</v>
       </c>
@@ -7256,7 +7292,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="6" t="s">
         <v>7</v>
       </c>
@@ -7270,7 +7306,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="6" t="s">
         <v>7</v>
       </c>
@@ -7284,7 +7320,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="6" t="s">
         <v>7</v>
       </c>
@@ -7298,7 +7334,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="6" t="s">
         <v>7</v>
       </c>
@@ -7312,7 +7348,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="6" t="s">
         <v>7</v>
       </c>
@@ -7326,7 +7362,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="6" t="s">
         <v>7</v>
       </c>
@@ -7340,7 +7376,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="6" t="s">
         <v>7</v>
       </c>
@@ -7354,7 +7390,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="6" t="s">
         <v>123</v>
       </c>
@@ -7368,7 +7404,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="6" t="s">
         <v>7</v>
       </c>
@@ -7382,7 +7418,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="6" t="s">
         <v>7</v>
       </c>
@@ -7396,7 +7432,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="6" t="s">
         <v>7</v>
       </c>
@@ -7410,7 +7446,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="6" t="s">
         <v>7</v>
       </c>
@@ -7424,7 +7460,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="6" t="s">
         <v>7</v>
       </c>
@@ -7438,7 +7474,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="6" t="s">
         <v>7</v>
       </c>
@@ -7452,7 +7488,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="6" t="s">
         <v>7</v>
       </c>
@@ -7466,7 +7502,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="6" t="s">
         <v>7</v>
       </c>
@@ -7480,7 +7516,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="6" t="s">
         <v>799</v>
       </c>
@@ -7494,7 +7530,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="6" t="s">
         <v>799</v>
       </c>
@@ -7508,7 +7544,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="6" t="s">
         <v>799</v>
       </c>
@@ -7522,7 +7558,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="6" t="s">
         <v>6</v>
       </c>
@@ -7536,7 +7572,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="6" t="s">
         <v>6</v>
       </c>
@@ -7550,7 +7586,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="6" t="s">
         <v>6</v>
       </c>
@@ -7564,7 +7600,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="6" t="s">
         <v>6</v>
       </c>
@@ -7578,7 +7614,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="6" t="s">
         <v>6</v>
       </c>
@@ -7592,7 +7628,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="6" t="s">
         <v>6</v>
       </c>
@@ -7606,7 +7642,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="6" t="s">
         <v>6</v>
       </c>
@@ -7620,7 +7656,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="6" t="s">
         <v>6</v>
       </c>
@@ -7634,7 +7670,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="6" t="s">
         <v>6</v>
       </c>
@@ -7648,7 +7684,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" s="6" t="s">
         <v>6</v>
       </c>
@@ -7662,7 +7698,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="6" t="s">
         <v>6</v>
       </c>
@@ -7676,7 +7712,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="6" t="s">
         <v>6</v>
       </c>
@@ -7690,7 +7726,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="6" t="s">
         <v>6</v>
       </c>
@@ -7704,7 +7740,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="6" t="s">
         <v>6</v>
       </c>
@@ -7718,15 +7754,97 @@
         <v>412</v>
       </c>
     </row>
+    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A336" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B336" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="C336" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D336" s="6" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A337" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B337" s="11" t="s">
+        <v>833</v>
+      </c>
+      <c r="C337" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D337" s="6" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A338" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B338" s="11" t="s">
+        <v>836</v>
+      </c>
+      <c r="C338" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D338" s="6" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A339" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B339" s="11" t="s">
+        <v>838</v>
+      </c>
+      <c r="C339" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D339" s="6" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A340" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B340" s="11" t="s">
+        <v>840</v>
+      </c>
+      <c r="C340" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D340" s="6" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A341" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B341" s="11" t="s">
+        <v>841</v>
+      </c>
+      <c r="C341" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D341" s="6" t="s">
+        <v>843</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D335" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}">
+  <autoFilter ref="A1:D341" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}">
     <filterColumn colId="1">
       <filters>
-        <filter val="df.dropna()"/>
-        <filter val="df.dropna(axis=1)"/>
-        <filter val="df.dropna(axis='columns')"/>
-        <filter val="df.dropna(how='all')"/>
-        <filter val="df.dropna(subset=['colname1', 'colname2'])"/>
+        <filter val="df.replace({'colname': {'oldval': 'newval'}})"/>
+        <filter val="df.replace('oldval', 'newval')"/>
+        <filter val="str.replace('old-val', 'new-val')"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -7744,16 +7862,16 @@
       <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.26953125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="83.81640625" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="10"/>
+    <col min="1" max="1" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="83.85546875" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -7767,7 +7885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -7781,7 +7899,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -7795,7 +7913,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -7809,7 +7927,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -7823,7 +7941,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -7837,7 +7955,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -7851,7 +7969,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -7865,7 +7983,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -7879,7 +7997,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -7893,7 +8011,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
@@ -7904,7 +8022,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>7</v>
       </c>
@@ -7918,7 +8036,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
@@ -7932,7 +8050,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
@@ -7946,7 +8064,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -7960,7 +8078,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -7974,7 +8092,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -7988,7 +8106,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -8002,7 +8120,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -8016,7 +8134,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
@@ -8030,7 +8148,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -8044,7 +8162,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
@@ -8058,7 +8176,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
@@ -8072,7 +8190,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
@@ -8086,7 +8204,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
@@ -8100,7 +8218,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
@@ -8114,7 +8232,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -8128,7 +8246,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
@@ -8139,7 +8257,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>486</v>
       </c>
@@ -8153,7 +8271,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>486</v>
       </c>
@@ -8167,7 +8285,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>486</v>
       </c>
@@ -8181,7 +8299,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>486</v>
       </c>
@@ -8195,7 +8313,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>486</v>
       </c>
@@ -8209,7 +8327,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>486</v>
       </c>
@@ -8223,7 +8341,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>486</v>
       </c>
@@ -8237,7 +8355,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>486</v>
       </c>
@@ -8251,7 +8369,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>486</v>
       </c>
@@ -8265,7 +8383,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>486</v>
       </c>
@@ -8279,7 +8397,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>486</v>
       </c>
@@ -8293,7 +8411,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>486</v>
       </c>
@@ -8307,7 +8425,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>486</v>
       </c>
@@ -8321,7 +8439,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>486</v>
       </c>
@@ -8335,7 +8453,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>486</v>
       </c>
@@ -8349,7 +8467,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>486</v>
       </c>
@@ -8363,7 +8481,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>486</v>
       </c>
@@ -8377,7 +8495,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>486</v>
       </c>
@@ -8391,7 +8509,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>486</v>
       </c>
@@ -8405,7 +8523,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>486</v>
       </c>
@@ -8419,7 +8537,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>486</v>
       </c>
@@ -8433,7 +8551,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>486</v>
       </c>
@@ -8447,7 +8565,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>486</v>
       </c>
@@ -8461,7 +8579,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>486</v>
       </c>
@@ -8475,7 +8593,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>7</v>
       </c>
@@ -8489,7 +8607,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>7</v>
       </c>
@@ -8520,7 +8638,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8534,22 +8652,22 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="103.1796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="103.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>186</v>
       </c>
@@ -8567,23 +8685,23 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.54296875" customWidth="1"/>
+    <col min="1" max="1" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>742</v>
       </c>
@@ -8605,13 +8723,13 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="69.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="89" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>209</v>
       </c>
@@ -8619,7 +8737,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>211</v>
       </c>
@@ -8627,7 +8745,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>213</v>
       </c>
@@ -8635,7 +8753,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>214</v>
       </c>
@@ -8643,53 +8761,53 @@
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="203" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>794</v>
       </c>
@@ -8712,18 +8830,18 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.81640625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.85546875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>770</v>
       </c>
@@ -8731,7 +8849,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>792</v>
       </c>
@@ -8752,14 +8870,14 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="94.1796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="50.26953125" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="8.81640625" style="4"/>
+    <col min="1" max="1" width="94.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="50.28515625" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>224</v>
       </c>
@@ -8767,7 +8885,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>227</v>
       </c>
@@ -8775,7 +8893,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>229</v>
       </c>
@@ -8783,7 +8901,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>223</v>
       </c>
@@ -8791,17 +8909,17 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>231</v>
       </c>

--- a/Конспект_Python.xlsx
+++ b/Конспект_Python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\my_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91470252-E532-42BC-844F-C5141860F2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05BF12A-1576-45FF-878F-A318A41AFFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="728" xr2:uid="{65C49AB7-91AD-4F1F-B814-EFF7DAC5AF74}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="848">
   <si>
     <t>Функция</t>
   </si>
@@ -916,9 +916,6 @@
     <t>Записали DataFrame из переменной в файл</t>
   </si>
   <si>
-    <t>Устанавливаем значения параметров вывода DataFrame по умолчанию</t>
-  </si>
-  <si>
     <t>Возвращает последние строки из DataFrame в указанном количестве</t>
   </si>
   <si>
@@ -1409,9 +1406,6 @@
   </si>
   <si>
     <t>Заменить одно значение на другое по всему DataFrame</t>
-  </si>
-  <si>
-    <t>pd.set_option('attribute', val)</t>
   </si>
   <si>
     <t>pd.set_option('display.max_rows', val)</t>
@@ -2602,9 +2596,6 @@
     <t>df.duplicated()</t>
   </si>
   <si>
-    <t>Выводит список Series где указано является ли строка дубликатом или нет</t>
-  </si>
-  <si>
     <t>Считает сумму задублированных строк</t>
   </si>
   <si>
@@ -2630,6 +2621,27 @@
   </si>
   <si>
     <t>Выкидываем дубликаты из таблицы и обновляем индексы (старые удаляются)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">df[df.duplicated()] </t>
+  </si>
+  <si>
+    <t>Возвращает True/False. Выводит Series где указано является ли строка дубликатом или нет</t>
+  </si>
+  <si>
+    <t>Вывести строки дубликаты, мы обращаемся к логическому методу проверки</t>
+  </si>
+  <si>
+    <t>Установить параметр вывода таблицы. Максимальное количество строк</t>
+  </si>
+  <si>
+    <t>Установить параметр вывода таблицы. Максимальное количество столбцов</t>
+  </si>
+  <si>
+    <t>df.groupby('colname1')['colname2'].count()</t>
+  </si>
+  <si>
+    <t>Сгруппировать по первому столбцу и посчитать количество по второму</t>
   </si>
 </sst>
 </file>
@@ -3072,11 +3084,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}">
   <sheetPr codeName="Лист1" filterMode="1"/>
-  <dimension ref="A1:D341"/>
+  <dimension ref="A1:D342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D342" sqref="D342"/>
+      <selection pane="bottomLeft" activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3104,800 +3116,794 @@
     </row>
     <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>160</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>154</v>
+        <v>752</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>157</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>131</v>
+        <v>6</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>132</v>
+        <v>557</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>161</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>564</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>565</v>
+        <v>364</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>569</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>566</v>
+        <v>365</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>570</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>573</v>
+        <v>152</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>574</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>567</v>
+        <v>151</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>568</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>571</v>
+        <v>512</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>572</v>
+        <v>513</v>
       </c>
     </row>
     <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>36</v>
+        <v>471</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>162</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>38</v>
+        <v>383</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>37</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>120</v>
+        <v>385</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>163</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>121</v>
+        <v>479</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>122</v>
+        <v>480</v>
       </c>
     </row>
     <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>134</v>
+        <v>242</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>164</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>136</v>
+        <v>337</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>138</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>137</v>
+        <v>338</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>139</v>
+        <v>345</v>
       </c>
     </row>
     <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>142</v>
+        <v>7</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>146</v>
+        <v>549</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>144</v>
+        <v>551</v>
       </c>
     </row>
     <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>142</v>
+        <v>7</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>148</v>
+        <v>505</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>149</v>
+        <v>552</v>
       </c>
     </row>
     <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>142</v>
+        <v>6</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>147</v>
+        <v>341</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>145</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>142</v>
+        <v>6</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>143</v>
+        <v>342</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>165</v>
+        <v>349</v>
       </c>
     </row>
     <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>16</v>
+        <v>343</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>17</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>774</v>
+        <v>340</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>125</v>
+        <v>351</v>
       </c>
     </row>
     <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>124</v>
+        <v>352</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>169</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>206</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>203</v>
+        <v>251</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>486</v>
+        <v>6</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>487</v>
+        <v>586</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>486</v>
+        <v>6</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>491</v>
+        <v>344</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>493</v>
+        <v>0</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>492</v>
+        <v>347</v>
       </c>
     </row>
     <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>486</v>
+        <v>6</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>489</v>
+        <v>336</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>493</v>
+        <v>0</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>490</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>377</v>
+        <v>6</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
     </row>
     <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>377</v>
+        <v>6</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>381</v>
+        <v>334</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
     </row>
     <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>377</v>
+        <v>7</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>464</v>
+        <v>550</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>466</v>
+        <v>553</v>
       </c>
     </row>
     <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>377</v>
+        <v>7</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>458</v>
+        <v>583</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>459</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>377</v>
+        <v>7</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>380</v>
+        <v>198</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>382</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>377</v>
+        <v>7</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>465</v>
+        <v>199</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>467</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>254</v>
+        <v>150</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>255</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>256</v>
+        <v>73</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>257</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>264</v>
+        <v>180</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>265</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>253</v>
+        <v>6</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>266</v>
+        <v>559</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>267</v>
+        <v>373</v>
       </c>
     </row>
     <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>268</v>
+        <v>111</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>269</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>261</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>262</v>
+        <v>112</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>263</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>259</v>
+        <v>76</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>258</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>559</v>
+        <v>109</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>375</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>560</v>
+        <v>54</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>376</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>365</v>
+        <v>113</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>367</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>366</v>
+        <v>55</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>368</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>514</v>
+        <v>28</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>515</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>6</v>
+        <v>142</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>473</v>
+        <v>146</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>463</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>6</v>
+        <v>142</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>384</v>
+        <v>148</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>385</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>386</v>
+        <v>189</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>387</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>6</v>
+        <v>142</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>481</v>
+        <v>147</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>482</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>338</v>
+        <v>153</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>347</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>339</v>
+        <v>154</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>346</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>827</v>
+        <v>155</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>828</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>6</v>
+        <v>676</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>351</v>
+        <v>722</v>
       </c>
     </row>
     <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3905,55 +3911,55 @@
         <v>6</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>343</v>
+        <v>271</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>350</v>
+        <v>272</v>
       </c>
     </row>
     <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>344</v>
+        <v>83</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>349</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>341</v>
+        <v>191</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>352</v>
+        <v>192</v>
       </c>
     </row>
     <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>353</v>
+        <v>187</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>358</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3961,13 +3967,13 @@
         <v>6</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>588</v>
+        <v>315</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>483</v>
+        <v>291</v>
       </c>
     </row>
     <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3975,13 +3981,13 @@
         <v>6</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>345</v>
+        <v>450</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>348</v>
+        <v>278</v>
       </c>
     </row>
     <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3989,13 +3995,13 @@
         <v>6</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>337</v>
+        <v>495</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>340</v>
+        <v>496</v>
       </c>
     </row>
     <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4003,13 +4009,13 @@
         <v>6</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>357</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4017,13 +4023,13 @@
         <v>6</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>336</v>
+        <v>359</v>
       </c>
     </row>
     <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4031,13 +4037,13 @@
         <v>6</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>561</v>
+        <v>362</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
     </row>
     <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4045,13 +4051,13 @@
         <v>6</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>271</v>
+        <v>472</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>272</v>
+        <v>460</v>
       </c>
     </row>
     <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4059,13 +4065,13 @@
         <v>6</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>316</v>
+        <v>560</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>292</v>
+        <v>372</v>
       </c>
     </row>
     <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4073,13 +4079,13 @@
         <v>6</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>452</v>
+        <v>368</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>278</v>
+        <v>369</v>
       </c>
     </row>
     <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4087,13 +4093,13 @@
         <v>6</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>497</v>
+        <v>370</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>498</v>
+        <v>371</v>
       </c>
     </row>
     <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4101,13 +4107,13 @@
         <v>6</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>289</v>
+        <v>361</v>
       </c>
     </row>
     <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4115,13 +4121,13 @@
         <v>6</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>359</v>
+        <v>312</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>360</v>
+        <v>292</v>
       </c>
     </row>
     <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4129,13 +4135,13 @@
         <v>6</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>364</v>
+        <v>304</v>
       </c>
     </row>
     <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4143,13 +4149,13 @@
         <v>6</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>474</v>
+        <v>328</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>462</v>
+        <v>305</v>
       </c>
     </row>
     <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4157,13 +4163,13 @@
         <v>6</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>562</v>
+        <v>405</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>373</v>
+        <v>401</v>
       </c>
     </row>
     <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4171,13 +4177,13 @@
         <v>6</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>370</v>
+        <v>403</v>
       </c>
     </row>
     <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4185,13 +4191,13 @@
         <v>6</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>371</v>
+        <v>520</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>372</v>
+        <v>406</v>
       </c>
     </row>
     <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4199,13 +4205,13 @@
         <v>6</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>361</v>
+        <v>837</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>362</v>
+        <v>839</v>
       </c>
     </row>
     <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4213,13 +4219,13 @@
         <v>6</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>313</v>
+        <v>838</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>293</v>
+        <v>840</v>
       </c>
     </row>
     <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4227,13 +4233,13 @@
         <v>6</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>328</v>
+        <v>521</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>305</v>
+        <v>407</v>
       </c>
     </row>
     <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4241,13 +4247,13 @@
         <v>6</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>329</v>
+        <v>408</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>306</v>
+        <v>409</v>
       </c>
     </row>
     <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4255,13 +4261,13 @@
         <v>6</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
     </row>
     <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4269,13 +4275,13 @@
         <v>6</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>405</v>
+        <v>829</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
     </row>
     <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4283,13 +4289,13 @@
         <v>6</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>522</v>
+        <v>412</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4297,13 +4303,13 @@
         <v>6</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>523</v>
+        <v>827</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>408</v>
+        <v>828</v>
       </c>
     </row>
     <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4311,13 +4317,13 @@
         <v>6</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>409</v>
+        <v>804</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>19</v>
+        <v>805</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>410</v>
+        <v>806</v>
       </c>
     </row>
     <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4325,13 +4331,13 @@
         <v>6</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>411</v>
+        <v>831</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>412</v>
+        <v>842</v>
       </c>
     </row>
     <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4339,13 +4345,13 @@
         <v>6</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>413</v>
+        <v>830</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>414</v>
+        <v>832</v>
       </c>
     </row>
     <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4353,13 +4359,13 @@
         <v>6</v>
       </c>
       <c r="B91" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91" s="6" t="s">
         <v>421</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4367,13 +4373,13 @@
         <v>6</v>
       </c>
       <c r="B92" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4381,125 +4387,125 @@
         <v>6</v>
       </c>
       <c r="B93" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="C93" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B95" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="C95" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D95" s="6" t="s">
+      <c r="C99" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99" s="6" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B99" s="11" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="C99" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D99" s="6" t="s">
+      <c r="C100" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" s="6" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B100" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4507,13 +4513,13 @@
         <v>6</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4521,13 +4527,13 @@
         <v>6</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4535,13 +4541,13 @@
         <v>6</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4549,13 +4555,13 @@
         <v>6</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4563,13 +4569,13 @@
         <v>6</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4577,13 +4583,13 @@
         <v>6</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4591,13 +4597,13 @@
         <v>6</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>318</v>
+        <v>821</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>295</v>
+        <v>822</v>
       </c>
     </row>
     <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4605,13 +4611,13 @@
         <v>6</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>321</v>
+        <v>823</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>299</v>
+        <v>824</v>
       </c>
     </row>
     <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4619,13 +4625,13 @@
         <v>6</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>320</v>
+        <v>825</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>298</v>
+        <v>826</v>
       </c>
     </row>
     <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4633,13 +4639,13 @@
         <v>6</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>396</v>
+        <v>317</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>397</v>
+        <v>294</v>
       </c>
     </row>
     <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4647,13 +4653,13 @@
         <v>6</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>395</v>
+        <v>298</v>
       </c>
     </row>
     <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4661,13 +4667,13 @@
         <v>6</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>392</v>
+        <v>319</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>393</v>
+        <v>297</v>
       </c>
     </row>
     <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4675,13 +4681,13 @@
         <v>6</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>427</v>
+        <v>819</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>428</v>
+        <v>820</v>
       </c>
     </row>
     <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4689,13 +4695,13 @@
         <v>6</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>432</v>
+        <v>396</v>
       </c>
     </row>
     <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4703,13 +4709,13 @@
         <v>6</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>429</v>
+        <v>393</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>430</v>
+        <v>394</v>
       </c>
     </row>
     <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4717,13 +4723,13 @@
         <v>6</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
     <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4731,13 +4737,13 @@
         <v>6</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>398</v>
+        <v>426</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>399</v>
+        <v>427</v>
       </c>
     </row>
     <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4745,13 +4751,13 @@
         <v>6</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>319</v>
+        <v>430</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>297</v>
+        <v>431</v>
       </c>
     </row>
     <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4759,13 +4765,13 @@
         <v>6</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>323</v>
+        <v>428</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>301</v>
+        <v>429</v>
       </c>
     </row>
     <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4773,13 +4779,13 @@
         <v>6</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>322</v>
+        <v>809</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>300</v>
+        <v>810</v>
       </c>
     </row>
     <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4787,13 +4793,13 @@
         <v>6</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>317</v>
+        <v>399</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>296</v>
+        <v>400</v>
       </c>
     </row>
     <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4801,13 +4807,13 @@
         <v>6</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
     </row>
     <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4815,41 +4821,41 @@
         <v>6</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>417</v>
+        <v>318</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>419</v>
+        <v>322</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>443</v>
+        <v>321</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>444</v>
+        <v>299</v>
       </c>
     </row>
     <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4857,13 +4863,13 @@
         <v>6</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4871,13 +4877,13 @@
         <v>6</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>314</v>
+        <v>415</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>285</v>
+        <v>414</v>
       </c>
     </row>
     <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4885,13 +4891,13 @@
         <v>6</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>501</v>
+        <v>416</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>502</v>
+        <v>417</v>
       </c>
     </row>
     <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4899,13 +4905,13 @@
         <v>6</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>311</v>
+        <v>418</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>807</v>
+        <v>19</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>284</v>
+        <v>419</v>
       </c>
     </row>
     <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4913,13 +4919,13 @@
         <v>6</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
     </row>
     <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4927,13 +4933,13 @@
         <v>6</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>434</v>
+        <v>835</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>436</v>
+        <v>836</v>
       </c>
     </row>
     <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4941,13 +4947,13 @@
         <v>6</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>437</v>
+        <v>309</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>438</v>
+        <v>282</v>
       </c>
     </row>
     <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4955,13 +4961,13 @@
         <v>6</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>575</v>
+        <v>313</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>576</v>
+        <v>284</v>
       </c>
     </row>
     <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4969,13 +4975,13 @@
         <v>6</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>441</v>
+        <v>499</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>442</v>
+        <v>500</v>
       </c>
     </row>
     <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4983,13 +4989,13 @@
         <v>6</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>439</v>
+        <v>310</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>19</v>
+        <v>805</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>440</v>
+        <v>283</v>
       </c>
     </row>
     <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4997,13 +5003,13 @@
         <v>6</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>315</v>
+        <v>432</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>286</v>
+        <v>434</v>
       </c>
     </row>
     <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5011,13 +5017,13 @@
         <v>6</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>309</v>
+        <v>433</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>281</v>
+        <v>435</v>
       </c>
     </row>
     <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5025,13 +5031,13 @@
         <v>6</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>307</v>
+        <v>436</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>279</v>
+        <v>437</v>
       </c>
     </row>
     <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5039,13 +5045,13 @@
         <v>6</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>495</v>
+        <v>573</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>496</v>
+        <v>574</v>
       </c>
     </row>
     <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5053,13 +5059,13 @@
         <v>6</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>334</v>
+        <v>440</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>291</v>
+        <v>441</v>
       </c>
     </row>
     <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5067,13 +5073,13 @@
         <v>6</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>333</v>
+        <v>438</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>290</v>
+        <v>439</v>
       </c>
     </row>
     <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5081,13 +5087,13 @@
         <v>6</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5095,13 +5101,13 @@
         <v>6</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5109,13 +5115,13 @@
         <v>6</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>388</v>
+        <v>306</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>389</v>
+        <v>279</v>
       </c>
     </row>
     <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5123,13 +5129,13 @@
         <v>6</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>390</v>
+        <v>493</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>391</v>
+        <v>494</v>
       </c>
     </row>
     <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5137,13 +5143,13 @@
         <v>6</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>505</v>
+        <v>333</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>506</v>
+        <v>290</v>
       </c>
     </row>
     <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5151,13 +5157,13 @@
         <v>6</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>509</v>
+        <v>332</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>510</v>
+        <v>289</v>
       </c>
     </row>
     <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5165,13 +5171,13 @@
         <v>6</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>549</v>
+        <v>329</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>550</v>
+        <v>286</v>
       </c>
     </row>
     <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5179,13 +5185,13 @@
         <v>6</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>3</v>
+        <v>330</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>4</v>
+        <v>287</v>
       </c>
     </row>
     <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5193,13 +5199,13 @@
         <v>6</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>275</v>
+        <v>817</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>276</v>
+        <v>818</v>
       </c>
     </row>
     <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5207,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>22</v>
+        <v>833</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>5</v>
+        <v>834</v>
       </c>
     </row>
     <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5221,13 +5227,13 @@
         <v>6</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>516</v>
+        <v>841</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>511</v>
+        <v>843</v>
       </c>
     </row>
     <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5235,13 +5241,13 @@
         <v>6</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>517</v>
+        <v>807</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>513</v>
+        <v>808</v>
       </c>
     </row>
     <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5249,13 +5255,13 @@
         <v>6</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>557</v>
+        <v>812</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>556</v>
+        <v>813</v>
       </c>
     </row>
     <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5263,13 +5269,13 @@
         <v>6</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>518</v>
+        <v>811</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>519</v>
+        <v>808</v>
       </c>
     </row>
     <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5277,13 +5283,13 @@
         <v>6</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>451</v>
+        <v>387</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>277</v>
+        <v>388</v>
       </c>
     </row>
     <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5291,13 +5297,13 @@
         <v>6</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>494</v>
+        <v>389</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>503</v>
+        <v>390</v>
       </c>
     </row>
     <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5305,13 +5311,13 @@
         <v>6</v>
       </c>
       <c r="B159" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D159" s="6" t="s">
         <v>504</v>
-      </c>
-      <c r="C159" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D159" s="6" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5319,13 +5325,13 @@
         <v>6</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>445</v>
+        <v>507</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>280</v>
+        <v>508</v>
       </c>
     </row>
     <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5333,69 +5339,69 @@
         <v>6</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>447</v>
+        <v>547</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>280</v>
+        <v>548</v>
       </c>
     </row>
     <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>446</v>
+        <v>18</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>280</v>
+        <v>182</v>
       </c>
     </row>
     <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>499</v>
+        <v>793</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>500</v>
+        <v>794</v>
       </c>
     </row>
     <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>273</v>
+        <v>795</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>274</v>
+        <v>796</v>
       </c>
     </row>
     <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>455</v>
+        <v>129</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>456</v>
+        <v>175</v>
       </c>
     </row>
     <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5403,13 +5409,13 @@
         <v>7</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>87</v>
+        <v>176</v>
       </c>
     </row>
     <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5417,13 +5423,13 @@
         <v>7</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>754</v>
+        <v>177</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>108</v>
+        <v>178</v>
       </c>
     </row>
     <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5431,13 +5437,13 @@
         <v>7</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
     </row>
     <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5445,139 +5451,127 @@
         <v>7</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>159</v>
+        <v>106</v>
       </c>
     </row>
     <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
-        <v>7</v>
+        <v>676</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>242</v>
+        <v>718</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>19</v>
+        <v>679</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>244</v>
+        <v>720</v>
       </c>
     </row>
     <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
-        <v>7</v>
+        <v>676</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>551</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D171" s="6" t="s">
-        <v>553</v>
+        <v>724</v>
       </c>
     </row>
     <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
-        <v>7</v>
+        <v>676</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D172" s="6" t="s">
-        <v>554</v>
+        <v>727</v>
       </c>
     </row>
     <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>246</v>
+        <v>561</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>247</v>
+        <v>562</v>
       </c>
     </row>
     <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="6" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>251</v>
+        <v>563</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>252</v>
+        <v>567</v>
       </c>
     </row>
     <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
     </row>
     <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="6" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>243</v>
+        <v>572</v>
       </c>
     </row>
     <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="6" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>198</v>
+        <v>565</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>200</v>
+        <v>566</v>
       </c>
     </row>
     <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="6" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>199</v>
+        <v>569</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>201</v>
+        <v>570</v>
       </c>
     </row>
     <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5585,13 +5579,13 @@
         <v>7</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>158</v>
+        <v>41</v>
       </c>
     </row>
     <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5599,27 +5593,27 @@
         <v>7</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>73</v>
+        <v>776</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>75</v>
+        <v>777</v>
       </c>
     </row>
     <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="6" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>180</v>
+        <v>772</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
     </row>
     <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5627,27 +5621,27 @@
         <v>7</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="6" t="s">
-        <v>7</v>
+        <v>235</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>127</v>
+        <v>241</v>
       </c>
     </row>
     <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5655,55 +5649,55 @@
         <v>7</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
     </row>
     <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="6" t="s">
-        <v>7</v>
+        <v>484</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>76</v>
+        <v>594</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>78</v>
+        <v>595</v>
       </c>
     </row>
     <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="6" t="s">
-        <v>7</v>
+        <v>484</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>109</v>
+        <v>707</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>77</v>
+        <v>679</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>126</v>
+        <v>708</v>
       </c>
     </row>
     <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="6" t="s">
-        <v>7</v>
+        <v>676</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>54</v>
+        <v>678</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>0</v>
+        <v>679</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>57</v>
+        <v>681</v>
       </c>
     </row>
     <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5711,13 +5705,13 @@
         <v>7</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>113</v>
+        <v>232</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
     </row>
     <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5725,13 +5719,13 @@
         <v>7</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>55</v>
+        <v>748</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>56</v>
+        <v>750</v>
       </c>
     </row>
     <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5739,13 +5733,13 @@
         <v>7</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>28</v>
+        <v>749</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>29</v>
+        <v>751</v>
       </c>
     </row>
     <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5753,13 +5747,13 @@
         <v>7</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>189</v>
+        <v>746</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>190</v>
+        <v>747</v>
       </c>
     </row>
     <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5767,13 +5761,13 @@
         <v>7</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
     </row>
     <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5781,223 +5775,223 @@
         <v>7</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>191</v>
+        <v>88</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>192</v>
+        <v>89</v>
       </c>
     </row>
     <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="6" t="s">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>187</v>
+        <v>132</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
     </row>
     <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="6" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="6" t="s">
-        <v>7</v>
+        <v>797</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>129</v>
+        <v>798</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>175</v>
+        <v>799</v>
       </c>
     </row>
     <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="6" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="6" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
-        <v>7</v>
+        <v>142</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="6" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>106</v>
+        <v>169</v>
       </c>
     </row>
     <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
-        <v>7</v>
+        <v>484</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>40</v>
+        <v>485</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>41</v>
+        <v>486</v>
       </c>
     </row>
     <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
-        <v>7</v>
+        <v>376</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>117</v>
+        <v>377</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>118</v>
+        <v>378</v>
       </c>
     </row>
     <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="6" t="s">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>24</v>
+        <v>254</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>64</v>
+        <v>255</v>
       </c>
     </row>
     <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>232</v>
+        <v>3</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>234</v>
+        <v>4</v>
       </c>
     </row>
     <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
-        <v>7</v>
+        <v>166</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
     </row>
     <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="6" t="s">
-        <v>7</v>
+        <v>235</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>88</v>
+        <v>236</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>89</v>
+        <v>237</v>
       </c>
     </row>
     <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
-        <v>7</v>
+        <v>716</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>30</v>
+        <v>715</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>31</v>
+        <v>717</v>
       </c>
     </row>
     <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="6" t="s">
-        <v>7</v>
+        <v>676</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>140</v>
+        <v>677</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>141</v>
+        <v>680</v>
       </c>
     </row>
     <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6005,27 +5999,27 @@
         <v>7</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>23</v>
+        <v>732</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>26</v>
+        <v>733</v>
       </c>
     </row>
     <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>46</v>
+        <v>275</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>47</v>
+        <v>276</v>
       </c>
     </row>
     <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6033,13 +6027,13 @@
         <v>7</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
     </row>
     <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6047,13 +6041,13 @@
         <v>7</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
     </row>
     <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6061,111 +6055,105 @@
         <v>7</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
     </row>
     <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
-        <v>7</v>
+        <v>676</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>45</v>
+        <v>682</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>0</v>
+        <v>679</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>65</v>
+        <v>683</v>
       </c>
     </row>
     <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="6" t="s">
-        <v>7</v>
+        <v>676</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>49</v>
+        <v>686</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>52</v>
+        <v>687</v>
       </c>
     </row>
     <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="6" t="s">
-        <v>7</v>
+        <v>676</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>48</v>
+        <v>684</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>51</v>
+        <v>685</v>
       </c>
     </row>
     <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
-        <v>7</v>
+        <v>676</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>194</v>
+        <v>692</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>197</v>
+        <v>693</v>
       </c>
     </row>
     <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
-        <v>7</v>
+        <v>676</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>270</v>
+        <v>690</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>245</v>
+        <v>691</v>
       </c>
     </row>
     <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="6" t="s">
-        <v>7</v>
+        <v>676</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>193</v>
+        <v>688</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>196</v>
+        <v>689</v>
       </c>
     </row>
     <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="6" t="s">
-        <v>7</v>
+        <v>676</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="C220" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D220" s="6" t="s">
-        <v>208</v>
+        <v>723</v>
       </c>
     </row>
     <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6173,13 +6161,13 @@
         <v>7</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>207</v>
+        <v>47</v>
       </c>
     </row>
     <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6187,13 +6175,13 @@
         <v>7</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>43</v>
+        <v>183</v>
       </c>
     </row>
     <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6201,13 +6189,13 @@
         <v>7</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6215,13 +6203,13 @@
         <v>7</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>14</v>
+        <v>753</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>233</v>
+        <v>754</v>
       </c>
     </row>
     <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6229,13 +6217,13 @@
         <v>7</v>
       </c>
       <c r="B225" s="11" t="s">
-        <v>94</v>
+        <v>766</v>
       </c>
       <c r="C225" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>93</v>
+        <v>767</v>
       </c>
     </row>
     <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6243,13 +6231,13 @@
         <v>7</v>
       </c>
       <c r="B226" s="11" t="s">
-        <v>95</v>
+        <v>755</v>
       </c>
       <c r="C226" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>96</v>
+        <v>756</v>
       </c>
     </row>
     <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6257,13 +6245,13 @@
         <v>7</v>
       </c>
       <c r="B227" s="11" t="s">
-        <v>104</v>
+        <v>757</v>
       </c>
       <c r="C227" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>103</v>
+        <v>758</v>
       </c>
     </row>
     <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6271,13 +6259,13 @@
         <v>7</v>
       </c>
       <c r="B228" s="11" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="C228" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
     </row>
     <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6285,13 +6273,13 @@
         <v>7</v>
       </c>
       <c r="B229" s="11" t="s">
-        <v>100</v>
+        <v>759</v>
       </c>
       <c r="C229" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>101</v>
+        <v>760</v>
       </c>
     </row>
     <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6299,13 +6287,13 @@
         <v>7</v>
       </c>
       <c r="B230" s="11" t="s">
-        <v>102</v>
+        <v>762</v>
       </c>
       <c r="C230" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>103</v>
+        <v>761</v>
       </c>
     </row>
     <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6313,13 +6301,13 @@
         <v>7</v>
       </c>
       <c r="B231" s="11" t="s">
-        <v>97</v>
+        <v>775</v>
       </c>
       <c r="C231" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
     </row>
     <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6327,13 +6315,13 @@
         <v>7</v>
       </c>
       <c r="B232" s="11" t="s">
-        <v>44</v>
+        <v>774</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>765</v>
+        <v>79</v>
       </c>
     </row>
     <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6341,69 +6329,69 @@
         <v>7</v>
       </c>
       <c r="B233" s="11" t="s">
-        <v>25</v>
+        <v>773</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
     </row>
     <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="s">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="B234" s="11" t="s">
-        <v>586</v>
+        <v>256</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>484</v>
+        <v>257</v>
       </c>
     </row>
     <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="B235" s="11" t="s">
-        <v>587</v>
+        <v>205</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>558</v>
+        <v>206</v>
       </c>
     </row>
     <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="6" t="s">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="B236" s="11" t="s">
-        <v>595</v>
+        <v>264</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>485</v>
+        <v>265</v>
       </c>
     </row>
     <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="6" t="s">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>590</v>
+        <v>266</v>
       </c>
       <c r="C237" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>591</v>
+        <v>267</v>
       </c>
     </row>
     <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6411,41 +6399,41 @@
         <v>7</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>593</v>
+        <v>45</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="6" t="s">
-        <v>7</v>
+        <v>484</v>
       </c>
       <c r="B239" s="11" t="s">
-        <v>594</v>
+        <v>489</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>19</v>
+        <v>491</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>32</v>
+        <v>490</v>
       </c>
     </row>
     <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="6" t="s">
-        <v>7</v>
+        <v>484</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>584</v>
+        <v>487</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>19</v>
+        <v>491</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>583</v>
+        <v>488</v>
       </c>
     </row>
     <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6453,13 +6441,13 @@
         <v>7</v>
       </c>
       <c r="B241" s="11" t="s">
-        <v>589</v>
+        <v>49</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>179</v>
+        <v>52</v>
       </c>
     </row>
     <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6467,41 +6455,41 @@
         <v>7</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>592</v>
+        <v>48</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="6" t="s">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="B243" s="11" t="s">
-        <v>50</v>
+        <v>268</v>
       </c>
       <c r="C243" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>53</v>
+        <v>269</v>
       </c>
     </row>
     <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="6" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>184</v>
+        <v>138</v>
       </c>
     </row>
     <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6509,97 +6497,97 @@
         <v>7</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>71</v>
+        <v>194</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>9</v>
+        <v>197</v>
       </c>
     </row>
     <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="6" t="s">
-        <v>7</v>
+        <v>376</v>
       </c>
       <c r="B246" s="11" t="s">
-        <v>91</v>
+        <v>380</v>
       </c>
       <c r="C246" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>92</v>
+        <v>382</v>
       </c>
     </row>
     <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="6" t="s">
-        <v>7</v>
+        <v>376</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>81</v>
+        <v>462</v>
       </c>
       <c r="C247" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>60</v>
+        <v>464</v>
       </c>
     </row>
     <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="6" t="s">
-        <v>7</v>
+        <v>376</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>82</v>
+        <v>456</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>34</v>
+        <v>457</v>
       </c>
     </row>
     <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="6" t="s">
-        <v>7</v>
+        <v>376</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>777</v>
+        <v>379</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>70</v>
+        <v>381</v>
       </c>
     </row>
     <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="6" t="s">
-        <v>7</v>
+        <v>376</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>776</v>
+        <v>463</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>79</v>
+        <v>465</v>
       </c>
     </row>
     <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="6" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>775</v>
+        <v>137</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
     </row>
     <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6607,13 +6595,13 @@
         <v>7</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6621,245 +6609,245 @@
         <v>7</v>
       </c>
       <c r="B253" s="11" t="s">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>248</v>
+        <v>196</v>
       </c>
     </row>
     <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="6" t="s">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>39</v>
+        <v>260</v>
       </c>
       <c r="C254" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>185</v>
+        <v>261</v>
       </c>
     </row>
     <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="6" t="s">
-        <v>166</v>
+        <v>253</v>
       </c>
       <c r="B255" s="11" t="s">
-        <v>167</v>
+        <v>262</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>168</v>
+        <v>263</v>
       </c>
     </row>
     <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="6" t="s">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="B256" s="11" t="s">
-        <v>240</v>
+        <v>22</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>241</v>
+        <v>5</v>
       </c>
     </row>
     <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="6" t="s">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>236</v>
+        <v>514</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>237</v>
+        <v>509</v>
       </c>
     </row>
     <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="6" t="s">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="B258" s="11" t="s">
-        <v>239</v>
+        <v>515</v>
       </c>
       <c r="C258" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D258" s="6" t="s">
-        <v>238</v>
+        <v>511</v>
       </c>
     </row>
     <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="6" t="s">
-        <v>486</v>
+        <v>6</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>596</v>
+        <v>802</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>597</v>
+        <v>803</v>
       </c>
     </row>
     <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="6" t="s">
-        <v>486</v>
+        <v>6</v>
       </c>
       <c r="B260" s="11" t="s">
-        <v>598</v>
+        <v>555</v>
       </c>
       <c r="C260" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>599</v>
+        <v>554</v>
       </c>
     </row>
     <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="6" t="s">
-        <v>486</v>
+        <v>6</v>
       </c>
       <c r="B261" s="11" t="s">
-        <v>632</v>
+        <v>516</v>
       </c>
       <c r="C261" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>633</v>
+        <v>517</v>
       </c>
     </row>
     <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="6" t="s">
-        <v>486</v>
+        <v>6</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>636</v>
+        <v>449</v>
       </c>
       <c r="C262" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>637</v>
+        <v>277</v>
       </c>
     </row>
     <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="6" t="s">
-        <v>486</v>
+        <v>6</v>
       </c>
       <c r="B263" s="11" t="s">
-        <v>643</v>
+        <v>492</v>
       </c>
       <c r="C263" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>641</v>
+        <v>501</v>
       </c>
     </row>
     <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="6" t="s">
-        <v>486</v>
+        <v>6</v>
       </c>
       <c r="B264" s="11" t="s">
-        <v>643</v>
+        <v>502</v>
       </c>
       <c r="C264" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>642</v>
+        <v>506</v>
       </c>
     </row>
     <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="6" t="s">
-        <v>486</v>
+        <v>6</v>
       </c>
       <c r="B265" s="11" t="s">
-        <v>639</v>
+        <v>445</v>
       </c>
       <c r="C265" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>640</v>
+        <v>845</v>
       </c>
     </row>
     <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="6" t="s">
-        <v>486</v>
+        <v>6</v>
       </c>
       <c r="B266" s="11" t="s">
-        <v>652</v>
+        <v>444</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>653</v>
+        <v>844</v>
       </c>
     </row>
     <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="s">
-        <v>486</v>
+        <v>6</v>
       </c>
       <c r="B267" s="11" t="s">
-        <v>655</v>
+        <v>497</v>
       </c>
       <c r="C267" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>656</v>
+        <v>498</v>
       </c>
     </row>
     <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B268" s="11" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C268" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B269" s="11" t="s">
-        <v>665</v>
+        <v>630</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>666</v>
+        <v>631</v>
       </c>
     </row>
     <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="B270" s="6" t="s">
-        <v>671</v>
+        <v>484</v>
+      </c>
+      <c r="B270" s="11" t="s">
+        <v>673</v>
       </c>
       <c r="C270" s="6" t="s">
         <v>19</v>
@@ -6870,328 +6858,352 @@
     </row>
     <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B271" s="11" t="s">
-        <v>675</v>
+        <v>710</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D271" s="6" t="s">
-        <v>674</v>
+        <v>711</v>
       </c>
     </row>
     <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B272" s="11" t="s">
-        <v>676</v>
+        <v>725</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D272" s="6" t="s">
-        <v>677</v>
+        <v>726</v>
       </c>
     </row>
     <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B273" s="11" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D273" s="6" t="s">
-        <v>677</v>
+        <v>726</v>
       </c>
     </row>
     <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="6" t="s">
-        <v>678</v>
-      </c>
-      <c r="B274" s="11" t="s">
-        <v>679</v>
+        <v>484</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>669</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D274" s="6" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
     </row>
     <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="6" t="s">
-        <v>678</v>
+        <v>484</v>
       </c>
       <c r="B275" s="11" t="s">
-        <v>680</v>
+        <v>694</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>681</v>
+        <v>19</v>
       </c>
       <c r="D275" s="6" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
     </row>
     <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="6" t="s">
-        <v>678</v>
+        <v>484</v>
       </c>
       <c r="B276" s="11" t="s">
-        <v>684</v>
+        <v>653</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>681</v>
+        <v>19</v>
       </c>
       <c r="D276" s="6" t="s">
-        <v>685</v>
+        <v>654</v>
       </c>
     </row>
     <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="6" t="s">
-        <v>678</v>
+        <v>484</v>
       </c>
       <c r="B277" s="11" t="s">
-        <v>686</v>
+        <v>596</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D277" s="6" t="s">
-        <v>687</v>
+        <v>597</v>
       </c>
     </row>
     <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="6" t="s">
-        <v>678</v>
+        <v>484</v>
       </c>
       <c r="B278" s="11" t="s">
-        <v>688</v>
+        <v>729</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D278" s="6" t="s">
-        <v>689</v>
+        <v>728</v>
       </c>
     </row>
     <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="6" t="s">
-        <v>678</v>
+        <v>484</v>
       </c>
       <c r="B279" s="11" t="s">
-        <v>690</v>
+        <v>706</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D279" s="6" t="s">
-        <v>691</v>
+        <v>709</v>
       </c>
     </row>
     <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="6" t="s">
-        <v>678</v>
+        <v>484</v>
       </c>
       <c r="B280" s="11" t="s">
-        <v>692</v>
+        <v>637</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="D280" s="6" t="s">
-        <v>693</v>
+        <v>638</v>
       </c>
     </row>
     <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="6" t="s">
-        <v>678</v>
+        <v>484</v>
       </c>
       <c r="B281" s="11" t="s">
-        <v>694</v>
+        <v>721</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="D281" s="6" t="s">
-        <v>695</v>
+        <v>675</v>
       </c>
     </row>
     <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B282" s="11" t="s">
-        <v>696</v>
+        <v>674</v>
       </c>
       <c r="C282" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D282" s="6" t="s">
-        <v>697</v>
+        <v>675</v>
       </c>
     </row>
     <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B283" s="11" t="s">
-        <v>708</v>
+        <v>663</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D283" s="6" t="s">
-        <v>711</v>
+        <v>664</v>
       </c>
     </row>
     <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B284" s="11" t="s">
-        <v>709</v>
+        <v>650</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>681</v>
+        <v>0</v>
       </c>
       <c r="D284" s="6" t="s">
-        <v>710</v>
+        <v>651</v>
       </c>
     </row>
     <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B285" s="11" t="s">
-        <v>712</v>
+        <v>634</v>
       </c>
       <c r="C285" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D285" s="6" t="s">
-        <v>713</v>
+        <v>635</v>
       </c>
     </row>
     <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="6" t="s">
-        <v>718</v>
+        <v>484</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>717</v>
+        <v>641</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D286" s="6" t="s">
-        <v>719</v>
+        <v>639</v>
       </c>
     </row>
     <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="6" t="s">
-        <v>718</v>
+        <v>484</v>
       </c>
       <c r="B287" s="11" t="s">
-        <v>733</v>
+        <v>641</v>
       </c>
       <c r="C287" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D287" s="6" t="s">
-        <v>721</v>
+        <v>640</v>
       </c>
     </row>
     <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="6" t="s">
-        <v>678</v>
+        <v>797</v>
       </c>
       <c r="B288" s="11" t="s">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>681</v>
+        <v>0</v>
       </c>
       <c r="D288" s="6" t="s">
-        <v>722</v>
+        <v>799</v>
       </c>
     </row>
     <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="6" t="s">
-        <v>678</v>
+        <v>797</v>
       </c>
       <c r="B289" s="11" t="s">
-        <v>724</v>
+        <v>801</v>
+      </c>
+      <c r="C289" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D289" s="6" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="6" t="s">
-        <v>678</v>
+        <v>7</v>
       </c>
       <c r="B290" s="11" t="s">
-        <v>725</v>
+        <v>448</v>
+      </c>
+      <c r="C290" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D290" s="6" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="6" t="s">
-        <v>678</v>
+        <v>123</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>726</v>
+        <v>770</v>
+      </c>
+      <c r="C291" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D291" s="6" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="6" t="s">
-        <v>486</v>
+        <v>166</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="C292" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D292" s="6" t="s">
-        <v>728</v>
+        <v>738</v>
       </c>
     </row>
     <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="6" t="s">
-        <v>486</v>
+        <v>7</v>
       </c>
       <c r="B293" s="11" t="s">
-        <v>732</v>
+        <v>11</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D293" s="6" t="s">
-        <v>728</v>
+        <v>207</v>
       </c>
     </row>
     <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="6" t="s">
-        <v>678</v>
+        <v>119</v>
       </c>
       <c r="B294" s="11" t="s">
-        <v>729</v>
+        <v>121</v>
+      </c>
+      <c r="C294" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D294" s="6" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="6" t="s">
-        <v>486</v>
+        <v>7</v>
       </c>
       <c r="B295" s="11" t="s">
-        <v>731</v>
+        <v>42</v>
       </c>
       <c r="C295" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D295" s="6" t="s">
-        <v>730</v>
+        <v>43</v>
       </c>
     </row>
     <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7199,55 +7211,55 @@
         <v>7</v>
       </c>
       <c r="B296" s="11" t="s">
-        <v>734</v>
+        <v>72</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="D296" s="6" t="s">
-        <v>735</v>
+        <v>8</v>
       </c>
     </row>
     <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="6" t="s">
-        <v>166</v>
+        <v>6</v>
       </c>
       <c r="B297" s="11" t="s">
-        <v>741</v>
+        <v>273</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D297" s="6" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B298" s="11" t="s">
-        <v>744</v>
+        <v>815</v>
       </c>
       <c r="C298" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D298" s="6" t="s">
-        <v>745</v>
+        <v>814</v>
       </c>
     </row>
     <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B299" s="11" t="s">
-        <v>747</v>
+        <v>816</v>
       </c>
       <c r="C299" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D299" s="6" t="s">
-        <v>746</v>
+        <v>808</v>
       </c>
     </row>
     <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7255,13 +7267,13 @@
         <v>7</v>
       </c>
       <c r="B300" s="11" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D300" s="6" t="s">
-        <v>749</v>
+        <v>233</v>
       </c>
     </row>
     <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7269,13 +7281,13 @@
         <v>7</v>
       </c>
       <c r="B301" s="11" t="s">
-        <v>750</v>
+        <v>94</v>
       </c>
       <c r="C301" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D301" s="6" t="s">
-        <v>752</v>
+        <v>93</v>
       </c>
     </row>
     <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7283,13 +7295,13 @@
         <v>7</v>
       </c>
       <c r="B302" s="11" t="s">
-        <v>751</v>
+        <v>95</v>
       </c>
       <c r="C302" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D302" s="6" t="s">
-        <v>753</v>
+        <v>96</v>
       </c>
     </row>
     <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7297,13 +7309,13 @@
         <v>7</v>
       </c>
       <c r="B303" s="11" t="s">
-        <v>755</v>
+        <v>104</v>
       </c>
       <c r="C303" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D303" s="6" t="s">
-        <v>756</v>
+        <v>103</v>
       </c>
     </row>
     <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7311,13 +7323,13 @@
         <v>7</v>
       </c>
       <c r="B304" s="11" t="s">
-        <v>757</v>
+        <v>99</v>
       </c>
       <c r="C304" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D304" s="6" t="s">
-        <v>758</v>
+        <v>98</v>
       </c>
     </row>
     <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7325,13 +7337,13 @@
         <v>7</v>
       </c>
       <c r="B305" s="11" t="s">
-        <v>759</v>
+        <v>100</v>
       </c>
       <c r="C305" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D305" s="6" t="s">
-        <v>760</v>
+        <v>101</v>
       </c>
     </row>
     <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7339,13 +7351,13 @@
         <v>7</v>
       </c>
       <c r="B306" s="11" t="s">
-        <v>761</v>
+        <v>102</v>
       </c>
       <c r="C306" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D306" s="6" t="s">
-        <v>762</v>
+        <v>103</v>
       </c>
     </row>
     <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7353,27 +7365,27 @@
         <v>7</v>
       </c>
       <c r="B307" s="11" t="s">
-        <v>764</v>
+        <v>97</v>
       </c>
       <c r="C307" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D307" s="6" t="s">
-        <v>763</v>
+        <v>98</v>
       </c>
     </row>
     <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="6" t="s">
-        <v>7</v>
+        <v>716</v>
       </c>
       <c r="B308" s="11" t="s">
-        <v>766</v>
+        <v>731</v>
       </c>
       <c r="C308" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D308" s="6" t="s">
-        <v>767</v>
+        <v>719</v>
       </c>
     </row>
     <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7381,27 +7393,27 @@
         <v>7</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>768</v>
+        <v>44</v>
       </c>
       <c r="C309" s="6" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
     </row>
     <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="6" t="s">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="B310" s="11" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
       <c r="C310" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D310" s="6" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
     </row>
     <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7409,13 +7421,13 @@
         <v>7</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="C311" s="6" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D311" s="6" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
     </row>
     <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7423,55 +7435,55 @@
         <v>7</v>
       </c>
       <c r="B312" s="11" t="s">
-        <v>781</v>
+        <v>764</v>
       </c>
       <c r="C312" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D312" s="6" t="s">
-        <v>782</v>
+        <v>765</v>
       </c>
     </row>
     <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="6" t="s">
-        <v>7</v>
+        <v>235</v>
       </c>
       <c r="B313" s="11" t="s">
-        <v>783</v>
+        <v>239</v>
       </c>
       <c r="C313" s="6" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D313" s="6" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B314" s="11" t="s">
-        <v>787</v>
+        <v>453</v>
       </c>
       <c r="C314" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D314" s="6" t="s">
-        <v>788</v>
+        <v>454</v>
       </c>
     </row>
     <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="6" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="B315" s="11" t="s">
-        <v>595</v>
+        <v>203</v>
       </c>
       <c r="C315" s="6" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D315" s="6" t="s">
-        <v>789</v>
+        <v>204</v>
       </c>
     </row>
     <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7479,13 +7491,13 @@
         <v>7</v>
       </c>
       <c r="B316" s="11" t="s">
-        <v>790</v>
+        <v>25</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D316" s="6" t="s">
-        <v>791</v>
+        <v>27</v>
       </c>
     </row>
     <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7493,13 +7505,13 @@
         <v>7</v>
       </c>
       <c r="B317" s="11" t="s">
-        <v>795</v>
+        <v>584</v>
       </c>
       <c r="C317" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D317" s="6" t="s">
-        <v>796</v>
+        <v>482</v>
       </c>
     </row>
     <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7507,344 +7519,364 @@
         <v>7</v>
       </c>
       <c r="B318" s="11" t="s">
-        <v>797</v>
+        <v>585</v>
       </c>
       <c r="C318" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D318" s="6" t="s">
-        <v>798</v>
+        <v>556</v>
       </c>
     </row>
     <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="6" t="s">
-        <v>799</v>
+        <v>7</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>800</v>
+        <v>745</v>
       </c>
       <c r="C319" s="6" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D319" s="6" t="s">
-        <v>801</v>
+        <v>744</v>
       </c>
     </row>
     <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="6" t="s">
-        <v>799</v>
+        <v>7</v>
       </c>
       <c r="B320" s="11" t="s">
-        <v>802</v>
+        <v>788</v>
       </c>
       <c r="C320" s="6" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D320" s="6" t="s">
-        <v>801</v>
+        <v>789</v>
       </c>
     </row>
     <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="6" t="s">
-        <v>799</v>
+        <v>7</v>
       </c>
       <c r="B321" s="11" t="s">
-        <v>803</v>
+        <v>593</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D321" s="6" t="s">
-        <v>801</v>
+        <v>483</v>
       </c>
     </row>
     <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B322" s="11" t="s">
-        <v>804</v>
+        <v>593</v>
       </c>
       <c r="C322" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D322" s="6" t="s">
-        <v>805</v>
+        <v>787</v>
       </c>
     </row>
     <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B323" s="11" t="s">
-        <v>806</v>
+        <v>785</v>
       </c>
       <c r="C323" s="6" t="s">
-        <v>807</v>
+        <v>19</v>
       </c>
       <c r="D323" s="6" t="s">
-        <v>808</v>
+        <v>786</v>
       </c>
     </row>
     <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B324" s="11" t="s">
-        <v>809</v>
+        <v>588</v>
       </c>
       <c r="C324" s="6" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D324" s="6" t="s">
-        <v>810</v>
+        <v>589</v>
       </c>
     </row>
     <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B325" s="11" t="s">
-        <v>811</v>
+        <v>591</v>
       </c>
       <c r="C325" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D325" s="6" t="s">
-        <v>812</v>
+        <v>68</v>
       </c>
     </row>
     <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B326" s="11" t="s">
-        <v>813</v>
+        <v>742</v>
       </c>
       <c r="C326" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D326" s="6" t="s">
-        <v>810</v>
+        <v>743</v>
       </c>
     </row>
     <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B327" s="11" t="s">
-        <v>814</v>
+        <v>592</v>
       </c>
       <c r="C327" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D327" s="6" t="s">
-        <v>815</v>
+        <v>32</v>
       </c>
     </row>
     <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B328" s="11" t="s">
-        <v>817</v>
+        <v>582</v>
       </c>
       <c r="C328" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D328" s="6" t="s">
-        <v>816</v>
+        <v>581</v>
       </c>
     </row>
     <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B329" s="11" t="s">
-        <v>818</v>
+        <v>587</v>
       </c>
       <c r="C329" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D329" s="6" t="s">
-        <v>810</v>
+        <v>179</v>
       </c>
     </row>
     <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B330" s="11" t="s">
-        <v>819</v>
+        <v>590</v>
       </c>
       <c r="C330" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D330" s="6" t="s">
-        <v>820</v>
+        <v>69</v>
       </c>
     </row>
     <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" s="6" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B331" s="11" t="s">
-        <v>821</v>
+        <v>38</v>
       </c>
       <c r="C331" s="6" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D331" s="6" t="s">
-        <v>822</v>
+        <v>37</v>
       </c>
     </row>
     <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B332" s="11" t="s">
-        <v>823</v>
+        <v>50</v>
       </c>
       <c r="C332" s="6" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D332" s="6" t="s">
-        <v>824</v>
+        <v>53</v>
       </c>
     </row>
     <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B333" s="11" t="s">
-        <v>825</v>
+        <v>13</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D333" s="6" t="s">
-        <v>826</v>
+        <v>184</v>
       </c>
     </row>
     <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B334" s="11" t="s">
-        <v>829</v>
+        <v>71</v>
       </c>
       <c r="C334" s="6" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D334" s="6" t="s">
-        <v>830</v>
+        <v>9</v>
       </c>
     </row>
     <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B335" s="11" t="s">
-        <v>831</v>
+        <v>91</v>
       </c>
       <c r="C335" s="6" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D335" s="6" t="s">
-        <v>412</v>
+        <v>92</v>
       </c>
     </row>
     <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B336" s="11" t="s">
-        <v>832</v>
+        <v>81</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D336" s="6" t="s">
-        <v>835</v>
+        <v>60</v>
       </c>
     </row>
     <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B337" s="11" t="s">
-        <v>833</v>
+        <v>82</v>
       </c>
       <c r="C337" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D337" s="6" t="s">
-        <v>834</v>
+        <v>34</v>
       </c>
     </row>
     <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="6" t="s">
-        <v>6</v>
+        <v>253</v>
       </c>
       <c r="B338" s="11" t="s">
-        <v>836</v>
+        <v>259</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D338" s="6" t="s">
-        <v>837</v>
+        <v>258</v>
       </c>
     </row>
     <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B339" s="11" t="s">
-        <v>838</v>
+        <v>250</v>
       </c>
       <c r="C339" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D339" s="6" t="s">
-        <v>839</v>
+        <v>248</v>
       </c>
     </row>
     <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B340" s="11" t="s">
-        <v>840</v>
+        <v>249</v>
       </c>
       <c r="C340" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D340" s="6" t="s">
-        <v>842</v>
+        <v>248</v>
       </c>
     </row>
     <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B341" s="11" t="s">
-        <v>841</v>
+        <v>39</v>
       </c>
       <c r="C341" s="6" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D341" s="6" t="s">
-        <v>843</v>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A342" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B342" s="11" t="s">
+        <v>846</v>
+      </c>
+      <c r="C342" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D342" s="6" t="s">
+        <v>847</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D341" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}">
     <filterColumn colId="1">
       <filters>
-        <filter val="df.replace({'colname': {'oldval': 'newval'}})"/>
-        <filter val="df.replace('oldval', 'newval')"/>
-        <filter val="str.replace('old-val', 'new-val')"/>
+        <filter val="df.groupby('colname').agg(['func1', 'func2'])"/>
+        <filter val="df.groupby('colname').first()"/>
+        <filter val="df.groupby('colname').get_group('colname')"/>
+        <filter val="df.groupby('colname').group.keys()"/>
+        <filter val="df.groupby('colname').groups"/>
+        <filter val="df.groupby('colname').last()"/>
+        <filter val="df.groupby('colname').nth(10)"/>
+        <filter val="df.groupby('colname1').colname2.sum()"/>
+        <filter val="splits = df.groupby('colname')"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -7858,8 +7890,8 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7890,13 +7922,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -7904,13 +7936,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>539</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>620</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -7918,13 +7950,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -7932,13 +7964,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -7946,13 +7978,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -7960,13 +7992,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -7974,13 +8006,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -7988,13 +8020,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -8002,13 +8034,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>409</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -8016,10 +8048,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -8027,13 +8059,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>579</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>580</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -8041,13 +8073,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -8055,13 +8087,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -8069,13 +8101,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -8083,13 +8115,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -8097,13 +8129,13 @@
         <v>6</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -8111,13 +8143,13 @@
         <v>6</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -8125,13 +8157,13 @@
         <v>6</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -8139,13 +8171,13 @@
         <v>6</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -8153,13 +8185,13 @@
         <v>6</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C21" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>534</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -8167,13 +8199,13 @@
         <v>6</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -8181,13 +8213,13 @@
         <v>6</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -8195,13 +8227,13 @@
         <v>6</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -8209,13 +8241,13 @@
         <v>6</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -8223,13 +8255,13 @@
         <v>6</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -8237,13 +8269,13 @@
         <v>6</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -8251,346 +8283,346 @@
         <v>6</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B29" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>657</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="D29" s="6" t="s">
         <v>659</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B33" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>712</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>714</v>
-      </c>
       <c r="D33" s="6" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>667</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>668</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>669</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B35" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>714</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>668</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>716</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B36" s="11" t="s">
+        <v>694</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>696</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>698</v>
-      </c>
       <c r="D36" s="6" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>598</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>636</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>646</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -8598,13 +8630,13 @@
         <v>7</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -8612,13 +8644,13 @@
         <v>7</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
   </sheetData>
@@ -8703,10 +8735,10 @@
     </row>
     <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
   </sheetData>
@@ -8794,22 +8826,22 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
   </sheetData>
@@ -8843,18 +8875,18 @@
     </row>
     <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
   </sheetData>

--- a/Конспект_Python.xlsx
+++ b/Конспект_Python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\my_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05BF12A-1576-45FF-878F-A318A41AFFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1EAD37-18D1-4168-A849-1A32E03DD2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="728" xr2:uid="{65C49AB7-91AD-4F1F-B814-EFF7DAC5AF74}"/>
   </bookViews>
@@ -25,7 +25,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Атрибуты!$A$1:$D$54</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Генераторы списков'!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Операторы!$A$1:$D$341</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Операторы!$A$1:$D$346</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Функции!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="857">
   <si>
     <t>Функция</t>
   </si>
@@ -2328,12 +2328,6 @@
   </si>
   <si>
     <t>f'val {var:.nf}'</t>
-  </si>
-  <si>
-    <t>Форматирование внутри F-строк. n - это количество символов после запятой</t>
-  </si>
-  <si>
-    <t>n - это количество символов после запятой. f - указывает что идет формат вещественных чисел</t>
   </si>
   <si>
     <t>"{0}, {1}".format(var1, var2)</t>
@@ -2642,6 +2636,39 @@
   </si>
   <si>
     <t>Сгруппировать по первому столбцу и посчитать количество по второму</t>
+  </si>
+  <si>
+    <t>from IPython.display import display</t>
+  </si>
+  <si>
+    <t>display</t>
+  </si>
+  <si>
+    <t>display(df)</t>
+  </si>
+  <si>
+    <t>Отобразить таблицу красиво</t>
+  </si>
+  <si>
+    <t>Импортировать библиотеку display (Для красивого тображения таблиц)</t>
+  </si>
+  <si>
+    <t>df.sort_values(by='colname', ascending=False)</t>
+  </si>
+  <si>
+    <t>df[df['colname1'] == df['colname1'].max()]</t>
+  </si>
+  <si>
+    <t>Вывести строчку в которой параметр в столбце colname1 максимален</t>
+  </si>
+  <si>
+    <t>Сортирует строки по значениям указанного столбца по убыванию</t>
+  </si>
+  <si>
+    <t>Форматирование внутри F-Строк. n - это количество символов после запятой</t>
+  </si>
+  <si>
+    <t>F-Строки. n - это количество символов после запятой. f - указывает что идет формат вещественных чисел</t>
   </si>
 </sst>
 </file>
@@ -3084,17 +3111,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}">
   <sheetPr codeName="Лист1" filterMode="1"/>
-  <dimension ref="A1:D342"/>
+  <dimension ref="A1:D346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B96" sqref="B96"/>
+      <selection pane="bottomLeft" activeCell="D191" sqref="D191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="69" style="11" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70.42578125" style="6" customWidth="1"/>
     <col min="5" max="16384" width="8.7109375" style="10"/>
@@ -3133,7 +3160,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>19</v>
@@ -4205,13 +4232,13 @@
         <v>6</v>
       </c>
       <c r="B80" s="11" t="s">
+        <v>835</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="6" t="s">
         <v>837</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4219,13 +4246,13 @@
         <v>6</v>
       </c>
       <c r="B81" s="11" t="s">
+        <v>836</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="6" t="s">
         <v>838</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4275,7 +4302,7 @@
         <v>6</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>19</v>
@@ -4303,13 +4330,13 @@
         <v>6</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4317,13 +4344,13 @@
         <v>6</v>
       </c>
       <c r="B88" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="D88" s="6" t="s">
         <v>804</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>805</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4331,13 +4358,13 @@
         <v>6</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4345,13 +4372,13 @@
         <v>6</v>
       </c>
       <c r="B90" s="11" t="s">
+        <v>828</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" s="6" t="s">
         <v>830</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4396,7 +4423,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
         <v>6</v>
       </c>
@@ -4410,7 +4437,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>6</v>
       </c>
@@ -4424,7 +4451,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
         <v>6</v>
       </c>
@@ -4438,7 +4465,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
         <v>6</v>
       </c>
@@ -4452,7 +4479,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>6</v>
       </c>
@@ -4466,7 +4493,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>6</v>
       </c>
@@ -4480,7 +4507,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
         <v>6</v>
       </c>
@@ -4494,7 +4521,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>6</v>
       </c>
@@ -4597,13 +4624,13 @@
         <v>6</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4611,13 +4638,13 @@
         <v>6</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4625,13 +4652,13 @@
         <v>6</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4681,13 +4708,13 @@
         <v>6</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4779,13 +4806,13 @@
         <v>6</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4933,13 +4960,13 @@
         <v>6</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4992,7 +5019,7 @@
         <v>310</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D136" s="6" t="s">
         <v>283</v>
@@ -5199,13 +5226,13 @@
         <v>6</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5213,13 +5240,13 @@
         <v>6</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5227,13 +5254,13 @@
         <v>6</v>
       </c>
       <c r="B153" s="11" t="s">
+        <v>839</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D153" s="6" t="s">
         <v>841</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D153" s="6" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5241,13 +5268,13 @@
         <v>6</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5255,13 +5282,13 @@
         <v>6</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5269,13 +5296,13 @@
         <v>6</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5367,13 +5394,13 @@
         <v>7</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5381,13 +5408,13 @@
         <v>7</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5593,13 +5620,13 @@
         <v>7</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C180" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5607,7 +5634,7 @@
         <v>123</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>0</v>
@@ -5714,7 +5741,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
         <v>7</v>
       </c>
@@ -5725,10 +5752,10 @@
         <v>19</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="6" t="s">
         <v>7</v>
       </c>
@@ -5739,10 +5766,10 @@
         <v>19</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="6" t="s">
         <v>7</v>
       </c>
@@ -5814,16 +5841,16 @@
     </row>
     <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>796</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D196" s="6" t="s">
         <v>797</v>
-      </c>
-      <c r="B196" s="11" t="s">
-        <v>798</v>
-      </c>
-      <c r="C196" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D196" s="6" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6203,13 +6230,13 @@
         <v>7</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C224" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6217,13 +6244,13 @@
         <v>7</v>
       </c>
       <c r="B225" s="11" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C225" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6231,13 +6258,13 @@
         <v>7</v>
       </c>
       <c r="B226" s="11" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C226" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6245,13 +6272,13 @@
         <v>7</v>
       </c>
       <c r="B227" s="11" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C227" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6273,13 +6300,13 @@
         <v>7</v>
       </c>
       <c r="B229" s="11" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C229" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6287,13 +6314,13 @@
         <v>7</v>
       </c>
       <c r="B230" s="11" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C230" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6301,7 +6328,7 @@
         <v>7</v>
       </c>
       <c r="B231" s="11" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C231" s="6" t="s">
         <v>19</v>
@@ -6315,7 +6342,7 @@
         <v>7</v>
       </c>
       <c r="B232" s="11" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C232" s="6" t="s">
         <v>19</v>
@@ -6329,7 +6356,7 @@
         <v>7</v>
       </c>
       <c r="B233" s="11" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C233" s="6" t="s">
         <v>19</v>
@@ -6693,13 +6720,13 @@
         <v>6</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C259" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6783,7 +6810,7 @@
         <v>19</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6797,7 +6824,7 @@
         <v>19</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7096,30 +7123,30 @@
     </row>
     <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="B288" s="11" t="s">
+        <v>798</v>
+      </c>
+      <c r="C288" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D288" s="6" t="s">
         <v>797</v>
-      </c>
-      <c r="B288" s="11" t="s">
-        <v>800</v>
-      </c>
-      <c r="C288" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D288" s="6" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="B289" s="11" t="s">
+        <v>799</v>
+      </c>
+      <c r="C289" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D289" s="6" t="s">
         <v>797</v>
-      </c>
-      <c r="B289" s="11" t="s">
-        <v>801</v>
-      </c>
-      <c r="C289" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D289" s="6" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7141,13 +7168,13 @@
         <v>123</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C291" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D291" s="6" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7239,13 +7266,13 @@
         <v>6</v>
       </c>
       <c r="B298" s="11" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C298" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D298" s="6" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7253,13 +7280,13 @@
         <v>6</v>
       </c>
       <c r="B299" s="11" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C299" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D299" s="6" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7399,7 +7426,7 @@
         <v>0</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7407,13 +7434,13 @@
         <v>7</v>
       </c>
       <c r="B310" s="11" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C310" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D310" s="6" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7421,13 +7448,13 @@
         <v>7</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C311" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D311" s="6" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7435,13 +7462,13 @@
         <v>7</v>
       </c>
       <c r="B312" s="11" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C312" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D312" s="6" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7458,7 +7485,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="6" t="s">
         <v>6</v>
       </c>
@@ -7547,13 +7574,13 @@
         <v>7</v>
       </c>
       <c r="B320" s="11" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C320" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D320" s="6" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7581,7 +7608,7 @@
         <v>19</v>
       </c>
       <c r="D322" s="6" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7589,13 +7616,13 @@
         <v>7</v>
       </c>
       <c r="B323" s="11" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C323" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D323" s="6" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7850,33 +7877,83 @@
         <v>185</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B342" s="11" t="s">
+        <v>844</v>
+      </c>
+      <c r="C342" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D342" s="6" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A343" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="B343" s="11" t="s">
         <v>846</v>
       </c>
-      <c r="C342" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D342" s="6" t="s">
+      <c r="C343" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D343" s="6" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A344" s="6" t="s">
         <v>847</v>
       </c>
+      <c r="B344" s="11" t="s">
+        <v>848</v>
+      </c>
+      <c r="C344" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D344" s="6" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A345" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B345" s="11" t="s">
+        <v>851</v>
+      </c>
+      <c r="C345" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D345" s="6" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A346" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B346" s="11" t="s">
+        <v>852</v>
+      </c>
+      <c r="C346" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D346" s="6" t="s">
+        <v>853</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D341" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}">
+  <autoFilter ref="A1:D346" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}">
     <filterColumn colId="1">
       <filters>
-        <filter val="df.groupby('colname').agg(['func1', 'func2'])"/>
-        <filter val="df.groupby('colname').first()"/>
-        <filter val="df.groupby('colname').get_group('colname')"/>
-        <filter val="df.groupby('colname').group.keys()"/>
-        <filter val="df.groupby('colname').groups"/>
-        <filter val="df.groupby('colname').last()"/>
-        <filter val="df.groupby('colname').nth(10)"/>
-        <filter val="df.groupby('colname1').colname2.sum()"/>
-        <filter val="splits = df.groupby('colname')"/>
+        <filter val="f'val {var:.n%}'"/>
+        <filter val="f'val {var:.nf}'"/>
+        <filter val="f'val1 {var1} val2 {var2}'"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -8826,22 +8903,22 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
   </sheetData>
@@ -8875,18 +8952,18 @@
     </row>
     <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
   </sheetData>

--- a/Конспект_Python.xlsx
+++ b/Конспект_Python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\my_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1EAD37-18D1-4168-A849-1A32E03DD2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F2D961-6CA2-4F6E-A11B-70FC52B5521D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="728" xr2:uid="{65C49AB7-91AD-4F1F-B814-EFF7DAC5AF74}"/>
   </bookViews>
@@ -25,7 +25,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Атрибуты!$A$1:$D$54</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Генераторы списков'!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Операторы!$A$1:$D$346</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Операторы!$A$1:$D$347</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Функции!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="859">
   <si>
     <t>Функция</t>
   </si>
@@ -260,9 +260,6 @@
   </si>
   <si>
     <t>Приводим символы к строчному виду</t>
-  </si>
-  <si>
-    <t>Приводим символы к заглавному виду</t>
   </si>
   <si>
     <t>Срезы (Slice) ставятся сразу после значения [Начало : Конец : Шаг]</t>
@@ -2669,6 +2666,15 @@
   </si>
   <si>
     <t>F-Строки. n - это количество символов после запятой. f - указывает что идет формат вещественных чисел</t>
+  </si>
+  <si>
+    <t>Приводим символы к прописному виду</t>
+  </si>
+  <si>
+    <t>df['colname'].sort_values()</t>
+  </si>
+  <si>
+    <t>Сортирует столбец colname по значениям</t>
   </si>
 </sst>
 </file>
@@ -3111,11 +3117,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}">
   <sheetPr codeName="Лист1" filterMode="1"/>
-  <dimension ref="A1:D346"/>
+  <dimension ref="A1:D347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D191" sqref="D191"/>
+      <selection pane="bottomLeft" activeCell="A163" sqref="A163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3146,13 +3152,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3160,13 +3166,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3188,13 +3194,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3202,13 +3208,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3216,13 +3222,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3230,13 +3236,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3244,13 +3250,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3258,13 +3264,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3272,13 +3278,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>512</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3286,13 +3292,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3300,13 +3306,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>383</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3314,13 +3320,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>385</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3328,13 +3334,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>479</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3342,13 +3348,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3356,13 +3362,13 @@
         <v>6</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3370,13 +3376,13 @@
         <v>6</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3384,13 +3390,13 @@
         <v>7</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3398,13 +3404,13 @@
         <v>7</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3412,13 +3418,13 @@
         <v>6</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3426,13 +3432,13 @@
         <v>6</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3440,13 +3446,13 @@
         <v>6</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3454,13 +3460,13 @@
         <v>6</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3468,13 +3474,13 @@
         <v>6</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3482,13 +3488,13 @@
         <v>7</v>
       </c>
       <c r="B26" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>246</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3496,27 +3502,27 @@
         <v>7</v>
       </c>
       <c r="B27" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>251</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B28" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>575</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3524,13 +3530,13 @@
         <v>6</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3538,13 +3544,13 @@
         <v>6</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3552,13 +3558,13 @@
         <v>6</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3566,13 +3572,13 @@
         <v>6</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3580,13 +3586,13 @@
         <v>6</v>
       </c>
       <c r="B33" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>334</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3594,13 +3600,13 @@
         <v>7</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3608,13 +3614,13 @@
         <v>7</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3622,13 +3628,13 @@
         <v>7</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3636,13 +3642,13 @@
         <v>7</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3650,13 +3656,13 @@
         <v>7</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3664,13 +3670,13 @@
         <v>7</v>
       </c>
       <c r="B39" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3678,13 +3684,13 @@
         <v>7</v>
       </c>
       <c r="B40" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3692,13 +3698,13 @@
         <v>6</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3706,13 +3712,13 @@
         <v>7</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3720,13 +3726,13 @@
         <v>7</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3734,13 +3740,13 @@
         <v>7</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3748,13 +3754,13 @@
         <v>7</v>
       </c>
       <c r="B45" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="D45" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3762,13 +3768,13 @@
         <v>7</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3790,13 +3796,13 @@
         <v>7</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3829,30 +3835,30 @@
     </row>
     <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B52" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3860,77 +3866,77 @@
         <v>7</v>
       </c>
       <c r="B53" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3938,13 +3944,13 @@
         <v>6</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3952,13 +3958,13 @@
         <v>7</v>
       </c>
       <c r="B60" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3966,13 +3972,13 @@
         <v>7</v>
       </c>
       <c r="B61" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3980,13 +3986,13 @@
         <v>7</v>
       </c>
       <c r="B62" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -3994,13 +4000,13 @@
         <v>6</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4008,13 +4014,13 @@
         <v>6</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4022,13 +4028,13 @@
         <v>6</v>
       </c>
       <c r="B65" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="6" t="s">
         <v>495</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4036,13 +4042,13 @@
         <v>6</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4050,13 +4056,13 @@
         <v>6</v>
       </c>
       <c r="B67" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="6" t="s">
         <v>358</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4064,13 +4070,13 @@
         <v>6</v>
       </c>
       <c r="B68" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="6" t="s">
         <v>362</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4078,13 +4084,13 @@
         <v>6</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4092,13 +4098,13 @@
         <v>6</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4106,13 +4112,13 @@
         <v>6</v>
       </c>
       <c r="B71" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="6" t="s">
         <v>368</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4120,13 +4126,13 @@
         <v>6</v>
       </c>
       <c r="B72" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="6" t="s">
         <v>370</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4134,13 +4140,13 @@
         <v>6</v>
       </c>
       <c r="B73" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="6" t="s">
         <v>360</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4148,13 +4154,13 @@
         <v>6</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4162,13 +4168,13 @@
         <v>6</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4176,13 +4182,13 @@
         <v>6</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4190,13 +4196,13 @@
         <v>6</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4204,13 +4210,13 @@
         <v>6</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4218,13 +4224,13 @@
         <v>6</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4232,13 +4238,13 @@
         <v>6</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4246,13 +4252,13 @@
         <v>6</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4260,13 +4266,13 @@
         <v>6</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4274,13 +4280,13 @@
         <v>6</v>
       </c>
       <c r="B83" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" s="6" t="s">
         <v>408</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4288,13 +4294,13 @@
         <v>6</v>
       </c>
       <c r="B84" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="6" t="s">
         <v>410</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4302,13 +4308,13 @@
         <v>6</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4316,13 +4322,13 @@
         <v>6</v>
       </c>
       <c r="B86" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" s="6" t="s">
         <v>412</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4330,13 +4336,13 @@
         <v>6</v>
       </c>
       <c r="B87" s="11" t="s">
+        <v>824</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" s="6" t="s">
         <v>825</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4344,13 +4350,13 @@
         <v>6</v>
       </c>
       <c r="B88" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="C88" s="6" t="s">
         <v>802</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="D88" s="6" t="s">
         <v>803</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4358,13 +4364,13 @@
         <v>6</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4372,13 +4378,13 @@
         <v>6</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4386,13 +4392,13 @@
         <v>6</v>
       </c>
       <c r="B91" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91" s="6" t="s">
         <v>420</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4400,13 +4406,13 @@
         <v>6</v>
       </c>
       <c r="B92" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92" s="6" t="s">
         <v>422</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4414,13 +4420,13 @@
         <v>6</v>
       </c>
       <c r="B93" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" s="6" t="s">
         <v>424</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4428,13 +4434,13 @@
         <v>6</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4442,13 +4448,13 @@
         <v>6</v>
       </c>
       <c r="B95" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" s="6" t="s">
         <v>473</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4456,13 +4462,13 @@
         <v>6</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4470,13 +4476,13 @@
         <v>6</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4484,13 +4490,13 @@
         <v>6</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4498,13 +4504,13 @@
         <v>6</v>
       </c>
       <c r="B99" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99" s="6" t="s">
         <v>475</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4512,13 +4518,13 @@
         <v>6</v>
       </c>
       <c r="B100" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" s="6" t="s">
         <v>477</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4526,13 +4532,13 @@
         <v>6</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4540,13 +4546,13 @@
         <v>6</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4554,13 +4560,13 @@
         <v>6</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4568,13 +4574,13 @@
         <v>6</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4582,13 +4588,13 @@
         <v>6</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4596,13 +4602,13 @@
         <v>6</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4610,13 +4616,13 @@
         <v>6</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4624,13 +4630,13 @@
         <v>6</v>
       </c>
       <c r="B108" s="11" t="s">
+        <v>818</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D108" s="6" t="s">
         <v>819</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4638,13 +4644,13 @@
         <v>6</v>
       </c>
       <c r="B109" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D109" s="6" t="s">
         <v>821</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4652,13 +4658,13 @@
         <v>6</v>
       </c>
       <c r="B110" s="11" t="s">
+        <v>822</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D110" s="6" t="s">
         <v>823</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4666,13 +4672,13 @@
         <v>6</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4680,13 +4686,13 @@
         <v>6</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4694,13 +4700,13 @@
         <v>6</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4708,13 +4714,13 @@
         <v>6</v>
       </c>
       <c r="B114" s="11" t="s">
+        <v>816</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D114" s="6" t="s">
         <v>817</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4722,13 +4728,13 @@
         <v>6</v>
       </c>
       <c r="B115" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D115" s="6" t="s">
         <v>395</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4736,13 +4742,13 @@
         <v>6</v>
       </c>
       <c r="B116" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D116" s="6" t="s">
         <v>393</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4750,13 +4756,13 @@
         <v>6</v>
       </c>
       <c r="B117" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D117" s="6" t="s">
         <v>391</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4764,13 +4770,13 @@
         <v>6</v>
       </c>
       <c r="B118" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D118" s="6" t="s">
         <v>426</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4778,13 +4784,13 @@
         <v>6</v>
       </c>
       <c r="B119" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D119" s="6" t="s">
         <v>430</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4792,13 +4798,13 @@
         <v>6</v>
       </c>
       <c r="B120" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D120" s="6" t="s">
         <v>428</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4806,13 +4812,13 @@
         <v>6</v>
       </c>
       <c r="B121" s="11" t="s">
+        <v>806</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D121" s="6" t="s">
         <v>807</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4820,13 +4826,13 @@
         <v>6</v>
       </c>
       <c r="B122" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D122" s="6" t="s">
         <v>399</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4834,13 +4840,13 @@
         <v>6</v>
       </c>
       <c r="B123" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D123" s="6" t="s">
         <v>397</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4848,13 +4854,13 @@
         <v>6</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4862,13 +4868,13 @@
         <v>6</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4876,13 +4882,13 @@
         <v>6</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4890,13 +4896,13 @@
         <v>6</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4904,13 +4910,13 @@
         <v>6</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4918,13 +4924,13 @@
         <v>6</v>
       </c>
       <c r="B129" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D129" s="6" t="s">
         <v>416</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4932,13 +4938,13 @@
         <v>6</v>
       </c>
       <c r="B130" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D130" s="6" t="s">
         <v>418</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4946,13 +4952,13 @@
         <v>6</v>
       </c>
       <c r="B131" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D131" s="6" t="s">
         <v>442</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4960,13 +4966,13 @@
         <v>6</v>
       </c>
       <c r="B132" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D132" s="6" t="s">
         <v>833</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4974,13 +4980,13 @@
         <v>6</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -4988,13 +4994,13 @@
         <v>6</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5002,13 +5008,13 @@
         <v>6</v>
       </c>
       <c r="B135" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D135" s="6" t="s">
         <v>499</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D135" s="6" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5016,13 +5022,13 @@
         <v>6</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5030,13 +5036,13 @@
         <v>6</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5044,13 +5050,13 @@
         <v>6</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5058,13 +5064,13 @@
         <v>6</v>
       </c>
       <c r="B139" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D139" s="6" t="s">
         <v>436</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D139" s="6" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5072,13 +5078,13 @@
         <v>6</v>
       </c>
       <c r="B140" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D140" s="6" t="s">
         <v>573</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D140" s="6" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5086,13 +5092,13 @@
         <v>6</v>
       </c>
       <c r="B141" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D141" s="6" t="s">
         <v>440</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D141" s="6" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5100,13 +5106,13 @@
         <v>6</v>
       </c>
       <c r="B142" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D142" s="6" t="s">
         <v>438</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D142" s="6" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5114,13 +5120,13 @@
         <v>6</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5128,13 +5134,13 @@
         <v>6</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5142,13 +5148,13 @@
         <v>6</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5156,13 +5162,13 @@
         <v>6</v>
       </c>
       <c r="B146" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D146" s="6" t="s">
         <v>493</v>
-      </c>
-      <c r="C146" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D146" s="6" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5170,13 +5176,13 @@
         <v>6</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5184,13 +5190,13 @@
         <v>6</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5198,13 +5204,13 @@
         <v>6</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5212,13 +5218,13 @@
         <v>6</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5226,13 +5232,13 @@
         <v>6</v>
       </c>
       <c r="B151" s="11" t="s">
+        <v>814</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D151" s="6" t="s">
         <v>815</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D151" s="6" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5240,13 +5246,13 @@
         <v>6</v>
       </c>
       <c r="B152" s="11" t="s">
+        <v>830</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D152" s="6" t="s">
         <v>831</v>
-      </c>
-      <c r="C152" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D152" s="6" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5254,13 +5260,13 @@
         <v>6</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5268,13 +5274,13 @@
         <v>6</v>
       </c>
       <c r="B154" s="11" t="s">
+        <v>804</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D154" s="6" t="s">
         <v>805</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D154" s="6" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5282,13 +5288,13 @@
         <v>6</v>
       </c>
       <c r="B155" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D155" s="6" t="s">
         <v>810</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D155" s="6" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5296,13 +5302,13 @@
         <v>6</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5310,13 +5316,13 @@
         <v>6</v>
       </c>
       <c r="B157" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D157" s="6" t="s">
         <v>387</v>
-      </c>
-      <c r="C157" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D157" s="6" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5324,13 +5330,13 @@
         <v>6</v>
       </c>
       <c r="B158" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D158" s="6" t="s">
         <v>389</v>
-      </c>
-      <c r="C158" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D158" s="6" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5338,13 +5344,13 @@
         <v>6</v>
       </c>
       <c r="B159" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D159" s="6" t="s">
         <v>503</v>
-      </c>
-      <c r="C159" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D159" s="6" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5352,13 +5358,13 @@
         <v>6</v>
       </c>
       <c r="B160" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D160" s="6" t="s">
         <v>507</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D160" s="6" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5366,16 +5372,16 @@
         <v>6</v>
       </c>
       <c r="B161" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D161" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="C161" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D161" s="6" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
         <v>7</v>
       </c>
@@ -5386,135 +5392,135 @@
         <v>33</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B163" s="11" t="s">
+        <v>790</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D163" s="6" t="s">
         <v>791</v>
       </c>
-      <c r="C163" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D163" s="6" t="s">
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B164" s="11" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B164" s="11" t="s">
+      <c r="C164" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D164" s="6" t="s">
         <v>793</v>
       </c>
-      <c r="C164" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D164" s="6" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B165" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B166" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C165" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D165" s="6" t="s">
+      <c r="C166" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D166" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B166" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D166" s="6" t="s">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B167" s="11" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B167" s="11" t="s">
+      <c r="C167" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D167" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C167" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D167" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B169" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D169" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D169" s="6" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5522,13 +5528,13 @@
         <v>35</v>
       </c>
       <c r="B173" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D173" s="6" t="s">
         <v>561</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D173" s="6" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5536,13 +5542,13 @@
         <v>35</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C174" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5550,13 +5556,13 @@
         <v>35</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5564,13 +5570,13 @@
         <v>35</v>
       </c>
       <c r="B176" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D176" s="6" t="s">
         <v>571</v>
-      </c>
-      <c r="C176" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D176" s="6" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5578,13 +5584,13 @@
         <v>35</v>
       </c>
       <c r="B177" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D177" s="6" t="s">
         <v>565</v>
-      </c>
-      <c r="C177" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D177" s="6" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5592,13 +5598,13 @@
         <v>35</v>
       </c>
       <c r="B178" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D178" s="6" t="s">
         <v>569</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D178" s="6" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5620,27 +5626,27 @@
         <v>7</v>
       </c>
       <c r="B180" s="11" t="s">
+        <v>773</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D180" s="6" t="s">
         <v>774</v>
-      </c>
-      <c r="C180" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D180" s="6" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5648,27 +5654,27 @@
         <v>7</v>
       </c>
       <c r="B182" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D182" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="C182" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D182" s="6" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B183" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D183" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="C183" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D183" s="6" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5687,44 +5693,44 @@
     </row>
     <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B186" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="D186" s="6" t="s">
         <v>707</v>
-      </c>
-      <c r="C186" s="6" t="s">
-        <v>679</v>
-      </c>
-      <c r="D186" s="6" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B187" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="C187" s="6" t="s">
         <v>678</v>
       </c>
-      <c r="C187" s="6" t="s">
-        <v>679</v>
-      </c>
       <c r="D187" s="6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5732,55 +5738,55 @@
         <v>7</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C188" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B189" s="11" t="s">
+        <v>747</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B190" s="11" t="s">
         <v>748</v>
       </c>
-      <c r="C189" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D189" s="6" t="s">
+      <c r="C190" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D190" s="6" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B190" s="11" t="s">
-        <v>749</v>
-      </c>
-      <c r="C190" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D190" s="6" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B191" s="11" t="s">
+        <v>745</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D191" s="6" t="s">
         <v>746</v>
-      </c>
-      <c r="C191" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D191" s="6" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5788,13 +5794,13 @@
         <v>7</v>
       </c>
       <c r="B192" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D192" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D192" s="6" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5802,27 +5808,27 @@
         <v>7</v>
       </c>
       <c r="B193" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D193" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="C193" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D193" s="6" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B194" s="11" t="s">
         <v>131</v>
-      </c>
-      <c r="B194" s="11" t="s">
-        <v>132</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5836,119 +5842,119 @@
         <v>2</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="B196" s="11" t="s">
         <v>795</v>
       </c>
-      <c r="B196" s="11" t="s">
+      <c r="C196" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D196" s="6" t="s">
         <v>796</v>
-      </c>
-      <c r="C196" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D196" s="6" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B197" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="B197" s="11" t="s">
-        <v>120</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B198" s="11" t="s">
         <v>133</v>
-      </c>
-      <c r="B198" s="11" t="s">
-        <v>134</v>
       </c>
       <c r="C198" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B199" s="11" t="s">
         <v>142</v>
-      </c>
-      <c r="B199" s="11" t="s">
-        <v>143</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B200" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="B200" s="11" t="s">
-        <v>124</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="B201" s="11" t="s">
         <v>484</v>
-      </c>
-      <c r="B201" s="11" t="s">
-        <v>485</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B202" s="11" t="s">
         <v>376</v>
-      </c>
-      <c r="B202" s="11" t="s">
-        <v>377</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B203" s="11" t="s">
         <v>253</v>
-      </c>
-      <c r="B203" s="11" t="s">
-        <v>254</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5967,58 +5973,58 @@
     </row>
     <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B205" s="11" t="s">
         <v>166</v>
-      </c>
-      <c r="B205" s="11" t="s">
-        <v>167</v>
       </c>
       <c r="C205" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B206" s="11" t="s">
         <v>235</v>
-      </c>
-      <c r="B206" s="11" t="s">
-        <v>236</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="B208" s="11" t="s">
         <v>676</v>
-      </c>
-      <c r="B208" s="11" t="s">
-        <v>677</v>
       </c>
       <c r="C208" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6026,13 +6032,13 @@
         <v>7</v>
       </c>
       <c r="B209" s="11" t="s">
+        <v>731</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D209" s="6" t="s">
         <v>732</v>
-      </c>
-      <c r="C209" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D209" s="6" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6040,13 +6046,13 @@
         <v>6</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C210" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6068,13 +6074,13 @@
         <v>7</v>
       </c>
       <c r="B212" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D212" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="C212" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D212" s="6" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6093,94 +6099,94 @@
     </row>
     <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B214" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="D214" s="6" t="s">
         <v>682</v>
-      </c>
-      <c r="C214" s="6" t="s">
-        <v>679</v>
-      </c>
-      <c r="D214" s="6" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C215" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C216" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C217" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C218" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C219" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6208,7 +6214,7 @@
         <v>33</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6230,13 +6236,13 @@
         <v>7</v>
       </c>
       <c r="B224" s="11" t="s">
+        <v>750</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D224" s="6" t="s">
         <v>751</v>
-      </c>
-      <c r="C224" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D224" s="6" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6244,13 +6250,13 @@
         <v>7</v>
       </c>
       <c r="B225" s="11" t="s">
+        <v>763</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D225" s="6" t="s">
         <v>764</v>
-      </c>
-      <c r="C225" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D225" s="6" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6258,13 +6264,13 @@
         <v>7</v>
       </c>
       <c r="B226" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D226" s="6" t="s">
         <v>753</v>
-      </c>
-      <c r="C226" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D226" s="6" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6272,13 +6278,13 @@
         <v>7</v>
       </c>
       <c r="B227" s="11" t="s">
+        <v>754</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D227" s="6" t="s">
         <v>755</v>
-      </c>
-      <c r="C227" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D227" s="6" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6300,13 +6306,13 @@
         <v>7</v>
       </c>
       <c r="B229" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D229" s="6" t="s">
         <v>757</v>
-      </c>
-      <c r="C229" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D229" s="6" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6314,13 +6320,13 @@
         <v>7</v>
       </c>
       <c r="B230" s="11" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C230" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6328,13 +6334,13 @@
         <v>7</v>
       </c>
       <c r="B231" s="11" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C231" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6342,13 +6348,13 @@
         <v>7</v>
       </c>
       <c r="B232" s="11" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C232" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6356,69 +6362,69 @@
         <v>7</v>
       </c>
       <c r="B233" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C233" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B234" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D234" s="6" t="s">
         <v>256</v>
-      </c>
-      <c r="C234" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D234" s="6" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B235" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D235" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="C235" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D235" s="6" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B236" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D236" s="6" t="s">
         <v>264</v>
-      </c>
-      <c r="C236" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D236" s="6" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B237" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D237" s="6" t="s">
         <v>266</v>
-      </c>
-      <c r="C237" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D237" s="6" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6437,30 +6443,30 @@
     </row>
     <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B239" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="D239" s="6" t="s">
         <v>489</v>
-      </c>
-      <c r="C239" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="D239" s="6" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B240" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="D240" s="6" t="s">
         <v>487</v>
-      </c>
-      <c r="C240" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="D240" s="6" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6493,30 +6499,30 @@
     </row>
     <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B243" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D243" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="C243" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D243" s="6" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6524,97 +6530,97 @@
         <v>7</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B246" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C246" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C247" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B248" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D248" s="6" t="s">
         <v>456</v>
-      </c>
-      <c r="C248" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D248" s="6" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C249" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C250" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6622,13 +6628,13 @@
         <v>7</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C252" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6636,41 +6642,41 @@
         <v>7</v>
       </c>
       <c r="B253" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B254" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C254" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D254" s="6" t="s">
         <v>260</v>
-      </c>
-      <c r="C254" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D254" s="6" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B255" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C255" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D255" s="6" t="s">
         <v>262</v>
-      </c>
-      <c r="C255" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D255" s="6" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6692,13 +6698,13 @@
         <v>6</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C257" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6706,13 +6712,13 @@
         <v>6</v>
       </c>
       <c r="B258" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C258" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D258" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6720,27 +6726,27 @@
         <v>6</v>
       </c>
       <c r="B259" s="11" t="s">
+        <v>799</v>
+      </c>
+      <c r="C259" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D259" s="6" t="s">
         <v>800</v>
       </c>
-      <c r="C259" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D259" s="6" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B260" s="11" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C260" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6748,13 +6754,13 @@
         <v>6</v>
       </c>
       <c r="B261" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="C261" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D261" s="6" t="s">
         <v>516</v>
-      </c>
-      <c r="C261" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D261" s="6" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6762,13 +6768,13 @@
         <v>6</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C262" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6776,13 +6782,13 @@
         <v>6</v>
       </c>
       <c r="B263" s="11" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C263" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6790,13 +6796,13 @@
         <v>6</v>
       </c>
       <c r="B264" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C264" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6804,13 +6810,13 @@
         <v>6</v>
       </c>
       <c r="B265" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C265" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6818,13 +6824,13 @@
         <v>6</v>
       </c>
       <c r="B266" s="11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C266" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6832,321 +6838,321 @@
         <v>6</v>
       </c>
       <c r="B267" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="C267" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D267" s="6" t="s">
         <v>497</v>
-      </c>
-      <c r="C267" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D267" s="6" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B268" s="11" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C268" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B269" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="C269" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D269" s="6" t="s">
         <v>630</v>
-      </c>
-      <c r="C269" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D269" s="6" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B270" s="11" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C270" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B271" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="C271" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D271" s="6" t="s">
         <v>710</v>
-      </c>
-      <c r="C271" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D271" s="6" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B272" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="C272" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D272" s="6" t="s">
         <v>725</v>
-      </c>
-      <c r="C272" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D272" s="6" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B273" s="11" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C273" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D273" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B274" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="C274" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D274" s="6" t="s">
         <v>669</v>
-      </c>
-      <c r="C274" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D274" s="6" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B275" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D275" s="6" t="s">
         <v>694</v>
-      </c>
-      <c r="C275" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D275" s="6" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B276" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="C276" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D276" s="6" t="s">
         <v>653</v>
-      </c>
-      <c r="C276" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D276" s="6" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B277" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="C277" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D277" s="6" t="s">
         <v>596</v>
-      </c>
-      <c r="C277" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D277" s="6" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B278" s="11" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C278" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D278" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B279" s="11" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C279" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D279" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B280" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="C280" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D280" s="6" t="s">
         <v>637</v>
-      </c>
-      <c r="C280" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D280" s="6" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B281" s="11" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C281" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D281" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B282" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="C282" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D282" s="6" t="s">
         <v>674</v>
-      </c>
-      <c r="C282" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D282" s="6" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B283" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="C283" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D283" s="6" t="s">
         <v>663</v>
-      </c>
-      <c r="C283" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D283" s="6" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B284" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="C284" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D284" s="6" t="s">
         <v>650</v>
-      </c>
-      <c r="C284" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D284" s="6" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B285" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="C285" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D285" s="6" t="s">
         <v>634</v>
-      </c>
-      <c r="C285" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D285" s="6" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C286" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D286" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B287" s="11" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C287" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D287" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="6" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B288" s="11" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C288" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D288" s="6" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="6" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B289" s="11" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C289" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D289" s="6" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7154,41 +7160,41 @@
         <v>7</v>
       </c>
       <c r="B290" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C290" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D290" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B291" s="11" t="s">
+        <v>767</v>
+      </c>
+      <c r="C291" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D291" s="6" t="s">
         <v>768</v>
-      </c>
-      <c r="C291" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D291" s="6" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C292" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D292" s="6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7202,21 +7208,21 @@
         <v>33</v>
       </c>
       <c r="D293" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B294" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C294" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D294" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="C294" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D294" s="6" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7238,7 +7244,7 @@
         <v>7</v>
       </c>
       <c r="B296" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C296" s="6" t="s">
         <v>0</v>
@@ -7252,13 +7258,13 @@
         <v>6</v>
       </c>
       <c r="B297" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C297" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D297" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7266,13 +7272,13 @@
         <v>6</v>
       </c>
       <c r="B298" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C298" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D298" s="6" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7280,13 +7286,13 @@
         <v>6</v>
       </c>
       <c r="B299" s="11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C299" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D299" s="6" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7300,7 +7306,7 @@
         <v>33</v>
       </c>
       <c r="D300" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7308,13 +7314,13 @@
         <v>7</v>
       </c>
       <c r="B301" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C301" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D301" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7322,13 +7328,13 @@
         <v>7</v>
       </c>
       <c r="B302" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C302" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D302" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="C302" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D302" s="6" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7336,13 +7342,13 @@
         <v>7</v>
       </c>
       <c r="B303" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C303" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D303" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7350,13 +7356,13 @@
         <v>7</v>
       </c>
       <c r="B304" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C304" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D304" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7364,13 +7370,13 @@
         <v>7</v>
       </c>
       <c r="B305" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C305" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D305" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="C305" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D305" s="6" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7378,13 +7384,13 @@
         <v>7</v>
       </c>
       <c r="B306" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C306" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D306" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="C306" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D306" s="6" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7392,27 +7398,27 @@
         <v>7</v>
       </c>
       <c r="B307" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C307" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D307" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="C307" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D307" s="6" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B308" s="11" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C308" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D308" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7426,7 +7432,7 @@
         <v>0</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7434,13 +7440,13 @@
         <v>7</v>
       </c>
       <c r="B310" s="11" t="s">
+        <v>776</v>
+      </c>
+      <c r="C310" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D310" s="6" t="s">
         <v>777</v>
-      </c>
-      <c r="C310" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D310" s="6" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7448,13 +7454,13 @@
         <v>7</v>
       </c>
       <c r="B311" s="11" t="s">
+        <v>778</v>
+      </c>
+      <c r="C311" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D311" s="6" t="s">
         <v>779</v>
-      </c>
-      <c r="C311" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D311" s="6" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7462,27 +7468,27 @@
         <v>7</v>
       </c>
       <c r="B312" s="11" t="s">
+        <v>761</v>
+      </c>
+      <c r="C312" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D312" s="6" t="s">
         <v>762</v>
-      </c>
-      <c r="C312" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D312" s="6" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B313" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C313" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D313" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7490,27 +7496,27 @@
         <v>6</v>
       </c>
       <c r="B314" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="C314" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D314" s="6" t="s">
         <v>453</v>
-      </c>
-      <c r="C314" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D314" s="6" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B315" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C315" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D315" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="C315" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D315" s="6" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7532,13 +7538,13 @@
         <v>7</v>
       </c>
       <c r="B317" s="11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C317" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D317" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7546,13 +7552,13 @@
         <v>7</v>
       </c>
       <c r="B318" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C318" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D318" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7560,13 +7566,13 @@
         <v>7</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C319" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D319" s="6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7574,13 +7580,13 @@
         <v>7</v>
       </c>
       <c r="B320" s="11" t="s">
+        <v>785</v>
+      </c>
+      <c r="C320" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D320" s="6" t="s">
         <v>786</v>
-      </c>
-      <c r="C320" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D320" s="6" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7588,13 +7594,13 @@
         <v>7</v>
       </c>
       <c r="B321" s="11" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C321" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D321" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7602,13 +7608,13 @@
         <v>7</v>
       </c>
       <c r="B322" s="11" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C322" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D322" s="6" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7616,13 +7622,13 @@
         <v>7</v>
       </c>
       <c r="B323" s="11" t="s">
+        <v>782</v>
+      </c>
+      <c r="C323" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D323" s="6" t="s">
         <v>783</v>
-      </c>
-      <c r="C323" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D323" s="6" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7630,13 +7636,13 @@
         <v>7</v>
       </c>
       <c r="B324" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="C324" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D324" s="6" t="s">
         <v>588</v>
-      </c>
-      <c r="C324" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D324" s="6" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7644,7 +7650,7 @@
         <v>7</v>
       </c>
       <c r="B325" s="11" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C325" s="6" t="s">
         <v>19</v>
@@ -7658,13 +7664,13 @@
         <v>7</v>
       </c>
       <c r="B326" s="11" t="s">
+        <v>741</v>
+      </c>
+      <c r="C326" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D326" s="6" t="s">
         <v>742</v>
-      </c>
-      <c r="C326" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D326" s="6" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7672,7 +7678,7 @@
         <v>7</v>
       </c>
       <c r="B327" s="11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C327" s="6" t="s">
         <v>19</v>
@@ -7686,13 +7692,13 @@
         <v>7</v>
       </c>
       <c r="B328" s="11" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C328" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D328" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7700,13 +7706,13 @@
         <v>7</v>
       </c>
       <c r="B329" s="11" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C329" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D329" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7714,13 +7720,13 @@
         <v>7</v>
       </c>
       <c r="B330" s="11" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C330" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D330" s="6" t="s">
-        <v>69</v>
+        <v>856</v>
       </c>
     </row>
     <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7762,7 +7768,7 @@
         <v>33</v>
       </c>
       <c r="D333" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7770,7 +7776,7 @@
         <v>7</v>
       </c>
       <c r="B334" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C334" s="6" t="s">
         <v>0</v>
@@ -7784,13 +7790,13 @@
         <v>7</v>
       </c>
       <c r="B335" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C335" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D335" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="C335" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D335" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7798,7 +7804,7 @@
         <v>7</v>
       </c>
       <c r="B336" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C336" s="6" t="s">
         <v>0</v>
@@ -7812,7 +7818,7 @@
         <v>7</v>
       </c>
       <c r="B337" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C337" s="6" t="s">
         <v>19</v>
@@ -7823,16 +7829,16 @@
     </row>
     <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B338" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C338" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D338" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7840,13 +7846,13 @@
         <v>7</v>
       </c>
       <c r="B339" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C339" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D339" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7854,13 +7860,13 @@
         <v>7</v>
       </c>
       <c r="B340" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C340" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D340" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7874,7 +7880,7 @@
         <v>0</v>
       </c>
       <c r="D341" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7882,41 +7888,41 @@
         <v>6</v>
       </c>
       <c r="B342" s="11" t="s">
+        <v>843</v>
+      </c>
+      <c r="C342" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D342" s="6" t="s">
         <v>844</v>
-      </c>
-      <c r="C342" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D342" s="6" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="6" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B343" s="11" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C343" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D343" s="6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="B344" s="11" t="s">
         <v>847</v>
-      </c>
-      <c r="B344" s="11" t="s">
-        <v>848</v>
       </c>
       <c r="C344" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D344" s="6" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7924,13 +7930,13 @@
         <v>6</v>
       </c>
       <c r="B345" s="11" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C345" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D345" s="6" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -7938,22 +7944,42 @@
         <v>6</v>
       </c>
       <c r="B346" s="11" t="s">
+        <v>851</v>
+      </c>
+      <c r="C346" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D346" s="6" t="s">
         <v>852</v>
       </c>
-      <c r="C346" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D346" s="6" t="s">
-        <v>853</v>
+    </row>
+    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A347" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B347" s="11" t="s">
+        <v>857</v>
+      </c>
+      <c r="C347" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D347" s="6" t="s">
+        <v>858</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D346" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}">
+  <autoFilter ref="A1:D347" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}">
     <filterColumn colId="1">
       <filters>
-        <filter val="f'val {var:.n%}'"/>
-        <filter val="f'val {var:.nf}'"/>
-        <filter val="f'val1 {var1} val2 {var2}'"/>
+        <filter val="dict()"/>
+        <filter val="dict.get(key)"/>
+        <filter val="dict.get(key, val)"/>
+        <filter val="dict.items()"/>
+        <filter val="dict.keys()"/>
+        <filter val="dict.values()"/>
+        <filter val="dict[dict][val]"/>
+        <filter val="dict[val]"/>
+        <filter val="pd.DataFrame.from_dict({'rowindex': {'colindex': 'val'}})"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -7967,7 +7993,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -7999,13 +8025,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>537</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>619</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8013,13 +8039,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8027,13 +8053,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -8041,13 +8067,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -8055,13 +8081,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -8069,13 +8095,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>522</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>615</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -8083,13 +8109,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -8097,13 +8123,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -8111,13 +8137,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>408</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -8125,10 +8151,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -8136,13 +8162,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>577</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="D12" s="6" t="s">
         <v>578</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -8150,13 +8176,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -8164,13 +8190,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -8178,13 +8204,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -8192,13 +8218,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -8206,13 +8232,13 @@
         <v>6</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -8220,13 +8246,13 @@
         <v>6</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -8234,13 +8260,13 @@
         <v>6</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -8248,13 +8274,13 @@
         <v>6</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -8262,13 +8288,13 @@
         <v>6</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -8276,13 +8302,13 @@
         <v>6</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -8290,13 +8316,13 @@
         <v>6</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -8304,13 +8330,13 @@
         <v>6</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -8318,13 +8344,13 @@
         <v>6</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -8332,13 +8358,13 @@
         <v>6</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -8346,13 +8372,13 @@
         <v>6</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -8360,346 +8386,346 @@
         <v>6</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>542</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B30" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>655</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>656</v>
-      </c>
       <c r="D30" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>632</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>645</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C33" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>712</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>666</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="D34" s="6" t="s">
         <v>667</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C36" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>696</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C40" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>704</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C46" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>626</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C47" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>628</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C50" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>642</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C51" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>646</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C52" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>648</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -8707,13 +8733,13 @@
         <v>7</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -8721,13 +8747,13 @@
         <v>7</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C54" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>734</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>735</v>
       </c>
     </row>
   </sheetData>
@@ -8768,17 +8794,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -8812,10 +8838,10 @@
     </row>
     <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>740</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>741</v>
       </c>
     </row>
   </sheetData>
@@ -8840,85 +8866,85 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
   </sheetData>
@@ -8947,23 +8973,23 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>766</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>788</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>789</v>
       </c>
     </row>
   </sheetData>
@@ -8988,52 +9014,52 @@
   <sheetData>
     <row r="1" spans="1:2" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/Конспект_Python.xlsx
+++ b/Конспект_Python.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\my_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F2D961-6CA2-4F6E-A11B-70FC52B5521D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF29AE4-9F49-4EB4-B755-BED910D6AFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="728" xr2:uid="{65C49AB7-91AD-4F1F-B814-EFF7DAC5AF74}"/>
   </bookViews>
   <sheets>
     <sheet name="Операторы" sheetId="1" r:id="rId1"/>
     <sheet name="Атрибуты" sheetId="9" r:id="rId2"/>
-    <sheet name="markdown" sheetId="7" r:id="rId3"/>
-    <sheet name="Распаковка списков" sheetId="6" r:id="rId4"/>
-    <sheet name="Условия" sheetId="5" r:id="rId5"/>
-    <sheet name="Функции" sheetId="2" r:id="rId6"/>
-    <sheet name="Циклы" sheetId="3" r:id="rId7"/>
-    <sheet name="Генераторы списков" sheetId="4" r:id="rId8"/>
+    <sheet name="Распаковка списков" sheetId="6" r:id="rId3"/>
+    <sheet name="Условия" sheetId="5" r:id="rId4"/>
+    <sheet name="Функции" sheetId="2" r:id="rId5"/>
+    <sheet name="Циклы" sheetId="3" r:id="rId6"/>
+    <sheet name="Генераторы списков" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Атрибуты!$A$1:$D$54</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Генераторы списков'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Генераторы списков'!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Операторы!$A$1:$D$347</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Функции!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Функции!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3116,12 +3115,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}">
-  <sheetPr codeName="Лист1" filterMode="1"/>
+  <sheetPr codeName="Лист1"/>
   <dimension ref="A1:D347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A163" sqref="A163"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3147,7 +3146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -3161,7 +3160,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -3175,7 +3174,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -3189,7 +3188,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -3203,7 +3202,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -3217,7 +3216,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -3231,7 +3230,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -3245,7 +3244,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -3259,7 +3258,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -3273,7 +3272,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
@@ -3287,7 +3286,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
@@ -3301,7 +3300,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
@@ -3315,7 +3314,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
@@ -3329,7 +3328,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -3343,7 +3342,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>7</v>
       </c>
@@ -3357,7 +3356,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -3371,7 +3370,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -3385,7 +3384,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>7</v>
       </c>
@@ -3399,7 +3398,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>7</v>
       </c>
@@ -3413,7 +3412,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -3427,7 +3426,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
@@ -3441,7 +3440,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
@@ -3455,7 +3454,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
@@ -3469,7 +3468,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
@@ -3483,7 +3482,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>7</v>
       </c>
@@ -3497,7 +3496,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>7</v>
       </c>
@@ -3511,7 +3510,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>483</v>
       </c>
@@ -3525,7 +3524,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>6</v>
       </c>
@@ -3539,7 +3538,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
@@ -3553,7 +3552,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
@@ -3567,7 +3566,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>6</v>
       </c>
@@ -3581,7 +3580,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
@@ -3595,7 +3594,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>7</v>
       </c>
@@ -3609,7 +3608,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>7</v>
       </c>
@@ -3623,7 +3622,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>7</v>
       </c>
@@ -3637,7 +3636,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>7</v>
       </c>
@@ -3651,7 +3650,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>7</v>
       </c>
@@ -3665,7 +3664,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>7</v>
       </c>
@@ -3679,7 +3678,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>7</v>
       </c>
@@ -3693,7 +3692,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>6</v>
       </c>
@@ -3707,7 +3706,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>7</v>
       </c>
@@ -3721,7 +3720,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>7</v>
       </c>
@@ -3735,7 +3734,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>7</v>
       </c>
@@ -3749,7 +3748,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>7</v>
       </c>
@@ -3763,7 +3762,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>7</v>
       </c>
@@ -3777,7 +3776,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>7</v>
       </c>
@@ -3791,7 +3790,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>7</v>
       </c>
@@ -3805,7 +3804,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>7</v>
       </c>
@@ -3819,7 +3818,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>7</v>
       </c>
@@ -3833,7 +3832,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>141</v>
       </c>
@@ -3847,7 +3846,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>141</v>
       </c>
@@ -3861,7 +3860,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>7</v>
       </c>
@@ -3875,7 +3874,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>141</v>
       </c>
@@ -3889,7 +3888,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>130</v>
       </c>
@@ -3903,7 +3902,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>130</v>
       </c>
@@ -3917,7 +3916,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>130</v>
       </c>
@@ -3931,7 +3930,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>675</v>
       </c>
@@ -3939,7 +3938,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>6</v>
       </c>
@@ -3953,7 +3952,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>7</v>
       </c>
@@ -3967,7 +3966,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>7</v>
       </c>
@@ -3981,7 +3980,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>7</v>
       </c>
@@ -3995,7 +3994,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>6</v>
       </c>
@@ -4009,7 +4008,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>6</v>
       </c>
@@ -4023,7 +4022,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>6</v>
       </c>
@@ -4037,7 +4036,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>6</v>
       </c>
@@ -4051,7 +4050,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>6</v>
       </c>
@@ -4065,7 +4064,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>6</v>
       </c>
@@ -4079,7 +4078,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>6</v>
       </c>
@@ -4093,7 +4092,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>6</v>
       </c>
@@ -4107,7 +4106,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>6</v>
       </c>
@@ -4121,7 +4120,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>6</v>
       </c>
@@ -4135,7 +4134,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>6</v>
       </c>
@@ -4149,7 +4148,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>6</v>
       </c>
@@ -4163,7 +4162,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>6</v>
       </c>
@@ -4177,7 +4176,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>6</v>
       </c>
@@ -4191,7 +4190,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>6</v>
       </c>
@@ -4205,7 +4204,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>6</v>
       </c>
@@ -4219,7 +4218,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>6</v>
       </c>
@@ -4233,7 +4232,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>6</v>
       </c>
@@ -4247,7 +4246,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>6</v>
       </c>
@@ -4261,7 +4260,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>6</v>
       </c>
@@ -4275,7 +4274,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>6</v>
       </c>
@@ -4289,7 +4288,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>6</v>
       </c>
@@ -4303,7 +4302,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>6</v>
       </c>
@@ -4317,7 +4316,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>6</v>
       </c>
@@ -4331,7 +4330,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>6</v>
       </c>
@@ -4345,7 +4344,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>6</v>
       </c>
@@ -4359,7 +4358,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>6</v>
       </c>
@@ -4373,7 +4372,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>6</v>
       </c>
@@ -4387,7 +4386,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>6</v>
       </c>
@@ -4401,7 +4400,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
         <v>6</v>
       </c>
@@ -4415,7 +4414,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>6</v>
       </c>
@@ -4429,7 +4428,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
         <v>6</v>
       </c>
@@ -4443,7 +4442,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>6</v>
       </c>
@@ -4457,7 +4456,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
         <v>6</v>
       </c>
@@ -4471,7 +4470,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
         <v>6</v>
       </c>
@@ -4485,7 +4484,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>6</v>
       </c>
@@ -4499,7 +4498,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>6</v>
       </c>
@@ -4513,7 +4512,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
         <v>6</v>
       </c>
@@ -4527,7 +4526,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>6</v>
       </c>
@@ -4541,7 +4540,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>6</v>
       </c>
@@ -4555,7 +4554,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>6</v>
       </c>
@@ -4569,7 +4568,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>6</v>
       </c>
@@ -4583,7 +4582,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>6</v>
       </c>
@@ -4597,7 +4596,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>6</v>
       </c>
@@ -4611,7 +4610,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
         <v>6</v>
       </c>
@@ -4625,7 +4624,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>6</v>
       </c>
@@ -4639,7 +4638,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>6</v>
       </c>
@@ -4653,7 +4652,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
         <v>6</v>
       </c>
@@ -4667,7 +4666,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
         <v>6</v>
       </c>
@@ -4681,7 +4680,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>6</v>
       </c>
@@ -4695,7 +4694,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
         <v>6</v>
       </c>
@@ -4709,7 +4708,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
         <v>6</v>
       </c>
@@ -4723,7 +4722,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
         <v>6</v>
       </c>
@@ -4737,7 +4736,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
         <v>6</v>
       </c>
@@ -4751,7 +4750,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
         <v>6</v>
       </c>
@@ -4765,7 +4764,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
         <v>6</v>
       </c>
@@ -4779,7 +4778,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
         <v>6</v>
       </c>
@@ -4793,7 +4792,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
         <v>6</v>
       </c>
@@ -4807,7 +4806,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
         <v>6</v>
       </c>
@@ -4821,7 +4820,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
         <v>6</v>
       </c>
@@ -4835,7 +4834,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>6</v>
       </c>
@@ -4849,7 +4848,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
         <v>6</v>
       </c>
@@ -4863,7 +4862,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
         <v>6</v>
       </c>
@@ -4877,7 +4876,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
         <v>6</v>
       </c>
@@ -4891,7 +4890,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
         <v>6</v>
       </c>
@@ -4905,7 +4904,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
         <v>6</v>
       </c>
@@ -4919,7 +4918,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
         <v>6</v>
       </c>
@@ -4933,7 +4932,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
         <v>6</v>
       </c>
@@ -4947,7 +4946,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
         <v>6</v>
       </c>
@@ -4961,7 +4960,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
         <v>6</v>
       </c>
@@ -4975,7 +4974,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
         <v>6</v>
       </c>
@@ -4989,7 +4988,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
         <v>6</v>
       </c>
@@ -5003,7 +5002,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
         <v>6</v>
       </c>
@@ -5017,7 +5016,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
         <v>6</v>
       </c>
@@ -5031,7 +5030,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
         <v>6</v>
       </c>
@@ -5045,7 +5044,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
         <v>6</v>
       </c>
@@ -5059,7 +5058,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
         <v>6</v>
       </c>
@@ -5073,7 +5072,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
         <v>6</v>
       </c>
@@ -5087,7 +5086,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
         <v>6</v>
       </c>
@@ -5101,7 +5100,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
         <v>6</v>
       </c>
@@ -5115,7 +5114,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
         <v>6</v>
       </c>
@@ -5129,7 +5128,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
         <v>6</v>
       </c>
@@ -5143,7 +5142,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
         <v>6</v>
       </c>
@@ -5157,7 +5156,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
         <v>6</v>
       </c>
@@ -5171,7 +5170,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
         <v>6</v>
       </c>
@@ -5185,7 +5184,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
         <v>6</v>
       </c>
@@ -5199,7 +5198,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
         <v>6</v>
       </c>
@@ -5213,7 +5212,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
         <v>6</v>
       </c>
@@ -5227,7 +5226,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
         <v>6</v>
       </c>
@@ -5241,7 +5240,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
         <v>6</v>
       </c>
@@ -5255,7 +5254,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
         <v>6</v>
       </c>
@@ -5269,7 +5268,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
         <v>6</v>
       </c>
@@ -5283,7 +5282,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
         <v>6</v>
       </c>
@@ -5297,7 +5296,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
         <v>6</v>
       </c>
@@ -5311,7 +5310,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
         <v>6</v>
       </c>
@@ -5325,7 +5324,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
         <v>6</v>
       </c>
@@ -5339,7 +5338,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
         <v>6</v>
       </c>
@@ -5353,7 +5352,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
         <v>6</v>
       </c>
@@ -5367,7 +5366,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="s">
         <v>6</v>
       </c>
@@ -5493,7 +5492,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
         <v>675</v>
       </c>
@@ -5507,7 +5506,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
         <v>675</v>
       </c>
@@ -5515,7 +5514,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
         <v>675</v>
       </c>
@@ -5523,7 +5522,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
         <v>35</v>
       </c>
@@ -5537,7 +5536,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="6" t="s">
         <v>35</v>
       </c>
@@ -5551,7 +5550,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
         <v>35</v>
       </c>
@@ -5565,7 +5564,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="6" t="s">
         <v>35</v>
       </c>
@@ -5579,7 +5578,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="6" t="s">
         <v>35</v>
       </c>
@@ -5593,7 +5592,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="6" t="s">
         <v>35</v>
       </c>
@@ -5607,7 +5606,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="6" t="s">
         <v>7</v>
       </c>
@@ -5621,7 +5620,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="6" t="s">
         <v>7</v>
       </c>
@@ -5635,7 +5634,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="6" t="s">
         <v>122</v>
       </c>
@@ -5649,7 +5648,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="s">
         <v>7</v>
       </c>
@@ -5663,7 +5662,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="6" t="s">
         <v>234</v>
       </c>
@@ -5677,7 +5676,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="6" t="s">
         <v>7</v>
       </c>
@@ -5691,7 +5690,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="6" t="s">
         <v>483</v>
       </c>
@@ -5705,7 +5704,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="6" t="s">
         <v>483</v>
       </c>
@@ -5719,7 +5718,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="6" t="s">
         <v>675</v>
       </c>
@@ -5733,7 +5732,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="6" t="s">
         <v>7</v>
       </c>
@@ -5747,7 +5746,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
         <v>7</v>
       </c>
@@ -5761,7 +5760,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="6" t="s">
         <v>7</v>
       </c>
@@ -5775,7 +5774,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="6" t="s">
         <v>7</v>
       </c>
@@ -5789,7 +5788,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="6" t="s">
         <v>7</v>
       </c>
@@ -5803,7 +5802,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="6" t="s">
         <v>7</v>
       </c>
@@ -5817,7 +5816,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="6" t="s">
         <v>130</v>
       </c>
@@ -5831,7 +5830,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="6" t="s">
         <v>35</v>
       </c>
@@ -5845,7 +5844,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="6" t="s">
         <v>794</v>
       </c>
@@ -5859,7 +5858,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="6" t="s">
         <v>118</v>
       </c>
@@ -5873,7 +5872,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="6" t="s">
         <v>132</v>
       </c>
@@ -5887,7 +5886,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
         <v>141</v>
       </c>
@@ -5901,7 +5900,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="6" t="s">
         <v>122</v>
       </c>
@@ -5915,7 +5914,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
         <v>483</v>
       </c>
@@ -5929,7 +5928,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
         <v>375</v>
       </c>
@@ -5943,7 +5942,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="6" t="s">
         <v>252</v>
       </c>
@@ -5957,7 +5956,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
         <v>6</v>
       </c>
@@ -5971,7 +5970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
         <v>165</v>
       </c>
@@ -5985,7 +5984,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="6" t="s">
         <v>234</v>
       </c>
@@ -5999,7 +5998,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
         <v>715</v>
       </c>
@@ -6013,7 +6012,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="6" t="s">
         <v>675</v>
       </c>
@@ -6027,7 +6026,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="6" t="s">
         <v>7</v>
       </c>
@@ -6041,7 +6040,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="6" t="s">
         <v>6</v>
       </c>
@@ -6055,7 +6054,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="6" t="s">
         <v>7</v>
       </c>
@@ -6069,7 +6068,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="6" t="s">
         <v>7</v>
       </c>
@@ -6083,7 +6082,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="6" t="s">
         <v>7</v>
       </c>
@@ -6097,7 +6096,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
         <v>675</v>
       </c>
@@ -6111,7 +6110,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="6" t="s">
         <v>675</v>
       </c>
@@ -6125,7 +6124,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="6" t="s">
         <v>675</v>
       </c>
@@ -6139,7 +6138,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
         <v>675</v>
       </c>
@@ -6153,7 +6152,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
         <v>675</v>
       </c>
@@ -6167,7 +6166,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="6" t="s">
         <v>675</v>
       </c>
@@ -6181,7 +6180,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="6" t="s">
         <v>675</v>
       </c>
@@ -6189,7 +6188,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="6" t="s">
         <v>7</v>
       </c>
@@ -6203,7 +6202,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="6" t="s">
         <v>7</v>
       </c>
@@ -6217,7 +6216,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
         <v>7</v>
       </c>
@@ -6231,7 +6230,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="6" t="s">
         <v>7</v>
       </c>
@@ -6245,7 +6244,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="6" t="s">
         <v>7</v>
       </c>
@@ -6259,7 +6258,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="6" t="s">
         <v>7</v>
       </c>
@@ -6273,7 +6272,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="6" t="s">
         <v>7</v>
       </c>
@@ -6287,7 +6286,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="6" t="s">
         <v>7</v>
       </c>
@@ -6301,7 +6300,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="6" t="s">
         <v>7</v>
       </c>
@@ -6315,7 +6314,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="6" t="s">
         <v>7</v>
       </c>
@@ -6329,7 +6328,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="6" t="s">
         <v>7</v>
       </c>
@@ -6343,7 +6342,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="6" t="s">
         <v>7</v>
       </c>
@@ -6357,7 +6356,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="6" t="s">
         <v>7</v>
       </c>
@@ -6371,7 +6370,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="s">
         <v>252</v>
       </c>
@@ -6385,7 +6384,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="s">
         <v>122</v>
       </c>
@@ -6399,7 +6398,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="6" t="s">
         <v>252</v>
       </c>
@@ -6413,7 +6412,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="6" t="s">
         <v>252</v>
       </c>
@@ -6427,7 +6426,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="6" t="s">
         <v>7</v>
       </c>
@@ -6441,7 +6440,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="6" t="s">
         <v>483</v>
       </c>
@@ -6455,7 +6454,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="6" t="s">
         <v>483</v>
       </c>
@@ -6469,7 +6468,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="6" t="s">
         <v>7</v>
       </c>
@@ -6483,7 +6482,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="6" t="s">
         <v>7</v>
       </c>
@@ -6497,7 +6496,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="6" t="s">
         <v>252</v>
       </c>
@@ -6511,7 +6510,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="6" t="s">
         <v>132</v>
       </c>
@@ -6525,7 +6524,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="6" t="s">
         <v>7</v>
       </c>
@@ -6539,7 +6538,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="6" t="s">
         <v>375</v>
       </c>
@@ -6553,7 +6552,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="6" t="s">
         <v>375</v>
       </c>
@@ -6567,7 +6566,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="6" t="s">
         <v>375</v>
       </c>
@@ -6581,7 +6580,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="6" t="s">
         <v>375</v>
       </c>
@@ -6595,7 +6594,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="6" t="s">
         <v>375</v>
       </c>
@@ -6609,7 +6608,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="6" t="s">
         <v>132</v>
       </c>
@@ -6623,7 +6622,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="6" t="s">
         <v>7</v>
       </c>
@@ -6637,7 +6636,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="6" t="s">
         <v>7</v>
       </c>
@@ -6651,7 +6650,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="6" t="s">
         <v>252</v>
       </c>
@@ -6665,7 +6664,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="6" t="s">
         <v>252</v>
       </c>
@@ -6679,7 +6678,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="6" t="s">
         <v>6</v>
       </c>
@@ -6693,7 +6692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="6" t="s">
         <v>6</v>
       </c>
@@ -6707,7 +6706,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="6" t="s">
         <v>6</v>
       </c>
@@ -6721,7 +6720,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="6" t="s">
         <v>6</v>
       </c>
@@ -6749,7 +6748,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="6" t="s">
         <v>6</v>
       </c>
@@ -6763,7 +6762,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="6" t="s">
         <v>6</v>
       </c>
@@ -6777,7 +6776,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="6" t="s">
         <v>6</v>
       </c>
@@ -6791,7 +6790,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="6" t="s">
         <v>6</v>
       </c>
@@ -6805,7 +6804,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="6" t="s">
         <v>6</v>
       </c>
@@ -6819,7 +6818,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="6" t="s">
         <v>6</v>
       </c>
@@ -6833,7 +6832,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="s">
         <v>6</v>
       </c>
@@ -6847,7 +6846,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="6" t="s">
         <v>483</v>
       </c>
@@ -6861,7 +6860,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="6" t="s">
         <v>483</v>
       </c>
@@ -6875,7 +6874,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="6" t="s">
         <v>483</v>
       </c>
@@ -6889,7 +6888,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="6" t="s">
         <v>483</v>
       </c>
@@ -6903,7 +6902,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="6" t="s">
         <v>483</v>
       </c>
@@ -6917,7 +6916,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="6" t="s">
         <v>483</v>
       </c>
@@ -6931,7 +6930,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="6" t="s">
         <v>483</v>
       </c>
@@ -6945,7 +6944,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="6" t="s">
         <v>483</v>
       </c>
@@ -6959,7 +6958,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="6" t="s">
         <v>483</v>
       </c>
@@ -6973,7 +6972,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="6" t="s">
         <v>483</v>
       </c>
@@ -6987,7 +6986,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="6" t="s">
         <v>483</v>
       </c>
@@ -7001,7 +7000,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="6" t="s">
         <v>483</v>
       </c>
@@ -7015,7 +7014,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="6" t="s">
         <v>483</v>
       </c>
@@ -7029,7 +7028,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="6" t="s">
         <v>483</v>
       </c>
@@ -7043,7 +7042,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="6" t="s">
         <v>483</v>
       </c>
@@ -7057,7 +7056,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="6" t="s">
         <v>483</v>
       </c>
@@ -7071,7 +7070,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="6" t="s">
         <v>483</v>
       </c>
@@ -7085,7 +7084,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="6" t="s">
         <v>483</v>
       </c>
@@ -7099,7 +7098,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="6" t="s">
         <v>483</v>
       </c>
@@ -7113,7 +7112,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="6" t="s">
         <v>483</v>
       </c>
@@ -7127,7 +7126,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="6" t="s">
         <v>794</v>
       </c>
@@ -7141,7 +7140,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="6" t="s">
         <v>794</v>
       </c>
@@ -7155,7 +7154,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="6" t="s">
         <v>7</v>
       </c>
@@ -7169,7 +7168,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="6" t="s">
         <v>122</v>
       </c>
@@ -7183,7 +7182,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="6" t="s">
         <v>165</v>
       </c>
@@ -7197,7 +7196,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="6" t="s">
         <v>7</v>
       </c>
@@ -7211,7 +7210,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="6" t="s">
         <v>118</v>
       </c>
@@ -7225,7 +7224,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="6" t="s">
         <v>7</v>
       </c>
@@ -7239,7 +7238,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="6" t="s">
         <v>7</v>
       </c>
@@ -7253,7 +7252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="6" t="s">
         <v>6</v>
       </c>
@@ -7267,7 +7266,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="6" t="s">
         <v>6</v>
       </c>
@@ -7281,7 +7280,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="6" t="s">
         <v>6</v>
       </c>
@@ -7295,7 +7294,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="6" t="s">
         <v>7</v>
       </c>
@@ -7309,7 +7308,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="6" t="s">
         <v>7</v>
       </c>
@@ -7323,7 +7322,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="6" t="s">
         <v>7</v>
       </c>
@@ -7337,7 +7336,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="6" t="s">
         <v>7</v>
       </c>
@@ -7351,7 +7350,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="6" t="s">
         <v>7</v>
       </c>
@@ -7365,7 +7364,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" s="6" t="s">
         <v>7</v>
       </c>
@@ -7379,7 +7378,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="6" t="s">
         <v>7</v>
       </c>
@@ -7393,7 +7392,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" s="6" t="s">
         <v>7</v>
       </c>
@@ -7407,7 +7406,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="6" t="s">
         <v>715</v>
       </c>
@@ -7421,7 +7420,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" s="6" t="s">
         <v>7</v>
       </c>
@@ -7435,7 +7434,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" s="6" t="s">
         <v>7</v>
       </c>
@@ -7449,7 +7448,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" s="6" t="s">
         <v>7</v>
       </c>
@@ -7463,7 +7462,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" s="6" t="s">
         <v>7</v>
       </c>
@@ -7477,7 +7476,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" s="6" t="s">
         <v>234</v>
       </c>
@@ -7491,7 +7490,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" s="6" t="s">
         <v>6</v>
       </c>
@@ -7505,7 +7504,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" s="6" t="s">
         <v>122</v>
       </c>
@@ -7519,7 +7518,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" s="6" t="s">
         <v>7</v>
       </c>
@@ -7533,7 +7532,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" s="6" t="s">
         <v>7</v>
       </c>
@@ -7547,7 +7546,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" s="6" t="s">
         <v>7</v>
       </c>
@@ -7561,7 +7560,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="6" t="s">
         <v>7</v>
       </c>
@@ -7575,7 +7574,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="6" t="s">
         <v>7</v>
       </c>
@@ -7589,7 +7588,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" s="6" t="s">
         <v>7</v>
       </c>
@@ -7603,7 +7602,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" s="6" t="s">
         <v>7</v>
       </c>
@@ -7617,7 +7616,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" s="6" t="s">
         <v>7</v>
       </c>
@@ -7631,7 +7630,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" s="6" t="s">
         <v>7</v>
       </c>
@@ -7645,7 +7644,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" s="6" t="s">
         <v>7</v>
       </c>
@@ -7659,7 +7658,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" s="6" t="s">
         <v>7</v>
       </c>
@@ -7673,7 +7672,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" s="6" t="s">
         <v>7</v>
       </c>
@@ -7687,7 +7686,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" s="6" t="s">
         <v>7</v>
       </c>
@@ -7701,7 +7700,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" s="6" t="s">
         <v>7</v>
       </c>
@@ -7715,7 +7714,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" s="6" t="s">
         <v>7</v>
       </c>
@@ -7729,7 +7728,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" s="6" t="s">
         <v>35</v>
       </c>
@@ -7743,7 +7742,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" s="6" t="s">
         <v>7</v>
       </c>
@@ -7757,7 +7756,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" s="6" t="s">
         <v>7</v>
       </c>
@@ -7771,7 +7770,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" s="6" t="s">
         <v>7</v>
       </c>
@@ -7785,7 +7784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" s="6" t="s">
         <v>7</v>
       </c>
@@ -7799,7 +7798,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" s="6" t="s">
         <v>7</v>
       </c>
@@ -7813,7 +7812,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" s="6" t="s">
         <v>7</v>
       </c>
@@ -7827,7 +7826,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" s="6" t="s">
         <v>252</v>
       </c>
@@ -7841,7 +7840,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" s="6" t="s">
         <v>7</v>
       </c>
@@ -7855,7 +7854,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" s="6" t="s">
         <v>7</v>
       </c>
@@ -7869,7 +7868,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" s="6" t="s">
         <v>7</v>
       </c>
@@ -7883,7 +7882,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" s="6" t="s">
         <v>6</v>
       </c>
@@ -7897,7 +7896,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" s="6" t="s">
         <v>846</v>
       </c>
@@ -7911,7 +7910,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" s="6" t="s">
         <v>846</v>
       </c>
@@ -7925,7 +7924,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" s="6" t="s">
         <v>6</v>
       </c>
@@ -7939,7 +7938,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" s="6" t="s">
         <v>6</v>
       </c>
@@ -7953,7 +7952,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="6" t="s">
         <v>6</v>
       </c>
@@ -7968,21 +7967,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D347" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="dict()"/>
-        <filter val="dict.get(key)"/>
-        <filter val="dict.get(key, val)"/>
-        <filter val="dict.items()"/>
-        <filter val="dict.keys()"/>
-        <filter val="dict.values()"/>
-        <filter val="dict[dict][val]"/>
-        <filter val="dict[val]"/>
-        <filter val="pd.DataFrame.from_dict({'rowindex': {'colindex': 'val'}})"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D347" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -8768,18 +8753,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259DC79C-9BAA-4C8B-99FF-F93C9194C70F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44D13DA-3D07-4C11-84FF-BB5D8962E040}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -8812,7 +8785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF16D9A-2AFF-418B-B6EF-6574DC3419E2}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -8850,7 +8823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809C98DC-D97E-4E08-93F8-C6E62F565ADA}">
   <dimension ref="A1:B16"/>
   <sheetViews>
@@ -8957,7 +8930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E42550-ED0C-4E5E-8781-47DFC06695E2}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -8997,7 +8970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859D604A-5D83-4D5B-B5A0-129B89C36C29}">
   <dimension ref="A1:B7"/>
   <sheetViews>

--- a/Конспект_Python.xlsx
+++ b/Конспект_Python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\my_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CCF784-93CC-41CB-B1E9-B17A9BADA1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF339CC5-0803-4655-8667-1AADEF10A52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19300" yWindow="1440" windowWidth="19070" windowHeight="15410" tabRatio="728" xr2:uid="{65C49AB7-91AD-4F1F-B814-EFF7DAC5AF74}"/>
   </bookViews>
@@ -3229,12 +3229,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}">
-  <sheetPr codeName="Лист1" filterMode="1"/>
+  <sheetPr codeName="Лист1"/>
   <dimension ref="A1:D365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A368" sqref="A368"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -3260,7 +3260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>7</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>7</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>7</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>7</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>7</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>479</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>6</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>6</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>7</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>7</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>7</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>7</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>7</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>7</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>7</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>7</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>6</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>7</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>7</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>7</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>7</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>7</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>7</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>7</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>7</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>7</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>140</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>140</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>7</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>140</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>129</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>129</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>129</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>633</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>6</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>7</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>7</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>7</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>6</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>6</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>6</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>6</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>6</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>6</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>6</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>6</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>6</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>6</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>6</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>6</v>
       </c>
@@ -4290,788 +4290,788 @@
         <v>288</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B76" s="11" t="s">
+        <v>873</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C77" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="D77" s="6" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B77" s="11" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D77" s="6" t="s">
+      <c r="C78" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B78" s="11" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>877</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D78" s="6" t="s">
+      <c r="C80" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="6" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B79" s="11" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="C79" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D79" s="6" t="s">
+      <c r="C81" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="6" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B80" s="11" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="C80" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D80" s="6" t="s">
+      <c r="C82" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" s="6" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B81" s="11" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" s="11" t="s">
         <v>782</v>
       </c>
-      <c r="C81" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D81" s="6" t="s">
+      <c r="C83" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" s="6" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B82" s="11" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="11" t="s">
         <v>783</v>
       </c>
-      <c r="C82" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D82" s="6" t="s">
+      <c r="C84" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="6" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B83" s="11" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="11" t="s">
         <v>515</v>
       </c>
-      <c r="C83" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D83" s="6" t="s">
+      <c r="C85" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" s="6" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B84" s="11" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="C84" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D84" s="6" t="s">
+      <c r="C86" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" s="6" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B85" s="11" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="C85" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D85" s="6" t="s">
+      <c r="C87" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" s="6" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B86" s="11" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" s="11" t="s">
         <v>774</v>
       </c>
-      <c r="C86" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D86" s="6" t="s">
+      <c r="C88" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" s="6" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B87" s="11" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="C87" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D87" s="6" t="s">
+      <c r="C89" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" s="6" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B88" s="11" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" s="11" t="s">
         <v>772</v>
       </c>
-      <c r="C88" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D88" s="6" t="s">
+      <c r="C90" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" s="6" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B89" s="11" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" s="11" t="s">
         <v>749</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C91" s="6" t="s">
         <v>750</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="D91" s="6" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B90" s="11" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" s="11" t="s">
         <v>776</v>
       </c>
-      <c r="C90" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D90" s="6" t="s">
+      <c r="C92" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92" s="6" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B91" s="11" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" s="11" t="s">
         <v>775</v>
       </c>
-      <c r="C91" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D91" s="6" t="s">
+      <c r="C93" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" s="6" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B92" s="11" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="C92" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D92" s="6" t="s">
+      <c r="C94" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" s="6" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B93" s="11" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="C93" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D93" s="6" t="s">
+      <c r="C95" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" s="6" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B94" s="11" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="C94" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D94" s="6" t="s">
+      <c r="C96" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" s="6" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B95" s="11" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="C95" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D95" s="6" t="s">
+      <c r="C97" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D97" s="6" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B96" s="11" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="C96" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D96" s="6" t="s">
+      <c r="C98" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" s="6" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B97" s="11" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="C97" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D97" s="6" t="s">
+      <c r="C99" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99" s="6" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B98" s="11" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="C98" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D98" s="6" t="s">
+      <c r="C100" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" s="6" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B99" s="11" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="C99" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D99" s="6" t="s">
+      <c r="C101" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101" s="6" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B100" s="11" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="C100" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D100" s="6" t="s">
+      <c r="C102" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D102" s="6" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B101" s="11" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C101" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D101" s="6" t="s">
+      <c r="C103" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D103" s="6" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B102" s="11" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="C102" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D102" s="6" t="s">
+      <c r="C104" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D104" s="6" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B103" s="11" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" s="11" t="s">
         <v>791</v>
       </c>
-      <c r="C103" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D103" s="6" t="s">
+      <c r="C105" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D105" s="6" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B104" s="11" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="C104" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D104" s="6" t="s">
+      <c r="C106" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D106" s="6" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B105" s="11" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="C105" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D105" s="6" t="s">
+      <c r="C107" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D107" s="6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B106" s="11" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="C106" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D106" s="6" t="s">
+      <c r="C108" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D108" s="6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B107" s="11" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="C107" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D107" s="6" t="s">
+      <c r="C109" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D109" s="6" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B108" s="11" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="C108" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D108" s="6" t="s">
+      <c r="C110" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D110" s="6" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B109" s="11" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>872</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="C109" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D109" s="6" t="s">
+      <c r="C112" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D112" s="6" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B110" s="11" t="s">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" s="11" t="s">
         <v>766</v>
       </c>
-      <c r="C110" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D110" s="6" t="s">
+      <c r="C113" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D113" s="6" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B111" s="11" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" s="11" t="s">
         <v>768</v>
       </c>
-      <c r="C111" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D111" s="6" t="s">
+      <c r="C114" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D114" s="6" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B112" s="11" t="s">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" s="11" t="s">
         <v>770</v>
       </c>
-      <c r="C112" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D112" s="6" t="s">
+      <c r="C115" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D115" s="6" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B113" s="11" t="s">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="C113" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D113" s="6" t="s">
+      <c r="C116" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D116" s="6" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B114" s="11" t="s">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="C114" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D114" s="6" t="s">
+      <c r="C117" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D117" s="6" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B115" s="11" t="s">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="C115" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D115" s="6" t="s">
+      <c r="C118" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D118" s="6" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B116" s="11" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" s="11" t="s">
         <v>764</v>
       </c>
-      <c r="C116" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D116" s="6" t="s">
+      <c r="C119" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D119" s="6" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B117" s="11" t="s">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B120" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="C117" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D117" s="6" t="s">
+      <c r="C120" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D120" s="6" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B118" s="11" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="C118" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D118" s="6" t="s">
+      <c r="C121" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D121" s="6" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B119" s="11" t="s">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="C119" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D119" s="6" t="s">
+      <c r="C122" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D122" s="6" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B120" s="11" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="C120" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D120" s="6" t="s">
+      <c r="C123" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D123" s="6" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B121" s="11" t="s">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="C121" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D121" s="6" t="s">
+      <c r="C124" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D124" s="6" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B122" s="11" t="s">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="C122" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D122" s="6" t="s">
+      <c r="C125" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D125" s="6" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B123" s="11" t="s">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B126" s="11" t="s">
         <v>754</v>
       </c>
-      <c r="C123" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D123" s="6" t="s">
+      <c r="C126" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D126" s="6" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B124" s="11" t="s">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="C124" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D124" s="6" t="s">
+      <c r="C127" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D127" s="6" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B125" s="11" t="s">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="C125" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D125" s="6" t="s">
+      <c r="C128" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D128" s="6" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B126" s="11" t="s">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="C126" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D126" s="6" t="s">
+      <c r="C129" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D129" s="6" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B127" s="11" t="s">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="C127" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D127" s="6" t="s">
+      <c r="C130" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D130" s="6" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B128" s="11" t="s">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B131" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="C128" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D128" s="6" t="s">
+      <c r="C131" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D131" s="6" t="s">
         <v>295</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B129" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B130" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B131" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -5079,13 +5079,13 @@
         <v>6</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>414</v>
+        <v>312</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>415</v>
+        <v>291</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -5093,2823 +5093,2820 @@
         <v>6</v>
       </c>
       <c r="B133" s="11" t="s">
+        <v>890</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="C133" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D133" s="6" t="s">
+      <c r="C137" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D137" s="6" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B134" s="11" t="s">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B138" s="11" t="s">
         <v>780</v>
       </c>
-      <c r="C134" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D134" s="6" t="s">
+      <c r="C138" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D138" s="6" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B135" s="11" t="s">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B139" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="C135" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D135" s="6" t="s">
+      <c r="C139" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D139" s="6" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B136" s="11" t="s">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B140" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="C136" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D136" s="6" t="s">
+      <c r="C140" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D140" s="6" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B137" s="11" t="s">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B141" s="11" t="s">
         <v>494</v>
       </c>
-      <c r="C137" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D137" s="6" t="s">
+      <c r="C141" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D141" s="6" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B138" s="11" t="s">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B142" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="C138" s="6" t="s">
+      <c r="C142" s="6" t="s">
         <v>750</v>
       </c>
-      <c r="D138" s="6" t="s">
+      <c r="D142" s="6" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B139" s="11" t="s">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B143" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="C139" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D139" s="6" t="s">
+      <c r="C143" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D143" s="6" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B140" s="11" t="s">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B144" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="C140" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D140" s="6" t="s">
+      <c r="C144" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D144" s="6" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B141" s="11" t="s">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B145" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="C141" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D141" s="6" t="s">
+      <c r="C145" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D145" s="6" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B142" s="11" t="s">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B146" s="11" t="s">
         <v>566</v>
       </c>
-      <c r="C142" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D142" s="6" t="s">
+      <c r="C146" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D146" s="6" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B143" s="11" t="s">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B147" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="C143" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D143" s="6" t="s">
+      <c r="C147" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D147" s="6" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B144" s="11" t="s">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B148" s="11" t="s">
         <v>798</v>
       </c>
-      <c r="C144" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D144" s="6" t="s">
+      <c r="C148" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D148" s="6" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B145" s="11" t="s">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B149" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="C145" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D145" s="6" t="s">
+      <c r="C149" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D149" s="6" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B146" s="11" t="s">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B150" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="C146" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D146" s="6" t="s">
+      <c r="C150" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D150" s="6" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B147" s="11" t="s">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B151" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="C147" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D147" s="6" t="s">
+      <c r="C151" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D151" s="6" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B148" s="11" t="s">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B152" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="C148" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D148" s="6" t="s">
+      <c r="C152" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D152" s="6" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B149" s="11" t="s">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B153" s="11" t="s">
         <v>488</v>
       </c>
-      <c r="C149" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D149" s="6" t="s">
+      <c r="C153" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D153" s="6" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B150" s="11" t="s">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B154" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="C150" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D150" s="6" t="s">
+      <c r="C154" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D154" s="6" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B151" s="11" t="s">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B155" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="C151" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D151" s="6" t="s">
+      <c r="C155" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D155" s="6" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B152" s="11" t="s">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>886</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>889</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B158" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="C152" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D152" s="6" t="s">
+      <c r="C158" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D158" s="6" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B153" s="11" t="s">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B159" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="C153" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D153" s="6" t="s">
+      <c r="C159" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D159" s="6" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B154" s="11" t="s">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B160" s="11" t="s">
         <v>805</v>
       </c>
-      <c r="C154" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D154" s="6" t="s">
+      <c r="C160" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D160" s="6" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B155" s="11" t="s">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B161" s="11" t="s">
+        <v>871</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B162" s="11" t="s">
         <v>762</v>
       </c>
-      <c r="C155" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D155" s="6" t="s">
+      <c r="C162" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D162" s="6" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B156" s="11" t="s">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B163" s="11" t="s">
         <v>778</v>
       </c>
-      <c r="C156" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D156" s="6" t="s">
+      <c r="C163" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D163" s="6" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B157" s="11" t="s">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B164" s="11" t="s">
         <v>786</v>
       </c>
-      <c r="C157" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D157" s="6" t="s">
+      <c r="C164" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D164" s="6" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B158" s="11" t="s">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B165" s="11" t="s">
         <v>799</v>
       </c>
-      <c r="C158" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D158" s="6" t="s">
+      <c r="C165" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D165" s="6" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B159" s="11" t="s">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B166" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="C159" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D159" s="6" t="s">
+      <c r="C166" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D166" s="6" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B160" s="11" t="s">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B167" s="11" t="s">
         <v>757</v>
       </c>
-      <c r="C160" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D160" s="6" t="s">
+      <c r="C167" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D167" s="6" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B161" s="11" t="s">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B168" s="11" t="s">
         <v>756</v>
       </c>
-      <c r="C161" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D161" s="6" t="s">
+      <c r="C168" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D168" s="6" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B162" s="11" t="s">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>879</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B170" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="C162" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D162" s="6" t="s">
+      <c r="C170" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D170" s="6" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B163" s="11" t="s">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B171" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="C163" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D163" s="6" t="s">
+      <c r="C171" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D171" s="6" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B164" s="11" t="s">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B172" s="11" t="s">
         <v>822</v>
       </c>
-      <c r="C164" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D164" s="6" t="s">
+      <c r="C172" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D172" s="6" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B165" s="11" t="s">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B173" s="11" t="s">
         <v>498</v>
       </c>
-      <c r="C165" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D165" s="6" t="s">
+      <c r="C173" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D173" s="6" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B166" s="11" t="s">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B174" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="C166" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D166" s="6" t="s">
+      <c r="C174" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D174" s="6" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B167" s="11" t="s">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B175" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="C167" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D167" s="6" t="s">
+      <c r="C175" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D175" s="6" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B168" s="11" t="s">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B176" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C168" s="6" t="s">
+      <c r="C176" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D168" s="6" t="s">
+      <c r="D176" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B169" s="11" t="s">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B177" s="11" t="s">
         <v>739</v>
       </c>
-      <c r="C169" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D169" s="6" t="s">
+      <c r="C177" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D177" s="6" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B170" s="11" t="s">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B178" s="11" t="s">
         <v>741</v>
       </c>
-      <c r="C170" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D170" s="6" t="s">
+      <c r="C178" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D178" s="6" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B171" s="11" t="s">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B179" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C171" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D171" s="6" t="s">
+      <c r="C179" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D179" s="6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B172" s="11" t="s">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B180" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C172" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D172" s="6" t="s">
+      <c r="C180" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D180" s="6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B173" s="11" t="s">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B181" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="C173" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D173" s="6" t="s">
+      <c r="C181" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D181" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B174" s="11" t="s">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B182" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C174" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D174" s="6" t="s">
+      <c r="C182" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D182" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B175" s="11" t="s">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B183" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C175" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D175" s="6" t="s">
+      <c r="C183" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D183" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="6" t="s">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="B176" s="11" t="s">
+      <c r="B184" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="C176" s="6" t="s">
+      <c r="C184" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="D176" s="6" t="s">
+      <c r="D184" s="6" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="6" t="s">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="B177" s="11" t="s">
+      <c r="B185" s="11" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="6" t="s">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="B178" s="11" t="s">
+      <c r="B186" s="11" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="6" t="s">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="B187" s="11" t="s">
+        <v>894</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" s="6" t="s">
         <v>794</v>
       </c>
-      <c r="B179" s="11" t="s">
+      <c r="B188" s="11" t="s">
         <v>795</v>
       </c>
-      <c r="C179" s="6" t="s">
+      <c r="C188" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D179" s="6" t="s">
+      <c r="D188" s="6" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="6" t="s">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B180" s="11" t="s">
+      <c r="B189" s="11" t="s">
         <v>554</v>
       </c>
-      <c r="C180" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D180" s="6" t="s">
+      <c r="C189" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D189" s="6" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="6" t="s">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B181" s="11" t="s">
+      <c r="B190" s="11" t="s">
         <v>556</v>
       </c>
-      <c r="C181" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D181" s="6" t="s">
+      <c r="C190" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D190" s="6" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="6" t="s">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B182" s="11" t="s">
+      <c r="B191" s="11" t="s">
         <v>557</v>
       </c>
-      <c r="C182" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D182" s="6" t="s">
+      <c r="C191" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D191" s="6" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="6" t="s">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B183" s="11" t="s">
+      <c r="B192" s="11" t="s">
         <v>564</v>
       </c>
-      <c r="C183" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D183" s="6" t="s">
+      <c r="C192" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D192" s="6" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="6" t="s">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B184" s="11" t="s">
+      <c r="B193" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="C184" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D184" s="6" t="s">
+      <c r="C193" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D193" s="6" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="6" t="s">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B185" s="11" t="s">
+      <c r="B194" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="C185" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D185" s="6" t="s">
+      <c r="C194" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D194" s="6" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B186" s="11" t="s">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B195" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C186" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D186" s="6" t="s">
+      <c r="C195" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D195" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B187" s="11" t="s">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B196" s="11" t="s">
         <v>722</v>
       </c>
-      <c r="C187" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D187" s="6" t="s">
+      <c r="C196" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D196" s="6" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="6" t="s">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B188" s="11" t="s">
+      <c r="B197" s="11" t="s">
         <v>718</v>
       </c>
-      <c r="C188" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D188" s="6" t="s">
+      <c r="C197" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D197" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B189" s="11" t="s">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B198" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C189" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D189" s="6" t="s">
+      <c r="C198" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D198" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="6" t="s">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B190" s="11" t="s">
+      <c r="B199" s="11" t="s">
         <v>819</v>
       </c>
-      <c r="C190" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D190" s="6" t="s">
+      <c r="C199" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D199" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B191" s="11" t="s">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B200" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C191" s="6" t="s">
+      <c r="C200" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D191" s="6" t="s">
+      <c r="D200" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="6" t="s">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" s="6" t="s">
         <v>794</v>
       </c>
-      <c r="B192" s="11" t="s">
+      <c r="B201" s="11" t="s">
         <v>793</v>
       </c>
-      <c r="C192" s="6" t="s">
+      <c r="C201" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D192" s="6" t="s">
+      <c r="D201" s="6" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="6" t="s">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="B193" s="11" t="s">
+      <c r="B202" s="11" t="s">
         <v>585</v>
-      </c>
-      <c r="C193" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D193" s="6" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="B194" s="11" t="s">
-        <v>659</v>
-      </c>
-      <c r="C194" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="D194" s="6" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="6" t="s">
-        <v>633</v>
-      </c>
-      <c r="B195" s="11" t="s">
-        <v>635</v>
-      </c>
-      <c r="C195" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="D195" s="6" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B196" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="C196" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D196" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B197" s="11" t="s">
-        <v>696</v>
-      </c>
-      <c r="C197" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D197" s="6" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B198" s="11" t="s">
-        <v>697</v>
-      </c>
-      <c r="C198" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D198" s="6" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B199" s="11" t="s">
-        <v>694</v>
-      </c>
-      <c r="C199" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D199" s="6" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B200" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C200" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D200" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B201" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C201" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D201" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B202" s="11" t="s">
-        <v>130</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
-        <v>35</v>
+        <v>479</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>36</v>
+        <v>659</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>2</v>
+        <v>636</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
-        <v>743</v>
+        <v>633</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>744</v>
+        <v>635</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>0</v>
+        <v>636</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>132</v>
+        <v>696</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>141</v>
+        <v>697</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>122</v>
+        <v>694</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
-        <v>479</v>
+        <v>7</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>480</v>
+        <v>113</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
-        <v>372</v>
+        <v>7</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>373</v>
+        <v>87</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
-        <v>249</v>
+        <v>129</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="C211" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="6" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C212" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="6" t="s">
-        <v>164</v>
+        <v>743</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>165</v>
+        <v>744</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="6" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>234</v>
+        <v>118</v>
       </c>
       <c r="C214" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="6" t="s">
-        <v>666</v>
+        <v>131</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>665</v>
+        <v>132</v>
       </c>
       <c r="C215" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
-        <v>633</v>
+        <v>892</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>634</v>
+        <v>893</v>
       </c>
       <c r="C216" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D216" s="6" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
-        <v>7</v>
+        <v>140</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>682</v>
+        <v>141</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>271</v>
+        <v>122</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
-        <v>7</v>
+        <v>479</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>30</v>
+        <v>480</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
-        <v>7</v>
+        <v>372</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>138</v>
+        <v>373</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
-        <v>7</v>
+        <v>249</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
-        <v>633</v>
+        <v>6</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>639</v>
+        <v>3</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>636</v>
+        <v>2</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
-        <v>633</v>
+        <v>164</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>643</v>
+        <v>165</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
-        <v>633</v>
+        <v>233</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>641</v>
+        <v>234</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="6" t="s">
-        <v>633</v>
+        <v>666</v>
       </c>
       <c r="B225" s="11" t="s">
-        <v>649</v>
+        <v>665</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="6" t="s">
         <v>633</v>
       </c>
       <c r="B226" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D226" s="6" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B227" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D227" s="6" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B228" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D228" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B229" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D229" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B230" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B231" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D231" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="B232" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="D232" s="6" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="B233" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D233" s="6" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="B234" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D234" s="6" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="B235" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D235" s="6" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="B236" s="11" t="s">
         <v>647</v>
       </c>
-      <c r="C226" s="6" t="s">
+      <c r="C236" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D226" s="6" t="s">
+      <c r="D236" s="6" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="6" t="s">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="B227" s="11" t="s">
+      <c r="B237" s="11" t="s">
         <v>645</v>
       </c>
-      <c r="C227" s="6" t="s">
+      <c r="C237" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D227" s="6" t="s">
+      <c r="D237" s="6" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="6" t="s">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="B228" s="11" t="s">
+      <c r="B238" s="11" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B229" s="11" t="s">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B239" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C229" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D229" s="6" t="s">
+      <c r="C239" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D239" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B230" s="11" t="s">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B240" s="11" t="s">
+        <v>868</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D240" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B241" s="11" t="s">
+        <v>869</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D241" s="6" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B242" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C230" s="6" t="s">
+      <c r="C242" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D230" s="6" t="s">
+      <c r="D242" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B231" s="11" t="s">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B243" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C231" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D231" s="6" t="s">
+      <c r="C243" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D243" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B232" s="11" t="s">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B244" s="11" t="s">
         <v>699</v>
       </c>
-      <c r="C232" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D232" s="6" t="s">
+      <c r="C244" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D244" s="6" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B233" s="11" t="s">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B245" s="11" t="s">
         <v>712</v>
       </c>
-      <c r="C233" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D233" s="6" t="s">
+      <c r="C245" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D245" s="6" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B234" s="11" t="s">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B246" s="11" t="s">
         <v>701</v>
       </c>
-      <c r="C234" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D234" s="6" t="s">
+      <c r="C246" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D246" s="6" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B235" s="11" t="s">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B247" s="11" t="s">
         <v>703</v>
       </c>
-      <c r="C235" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D235" s="6" t="s">
+      <c r="C247" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D247" s="6" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B236" s="11" t="s">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B248" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C236" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D236" s="6" t="s">
+      <c r="C248" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D248" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B237" s="11" t="s">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B249" s="11" t="s">
         <v>705</v>
       </c>
-      <c r="C237" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D237" s="6" t="s">
+      <c r="C249" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D249" s="6" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B238" s="11" t="s">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B250" s="11" t="s">
         <v>708</v>
       </c>
-      <c r="C238" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D238" s="6" t="s">
+      <c r="C250" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D250" s="6" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B239" s="11" t="s">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B251" s="11" t="s">
         <v>721</v>
       </c>
-      <c r="C239" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D239" s="6" t="s">
+      <c r="C251" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D251" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B240" s="11" t="s">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B252" s="11" t="s">
         <v>720</v>
       </c>
-      <c r="C240" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D240" s="6" t="s">
+      <c r="C252" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D252" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B241" s="11" t="s">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B253" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="C241" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D241" s="6" t="s">
+      <c r="C253" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D253" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="6" t="s">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B242" s="11" t="s">
+      <c r="B254" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="C242" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D242" s="6" t="s">
+      <c r="C254" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D254" s="6" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="6" t="s">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B243" s="11" t="s">
+      <c r="B255" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="C243" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D243" s="6" t="s">
+      <c r="C255" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D255" s="6" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="6" t="s">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B244" s="11" t="s">
+      <c r="B256" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="C244" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D244" s="6" t="s">
+      <c r="C256" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D256" s="6" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="6" t="s">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B245" s="11" t="s">
+      <c r="B257" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="C245" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D245" s="6" t="s">
+      <c r="C257" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D257" s="6" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B246" s="11" t="s">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B258" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C246" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D246" s="6" t="s">
+      <c r="C258" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D258" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="6" t="s">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="B247" s="11" t="s">
+      <c r="B259" s="11" t="s">
         <v>484</v>
       </c>
-      <c r="C247" s="6" t="s">
+      <c r="C259" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="D247" s="6" t="s">
+      <c r="D259" s="6" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="6" t="s">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="B248" s="11" t="s">
+      <c r="B260" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="C248" s="6" t="s">
+      <c r="C260" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="D248" s="6" t="s">
+      <c r="D260" s="6" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B249" s="11" t="s">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B261" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C249" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D249" s="6" t="s">
+      <c r="C261" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D261" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B250" s="11" t="s">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B262" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C250" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D250" s="6" t="s">
+      <c r="C262" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D262" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="B251" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="C251" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D251" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B252" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C252" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D252" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B253" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="C253" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D253" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="B254" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="C254" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D254" s="6" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="B255" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="C255" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D255" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="B256" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="C256" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D256" s="6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="B257" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="C257" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D257" s="6" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="B258" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="C258" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D258" s="6" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B259" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C259" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D259" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B260" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="C260" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D260" s="6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B261" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="C261" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D261" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="B262" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="C262" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D262" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="6" t="s">
         <v>249</v>
       </c>
       <c r="B263" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C263" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D263" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B264" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C264" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D264" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B265" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C265" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D265" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B266" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="C266" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D266" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B267" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="C267" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D267" s="6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B268" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="C268" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D268" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B269" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="C269" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D269" s="6" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B270" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="C270" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D270" s="6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B271" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C271" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D271" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B272" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C272" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D272" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B273" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C273" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D273" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B274" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="C274" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D274" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B275" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="C263" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D263" s="6" t="s">
+      <c r="C275" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D275" s="6" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B264" s="11" t="s">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B276" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C264" s="6" t="s">
+      <c r="C276" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D264" s="6" t="s">
+      <c r="D276" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B265" s="11" t="s">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B277" s="11" t="s">
+        <v>882</v>
+      </c>
+      <c r="C277" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D277" s="6" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B278" s="11" t="s">
         <v>881</v>
       </c>
-      <c r="C265" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D265" s="6" t="s">
+      <c r="C278" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D278" s="6" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B266" s="11" t="s">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B279" s="11" t="s">
         <v>509</v>
       </c>
-      <c r="C266" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D266" s="6" t="s">
+      <c r="C279" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D279" s="6" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B267" s="11" t="s">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B280" s="11" t="s">
         <v>747</v>
       </c>
-      <c r="C267" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D267" s="6" t="s">
+      <c r="C280" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D280" s="6" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B268" s="11" t="s">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B281" s="11" t="s">
         <v>548</v>
       </c>
-      <c r="C268" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D268" s="6" t="s">
+      <c r="C281" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D281" s="6" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B269" s="11" t="s">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B282" s="11" t="s">
         <v>510</v>
       </c>
-      <c r="C269" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D269" s="6" t="s">
+      <c r="C282" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D282" s="6" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B270" s="11" t="s">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B283" s="11" t="s">
+        <v>883</v>
+      </c>
+      <c r="C283" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D283" s="6" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B284" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="C270" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D270" s="6" t="s">
+      <c r="C284" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D284" s="6" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B271" s="11" t="s">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B285" s="11" t="s">
         <v>487</v>
       </c>
-      <c r="C271" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D271" s="6" t="s">
+      <c r="C285" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D285" s="6" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B272" s="11" t="s">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B286" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="C272" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D272" s="6" t="s">
+      <c r="C286" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D286" s="6" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B273" s="11" t="s">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B287" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="C273" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D273" s="6" t="s">
+      <c r="C287" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D287" s="6" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B274" s="11" t="s">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B288" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="C274" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D274" s="6" t="s">
+      <c r="C288" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D288" s="6" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B275" s="11" t="s">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B289" s="11" t="s">
         <v>492</v>
       </c>
-      <c r="C275" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D275" s="6" t="s">
+      <c r="C289" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D289" s="6" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="B276" s="11" t="s">
-        <v>617</v>
-      </c>
-      <c r="C276" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D276" s="6" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="B277" s="11" t="s">
-        <v>597</v>
-      </c>
-      <c r="C277" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D277" s="6" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="B278" s="11" t="s">
-        <v>630</v>
-      </c>
-      <c r="C278" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D278" s="6" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="B279" s="11" t="s">
-        <v>662</v>
-      </c>
-      <c r="C279" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D279" s="6" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="B280" s="11" t="s">
-        <v>675</v>
-      </c>
-      <c r="C280" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D280" s="6" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A281" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="B281" s="11" t="s">
-        <v>680</v>
-      </c>
-      <c r="C281" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D281" s="6" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="B282" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="C282" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D282" s="6" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A283" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="B283" s="11" t="s">
-        <v>651</v>
-      </c>
-      <c r="C283" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D283" s="6" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A284" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="B284" s="11" t="s">
-        <v>615</v>
-      </c>
-      <c r="C284" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D284" s="6" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="B285" s="11" t="s">
-        <v>587</v>
-      </c>
-      <c r="C285" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D285" s="6" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A286" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="B286" s="11" t="s">
-        <v>679</v>
-      </c>
-      <c r="C286" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D286" s="6" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A287" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="B287" s="11" t="s">
-        <v>658</v>
-      </c>
-      <c r="C287" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D287" s="6" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="B288" s="11" t="s">
-        <v>604</v>
-      </c>
-      <c r="C288" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D288" s="6" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="B289" s="11" t="s">
-        <v>671</v>
-      </c>
-      <c r="C289" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D289" s="6" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="6" t="s">
         <v>479</v>
       </c>
       <c r="B290" s="11" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="C290" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D290" s="6" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="6" t="s">
         <v>479</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>622</v>
+        <v>597</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D291" s="6" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="6" t="s">
         <v>479</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>612</v>
+        <v>630</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D292" s="6" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="6" t="s">
         <v>479</v>
       </c>
       <c r="B293" s="11" t="s">
-        <v>601</v>
+        <v>662</v>
       </c>
       <c r="C293" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D293" s="6" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="6" t="s">
         <v>479</v>
       </c>
       <c r="B294" s="11" t="s">
-        <v>608</v>
+        <v>675</v>
       </c>
       <c r="C294" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D294" s="6" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
         <v>479</v>
       </c>
       <c r="B295" s="11" t="s">
+        <v>680</v>
+      </c>
+      <c r="C295" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D295" s="6" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="B296" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="C296" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D296" s="6" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="B297" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="C297" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D297" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="B298" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="C298" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D298" s="6" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="B299" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="C299" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D299" s="6" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="B300" s="11" t="s">
+        <v>679</v>
+      </c>
+      <c r="C300" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D300" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="B301" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="C301" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D301" s="6" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="B302" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="C302" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D302" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="B303" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="C303" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D303" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="B304" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="C304" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D304" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="B305" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="C305" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D305" s="6" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="B306" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="C306" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D306" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="B307" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="C307" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D307" s="6" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="B308" s="11" t="s">
         <v>608</v>
       </c>
-      <c r="C295" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D295" s="6" t="s">
+      <c r="C308" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D308" s="6" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="B309" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="C309" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D309" s="6" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A296" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B296" s="12" t="s">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B310" s="12" t="s">
         <v>816</v>
       </c>
-      <c r="C296" s="6" t="s">
+      <c r="C310" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D296" s="6" t="s">
+      <c r="D310" s="6" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="6" t="s">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311" s="6" t="s">
         <v>743</v>
       </c>
-      <c r="B297" s="11" t="s">
+      <c r="B311" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="C311" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D311" s="6" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="B312" s="11" t="s">
         <v>746</v>
       </c>
-      <c r="C297" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D297" s="6" t="s">
+      <c r="C312" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D312" s="6" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A298" s="6" t="s">
-        <v>743</v>
-      </c>
-      <c r="B298" s="11" t="s">
-        <v>896</v>
-      </c>
-      <c r="C298" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D298" s="6" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A299" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B299" s="11" t="s">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B313" s="11" t="s">
         <v>813</v>
       </c>
-      <c r="C299" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D299" s="6" t="s">
+      <c r="C313" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D313" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A300" s="6" t="s">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B300" s="11" t="s">
+      <c r="B314" s="11" t="s">
         <v>716</v>
       </c>
-      <c r="C300" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D300" s="6" t="s">
+      <c r="C314" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D314" s="6" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A301" s="6" t="s">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B301" s="11" t="s">
+      <c r="B315" s="11" t="s">
         <v>808</v>
       </c>
-      <c r="C301" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D301" s="6" t="s">
+      <c r="C315" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D315" s="6" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="6" t="s">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B302" s="11" t="s">
+      <c r="B316" s="11" t="s">
         <v>687</v>
       </c>
-      <c r="C302" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D302" s="6" t="s">
+      <c r="C316" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D316" s="6" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A303" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B303" s="11" t="s">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B317" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C303" s="6" t="s">
+      <c r="C317" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D303" s="6" t="s">
+      <c r="D317" s="6" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A304" s="6" t="s">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B304" s="11" t="s">
+      <c r="B318" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C304" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D304" s="6" t="s">
+      <c r="C318" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D318" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A305" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B305" s="11" t="s">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B319" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C305" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D305" s="6" t="s">
+      <c r="C319" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D319" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B306" s="11" t="s">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B320" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C306" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D306" s="6" t="s">
+      <c r="C320" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D320" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A307" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B307" s="11" t="s">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B321" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="C307" s="6" t="s">
+      <c r="C321" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D307" s="6" t="s">
+      <c r="D321" s="6" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A308" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B308" s="11" t="s">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B322" s="11" t="s">
         <v>760</v>
       </c>
-      <c r="C308" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D308" s="6" t="s">
+      <c r="C322" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D322" s="6" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A309" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B309" s="11" t="s">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B323" s="11" t="s">
         <v>761</v>
       </c>
-      <c r="C309" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D309" s="6" t="s">
+      <c r="C323" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D323" s="6" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A310" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B310" s="11" t="s">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B324" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C310" s="6" t="s">
+      <c r="C324" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D310" s="6" t="s">
+      <c r="D324" s="6" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A311" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B311" s="11" t="s">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B325" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C311" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D311" s="6" t="s">
+      <c r="C325" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D325" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A312" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B312" s="11" t="s">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B326" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C312" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D312" s="6" t="s">
+      <c r="C326" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D326" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A313" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B313" s="11" t="s">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B327" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C313" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D313" s="6" t="s">
+      <c r="C327" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D327" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A314" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B314" s="11" t="s">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B328" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C314" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D314" s="6" t="s">
+      <c r="C328" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D328" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A315" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B315" s="11" t="s">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B329" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C315" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D315" s="6" t="s">
+      <c r="C329" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D329" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A316" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B316" s="11" t="s">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B330" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C316" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D316" s="6" t="s">
+      <c r="C330" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D330" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A317" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B317" s="11" t="s">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B331" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C317" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D317" s="6" t="s">
+      <c r="C331" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D331" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A318" s="6" t="s">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="B318" s="11" t="s">
+      <c r="B332" s="11" t="s">
         <v>681</v>
       </c>
-      <c r="C318" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D318" s="6" t="s">
+      <c r="C332" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D332" s="6" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A319" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B319" s="11" t="s">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B333" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C319" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D319" s="6" t="s">
+      <c r="C333" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D333" s="6" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A320" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B320" s="11" t="s">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B334" s="11" t="s">
         <v>725</v>
       </c>
-      <c r="C320" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D320" s="6" t="s">
+      <c r="C334" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D334" s="6" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A321" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B321" s="11" t="s">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B335" s="11" t="s">
         <v>727</v>
       </c>
-      <c r="C321" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D321" s="6" t="s">
+      <c r="C335" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D335" s="6" t="s">
         <v>728</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A322" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B322" s="11" t="s">
-        <v>710</v>
-      </c>
-      <c r="C322" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D322" s="6" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A323" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B323" s="11" t="s">
-        <v>814</v>
-      </c>
-      <c r="C323" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D323" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A324" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B324" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="C324" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D324" s="6" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A325" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B325" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="C325" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D325" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A326" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B326" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C326" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D326" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A327" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B327" s="11" t="s">
-        <v>576</v>
-      </c>
-      <c r="C327" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D327" s="6" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A328" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B328" s="11" t="s">
-        <v>577</v>
-      </c>
-      <c r="C328" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D328" s="6" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A329" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B329" s="11" t="s">
-        <v>693</v>
-      </c>
-      <c r="C329" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D329" s="6" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A330" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B330" s="11" t="s">
-        <v>734</v>
-      </c>
-      <c r="C330" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D330" s="6" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A331" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B331" s="11" t="s">
-        <v>584</v>
-      </c>
-      <c r="C331" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D331" s="6" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A332" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B332" s="11" t="s">
-        <v>584</v>
-      </c>
-      <c r="C332" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D332" s="6" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A333" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B333" s="11" t="s">
-        <v>731</v>
-      </c>
-      <c r="C333" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D333" s="6" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A334" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B334" s="11" t="s">
-        <v>580</v>
-      </c>
-      <c r="C334" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D334" s="6" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A335" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B335" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="C335" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D335" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
@@ -7917,427 +7914,426 @@
         <v>7</v>
       </c>
       <c r="B336" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="C336" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D336" s="6" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B337" s="11" t="s">
+        <v>814</v>
+      </c>
+      <c r="C337" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D337" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B338" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="C338" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D338" s="6" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B339" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C339" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D339" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B340" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C340" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D340" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B341" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="C341" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D341" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B342" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="C342" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D342" s="6" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B343" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="C343" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D343" s="6" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B344" s="11" t="s">
+        <v>734</v>
+      </c>
+      <c r="C344" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D344" s="6" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B345" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="C345" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D345" s="6" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B346" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="C346" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D346" s="6" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B347" s="11" t="s">
+        <v>731</v>
+      </c>
+      <c r="C347" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D347" s="6" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B348" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="C348" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D348" s="6" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B349" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="C349" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D349" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B350" s="11" t="s">
         <v>690</v>
       </c>
-      <c r="C336" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D336" s="6" t="s">
+      <c r="C350" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D350" s="6" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A337" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B337" s="11" t="s">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B351" s="11" t="s">
         <v>815</v>
       </c>
-      <c r="C337" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D337" s="6" t="s">
+      <c r="C351" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D351" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A338" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B338" s="11" t="s">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B352" s="11" t="s">
         <v>575</v>
       </c>
-      <c r="C338" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D338" s="6" t="s">
+      <c r="C352" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D352" s="6" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A339" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B339" s="11" t="s">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B353" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="C339" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D339" s="6" t="s">
+      <c r="C353" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D353" s="6" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A340" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B340" s="11" t="s">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B354" s="11" t="s">
         <v>582</v>
       </c>
-      <c r="C340" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D340" s="6" t="s">
+      <c r="C354" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D354" s="6" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A341" s="6" t="s">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B341" s="11" t="s">
+      <c r="B355" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C341" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D341" s="6" t="s">
+      <c r="C355" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D355" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A342" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B342" s="11" t="s">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B356" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C342" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D342" s="6" t="s">
+      <c r="C356" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D356" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A343" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B343" s="11" t="s">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B357" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C343" s="6" t="s">
+      <c r="C357" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D343" s="6" t="s">
+      <c r="D357" s="6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A344" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B344" s="11" t="s">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B358" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C344" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D344" s="6" t="s">
+      <c r="C358" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D358" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A345" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B345" s="11" t="s">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B359" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C345" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D345" s="6" t="s">
+      <c r="C359" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D359" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A346" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B346" s="11" t="s">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B360" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C346" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D346" s="6" t="s">
+      <c r="C360" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D360" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A347" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B347" s="11" t="s">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B361" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C347" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D347" s="6" t="s">
+      <c r="C361" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D361" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A348" s="6" t="s">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B348" s="11" t="s">
+      <c r="B362" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="C348" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D348" s="6" t="s">
+      <c r="C362" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D362" s="6" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A349" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B349" s="11" t="s">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B363" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="C349" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D349" s="6" t="s">
+      <c r="C363" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D363" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A350" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B350" s="11" t="s">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B364" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="C350" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D350" s="6" t="s">
+      <c r="C364" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D364" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A351" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B351" s="11" t="s">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B365" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C351" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D351" s="6" t="s">
+      <c r="C365" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D365" s="6" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A352" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B352" s="11" t="s">
-        <v>869</v>
-      </c>
-      <c r="C352" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D352" s="6" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A353" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B353" s="11" t="s">
-        <v>868</v>
-      </c>
-      <c r="C353" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D353" s="6" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A354" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B354" s="11" t="s">
-        <v>871</v>
-      </c>
-      <c r="C354" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D354" s="6" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A355" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B355" s="11" t="s">
-        <v>872</v>
-      </c>
-      <c r="C355" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D355" s="6" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A356" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B356" s="11" t="s">
-        <v>873</v>
-      </c>
-      <c r="C356" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D356" s="6" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B357" s="11" t="s">
-        <v>877</v>
-      </c>
-      <c r="C357" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D357" s="6" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A358" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B358" s="11" t="s">
-        <v>879</v>
-      </c>
-      <c r="C358" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D358" s="6" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A359" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B359" s="11" t="s">
-        <v>882</v>
-      </c>
-      <c r="C359" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D359" s="6" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A360" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B360" s="11" t="s">
-        <v>883</v>
-      </c>
-      <c r="C360" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D360" s="6" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A361" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B361" s="11" t="s">
-        <v>886</v>
-      </c>
-      <c r="C361" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D361" s="6" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A362" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B362" s="11" t="s">
-        <v>889</v>
-      </c>
-      <c r="C362" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D362" s="6" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A363" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B363" s="11" t="s">
-        <v>890</v>
-      </c>
-      <c r="C363" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D363" s="6" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A364" s="6" t="s">
-        <v>892</v>
-      </c>
-      <c r="B364" s="11" t="s">
-        <v>893</v>
-      </c>
-      <c r="C364" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A365" s="6" t="s">
-        <v>892</v>
-      </c>
-      <c r="B365" s="11" t="s">
-        <v>894</v>
-      </c>
-      <c r="C365" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D365" s="6" t="s">
-        <v>895</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D365" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="df.replace({'colname': {'oldval': 'newval'}})"/>
-        <filter val="df.replace('oldval', 'newval')"/>
-        <filter val="str.replace('old-val', 'new-val')"/>
-      </filters>
-    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D365">
+      <sortCondition ref="B1:B365"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Конспект_Python.xlsx
+++ b/Конспект_Python.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\my_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E734789B-B8A9-4CF6-87E6-228D8C4A2F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6D06B9-8E0E-411C-A6E1-B943250C9C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="728" xr2:uid="{65C49AB7-91AD-4F1F-B814-EFF7DAC5AF74}"/>
+    <workbookView xWindow="18870" yWindow="2200" windowWidth="19070" windowHeight="15410" tabRatio="728" xr2:uid="{65C49AB7-91AD-4F1F-B814-EFF7DAC5AF74}"/>
   </bookViews>
   <sheets>
     <sheet name="Операторы" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Атрибуты!$A$1:$D$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Генераторы списков'!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Операторы!$A$1:$D$365</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Операторы!$A$1:$D$366</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Функции!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -2167,12 +2167,6 @@
     <t>F-Строки. Вставляет в {} значение вписанной переменной и возвращает строку.</t>
   </si>
   <si>
-    <t>f'val {var:.n%}'</t>
-  </si>
-  <si>
-    <t>f'val {var:.nf}'</t>
-  </si>
-  <si>
     <t>"{0}, {1}".format(var1, var2)</t>
   </si>
   <si>
@@ -2249,9 +2243,6 @@
   </si>
   <si>
     <t>f'{var:&lt;45}'</t>
-  </si>
-  <si>
-    <t>выравнивание каждого элемента по левому краю с фиксированной шириной строки 45</t>
   </si>
   <si>
     <t xml:space="preserve">movies_table_sorted = sorted(movies_table, key=lambda row: row[5]) </t>
@@ -2505,12 +2496,6 @@
     <t>Сортирует строки по значениям указанного столбца по убыванию</t>
   </si>
   <si>
-    <t>Форматирование внутри F-Строк. n - это количество символов после запятой</t>
-  </si>
-  <si>
-    <t>F-Строки. n - это количество символов после запятой. f - указывает что идет формат вещественных чисел</t>
-  </si>
-  <si>
     <t>Приводим символы к прописному виду</t>
   </si>
   <si>
@@ -2788,6 +2773,21 @@
   </si>
   <si>
     <t>print(dumps(dict, indent=4))</t>
+  </si>
+  <si>
+    <t>Выравнивание каждого элемента по левому краю с фиксированной шириной строки 45 F-строка</t>
+  </si>
+  <si>
+    <t>f'val {var:int1.int2%}'</t>
+  </si>
+  <si>
+    <t>f'val {var:int1.int2f}'</t>
+  </si>
+  <si>
+    <t>% значит число умножается на 100 и дописывается % int1 - количество знаков перед запятой (можно оставить пустым), int2 - количество знаков после запятой F-строка</t>
+  </si>
+  <si>
+    <t>f - значит подставляется вещественное число % int1 - количество знаков перед запятой (можно оставить пустым), int2 - количество знаков после запятой F-строка</t>
   </si>
 </sst>
 </file>
@@ -3246,14 +3246,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}">
-  <sheetPr codeName="Лист1">
+  <sheetPr codeName="Лист1" filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D365"/>
+  <dimension ref="A1:D366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B207" sqref="B207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -3279,7 +3279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>129</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>129</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>129</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>129</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>35</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>35</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>35</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>35</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>35</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>35</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>35</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>35</v>
       </c>
@@ -3447,35 +3447,35 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>117</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>117</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>131</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>131</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>131</v>
       </c>
@@ -3545,33 +3545,33 @@
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="14"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>140</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>140</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>140</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>140</v>
       </c>
@@ -3627,63 +3627,63 @@
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>140</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
+        <v>740</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>741</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>740</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>891</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
+        <v>740</v>
+      </c>
+      <c r="B30" s="15" t="s">
         <v>743</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>744</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
-        <v>743</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>896</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
-        <v>743</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>746</v>
-      </c>
       <c r="C30" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>15</v>
       </c>
@@ -3697,12 +3697,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>121</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
         <v>121</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>121</v>
       </c>
@@ -3739,21 +3739,21 @@
         <v>204</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>121</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>121</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>479</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>479</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
         <v>479</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
         <v>479</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
         <v>479</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
         <v>479</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
         <v>479</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
         <v>479</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
         <v>479</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
         <v>479</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
         <v>479</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
         <v>479</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
         <v>479</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
         <v>479</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
         <v>479</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
         <v>479</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
         <v>479</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
         <v>479</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
         <v>479</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="s">
         <v>479</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="s">
         <v>479</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
         <v>479</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
         <v>479</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
         <v>479</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="s">
         <v>479</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
         <v>479</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="s">
         <v>372</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
         <v>372</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="s">
         <v>372</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
         <v>372</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="s">
         <v>372</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="s">
         <v>372</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
         <v>249</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="14" t="s">
         <v>249</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="14" t="s">
         <v>249</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="14" t="s">
         <v>249</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="s">
         <v>249</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="14" t="s">
         <v>249</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="14" t="s">
         <v>249</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="s">
         <v>249</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="s">
         <v>6</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="14" t="s">
         <v>6</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="14" t="s">
         <v>6</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="14" t="s">
         <v>6</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="s">
         <v>6</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="14" t="s">
         <v>6</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="14" t="s">
         <v>6</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="14" t="s">
         <v>6</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="14" t="s">
         <v>6</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="14" t="s">
         <v>6</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
         <v>6</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="14" t="s">
         <v>6</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="14" t="s">
         <v>6</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="14" t="s">
         <v>6</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="14" t="s">
         <v>6</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="14" t="s">
         <v>6</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="14" t="s">
         <v>6</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="14" t="s">
         <v>6</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="14" t="s">
         <v>6</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="14" t="s">
         <v>6</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="14" t="s">
         <v>6</v>
       </c>
@@ -4621,7 +4621,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="14" t="s">
         <v>6</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="14" t="s">
         <v>6</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="14" t="s">
         <v>6</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="14" t="s">
         <v>6</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="14" t="s">
         <v>6</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="14" t="s">
         <v>6</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="14" t="s">
         <v>6</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="14" t="s">
         <v>6</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="14" t="s">
         <v>6</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="14" t="s">
         <v>6</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="14" t="s">
         <v>6</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="14" t="s">
         <v>6</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="14" t="s">
         <v>6</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="14" t="s">
         <v>6</v>
       </c>
@@ -4817,21 +4817,21 @@
         <v>288</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="C112" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D112" s="14" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="14" t="s">
         <v>6</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="14" t="s">
         <v>6</v>
       </c>
@@ -4859,21 +4859,21 @@
         <v>301</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="C115" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="14" t="s">
         <v>6</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="14" t="s">
         <v>6</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="14" t="s">
         <v>6</v>
       </c>
@@ -4915,35 +4915,35 @@
         <v>402</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B119" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="C119" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D119" s="14" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B120" s="15" t="s">
+        <v>780</v>
+      </c>
+      <c r="C120" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D120" s="14" t="s">
         <v>782</v>
       </c>
-      <c r="C119" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D119" s="14" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B120" s="15" t="s">
-        <v>783</v>
-      </c>
-      <c r="C120" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D120" s="14" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="14" t="s">
         <v>6</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="14" t="s">
         <v>6</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="14" t="s">
         <v>6</v>
       </c>
@@ -4985,12 +4985,12 @@
         <v>407</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C124" s="14" t="s">
         <v>19</v>
@@ -4999,7 +4999,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="14" t="s">
         <v>6</v>
       </c>
@@ -5013,63 +5013,63 @@
         <v>409</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B126" s="15" t="s">
+        <v>769</v>
+      </c>
+      <c r="C126" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D126" s="14" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" s="15" t="s">
+        <v>746</v>
+      </c>
+      <c r="C127" s="14" t="s">
+        <v>747</v>
+      </c>
+      <c r="D127" s="14" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128" s="15" t="s">
+        <v>773</v>
+      </c>
+      <c r="C128" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D128" s="14" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129" s="15" t="s">
         <v>772</v>
       </c>
-      <c r="C126" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D126" s="14" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B127" s="15" t="s">
-        <v>749</v>
-      </c>
-      <c r="C127" s="14" t="s">
-        <v>750</v>
-      </c>
-      <c r="D127" s="14" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B128" s="15" t="s">
-        <v>776</v>
-      </c>
-      <c r="C128" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D128" s="14" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B129" s="15" t="s">
-        <v>775</v>
-      </c>
       <c r="C129" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D129" s="14" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="14" t="s">
         <v>6</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="14" t="s">
         <v>6</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="14" t="s">
         <v>6</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="14" t="s">
         <v>6</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="14" t="s">
         <v>6</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="14" t="s">
         <v>6</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="14" t="s">
         <v>6</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="14" t="s">
         <v>6</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="14" t="s">
         <v>6</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="14" t="s">
         <v>6</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="14" t="s">
         <v>6</v>
       </c>
@@ -5223,21 +5223,21 @@
         <v>446</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C141" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="14" t="s">
         <v>6</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="14" t="s">
         <v>6</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="14" t="s">
         <v>6</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="14" t="s">
         <v>6</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="14" t="s">
         <v>6</v>
       </c>
@@ -5307,21 +5307,21 @@
         <v>289</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="C147" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="14" t="s">
         <v>6</v>
       </c>
@@ -5335,49 +5335,49 @@
         <v>299</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B149" s="15" t="s">
+        <v>763</v>
+      </c>
+      <c r="C149" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D149" s="14" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B150" s="15" t="s">
+        <v>765</v>
+      </c>
+      <c r="C150" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D150" s="14" t="s">
         <v>766</v>
       </c>
-      <c r="C149" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D149" s="14" t="s">
+    </row>
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B151" s="15" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B150" s="15" t="s">
+      <c r="C151" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D151" s="14" t="s">
         <v>768</v>
       </c>
-      <c r="C150" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D150" s="14" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A151" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B151" s="15" t="s">
-        <v>770</v>
-      </c>
-      <c r="C151" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D151" s="14" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="14" t="s">
         <v>6</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="14" t="s">
         <v>6</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="14" t="s">
         <v>6</v>
       </c>
@@ -5419,21 +5419,21 @@
         <v>293</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C155" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D155" s="14" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="14" t="s">
         <v>6</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="14" t="s">
         <v>6</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="14" t="s">
         <v>6</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="14" t="s">
         <v>6</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="14" t="s">
         <v>6</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="14" t="s">
         <v>6</v>
       </c>
@@ -5517,21 +5517,21 @@
         <v>425</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C162" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D162" s="14" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="14" t="s">
         <v>6</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="14" t="s">
         <v>6</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="14" t="s">
         <v>6</v>
       </c>
@@ -5573,7 +5573,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="14" t="s">
         <v>6</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="14" t="s">
         <v>6</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="14" t="s">
         <v>6</v>
       </c>
@@ -5615,21 +5615,21 @@
         <v>291</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="C169" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D169" s="14" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="14" t="s">
         <v>6</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="14" t="s">
         <v>6</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="14" t="s">
         <v>6</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="14" t="s">
         <v>6</v>
       </c>
@@ -5685,21 +5685,21 @@
         <v>439</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C174" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D174" s="14" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="14" t="s">
         <v>6</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="14" t="s">
         <v>6</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="14" t="s">
         <v>6</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="14" t="s">
         <v>6</v>
       </c>
@@ -5749,13 +5749,13 @@
         <v>306</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D178" s="14" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="14" t="s">
         <v>6</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="14" t="s">
         <v>6</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="14" t="s">
         <v>6</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="14" t="s">
         <v>6</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="14" t="s">
         <v>6</v>
       </c>
@@ -5825,21 +5825,21 @@
         <v>437</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B184" s="15" t="s">
+        <v>795</v>
+      </c>
+      <c r="C184" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D184" s="14" t="s">
         <v>798</v>
       </c>
-      <c r="C184" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D184" s="14" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="14" t="s">
         <v>6</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="14" t="s">
         <v>6</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="14" t="s">
         <v>6</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="14" t="s">
         <v>6</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="14" t="s">
         <v>6</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="14" t="s">
         <v>6</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="14" t="s">
         <v>6</v>
       </c>
@@ -5937,35 +5937,35 @@
         <v>285</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="C192" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D192" s="14" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="C193" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D193" s="14" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="14" t="s">
         <v>6</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="14" t="s">
         <v>6</v>
       </c>
@@ -5993,144 +5993,144 @@
         <v>283</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B196" s="15" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="C196" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D196" s="14" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B197" s="15" t="s">
+        <v>866</v>
+      </c>
+      <c r="C197" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D197" s="14" t="s">
         <v>871</v>
       </c>
-      <c r="C197" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D197" s="14" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B198" s="15" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C198" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D198" s="14" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C199" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D199" s="14" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B200" s="15" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C200" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D200" s="14" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B201" s="15" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C201" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D201" s="14" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B202" s="15" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C202" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D202" s="14" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B203" s="15" t="s">
+        <v>754</v>
+      </c>
+      <c r="C203" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D203" s="14" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B204" s="15" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A203" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B203" s="15" t="s">
-        <v>757</v>
-      </c>
-      <c r="C203" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D203" s="14" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A204" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B204" s="15" t="s">
-        <v>756</v>
-      </c>
       <c r="C204" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D204" s="14" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B205" s="15" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="C205" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D205" s="14" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
@@ -6161,21 +6161,21 @@
         <v>386</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B208" s="15" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="C208" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D208" s="14" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="14" t="s">
         <v>6</v>
       </c>
@@ -6189,7 +6189,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="14" t="s">
         <v>6</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="14" t="s">
         <v>6</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="14" t="s">
         <v>6</v>
       </c>
@@ -6245,21 +6245,21 @@
         <v>272</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B214" s="15" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="C214" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D214" s="14" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="14" t="s">
         <v>6</v>
       </c>
@@ -6273,12 +6273,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B216" s="15" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="C216" s="14" t="s">
         <v>19</v>
@@ -6287,12 +6287,12 @@
         <v>504</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B217" s="15" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="C217" s="14" t="s">
         <v>19</v>
@@ -6301,7 +6301,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="14" t="s">
         <v>6</v>
       </c>
@@ -6315,21 +6315,21 @@
         <v>506</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B219" s="15" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C219" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D219" s="14" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="14" t="s">
         <v>6</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="14" t="s">
         <v>6</v>
       </c>
@@ -6357,21 +6357,21 @@
         <v>511</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B222" s="15" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="C222" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D222" s="14" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="14" t="s">
         <v>6</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="14" t="s">
         <v>6</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="14" t="s">
         <v>6</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="14" t="s">
         <v>6</v>
       </c>
@@ -6424,10 +6424,10 @@
         <v>19</v>
       </c>
       <c r="D226" s="14" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="14" t="s">
         <v>6</v>
       </c>
@@ -6438,10 +6438,10 @@
         <v>19</v>
       </c>
       <c r="D227" s="14" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="14" t="s">
         <v>6</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="14" t="s">
         <v>6</v>
       </c>
@@ -6469,35 +6469,35 @@
         <v>270</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B230" s="15" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C230" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D230" s="14" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B231" s="15" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C231" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D231" s="14" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="14" t="s">
         <v>6</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="14" t="s">
         <v>7</v>
       </c>
@@ -6525,21 +6525,21 @@
         <v>86</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B234" s="15" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C234" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D234" s="14" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="14" t="s">
         <v>7</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="14" t="s">
         <v>7</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="14" t="s">
         <v>7</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="14" t="s">
         <v>7</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="14" t="s">
         <v>7</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="14" t="s">
         <v>7</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="14" t="s">
         <v>7</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="14" t="s">
         <v>7</v>
       </c>
@@ -6651,12 +6651,12 @@
         <v>546</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B243" s="15" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="C243" s="14" t="s">
         <v>19</v>
@@ -6665,7 +6665,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="14" t="s">
         <v>7</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="14" t="s">
         <v>7</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="14" t="s">
         <v>7</v>
       </c>
@@ -6707,21 +6707,21 @@
         <v>156</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B247" s="15" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="C247" s="14" t="s">
         <v>73</v>
       </c>
       <c r="D247" s="14" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="14" t="s">
         <v>7</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="14" t="s">
         <v>7</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="14" t="s">
         <v>7</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="14" t="s">
         <v>7</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="14" t="s">
         <v>7</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="14" t="s">
         <v>7</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="14" t="s">
         <v>7</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="14" t="s">
         <v>7</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="14" t="s">
         <v>7</v>
       </c>
@@ -6847,7 +6847,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="14" t="s">
         <v>7</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="14" t="s">
         <v>7</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="14" t="s">
         <v>7</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="14" t="s">
         <v>7</v>
       </c>
@@ -6903,7 +6903,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="14" t="s">
         <v>7</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="14" t="s">
         <v>7</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="14" t="s">
         <v>7</v>
       </c>
@@ -6945,35 +6945,35 @@
         <v>180</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B264" s="15" t="s">
+        <v>736</v>
+      </c>
+      <c r="C264" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D264" s="14" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B265" s="15" t="s">
+        <v>738</v>
+      </c>
+      <c r="C265" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D265" s="14" t="s">
         <v>739</v>
       </c>
-      <c r="C264" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D264" s="14" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A265" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B265" s="15" t="s">
-        <v>741</v>
-      </c>
-      <c r="C265" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D265" s="14" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="14" t="s">
         <v>7</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="14" t="s">
         <v>7</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="14" t="s">
         <v>7</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="14" t="s">
         <v>7</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="14" t="s">
         <v>7</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="14" t="s">
         <v>7</v>
       </c>
@@ -7057,21 +7057,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B272" s="15" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C272" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D272" s="14" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="14" t="s">
         <v>7</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="14" t="s">
         <v>7</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="14" t="s">
         <v>7</v>
       </c>
@@ -7113,35 +7113,35 @@
         <v>232</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B276" s="15" t="s">
-        <v>696</v>
+        <v>893</v>
       </c>
       <c r="C276" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D276" s="14" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B277" s="15" t="s">
-        <v>697</v>
+        <v>894</v>
       </c>
       <c r="C277" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D277" s="14" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="14" t="s">
         <v>7</v>
       </c>
@@ -7155,7 +7155,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="14" t="s">
         <v>7</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="14" t="s">
         <v>7</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="14" t="s">
         <v>7</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="14" t="s">
         <v>7</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="14" t="s">
         <v>7</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="14" t="s">
         <v>7</v>
       </c>
@@ -7239,7 +7239,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="14" t="s">
         <v>7</v>
       </c>
@@ -7253,21 +7253,21 @@
         <v>47</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B286" s="15" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="C286" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D286" s="14" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="14" t="s">
         <v>7</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="14" t="s">
         <v>7</v>
       </c>
@@ -7295,63 +7295,63 @@
         <v>59</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B289" s="15" t="s">
+        <v>697</v>
+      </c>
+      <c r="C289" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D289" s="14" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B290" s="15" t="s">
+        <v>710</v>
+      </c>
+      <c r="C290" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D290" s="14" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B291" s="15" t="s">
         <v>699</v>
       </c>
-      <c r="C289" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D289" s="14" t="s">
+      <c r="C291" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D291" s="14" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A290" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B290" s="15" t="s">
-        <v>712</v>
-      </c>
-      <c r="C290" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D290" s="14" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A291" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B291" s="15" t="s">
+    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B292" s="15" t="s">
         <v>701</v>
       </c>
-      <c r="C291" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D291" s="14" t="s">
+      <c r="C292" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D292" s="14" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A292" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B292" s="15" t="s">
-        <v>703</v>
-      </c>
-      <c r="C292" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D292" s="14" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="14" t="s">
         <v>7</v>
       </c>
@@ -7365,40 +7365,40 @@
         <v>62</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B294" s="15" t="s">
+        <v>703</v>
+      </c>
+      <c r="C294" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D294" s="14" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B295" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="C295" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D295" s="14" t="s">
         <v>705</v>
       </c>
-      <c r="C294" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D294" s="14" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A295" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B295" s="15" t="s">
-        <v>708</v>
-      </c>
-      <c r="C295" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D295" s="14" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B296" s="15" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C296" s="14" t="s">
         <v>19</v>
@@ -7407,12 +7407,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B297" s="15" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C297" s="14" t="s">
         <v>19</v>
@@ -7421,12 +7421,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B298" s="15" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C298" s="14" t="s">
         <v>19</v>
@@ -7435,7 +7435,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="14" t="s">
         <v>7</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="14" t="s">
         <v>7</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="14" t="s">
         <v>7</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="14" t="s">
         <v>7</v>
       </c>
@@ -7491,7 +7491,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="14" t="s">
         <v>7</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="14" t="s">
         <v>7</v>
       </c>
@@ -7519,26 +7519,26 @@
         <v>194</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B305" s="16" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="C305" s="14" t="s">
         <v>73</v>
       </c>
       <c r="D305" s="14" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B306" s="15" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="C306" s="14" t="s">
         <v>0</v>
@@ -7547,7 +7547,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="14" t="s">
         <v>7</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="14" t="s">
         <v>7</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="14" t="s">
         <v>7</v>
       </c>
@@ -7589,7 +7589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="14" t="s">
         <v>7</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="14" t="s">
         <v>7</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="14" t="s">
         <v>7</v>
       </c>
@@ -7631,7 +7631,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="14" t="s">
         <v>7</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="14" t="s">
         <v>7</v>
       </c>
@@ -7659,7 +7659,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="14" t="s">
         <v>7</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="14" t="s">
         <v>7</v>
       </c>
@@ -7687,7 +7687,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="14" t="s">
         <v>7</v>
       </c>
@@ -7701,7 +7701,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="14" t="s">
         <v>7</v>
       </c>
@@ -7712,52 +7712,52 @@
         <v>0</v>
       </c>
       <c r="D318" s="14" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A319" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B319" s="15" t="s">
+        <v>722</v>
+      </c>
+      <c r="C319" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D319" s="14" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A320" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B320" s="15" t="s">
+        <v>724</v>
+      </c>
+      <c r="C320" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D320" s="14" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B321" s="15" t="s">
+        <v>708</v>
+      </c>
+      <c r="C321" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D321" s="14" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A319" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B319" s="15" t="s">
-        <v>725</v>
-      </c>
-      <c r="C319" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D319" s="14" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A320" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B320" s="15" t="s">
-        <v>727</v>
-      </c>
-      <c r="C320" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D320" s="14" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A321" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B321" s="15" t="s">
-        <v>710</v>
-      </c>
-      <c r="C321" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D321" s="14" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="14" t="s">
         <v>7</v>
       </c>
@@ -7771,7 +7771,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="14" t="s">
         <v>7</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="14" t="s">
         <v>7</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="14" t="s">
         <v>7</v>
       </c>
@@ -7813,21 +7813,21 @@
         <v>692</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B326" s="15" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C326" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D326" s="14" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="14" t="s">
         <v>7</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="14" t="s">
         <v>7</v>
       </c>
@@ -7852,24 +7852,24 @@
         <v>19</v>
       </c>
       <c r="D328" s="14" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B329" s="15" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C329" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D329" s="14" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="14" t="s">
         <v>7</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="14" t="s">
         <v>7</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="14" t="s">
         <v>7</v>
       </c>
@@ -7911,12 +7911,12 @@
         <v>691</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B333" s="15" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="C333" s="14" t="s">
         <v>19</v>
@@ -7925,7 +7925,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="14" t="s">
         <v>7</v>
       </c>
@@ -7939,7 +7939,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="14" t="s">
         <v>7</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="14" t="s">
         <v>7</v>
       </c>
@@ -7964,10 +7964,10 @@
         <v>19</v>
       </c>
       <c r="D336" s="14" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="14" t="s">
         <v>7</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="14" t="s">
         <v>7</v>
       </c>
@@ -7995,7 +7995,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="14" t="s">
         <v>7</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="14" t="s">
         <v>7</v>
       </c>
@@ -8023,7 +8023,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="14" t="s">
         <v>7</v>
       </c>
@@ -8037,7 +8037,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="14" t="s">
         <v>7</v>
       </c>
@@ -8051,7 +8051,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="14" t="s">
         <v>7</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="14" t="s">
         <v>7</v>
       </c>
@@ -8079,7 +8079,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="14" t="s">
         <v>7</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="14" t="s">
         <v>164</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="14" t="s">
         <v>164</v>
       </c>
@@ -8121,12 +8121,12 @@
         <v>686</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="14" t="s">
         <v>233</v>
       </c>
       <c r="B348" s="15" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="C348" s="14" t="s">
         <v>19</v>
@@ -8135,7 +8135,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="14" t="s">
         <v>233</v>
       </c>
@@ -8149,12 +8149,12 @@
         <v>235</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="14" t="s">
         <v>233</v>
       </c>
       <c r="B350" s="15" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="C350" s="14" t="s">
         <v>19</v>
@@ -8163,7 +8163,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="14" t="s">
         <v>666</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="14" t="s">
         <v>666</v>
       </c>
@@ -8191,7 +8191,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="14" t="s">
         <v>633</v>
       </c>
@@ -8201,7 +8201,7 @@
       <c r="C353" s="14"/>
       <c r="D353" s="14"/>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="14" t="s">
         <v>633</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="14" t="s">
         <v>633</v>
       </c>
@@ -8225,7 +8225,7 @@
       <c r="C355" s="14"/>
       <c r="D355" s="14"/>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="14" t="s">
         <v>633</v>
       </c>
@@ -8235,7 +8235,7 @@
       <c r="C356" s="14"/>
       <c r="D356" s="14"/>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="14" t="s">
         <v>633</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="14" t="s">
         <v>633</v>
       </c>
@@ -8263,7 +8263,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="14" t="s">
         <v>633</v>
       </c>
@@ -8277,7 +8277,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="14" t="s">
         <v>633</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="14" t="s">
         <v>633</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="14" t="s">
         <v>633</v>
       </c>
@@ -8319,7 +8319,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="14" t="s">
         <v>633</v>
       </c>
@@ -8333,7 +8333,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="14" t="s">
         <v>633</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="14" t="s">
         <v>633</v>
       </c>
@@ -8357,11 +8357,23 @@
       <c r="C365" s="14"/>
       <c r="D365" s="14"/>
     </row>
+    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B366" s="15"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D365" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D365">
-      <sortCondition ref="A1:A365"/>
-    </sortState>
+  <autoFilter ref="A1:D366" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="pandas"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Создать новый столбец в датафрейме Dfname и записать туда значение val"/>
+        <filter val="Создать новый столбец и записать туда результат вычислений"/>
+        <filter val="Создать новый столбец и записать туда указанное значение"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="51" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -8411,7 +8423,7 @@
         <v>617</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>618</v>
@@ -8425,7 +8437,7 @@
         <v>617</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>619</v>
@@ -8439,7 +8451,7 @@
         <v>617</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>620</v>
@@ -8453,7 +8465,7 @@
         <v>599</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>600</v>
@@ -8467,7 +8479,7 @@
         <v>662</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>664</v>
@@ -8481,7 +8493,7 @@
         <v>624</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>625</v>
@@ -8495,7 +8507,7 @@
         <v>624</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>625</v>
@@ -8509,7 +8521,7 @@
         <v>651</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>653</v>
@@ -8523,7 +8535,7 @@
         <v>651</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>654</v>
@@ -8537,7 +8549,7 @@
         <v>651</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>655</v>
@@ -8551,7 +8563,7 @@
         <v>651</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>656</v>
@@ -8565,7 +8577,7 @@
         <v>651</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>657</v>
@@ -8593,7 +8605,7 @@
         <v>587</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>590</v>
@@ -8607,7 +8619,7 @@
         <v>587</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>591</v>
@@ -8621,7 +8633,7 @@
         <v>587</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>592</v>
@@ -8649,7 +8661,7 @@
         <v>587</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>595</v>
@@ -8663,7 +8675,7 @@
         <v>587</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>596</v>
@@ -8677,7 +8689,7 @@
         <v>587</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>628</v>
@@ -8691,7 +8703,7 @@
         <v>601</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>603</v>
@@ -8705,7 +8717,7 @@
         <v>601</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>609</v>
@@ -8719,7 +8731,7 @@
         <v>601</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>610</v>
@@ -8733,7 +8745,7 @@
         <v>601</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>611</v>
@@ -8761,7 +8773,7 @@
         <v>330</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>350</v>
@@ -8775,7 +8787,7 @@
         <v>330</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>351</v>
@@ -8789,7 +8801,7 @@
         <v>516</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>517</v>
@@ -8803,7 +8815,7 @@
         <v>404</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>407</v>
@@ -8817,7 +8829,7 @@
         <v>404</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>409</v>
@@ -8845,7 +8857,7 @@
         <v>537</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="D33" s="14"/>
     </row>
@@ -8854,13 +8866,13 @@
         <v>6</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -8871,7 +8883,7 @@
         <v>513</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>505</v>
@@ -8885,7 +8897,7 @@
         <v>513</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>539</v>
@@ -8899,7 +8911,7 @@
         <v>529</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>521</v>
@@ -8913,7 +8925,7 @@
         <v>529</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>522</v>
@@ -8927,7 +8939,7 @@
         <v>529</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>524</v>
@@ -8941,7 +8953,7 @@
         <v>529</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>523</v>
@@ -8955,7 +8967,7 @@
         <v>529</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>525</v>
@@ -8983,7 +8995,7 @@
         <v>529</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>527</v>
@@ -8997,7 +9009,7 @@
         <v>530</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>443</v>
@@ -9011,7 +9023,7 @@
         <v>530</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>518</v>
@@ -9025,7 +9037,7 @@
         <v>530</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>442</v>
@@ -9039,7 +9051,7 @@
         <v>535</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>534</v>
@@ -9053,7 +9065,7 @@
         <v>535</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>538</v>
@@ -9067,7 +9079,7 @@
         <v>536</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="D49" s="14"/>
     </row>
@@ -9079,7 +9091,7 @@
         <v>531</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>532</v>
@@ -9093,7 +9105,7 @@
         <v>531</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="D51" s="14" t="s">
         <v>533</v>
@@ -9135,7 +9147,7 @@
         <v>512</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>685</v>
@@ -9149,7 +9161,7 @@
         <v>512</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>684</v>
@@ -9316,22 +9328,22 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" s="6" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="B14" s="7" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
   </sheetData>
@@ -9365,18 +9377,18 @@
     </row>
     <row r="2" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
   </sheetData>

--- a/Конспект_Python.xlsx
+++ b/Конспект_Python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\my_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6D06B9-8E0E-411C-A6E1-B943250C9C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84ED0D21-6F9F-4A9B-B087-5D90D56DFD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18870" yWindow="2200" windowWidth="19070" windowHeight="15410" tabRatio="728" xr2:uid="{65C49AB7-91AD-4F1F-B814-EFF7DAC5AF74}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Атрибуты!$A$1:$D$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Генераторы списков'!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Операторы!$A$1:$D$366</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Операторы!$A$1:$D$377</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Функции!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="919">
   <si>
     <t>Функция</t>
   </si>
@@ -2382,9 +2382,6 @@
     <t>Вывод данных, сокращенная индексация</t>
   </si>
   <si>
-    <t>df.loc[: 'colname']</t>
-  </si>
-  <si>
     <t>Вывести все строки из указанного столбца</t>
   </si>
   <si>
@@ -2788,6 +2785,75 @@
   </si>
   <si>
     <t>f - значит подставляется вещественное число % int1 - количество знаков перед запятой (можно оставить пустым), int2 - количество знаков после запятой F-строка</t>
+  </si>
+  <si>
+    <t>len(df['colname'].unique())</t>
+  </si>
+  <si>
+    <t>Подсчитать количество уникальных значений в столбце colname</t>
+  </si>
+  <si>
+    <t>Находит id с максимальным численным значением и возвращает его (ID)</t>
+  </si>
+  <si>
+    <t>.idxmax()</t>
+  </si>
+  <si>
+    <t>df.loc[:, 'colname']</t>
+  </si>
+  <si>
+    <t>Заполнить столбец colname значением val</t>
+  </si>
+  <si>
+    <t>df.loc[:, 'colname'] = 'val'</t>
+  </si>
+  <si>
+    <t>df.loc[ [bool, bool, bool] ]</t>
+  </si>
+  <si>
+    <t>Вывести только те строки где значение истинно</t>
+  </si>
+  <si>
+    <t>df['colname'] == val</t>
+  </si>
+  <si>
+    <t>Вернет Series из True и False отвечающих условию. Проверяет каждую строку</t>
+  </si>
+  <si>
+    <t>Получить строки по условию и вывести, только их. Там где True</t>
+  </si>
+  <si>
+    <t>df.loc[df['colname'] == 'val']</t>
+  </si>
+  <si>
+    <t>Извлечь строки по условию в указанном столбце</t>
+  </si>
+  <si>
+    <t>df.loc[df['colname1'] == 'val', 'colname2'] = 'val'</t>
+  </si>
+  <si>
+    <t>df.loc[df['colname1'] == 'val', 'colname2']</t>
+  </si>
+  <si>
+    <t>Поменять значения в указанном столбце по условию</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>Логическое "И" в pandas (каждое отдельное сравнение надо окружать скобками)</t>
+  </si>
+  <si>
+    <t>Логическое "ИЛИ" в pandas (каждое отдельное сравнение надо окружать скобками)</t>
+  </si>
+  <si>
+    <t>Логическое "НЕТ" в pandas (каждое отдельное сравнение надо окружать скобками)</t>
   </si>
 </sst>
 </file>
@@ -3249,11 +3315,11 @@
   <sheetPr codeName="Лист1" filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D366"/>
+  <dimension ref="A1:D379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B207" sqref="B207"/>
+      <selection pane="bottomLeft" activeCell="B379" sqref="B379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -3449,30 +3515,30 @@
     </row>
     <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
+        <v>790</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>791</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>792</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -3547,24 +3613,24 @@
     </row>
     <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>888</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>889</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
+        <v>886</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>887</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>888</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>2</v>
@@ -3632,13 +3698,13 @@
         <v>140</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>802</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="14" t="s">
         <v>803</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -3660,7 +3726,7 @@
         <v>740</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>0</v>
@@ -3680,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -4327,7 +4393,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="s">
         <v>6</v>
       </c>
@@ -4822,13 +4888,13 @@
         <v>6</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C112" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D112" s="14" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -4864,13 +4930,13 @@
         <v>6</v>
       </c>
       <c r="B115" s="15" t="s">
+        <v>871</v>
+      </c>
+      <c r="C115" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D115" s="14" t="s">
         <v>872</v>
-      </c>
-      <c r="C115" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D115" s="14" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -4920,13 +4986,13 @@
         <v>6</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C119" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -4934,13 +5000,13 @@
         <v>6</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C120" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -4990,7 +5056,7 @@
         <v>6</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C124" s="14" t="s">
         <v>19</v>
@@ -5018,13 +5084,13 @@
         <v>6</v>
       </c>
       <c r="B126" s="15" t="s">
+        <v>768</v>
+      </c>
+      <c r="C126" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D126" s="14" t="s">
         <v>769</v>
-      </c>
-      <c r="C126" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D126" s="14" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -5046,13 +5112,13 @@
         <v>6</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C128" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D128" s="14" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -5060,13 +5126,13 @@
         <v>6</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C129" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D129" s="14" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -5228,13 +5294,13 @@
         <v>6</v>
       </c>
       <c r="B141" s="15" t="s">
+        <v>787</v>
+      </c>
+      <c r="C141" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D141" s="14" t="s">
         <v>788</v>
-      </c>
-      <c r="C141" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D141" s="14" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -5312,13 +5378,13 @@
         <v>6</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C147" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -5340,13 +5406,13 @@
         <v>6</v>
       </c>
       <c r="B149" s="15" t="s">
+        <v>762</v>
+      </c>
+      <c r="C149" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D149" s="14" t="s">
         <v>763</v>
-      </c>
-      <c r="C149" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D149" s="14" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -5354,13 +5420,13 @@
         <v>6</v>
       </c>
       <c r="B150" s="15" t="s">
+        <v>764</v>
+      </c>
+      <c r="C150" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D150" s="14" t="s">
         <v>765</v>
-      </c>
-      <c r="C150" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D150" s="14" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -5368,13 +5434,13 @@
         <v>6</v>
       </c>
       <c r="B151" s="15" t="s">
+        <v>766</v>
+      </c>
+      <c r="C151" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D151" s="14" t="s">
         <v>767</v>
-      </c>
-      <c r="C151" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D151" s="14" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -5424,13 +5490,13 @@
         <v>6</v>
       </c>
       <c r="B155" s="15" t="s">
+        <v>900</v>
+      </c>
+      <c r="C155" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D155" s="14" t="s">
         <v>761</v>
-      </c>
-      <c r="C155" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D155" s="14" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -5615,18 +5681,18 @@
         <v>291</v>
       </c>
     </row>
-    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B169" s="15" t="s">
+        <v>884</v>
+      </c>
+      <c r="C169" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D169" s="14" t="s">
         <v>885</v>
-      </c>
-      <c r="C169" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D169" s="14" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -5690,13 +5756,13 @@
         <v>6</v>
       </c>
       <c r="B174" s="15" t="s">
+        <v>776</v>
+      </c>
+      <c r="C174" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D174" s="14" t="s">
         <v>777</v>
-      </c>
-      <c r="C174" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D174" s="14" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -5830,13 +5896,13 @@
         <v>6</v>
       </c>
       <c r="B184" s="15" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C184" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D184" s="14" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -5937,18 +6003,18 @@
         <v>285</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B192" s="15" t="s">
+        <v>880</v>
+      </c>
+      <c r="C192" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D192" s="14" t="s">
         <v>881</v>
-      </c>
-      <c r="C192" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D192" s="14" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -5956,13 +6022,13 @@
         <v>6</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C193" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D193" s="14" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -5998,13 +6064,13 @@
         <v>6</v>
       </c>
       <c r="B196" s="15" t="s">
+        <v>799</v>
+      </c>
+      <c r="C196" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D196" s="14" t="s">
         <v>800</v>
-      </c>
-      <c r="C196" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D196" s="14" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6012,13 +6078,13 @@
         <v>6</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C197" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D197" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6040,13 +6106,13 @@
         <v>6</v>
       </c>
       <c r="B199" s="15" t="s">
+        <v>774</v>
+      </c>
+      <c r="C199" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D199" s="14" t="s">
         <v>775</v>
-      </c>
-      <c r="C199" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D199" s="14" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6054,13 +6120,13 @@
         <v>6</v>
       </c>
       <c r="B200" s="15" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C200" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D200" s="14" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6068,13 +6134,13 @@
         <v>6</v>
       </c>
       <c r="B201" s="15" t="s">
+        <v>795</v>
+      </c>
+      <c r="C201" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D201" s="14" t="s">
         <v>796</v>
-      </c>
-      <c r="C201" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D201" s="14" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6124,16 +6190,16 @@
         <v>6</v>
       </c>
       <c r="B205" s="15" t="s">
+        <v>873</v>
+      </c>
+      <c r="C205" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D205" s="14" t="s">
         <v>874</v>
       </c>
-      <c r="C205" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D205" s="14" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="14" t="s">
         <v>6</v>
       </c>
@@ -6147,7 +6213,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="14" t="s">
         <v>6</v>
       </c>
@@ -6166,13 +6232,13 @@
         <v>6</v>
       </c>
       <c r="B208" s="15" t="s">
+        <v>816</v>
+      </c>
+      <c r="C208" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D208" s="14" t="s">
         <v>817</v>
-      </c>
-      <c r="C208" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D208" s="14" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6203,7 +6269,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="14" t="s">
         <v>6</v>
       </c>
@@ -6250,13 +6316,13 @@
         <v>6</v>
       </c>
       <c r="B214" s="15" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C214" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D214" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6278,7 +6344,7 @@
         <v>6</v>
       </c>
       <c r="B216" s="15" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C216" s="14" t="s">
         <v>19</v>
@@ -6292,7 +6358,7 @@
         <v>6</v>
       </c>
       <c r="B217" s="15" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C217" s="14" t="s">
         <v>19</v>
@@ -6362,13 +6428,13 @@
         <v>6</v>
       </c>
       <c r="B222" s="15" t="s">
+        <v>877</v>
+      </c>
+      <c r="C222" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D222" s="14" t="s">
         <v>878</v>
-      </c>
-      <c r="C222" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D222" s="14" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6424,7 +6490,7 @@
         <v>19</v>
       </c>
       <c r="D226" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6438,7 +6504,7 @@
         <v>19</v>
       </c>
       <c r="D227" s="14" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6536,7 +6602,7 @@
         <v>19</v>
       </c>
       <c r="D234" s="14" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6656,7 +6722,7 @@
         <v>7</v>
       </c>
       <c r="B243" s="15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C243" s="14" t="s">
         <v>19</v>
@@ -6712,13 +6778,13 @@
         <v>7</v>
       </c>
       <c r="B247" s="15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C247" s="14" t="s">
         <v>73</v>
       </c>
       <c r="D247" s="14" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7068,7 +7134,7 @@
         <v>19</v>
       </c>
       <c r="D272" s="14" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7118,13 +7184,13 @@
         <v>7</v>
       </c>
       <c r="B276" s="15" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C276" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D276" s="14" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7132,13 +7198,13 @@
         <v>7</v>
       </c>
       <c r="B277" s="15" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C277" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D277" s="14" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7258,13 +7324,13 @@
         <v>7</v>
       </c>
       <c r="B286" s="15" t="s">
+        <v>863</v>
+      </c>
+      <c r="C286" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D286" s="14" t="s">
         <v>864</v>
-      </c>
-      <c r="C286" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D286" s="14" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7524,13 +7590,13 @@
         <v>7</v>
       </c>
       <c r="B305" s="16" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C305" s="14" t="s">
         <v>73</v>
       </c>
       <c r="D305" s="14" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7538,7 +7604,7 @@
         <v>7</v>
       </c>
       <c r="B306" s="15" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C306" s="14" t="s">
         <v>0</v>
@@ -7631,7 +7697,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="14" t="s">
         <v>7</v>
       </c>
@@ -7916,7 +7982,7 @@
         <v>7</v>
       </c>
       <c r="B333" s="15" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C333" s="14" t="s">
         <v>19</v>
@@ -7964,7 +8030,7 @@
         <v>19</v>
       </c>
       <c r="D336" s="14" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -8126,7 +8192,7 @@
         <v>233</v>
       </c>
       <c r="B348" s="15" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C348" s="14" t="s">
         <v>19</v>
@@ -8154,7 +8220,7 @@
         <v>233</v>
       </c>
       <c r="B350" s="15" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C350" s="14" t="s">
         <v>19</v>
@@ -8360,18 +8426,175 @@
     <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="B366" s="15"/>
     </row>
+    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A367" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B367" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="C367" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D367" s="5" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A368" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B368" s="9" t="s">
+        <v>899</v>
+      </c>
+      <c r="C368" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D368" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A369" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B369" s="9" t="s">
+        <v>902</v>
+      </c>
+      <c r="C369" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D369" s="5" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A370" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B370" s="9" t="s">
+        <v>903</v>
+      </c>
+      <c r="C370" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D370" s="5" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A371" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B371" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="C371" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D371" s="5" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A372" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B372" s="9" t="s">
+        <v>908</v>
+      </c>
+      <c r="C372" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D372" s="5" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A373" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B373" s="9" t="s">
+        <v>911</v>
+      </c>
+      <c r="C373" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D373" s="5" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A374" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B374" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="C374" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D374" s="5" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B375" s="9" t="s">
+        <v>913</v>
+      </c>
+      <c r="C375" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D375" s="5" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A376" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B376" s="9" t="s">
+        <v>914</v>
+      </c>
+      <c r="C376" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D376" s="5" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A377" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B377" s="9" t="s">
+        <v>915</v>
+      </c>
+      <c r="C377" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D377" s="5" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C378" s="14"/>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C379" s="14"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D366" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}">
-    <filterColumn colId="0">
+  <autoFilter ref="A1:D377" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}">
+    <filterColumn colId="1">
       <filters>
-        <filter val="pandas"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Создать новый столбец в датафрейме Dfname и записать туда значение val"/>
-        <filter val="Создать новый столбец и записать туда результат вычислений"/>
-        <filter val="Создать новый столбец и записать туда указанное значение"/>
+        <filter val="&amp;"/>
+        <filter val="(df.colname1 &lt; val1) &amp; (df.colname2 &gt; val2)"/>
+        <filter val="df.query('colname == val &amp; colname2 &gt;= colname3')"/>
+        <filter val="df[(df['colname'] &lt; val) &amp; (df['colname'] == val)]"/>
+        <filter val="set1 &amp; set2"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -8423,7 +8646,7 @@
         <v>617</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>618</v>
@@ -8437,7 +8660,7 @@
         <v>617</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>619</v>
@@ -8451,7 +8674,7 @@
         <v>617</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>620</v>
@@ -8465,7 +8688,7 @@
         <v>599</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>600</v>
@@ -8479,7 +8702,7 @@
         <v>662</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>664</v>
@@ -8493,7 +8716,7 @@
         <v>624</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>625</v>
@@ -8507,7 +8730,7 @@
         <v>624</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>625</v>
@@ -8521,7 +8744,7 @@
         <v>651</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>653</v>
@@ -8535,7 +8758,7 @@
         <v>651</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>654</v>
@@ -8549,7 +8772,7 @@
         <v>651</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>655</v>
@@ -8563,7 +8786,7 @@
         <v>651</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>656</v>
@@ -8577,7 +8800,7 @@
         <v>651</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>657</v>
@@ -8605,7 +8828,7 @@
         <v>587</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>590</v>
@@ -8619,7 +8842,7 @@
         <v>587</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>591</v>
@@ -8633,7 +8856,7 @@
         <v>587</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>592</v>
@@ -8661,7 +8884,7 @@
         <v>587</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>595</v>
@@ -8675,7 +8898,7 @@
         <v>587</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>596</v>
@@ -8689,7 +8912,7 @@
         <v>587</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>628</v>
@@ -8703,7 +8926,7 @@
         <v>601</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>603</v>
@@ -8717,7 +8940,7 @@
         <v>601</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>609</v>
@@ -8731,7 +8954,7 @@
         <v>601</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>610</v>
@@ -8745,7 +8968,7 @@
         <v>601</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>611</v>
@@ -8773,7 +8996,7 @@
         <v>330</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>350</v>
@@ -8787,7 +9010,7 @@
         <v>330</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>351</v>
@@ -8801,7 +9024,7 @@
         <v>516</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>517</v>
@@ -8815,7 +9038,7 @@
         <v>404</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>407</v>
@@ -8829,7 +9052,7 @@
         <v>404</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>409</v>
@@ -8857,7 +9080,7 @@
         <v>537</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D33" s="14"/>
     </row>
@@ -8866,13 +9089,13 @@
         <v>6</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C34" s="15" t="s">
+        <v>818</v>
+      </c>
+      <c r="D34" s="14" t="s">
         <v>819</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -8883,7 +9106,7 @@
         <v>513</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>505</v>
@@ -8897,7 +9120,7 @@
         <v>513</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>539</v>
@@ -8911,7 +9134,7 @@
         <v>529</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>521</v>
@@ -8925,7 +9148,7 @@
         <v>529</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>522</v>
@@ -8939,7 +9162,7 @@
         <v>529</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>524</v>
@@ -8953,7 +9176,7 @@
         <v>529</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>523</v>
@@ -8967,7 +9190,7 @@
         <v>529</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>525</v>
@@ -8995,7 +9218,7 @@
         <v>529</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>527</v>
@@ -9009,7 +9232,7 @@
         <v>530</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>443</v>
@@ -9023,7 +9246,7 @@
         <v>530</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>518</v>
@@ -9037,7 +9260,7 @@
         <v>530</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>442</v>
@@ -9051,7 +9274,7 @@
         <v>535</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>534</v>
@@ -9065,7 +9288,7 @@
         <v>535</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>538</v>
@@ -9079,7 +9302,7 @@
         <v>536</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D49" s="14"/>
     </row>
@@ -9091,7 +9314,7 @@
         <v>531</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>532</v>
@@ -9105,7 +9328,7 @@
         <v>531</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D51" s="14" t="s">
         <v>533</v>
@@ -9147,7 +9370,7 @@
         <v>512</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>685</v>
@@ -9161,7 +9384,7 @@
         <v>512</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>684</v>

--- a/Конспект_Python.xlsx
+++ b/Конспект_Python.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\my_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84ED0D21-6F9F-4A9B-B087-5D90D56DFD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41A3794-C9DF-4366-81B9-82A6C089B00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18870" yWindow="2200" windowWidth="19070" windowHeight="15410" tabRatio="728" xr2:uid="{65C49AB7-91AD-4F1F-B814-EFF7DAC5AF74}"/>
+    <workbookView xWindow="20110" yWindow="2200" windowWidth="17830" windowHeight="15410" tabRatio="728" xr2:uid="{65C49AB7-91AD-4F1F-B814-EFF7DAC5AF74}"/>
   </bookViews>
   <sheets>
     <sheet name="Операторы" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Атрибуты!$A$1:$D$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Генераторы списков'!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Операторы!$A$1:$D$377</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Операторы!$A$1:$D$378</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Функции!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="922">
   <si>
     <t>Функция</t>
   </si>
@@ -2854,6 +2854,15 @@
   </si>
   <si>
     <t>Логическое "НЕТ" в pandas (каждое отдельное сравнение надо окружать скобками)</t>
+  </si>
+  <si>
+    <t>df.groupby('colname1').agg({'colname2': ['count', 'sum']})</t>
+  </si>
+  <si>
+    <t>Применить набор функций к указанному столбцу. В словаре: ключ - столбец, список значений, это список функций</t>
+  </si>
+  <si>
+    <t>df.fillna(value='val')</t>
   </si>
 </sst>
 </file>
@@ -3319,7 +3328,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B379" sqref="B379"/>
+      <selection pane="bottomLeft" activeCell="B386" sqref="B386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -4393,7 +4402,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="s">
         <v>6</v>
       </c>
@@ -5135,7 +5144,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="14" t="s">
         <v>6</v>
       </c>
@@ -5681,7 +5690,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="14" t="s">
         <v>6</v>
       </c>
@@ -6003,7 +6012,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="14" t="s">
         <v>6</v>
       </c>
@@ -7697,7 +7706,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="14" t="s">
         <v>7</v>
       </c>
@@ -8538,7 +8547,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="5" t="s">
         <v>6</v>
       </c>
@@ -8580,21 +8589,37 @@
         <v>918</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A378" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B378" s="9" t="s">
+        <v>919</v>
+      </c>
       <c r="C378" s="14"/>
+      <c r="D378" s="5" t="s">
+        <v>920</v>
+      </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C379" s="14"/>
+      <c r="A379" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B379" s="15" t="s">
+        <v>921</v>
+      </c>
+      <c r="C379" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D379" s="14" t="s">
+        <v>417</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D377" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}">
+  <autoFilter ref="A1:D378" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}">
     <filterColumn colId="1">
       <filters>
-        <filter val="&amp;"/>
-        <filter val="(df.colname1 &lt; val1) &amp; (df.colname2 &gt; val2)"/>
-        <filter val="df.query('colname == val &amp; colname2 &gt;= colname3')"/>
-        <filter val="df[(df['colname'] &lt; val) &amp; (df['colname'] == val)]"/>
-        <filter val="set1 &amp; set2"/>
+        <filter val="df.fillna(val)"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Конспект_Python.xlsx
+++ b/Конспект_Python.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\my_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41A3794-C9DF-4366-81B9-82A6C089B00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5210AE4E-32B1-41B9-971C-93852E8BFAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20110" yWindow="2200" windowWidth="17830" windowHeight="15410" tabRatio="728" xr2:uid="{65C49AB7-91AD-4F1F-B814-EFF7DAC5AF74}"/>
+    <workbookView xWindow="19140" yWindow="2520" windowWidth="17830" windowHeight="15410" tabRatio="728" xr2:uid="{65C49AB7-91AD-4F1F-B814-EFF7DAC5AF74}"/>
   </bookViews>
   <sheets>
     <sheet name="Операторы" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,9 @@
     <sheet name="Генераторы списков" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Атрибуты!$A$1:$D$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Атрибуты!$A$1:$D$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Генераторы списков'!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Операторы!$A$1:$D$378</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Операторы!$A$1:$D$387</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Функции!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="949">
   <si>
     <t>Функция</t>
   </si>
@@ -1536,9 +1536,6 @@
     <t>Параметры</t>
   </si>
   <si>
-    <t>pd.read_excel('path/file.xls', sheet_name='name')</t>
-  </si>
-  <si>
     <t>df.types</t>
   </si>
   <si>
@@ -1548,15 +1545,9 @@
     <t>df.astype({'colname': str/int/float})</t>
   </si>
   <si>
-    <t>Изменить тип данных в столшбце colname</t>
-  </si>
-  <si>
     <t>pd.to_datetime('2019-11-23', infer_datetime_format = True)</t>
   </si>
   <si>
-    <t>Приводим строковые данные в формат Даты и Времени</t>
-  </si>
-  <si>
     <t>df.set_index('colname', inplace=True)</t>
   </si>
   <si>
@@ -1564,12 +1555,6 @@
   </si>
   <si>
     <t>Считывает определенный лист из файла формата Excel</t>
-  </si>
-  <si>
-    <t>pd.read_excel('path/file.xls', sheet_name=None)</t>
-  </si>
-  <si>
-    <t>dfs = pd.read_excel('path/file.xls', sheet_name=None)</t>
   </si>
   <si>
     <t>Записываем словарь в переменную dfs</t>
@@ -2859,10 +2844,106 @@
     <t>df.groupby('colname1').agg({'colname2': ['count', 'sum']})</t>
   </si>
   <si>
-    <t>Применить набор функций к указанному столбцу. В словаре: ключ - столбец, список значений, это список функций</t>
-  </si>
-  <si>
     <t>df.fillna(value='val')</t>
+  </si>
+  <si>
+    <t>df.name = 'val'</t>
+  </si>
+  <si>
+    <t>Присвоить имя ДатаФрейму, потом можно его вызывать print(df.name)</t>
+  </si>
+  <si>
+    <t>Применить набор функций к указанному столбцу. В словаре: ключ - столбец, список значений, это список функций. Эта конструкция софрмирует новый DF с вложенной структурой</t>
+  </si>
+  <si>
+    <t>df['parent_colname']['children_colname']</t>
+  </si>
+  <si>
+    <t>Обратиться ко вложенной структуре в DataFrame</t>
+  </si>
+  <si>
+    <t>pd.DataFrame({'colname1': [val,val], 'colname2': [val,val]})</t>
+  </si>
+  <si>
+    <t>Создать DataFrame из словаря</t>
+  </si>
+  <si>
+    <t>pd.Series([val, val, val])</t>
+  </si>
+  <si>
+    <t>Сгенерировать Series из списка</t>
+  </si>
+  <si>
+    <t>pd.read_excel('path/file.xlsx', sheet_name='name')</t>
+  </si>
+  <si>
+    <t>pd.read_excel('path/file.xlsx', sheet_name=None)</t>
+  </si>
+  <si>
+    <t>dfs = pd.read_excel('path/file.xlsx', sheet_name=None)</t>
+  </si>
+  <si>
+    <t>errors='coerce'</t>
+  </si>
+  <si>
+    <t>errors='raise'</t>
+  </si>
+  <si>
+    <t>errors='ignore'</t>
+  </si>
+  <si>
+    <t>дефолтное поведение: при встрече с некорректным значением выдаётся ошибка, операция перевода в числа прерывается</t>
+  </si>
+  <si>
+    <t>некорректные значения принудительно заменяются на NaN</t>
+  </si>
+  <si>
+    <t>некорректные значения игнорируются, но остаются</t>
+  </si>
+  <si>
+    <t>pd.to_numeric(df['colname'])</t>
+  </si>
+  <si>
+    <t>Переводит значения столбца в числовое, много параметров, см. лист "Атрибуты"</t>
+  </si>
+  <si>
+    <t>pd.to_numeric(df['colname'], errors='coerce')</t>
+  </si>
+  <si>
+    <t>Изменить тип данных в столбце colname</t>
+  </si>
+  <si>
+    <t>df['colnname'] = df['colnname'].astype('int/str/float')</t>
+  </si>
+  <si>
+    <t>Приводим строковые данные в формат Даты и Времени. Атрибуты см. на листе "Атрибуты"</t>
+  </si>
+  <si>
+    <t>format='%d.%m.%Y'</t>
+  </si>
+  <si>
+    <t>format='%H:%M:%S'</t>
+  </si>
+  <si>
+    <t>format='%d.%m.%YZ%H:%M:%S'</t>
+  </si>
+  <si>
+    <t>pd.to_datetime(df['colname'], format=)</t>
+  </si>
+  <si>
+    <t>Считает номер месяца из даты. Дата должна иметь формат DateTime</t>
+  </si>
+  <si>
+    <t>Число(01-31).Месяц(01-12).Год(YYYY) ВАЖНО! Разделитель может быть разный (.- и т.п.)</t>
+  </si>
+  <si>
+    <t>Часы(00-23):Минуты(00-59):Секунды(00-59) %I - Часы в 12 часовом формате ВАЖНО! Разделитель может быть разный (:- и т.п.)</t>
+  </si>
+  <si>
+    <t>Z - стандартный разделитель даты и времени ВАЖНО! Разделитель может быть разный (ZT- и т.п.)</t>
+  </si>
+  <si>
+    <t>pd.DatetimeIndex(df['colname']).month</t>
   </si>
 </sst>
 </file>
@@ -3324,11 +3405,11 @@
   <sheetPr codeName="Лист1" filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D379"/>
+  <dimension ref="A1:D387"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B386" sqref="B386"/>
+      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B388" sqref="B388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -3415,13 +3496,13 @@
         <v>35</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -3429,13 +3510,13 @@
         <v>35</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -3443,13 +3524,13 @@
         <v>35</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -3457,13 +3538,13 @@
         <v>35</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -3471,13 +3552,13 @@
         <v>35</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -3485,13 +3566,13 @@
         <v>35</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -3524,30 +3605,30 @@
     </row>
     <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
     </row>
     <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -3622,24 +3703,24 @@
     </row>
     <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
     </row>
     <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>2</v>
@@ -3707,55 +3788,55 @@
         <v>140</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
     </row>
     <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
     </row>
     <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
     </row>
     <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
     </row>
     <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -3777,7 +3858,7 @@
         <v>121</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>0</v>
@@ -3819,13 +3900,13 @@
         <v>121</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
     </row>
     <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -3847,13 +3928,13 @@
         <v>479</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -3861,13 +3942,13 @@
         <v>479</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -3875,13 +3956,13 @@
         <v>479</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -3931,13 +4012,13 @@
         <v>479</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -3945,13 +4026,13 @@
         <v>479</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C44" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -3959,13 +4040,13 @@
         <v>479</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
     </row>
     <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -3973,13 +4054,13 @@
         <v>479</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -3987,13 +4068,13 @@
         <v>479</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -4001,13 +4082,13 @@
         <v>479</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="C48" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -4015,13 +4096,13 @@
         <v>479</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -4029,13 +4110,13 @@
         <v>479</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -4043,13 +4124,13 @@
         <v>479</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C51" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
     </row>
     <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -4057,13 +4138,13 @@
         <v>479</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C52" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -4071,13 +4152,13 @@
         <v>479</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
     </row>
     <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -4085,13 +4166,13 @@
         <v>479</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="C54" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -4099,13 +4180,13 @@
         <v>479</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -4113,13 +4194,13 @@
         <v>479</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="C56" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -4127,13 +4208,13 @@
         <v>479</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="C57" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -4141,13 +4222,13 @@
         <v>479</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
     </row>
     <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -4155,13 +4236,13 @@
         <v>479</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C59" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -4169,13 +4250,13 @@
         <v>479</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -4183,13 +4264,13 @@
         <v>479</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="C61" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -4197,13 +4278,13 @@
         <v>479</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="C62" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -4407,7 +4488,7 @@
         <v>6</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C77" s="14" t="s">
         <v>19</v>
@@ -4421,7 +4502,7 @@
         <v>6</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C78" s="14" t="s">
         <v>19</v>
@@ -4463,13 +4544,13 @@
         <v>6</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C81" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -4631,7 +4712,7 @@
         <v>6</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C93" s="14" t="s">
         <v>19</v>
@@ -4701,7 +4782,7 @@
         <v>6</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C98" s="14" t="s">
         <v>19</v>
@@ -4757,13 +4838,13 @@
         <v>6</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C102" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>491</v>
+        <v>937</v>
       </c>
     </row>
     <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -4827,7 +4908,7 @@
         <v>6</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C107" s="14" t="s">
         <v>19</v>
@@ -4897,13 +4978,13 @@
         <v>6</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="C112" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D112" s="14" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
     </row>
     <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -4939,13 +5020,13 @@
         <v>6</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="C115" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
     </row>
     <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -4981,7 +5062,7 @@
         <v>6</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C118" s="14" t="s">
         <v>19</v>
@@ -4990,32 +5071,32 @@
         <v>402</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="C119" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="C120" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
     </row>
     <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -5023,7 +5104,7 @@
         <v>6</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C121" s="14" t="s">
         <v>19</v>
@@ -5065,7 +5146,7 @@
         <v>6</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="C124" s="14" t="s">
         <v>19</v>
@@ -5093,13 +5174,13 @@
         <v>6</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="C126" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D126" s="14" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -5107,13 +5188,13 @@
         <v>6</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D127" s="14" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -5121,13 +5202,13 @@
         <v>6</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="C128" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D128" s="14" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
     </row>
     <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -5135,16 +5216,16 @@
         <v>6</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="C129" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D129" s="14" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="14" t="s">
         <v>6</v>
       </c>
@@ -5303,13 +5384,13 @@
         <v>6</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="C141" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
     </row>
     <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -5368,7 +5449,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="14" t="s">
         <v>6</v>
       </c>
@@ -5382,18 +5463,18 @@
         <v>289</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="C147" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
     </row>
     <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -5415,13 +5496,13 @@
         <v>6</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="C149" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
     </row>
     <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -5429,13 +5510,13 @@
         <v>6</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="C150" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D150" s="14" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -5443,13 +5524,13 @@
         <v>6</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="C151" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
     <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -5499,13 +5580,13 @@
         <v>6</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="C155" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D155" s="14" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -5597,13 +5678,13 @@
         <v>6</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="C162" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D162" s="14" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
     </row>
     <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -5695,13 +5776,13 @@
         <v>6</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="C169" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D169" s="14" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
     </row>
     <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -5760,18 +5841,18 @@
         <v>439</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="C174" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D174" s="14" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
     </row>
     <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -5788,7 +5869,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="14" t="s">
         <v>6</v>
       </c>
@@ -5802,18 +5883,18 @@
         <v>280</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B177" s="15" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C177" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D177" s="14" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -5824,13 +5905,13 @@
         <v>306</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D178" s="14" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="14" t="s">
         <v>6</v>
       </c>
@@ -5844,7 +5925,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="14" t="s">
         <v>6</v>
       </c>
@@ -5858,7 +5939,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="14" t="s">
         <v>6</v>
       </c>
@@ -5872,18 +5953,18 @@
         <v>433</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="C182" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D182" s="14" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -5905,13 +5986,13 @@
         <v>6</v>
       </c>
       <c r="B184" s="15" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="C184" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D184" s="14" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
     </row>
     <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -5975,13 +6056,13 @@
         <v>6</v>
       </c>
       <c r="B189" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="C189" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D189" s="14" t="s">
         <v>488</v>
-      </c>
-      <c r="C189" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D189" s="14" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6017,13 +6098,13 @@
         <v>6</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="C192" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D192" s="14" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
     </row>
     <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6031,13 +6112,13 @@
         <v>6</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="C193" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D193" s="14" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6054,7 +6135,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="14" t="s">
         <v>6</v>
       </c>
@@ -6073,13 +6154,13 @@
         <v>6</v>
       </c>
       <c r="B196" s="15" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="C196" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D196" s="14" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
     </row>
     <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6087,13 +6168,13 @@
         <v>6</v>
       </c>
       <c r="B197" s="15" t="s">
+        <v>860</v>
+      </c>
+      <c r="C197" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D197" s="14" t="s">
         <v>865</v>
-      </c>
-      <c r="C197" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D197" s="14" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6101,13 +6182,13 @@
         <v>6</v>
       </c>
       <c r="B198" s="15" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="C198" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D198" s="14" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6115,13 +6196,13 @@
         <v>6</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="C199" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D199" s="14" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
     </row>
     <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6129,13 +6210,13 @@
         <v>6</v>
       </c>
       <c r="B200" s="15" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="C200" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D200" s="14" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
     </row>
     <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6143,13 +6224,13 @@
         <v>6</v>
       </c>
       <c r="B201" s="15" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="C201" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D201" s="14" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
     </row>
     <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6157,13 +6238,13 @@
         <v>6</v>
       </c>
       <c r="B202" s="15" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="C202" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D202" s="14" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6171,13 +6252,13 @@
         <v>6</v>
       </c>
       <c r="B203" s="15" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="C203" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D203" s="14" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6185,13 +6266,13 @@
         <v>6</v>
       </c>
       <c r="B204" s="15" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="C204" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D204" s="14" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6199,13 +6280,13 @@
         <v>6</v>
       </c>
       <c r="B205" s="15" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="C205" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D205" s="14" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
     </row>
     <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6241,13 +6322,13 @@
         <v>6</v>
       </c>
       <c r="B208" s="15" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="C208" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D208" s="14" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
     </row>
     <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6255,13 +6336,13 @@
         <v>6</v>
       </c>
       <c r="B209" s="15" t="s">
-        <v>498</v>
+        <v>927</v>
       </c>
       <c r="C209" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D209" s="14" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6269,13 +6350,13 @@
         <v>6</v>
       </c>
       <c r="B210" s="15" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C210" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D210" s="14" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6283,13 +6364,13 @@
         <v>6</v>
       </c>
       <c r="B211" s="15" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C211" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D211" s="14" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6306,7 +6387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="14" t="s">
         <v>6</v>
       </c>
@@ -6325,13 +6406,13 @@
         <v>6</v>
       </c>
       <c r="B214" s="15" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="C214" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D214" s="14" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6348,18 +6429,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B216" s="15" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="C216" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D216" s="14" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6367,13 +6448,13 @@
         <v>6</v>
       </c>
       <c r="B217" s="15" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="C217" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D217" s="14" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6381,13 +6462,13 @@
         <v>6</v>
       </c>
       <c r="B218" s="15" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C218" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D218" s="14" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6395,27 +6476,27 @@
         <v>6</v>
       </c>
       <c r="B219" s="15" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="C219" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D219" s="14" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B220" s="15" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C220" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D220" s="14" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6423,13 +6504,13 @@
         <v>6</v>
       </c>
       <c r="B221" s="15" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C221" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D221" s="14" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6437,13 +6518,13 @@
         <v>6</v>
       </c>
       <c r="B222" s="15" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="C222" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D222" s="14" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
     </row>
     <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6465,13 +6546,13 @@
         <v>6</v>
       </c>
       <c r="B224" s="15" t="s">
-        <v>487</v>
+        <v>925</v>
       </c>
       <c r="C224" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D224" s="14" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6479,13 +6560,13 @@
         <v>6</v>
       </c>
       <c r="B225" s="15" t="s">
-        <v>497</v>
+        <v>926</v>
       </c>
       <c r="C225" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D225" s="14" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6499,7 +6580,7 @@
         <v>19</v>
       </c>
       <c r="D226" s="14" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
     </row>
     <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6513,7 +6594,7 @@
         <v>19</v>
       </c>
       <c r="D227" s="14" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
     </row>
     <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6521,13 +6602,13 @@
         <v>6</v>
       </c>
       <c r="B228" s="15" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C228" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D228" s="14" t="s">
-        <v>493</v>
+        <v>939</v>
       </c>
     </row>
     <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6549,13 +6630,13 @@
         <v>6</v>
       </c>
       <c r="B230" s="15" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="C230" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D230" s="14" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6563,13 +6644,13 @@
         <v>6</v>
       </c>
       <c r="B231" s="15" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C231" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D231" s="14" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6605,13 +6686,13 @@
         <v>7</v>
       </c>
       <c r="B234" s="15" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="C234" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D234" s="14" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
     </row>
     <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6661,13 +6742,13 @@
         <v>7</v>
       </c>
       <c r="B238" s="15" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C238" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D238" s="14" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6675,13 +6756,13 @@
         <v>7</v>
       </c>
       <c r="B239" s="15" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C239" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D239" s="14" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6717,13 +6798,13 @@
         <v>7</v>
       </c>
       <c r="B242" s="15" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C242" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D242" s="14" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -6731,7 +6812,7 @@
         <v>7</v>
       </c>
       <c r="B243" s="15" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="C243" s="14" t="s">
         <v>19</v>
@@ -6787,13 +6868,13 @@
         <v>7</v>
       </c>
       <c r="B247" s="15" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="C247" s="14" t="s">
         <v>73</v>
       </c>
       <c r="D247" s="14" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7025,13 +7106,13 @@
         <v>7</v>
       </c>
       <c r="B264" s="15" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="C264" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D264" s="14" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7039,13 +7120,13 @@
         <v>7</v>
       </c>
       <c r="B265" s="15" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C265" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D265" s="14" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7137,13 +7218,13 @@
         <v>7</v>
       </c>
       <c r="B272" s="15" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="C272" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D272" s="14" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
     </row>
     <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7193,13 +7274,13 @@
         <v>7</v>
       </c>
       <c r="B276" s="15" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="C276" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D276" s="14" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
     </row>
     <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7207,13 +7288,13 @@
         <v>7</v>
       </c>
       <c r="B277" s="15" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="C277" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D277" s="14" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
     </row>
     <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7221,13 +7302,13 @@
         <v>7</v>
       </c>
       <c r="B278" s="15" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="C278" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D278" s="14" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
     </row>
     <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7263,13 +7344,13 @@
         <v>7</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="C281" s="14" t="s">
         <v>76</v>
       </c>
       <c r="D281" s="14" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7333,13 +7414,13 @@
         <v>7</v>
       </c>
       <c r="B286" s="15" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="C286" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D286" s="14" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
     </row>
     <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7375,41 +7456,41 @@
         <v>7</v>
       </c>
       <c r="B289" s="15" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="C289" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D289" s="14" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B290" s="15" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="C290" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D290" s="14" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B291" s="15" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="C291" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D291" s="14" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7417,13 +7498,13 @@
         <v>7</v>
       </c>
       <c r="B292" s="15" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="C292" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D292" s="14" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
     </row>
     <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7445,13 +7526,13 @@
         <v>7</v>
       </c>
       <c r="B294" s="15" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="C294" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D294" s="14" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
     </row>
     <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7459,13 +7540,13 @@
         <v>7</v>
       </c>
       <c r="B295" s="15" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="C295" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D295" s="14" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
     </row>
     <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7473,7 +7554,7 @@
         <v>7</v>
       </c>
       <c r="B296" s="15" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="C296" s="14" t="s">
         <v>19</v>
@@ -7487,7 +7568,7 @@
         <v>7</v>
       </c>
       <c r="B297" s="15" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="C297" s="14" t="s">
         <v>19</v>
@@ -7501,7 +7582,7 @@
         <v>7</v>
       </c>
       <c r="B298" s="15" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="C298" s="14" t="s">
         <v>19</v>
@@ -7599,13 +7680,13 @@
         <v>7</v>
       </c>
       <c r="B305" s="16" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="C305" s="14" t="s">
         <v>73</v>
       </c>
       <c r="D305" s="14" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7613,7 +7694,7 @@
         <v>7</v>
       </c>
       <c r="B306" s="15" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="C306" s="14" t="s">
         <v>0</v>
@@ -7787,7 +7868,7 @@
         <v>0</v>
       </c>
       <c r="D318" s="14" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
     <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7795,27 +7876,27 @@
         <v>7</v>
       </c>
       <c r="B319" s="15" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="C319" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D319" s="14" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B320" s="15" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="C320" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D320" s="14" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7823,13 +7904,13 @@
         <v>7</v>
       </c>
       <c r="B321" s="15" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="C321" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D321" s="14" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
     </row>
     <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7851,7 +7932,7 @@
         <v>7</v>
       </c>
       <c r="B323" s="15" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C323" s="14" t="s">
         <v>19</v>
@@ -7865,27 +7946,27 @@
         <v>7</v>
       </c>
       <c r="B324" s="15" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C324" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D324" s="14" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B325" s="15" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="C325" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D325" s="14" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7893,13 +7974,13 @@
         <v>7</v>
       </c>
       <c r="B326" s="15" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="C326" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D326" s="14" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7907,7 +7988,7 @@
         <v>7</v>
       </c>
       <c r="B327" s="15" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="C327" s="14" t="s">
         <v>19</v>
@@ -7921,13 +8002,13 @@
         <v>7</v>
       </c>
       <c r="B328" s="15" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="C328" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D328" s="14" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7935,13 +8016,13 @@
         <v>7</v>
       </c>
       <c r="B329" s="15" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="C329" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D329" s="14" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7949,13 +8030,13 @@
         <v>7</v>
       </c>
       <c r="B330" s="15" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C330" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D330" s="14" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7963,7 +8044,7 @@
         <v>7</v>
       </c>
       <c r="B331" s="15" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="C331" s="14" t="s">
         <v>19</v>
@@ -7977,13 +8058,13 @@
         <v>7</v>
       </c>
       <c r="B332" s="15" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="C332" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D332" s="14" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
     </row>
     <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -7991,7 +8072,7 @@
         <v>7</v>
       </c>
       <c r="B333" s="15" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C333" s="14" t="s">
         <v>19</v>
@@ -8005,13 +8086,13 @@
         <v>7</v>
       </c>
       <c r="B334" s="15" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C334" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D334" s="14" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -8019,7 +8100,7 @@
         <v>7</v>
       </c>
       <c r="B335" s="15" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C335" s="14" t="s">
         <v>19</v>
@@ -8033,13 +8114,13 @@
         <v>7</v>
       </c>
       <c r="B336" s="15" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="C336" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D336" s="14" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
     </row>
     <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -8187,13 +8268,13 @@
         <v>164</v>
       </c>
       <c r="B347" s="15" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="C347" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D347" s="14" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
     </row>
     <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -8201,7 +8282,7 @@
         <v>233</v>
       </c>
       <c r="B348" s="15" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="C348" s="14" t="s">
         <v>19</v>
@@ -8229,7 +8310,7 @@
         <v>233</v>
       </c>
       <c r="B350" s="15" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="C350" s="14" t="s">
         <v>19</v>
@@ -8240,194 +8321,194 @@
     </row>
     <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="14" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="B351" s="15" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="C351" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D351" s="14" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
     </row>
     <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="14" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="B352" s="15" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="C352" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D352" s="14" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
     </row>
     <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="14" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B353" s="15" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="C353" s="14"/>
       <c r="D353" s="14"/>
     </row>
     <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="14" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B354" s="15" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="C354" s="14" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="D354" s="14" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
     </row>
     <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="14" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B355" s="15" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="C355" s="14"/>
       <c r="D355" s="14"/>
     </row>
     <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="14" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B356" s="15" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="C356" s="14"/>
       <c r="D356" s="14"/>
     </row>
     <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="B357" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="C357" s="14" t="s">
+        <v>631</v>
+      </c>
+      <c r="D357" s="14" t="s">
         <v>633</v>
-      </c>
-      <c r="B357" s="15" t="s">
-        <v>635</v>
-      </c>
-      <c r="C357" s="14" t="s">
-        <v>636</v>
-      </c>
-      <c r="D357" s="14" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="14" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B358" s="15" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="C358" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D358" s="14" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="14" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B359" s="15" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="C359" s="14" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="D359" s="14" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="14" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B360" s="15" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="C360" s="14" t="s">
         <v>63</v>
       </c>
       <c r="D360" s="14" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
     </row>
     <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="14" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B361" s="15" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="C361" s="14" t="s">
         <v>63</v>
       </c>
       <c r="D361" s="14" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="14" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B362" s="15" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="C362" s="14" t="s">
         <v>63</v>
       </c>
       <c r="D362" s="14" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="14" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B363" s="15" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="C363" s="14" t="s">
         <v>63</v>
       </c>
       <c r="D363" s="14" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
     </row>
     <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="14" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B364" s="15" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="C364" s="14" t="s">
         <v>63</v>
       </c>
       <c r="D364" s="14" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="14" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B365" s="15" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="C365" s="14"/>
       <c r="D365" s="14"/>
@@ -8440,13 +8521,13 @@
         <v>6</v>
       </c>
       <c r="B367" s="9" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="C367" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D367" s="5" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
     </row>
     <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -8454,13 +8535,13 @@
         <v>6</v>
       </c>
       <c r="B368" s="9" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="C368" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D368" s="5" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
     </row>
     <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -8468,13 +8549,13 @@
         <v>6</v>
       </c>
       <c r="B369" s="9" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="C369" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D369" s="5" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
     </row>
     <row r="370" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -8482,13 +8563,13 @@
         <v>6</v>
       </c>
       <c r="B370" s="9" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="C370" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D370" s="5" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
     </row>
     <row r="371" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -8496,13 +8577,13 @@
         <v>6</v>
       </c>
       <c r="B371" s="9" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="C371" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D371" s="5" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
     </row>
     <row r="372" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -8510,13 +8591,13 @@
         <v>6</v>
       </c>
       <c r="B372" s="9" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="C372" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D372" s="5" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
     </row>
     <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -8524,13 +8605,13 @@
         <v>6</v>
       </c>
       <c r="B373" s="9" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="C373" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D373" s="5" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
     </row>
     <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -8538,13 +8619,13 @@
         <v>6</v>
       </c>
       <c r="B374" s="9" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="C374" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D374" s="5" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
     </row>
     <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -8552,13 +8633,13 @@
         <v>6</v>
       </c>
       <c r="B375" s="9" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="C375" s="14" t="s">
         <v>76</v>
       </c>
       <c r="D375" s="5" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
     </row>
     <row r="376" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -8566,13 +8647,13 @@
         <v>6</v>
       </c>
       <c r="B376" s="9" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="C376" s="14" t="s">
         <v>76</v>
       </c>
       <c r="D376" s="5" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
     </row>
     <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -8580,13 +8661,13 @@
         <v>6</v>
       </c>
       <c r="B377" s="9" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="C377" s="14" t="s">
         <v>76</v>
       </c>
       <c r="D377" s="5" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
     </row>
     <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -8594,19 +8675,21 @@
         <v>6</v>
       </c>
       <c r="B378" s="9" t="s">
-        <v>919</v>
-      </c>
-      <c r="C378" s="14"/>
+        <v>914</v>
+      </c>
+      <c r="C378" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="D378" s="5" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B379" s="15" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="C379" s="14" t="s">
         <v>19</v>
@@ -8615,11 +8698,139 @@
         <v>417</v>
       </c>
     </row>
+    <row r="380" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A380" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B380" s="9" t="s">
+        <v>916</v>
+      </c>
+      <c r="C380" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D380" s="5" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A381" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B381" s="9" t="s">
+        <v>919</v>
+      </c>
+      <c r="C381" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D381" s="5" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A382" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B382" s="9" t="s">
+        <v>921</v>
+      </c>
+      <c r="D382" s="5" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A383" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B383" s="9" t="s">
+        <v>923</v>
+      </c>
+      <c r="C383" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D383" s="5" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A384" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B384" s="9" t="s">
+        <v>936</v>
+      </c>
+      <c r="C384" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D384" s="5" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A385" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B385" s="15" t="s">
+        <v>938</v>
+      </c>
+      <c r="C385" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D385" s="14" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A386" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B386" s="15" t="s">
+        <v>943</v>
+      </c>
+      <c r="C386" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D386" s="14" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B387" s="9" t="s">
+        <v>948</v>
+      </c>
+      <c r="C387" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D387" s="5" t="s">
+        <v>944</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D378" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}">
+  <autoFilter ref="A1:D387" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}">
     <filterColumn colId="1">
       <filters>
-        <filter val="df.fillna(val)"/>
+        <filter val="df.drop_duplicates().reset_index()"/>
+        <filter val="df.drop_duplicates().reset_index(drop=True)"/>
+        <filter val="df.index"/>
+        <filter val="df.index.tolist()"/>
+        <filter val="df.reset_index()"/>
+        <filter val="df.sample(int).index"/>
+        <filter val="df.set_index('colname', inplace=True)"/>
+        <filter val="df.sort_index()"/>
+        <filter val="df.sort_index(ascending=falce)"/>
+        <filter val="df.sort_index(axis=1)"/>
+        <filter val="df.sort_index(inplace=True)"/>
+        <filter val="df['colname'].index"/>
+        <filter val="Index"/>
+        <filter val="list.index(listitem)"/>
+        <filter val="list.insert(index, val)"/>
+        <filter val="pd.concat([df1, df2], ignore_index=True)"/>
+        <filter val="pd.DataFrame.from_dict({'rowindex': {'colindex': 'val'}})"/>
+        <filter val="pd.DateTimeIndex(df['colname']).month"/>
+        <filter val="sorted(list, key=lambda name: name[index])"/>
+        <filter val="str.find('val', startindex, endindex)"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -8630,14 +8841,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F587FCC2-7934-4352-99C9-11C970FBF59E}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D55" sqref="A1:D55"/>
+      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -8663,343 +8874,343 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B12" s="15" t="s">
+        <v>646</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>844</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>651</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>849</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>848</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>587</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>853</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>6</v>
       </c>
@@ -9010,10 +9221,10 @@
         <v>398</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>6</v>
       </c>
@@ -9021,13 +9232,13 @@
         <v>330</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
         <v>6</v>
       </c>
@@ -9035,27 +9246,27 @@
         <v>330</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>6</v>
       </c>
@@ -9063,13 +9274,13 @@
         <v>404</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>6</v>
       </c>
@@ -9077,13 +9288,13 @@
         <v>404</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>6</v>
       </c>
@@ -9091,232 +9302,232 @@
         <v>404</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C33" s="15" t="s">
+        <v>819</v>
+      </c>
+      <c r="D33" s="14"/>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>856</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>813</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>822</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>820</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>823</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>824</v>
       </c>
-      <c r="D33" s="14"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>861</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>818</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="C35" s="15" t="s">
+      <c r="D38" s="14" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>825</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>826</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="C41" s="15" t="s">
         <v>827</v>
       </c>
-      <c r="D35" s="14" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>825</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>529</v>
-      </c>
-      <c r="C37" s="15" t="s">
+      <c r="D41" s="14" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="C43" s="15" t="s">
         <v>828</v>
       </c>
-      <c r="D37" s="14" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>529</v>
-      </c>
-      <c r="C38" s="15" t="s">
+      <c r="D43" s="14" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="C44" s="15" t="s">
         <v>829</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>529</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>830</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>529</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>831</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>529</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>832</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>529</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>526</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>529</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>833</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>530</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>834</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -9324,99 +9535,188 @@
         <v>6</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="D49" s="14"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B50" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>816</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>817</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>566</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>589</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>809</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>810</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>929</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>928</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>930</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="C50" s="15" t="s">
-        <v>821</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" s="14" t="s">
+      <c r="C59" s="9" t="s">
+        <v>940</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="C51" s="15" t="s">
-        <v>822</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>570</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>571</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>570</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>594</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>512</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>814</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>512</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>815</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>684</v>
+      <c r="C60" s="9" t="s">
+        <v>941</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>942</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>947</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D55" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}">
+  <autoFilter ref="A1:D59" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="pd.to_datetime()"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D55">
       <sortCondition ref="A1:A55"/>
     </sortState>
@@ -9485,10 +9785,10 @@
     </row>
     <row r="3" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
     </row>
   </sheetData>
@@ -9576,22 +9876,22 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" s="6" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="B14" s="7" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
     </row>
   </sheetData>
@@ -9625,18 +9925,18 @@
     </row>
     <row r="2" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
   </sheetData>

--- a/Конспект_Python.xlsx
+++ b/Конспект_Python.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\my_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5210AE4E-32B1-41B9-971C-93852E8BFAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8E22C4-263F-44BE-A5AB-3A065F231078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19140" yWindow="2520" windowWidth="17830" windowHeight="15410" tabRatio="728" xr2:uid="{65C49AB7-91AD-4F1F-B814-EFF7DAC5AF74}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="728" xr2:uid="{65C49AB7-91AD-4F1F-B814-EFF7DAC5AF74}"/>
   </bookViews>
   <sheets>
     <sheet name="Операторы" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Атрибуты!$A$1:$D$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Генераторы списков'!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Операторы!$A$1:$D$387</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Операторы!$A$1:$D$389</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Функции!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="955">
   <si>
     <t>Функция</t>
   </si>
@@ -1591,9 +1591,6 @@
   </si>
   <si>
     <t>pd.merge(dfs['DFname1'], dfs['Dfname2'], how=, on=, suffixes=)</t>
-  </si>
-  <si>
-    <t>Сшивает таблицы по определенным параметрам</t>
   </si>
   <si>
     <t>print()</t>
@@ -2415,9 +2412,6 @@
     <t>df.reset_index()</t>
   </si>
   <si>
-    <t>Обновляет индексы по всему ДатаФрейму выстраивая их по порядку от 0</t>
-  </si>
-  <si>
     <t>df.drop_duplicates().reset_index()</t>
   </si>
   <si>
@@ -2715,12 +2709,6 @@
     <t>pd.concat([df1, df2], ignore_index=True)</t>
   </si>
   <si>
-    <t>pd.pivot_table()</t>
-  </si>
-  <si>
-    <t>Делает сводную таблицу РАЗОБРАТЬСЯ!!!!</t>
-  </si>
-  <si>
     <t>Лучше использовать df.shape[0] Возвращает количество строк в DataFrame</t>
   </si>
   <si>
@@ -2944,6 +2932,36 @@
   </si>
   <si>
     <t>pd.DatetimeIndex(df['colname']).month</t>
+  </si>
+  <si>
+    <t>ВПР,ит две таблицы по указанному столбцу</t>
+  </si>
+  <si>
+    <t>Сшивает таблицы по определенным параметрам. Старый формат</t>
+  </si>
+  <si>
+    <t>df.pivot_table(index=['colname1', 'colname2'], columns='colname3', values='colname4', aggfunc='sum')</t>
+  </si>
+  <si>
+    <t>Создает сводную таблицу</t>
+  </si>
+  <si>
+    <t>Обновляет индексы по всему ДатаФрейму выстраивая их по порядку от 0, убирает мультииндекс</t>
+  </si>
+  <si>
+    <t>df.groupby(['colname1','colname2']).agg({'colname3':'sum'})</t>
+  </si>
+  <si>
+    <t>Сгруппировать таблицу по нескольким столбцам и применить функцию на расчетный столбец colname3</t>
+  </si>
+  <si>
+    <t>df['colname'] = df['colname'].drop_duplicates()</t>
+  </si>
+  <si>
+    <t>Поставить NaN вместо дубликатов в конкретном столбце</t>
+  </si>
+  <si>
+    <t>df1.merge(df2, on='colname', how='left)</t>
   </si>
 </sst>
 </file>
@@ -3054,7 +3072,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3088,6 +3106,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3402,14 +3422,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}">
-  <sheetPr codeName="Лист1" filterMode="1">
+  <sheetPr codeName="Лист1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D387"/>
+  <dimension ref="A1:D389"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B388" sqref="B388"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -3435,7 +3455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>129</v>
       </c>
@@ -3449,7 +3469,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>129</v>
       </c>
@@ -3463,7 +3483,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>129</v>
       </c>
@@ -3477,7 +3497,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>129</v>
       </c>
@@ -3491,91 +3511,91 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>549</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>553</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>557</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>35</v>
       </c>
@@ -3589,7 +3609,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>35</v>
       </c>
@@ -3603,35 +3623,35 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>117</v>
       </c>
@@ -3645,7 +3665,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>117</v>
       </c>
@@ -3659,7 +3679,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>131</v>
       </c>
@@ -3673,7 +3693,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>131</v>
       </c>
@@ -3687,7 +3707,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>131</v>
       </c>
@@ -3701,33 +3721,33 @@
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="14"/>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>140</v>
       </c>
@@ -3741,7 +3761,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>140</v>
       </c>
@@ -3755,7 +3775,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>140</v>
       </c>
@@ -3769,7 +3789,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>140</v>
       </c>
@@ -3783,63 +3803,63 @@
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>140</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>795</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="14" t="s">
+        <v>734</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>735</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>734</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>881</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
+        <v>734</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>737</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>797</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
-        <v>735</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>736</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
-        <v>735</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>885</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
-        <v>735</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>738</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>15</v>
       </c>
@@ -3853,12 +3873,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>121</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>0</v>
@@ -3867,7 +3887,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
         <v>121</v>
       </c>
@@ -3881,7 +3901,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>121</v>
       </c>
@@ -3895,21 +3915,21 @@
         <v>204</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>121</v>
       </c>
       <c r="B35" s="15" t="s">
+        <v>708</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>709</v>
       </c>
-      <c r="C35" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>121</v>
       </c>
@@ -3923,49 +3943,49 @@
         <v>202</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B37" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="14" t="s">
         <v>563</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B39" s="15" t="s">
+        <v>653</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>630</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>654</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>631</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
         <v>479</v>
       </c>
@@ -3979,7 +3999,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
         <v>479</v>
       </c>
@@ -3993,7 +4013,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
         <v>479</v>
       </c>
@@ -4007,287 +4027,287 @@
         <v>483</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B44" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="14" t="s">
         <v>592</v>
       </c>
-      <c r="C44" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B46" s="15" t="s">
+        <v>656</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="14" t="s">
         <v>657</v>
       </c>
-      <c r="C46" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B47" s="15" t="s">
+        <v>669</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="14" t="s">
         <v>670</v>
       </c>
-      <c r="C47" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C48" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B49" s="14" t="s">
+        <v>620</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="14" t="s">
         <v>621</v>
       </c>
-      <c r="C49" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B50" s="15" t="s">
+        <v>645</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="14" t="s">
         <v>646</v>
       </c>
-      <c r="C50" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B51" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="C51" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B52" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="14" t="s">
         <v>582</v>
       </c>
-      <c r="C52" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C54" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B55" s="15" t="s">
+        <v>598</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="14" t="s">
         <v>599</v>
       </c>
-      <c r="C55" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C56" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B57" s="15" t="s">
+        <v>625</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="14" t="s">
         <v>626</v>
       </c>
-      <c r="C57" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B58" s="15" t="s">
+        <v>616</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="14" t="s">
         <v>617</v>
       </c>
-      <c r="C58" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B59" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="14" t="s">
         <v>607</v>
       </c>
-      <c r="C59" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="14" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B60" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="14" t="s">
         <v>596</v>
       </c>
-      <c r="C60" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C61" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
         <v>479</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C62" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="s">
         <v>372</v>
       </c>
@@ -4301,7 +4321,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
         <v>372</v>
       </c>
@@ -4315,7 +4335,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="s">
         <v>372</v>
       </c>
@@ -4329,7 +4349,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
         <v>372</v>
       </c>
@@ -4343,7 +4363,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="s">
         <v>372</v>
       </c>
@@ -4357,7 +4377,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="s">
         <v>372</v>
       </c>
@@ -4371,7 +4391,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
         <v>249</v>
       </c>
@@ -4385,7 +4405,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="14" t="s">
         <v>249</v>
       </c>
@@ -4399,7 +4419,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="14" t="s">
         <v>249</v>
       </c>
@@ -4413,7 +4433,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="14" t="s">
         <v>249</v>
       </c>
@@ -4427,7 +4447,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="s">
         <v>249</v>
       </c>
@@ -4441,7 +4461,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="14" t="s">
         <v>249</v>
       </c>
@@ -4455,7 +4475,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="14" t="s">
         <v>249</v>
       </c>
@@ -4469,7 +4489,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="s">
         <v>249</v>
       </c>
@@ -4483,592 +4503,592 @@
         <v>254</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B77" s="15" t="s">
+        <v>904</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="15" t="s">
         <v>545</v>
       </c>
-      <c r="C77" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D77" s="14" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B78" s="15" t="s">
+      <c r="C79" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>890</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="C90" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="C92" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" s="14" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D97" s="14" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D98" s="14" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>905</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D100" s="14" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>906</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" s="15" t="s">
         <v>546</v>
       </c>
-      <c r="C78" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D78" s="14" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B79" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="C79" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D79" s="14" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B80" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D80" s="14" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B81" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="C81" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D81" s="14" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>466</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D82" s="14" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B83" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D83" s="14" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B84" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D84" s="14" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B85" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D85" s="14" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B86" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D86" s="14" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B87" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="C87" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D87" s="14" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B88" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D88" s="14" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B89" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="C89" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D89" s="14" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B90" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="C90" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D90" s="14" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B91" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="C91" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D91" s="14" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B92" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C92" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D92" s="14" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B93" s="15" t="s">
-        <v>573</v>
-      </c>
-      <c r="C93" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D93" s="14" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B94" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="C94" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D94" s="14" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B95" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="C95" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D95" s="14" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B96" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="C96" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D96" s="14" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B97" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="C97" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D97" s="14" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B98" s="15" t="s">
+      <c r="C102" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D102" s="14" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D103" s="14" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D104" s="14" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D105" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D106" s="14" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D107" s="14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D108" s="14" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D109" s="14" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="C110" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D110" s="14" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" s="15" t="s">
         <v>547</v>
       </c>
-      <c r="C98" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D98" s="14" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B99" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="C99" s="14" t="s">
+      <c r="C111" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D111" s="14" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="C112" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D112" s="14" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="C113" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D113" s="14" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="C114" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D114" s="14" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="C115" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D115" s="14" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116" s="15" t="s">
+        <v>860</v>
+      </c>
+      <c r="C116" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D116" s="14" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="C117" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D99" s="14" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B100" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="C100" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D100" s="14" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B101" s="15" t="s">
-        <v>445</v>
-      </c>
-      <c r="C101" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D101" s="14" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B102" s="15" t="s">
-        <v>489</v>
-      </c>
-      <c r="C102" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D102" s="14" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B103" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="C103" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D103" s="14" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B104" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="C104" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D104" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B105" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="C105" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D105" s="14" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B106" s="15" t="s">
-        <v>467</v>
-      </c>
-      <c r="C106" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D106" s="14" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B107" s="15" t="s">
-        <v>548</v>
-      </c>
-      <c r="C107" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D107" s="14" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B108" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="C108" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D108" s="14" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B109" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="C109" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D109" s="14" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B110" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="C110" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D110" s="14" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B111" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="C111" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D111" s="14" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B112" s="15" t="s">
-        <v>862</v>
-      </c>
-      <c r="C112" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D112" s="14" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B113" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="C113" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D113" s="14" t="s">
+      <c r="D117" s="14" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B114" s="15" t="s">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="C114" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D114" s="14" t="s">
+      <c r="C118" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D118" s="14" t="s">
         <v>301</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B115" s="15" t="s">
-        <v>866</v>
-      </c>
-      <c r="C115" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D115" s="14" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B116" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="C116" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D116" s="14" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B117" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C117" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D117" s="14" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B118" s="15" t="s">
-        <v>509</v>
-      </c>
-      <c r="C118" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D118" s="14" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -5076,13 +5096,13 @@
         <v>6</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>773</v>
+        <v>864</v>
       </c>
       <c r="C119" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>775</v>
+        <v>865</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -5090,363 +5110,363 @@
         <v>6</v>
       </c>
       <c r="B120" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="C120" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D120" s="14" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="C121" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D121" s="14" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="C122" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D122" s="14" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123" s="15" t="s">
+        <v>771</v>
+      </c>
+      <c r="C123" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D123" s="14" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>772</v>
+      </c>
+      <c r="C124" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D124" s="14" t="s">
         <v>774</v>
       </c>
-      <c r="C120" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D120" s="14" t="s">
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="C125" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D125" s="14" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B126" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="C126" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D126" s="14" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="C127" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D127" s="14" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128" s="15" t="s">
+        <v>764</v>
+      </c>
+      <c r="C128" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D128" s="14" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="C129" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D129" s="14" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" s="15" t="s">
+        <v>762</v>
+      </c>
+      <c r="C130" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D130" s="14" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B131" s="15" t="s">
+        <v>740</v>
+      </c>
+      <c r="C131" s="14" t="s">
+        <v>741</v>
+      </c>
+      <c r="D131" s="14" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B132" s="15" t="s">
+        <v>766</v>
+      </c>
+      <c r="C132" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D132" s="14" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B121" s="15" t="s">
-        <v>510</v>
-      </c>
-      <c r="C121" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D121" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B122" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="C122" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D122" s="14" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B123" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="C123" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D123" s="14" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B124" s="15" t="s">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B133" s="15" t="s">
         <v>765</v>
       </c>
-      <c r="C124" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D124" s="14" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B125" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="C125" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D125" s="14" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B126" s="15" t="s">
-        <v>763</v>
-      </c>
-      <c r="C126" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D126" s="14" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B127" s="15" t="s">
-        <v>741</v>
-      </c>
-      <c r="C127" s="14" t="s">
-        <v>742</v>
-      </c>
-      <c r="D127" s="14" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B128" s="15" t="s">
+      <c r="C133" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D133" s="14" t="s">
         <v>767</v>
       </c>
-      <c r="C128" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D128" s="14" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B129" s="15" t="s">
-        <v>766</v>
-      </c>
-      <c r="C129" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D129" s="14" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B130" s="15" t="s">
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B134" s="15" t="s">
         <v>416</v>
       </c>
-      <c r="C130" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D130" s="14" t="s">
+      <c r="C134" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D134" s="14" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B131" s="15" t="s">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135" s="15" t="s">
+        <v>911</v>
+      </c>
+      <c r="C135" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D135" s="14" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B136" s="15" t="s">
         <v>418</v>
       </c>
-      <c r="C131" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D131" s="14" t="s">
+      <c r="C136" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D136" s="14" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B132" s="15" t="s">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="C132" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D132" s="14" t="s">
+      <c r="C137" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D137" s="14" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B133" s="15" t="s">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B138" s="15" t="s">
+        <v>950</v>
+      </c>
+      <c r="C138" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D138" s="14" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B139" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="C133" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D133" s="14" t="s">
+      <c r="C139" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D139" s="14" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B134" s="15" t="s">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B140" s="15" t="s">
         <v>468</v>
       </c>
-      <c r="C134" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D134" s="14" t="s">
+      <c r="C140" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D140" s="14" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B135" s="15" t="s">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B141" s="15" t="s">
         <v>462</v>
       </c>
-      <c r="C135" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D135" s="14" t="s">
+      <c r="C141" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D141" s="14" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B136" s="15" t="s">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B142" s="15" t="s">
         <v>463</v>
       </c>
-      <c r="C136" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D136" s="14" t="s">
+      <c r="C142" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D142" s="14" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B137" s="15" t="s">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B143" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="C137" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D137" s="14" t="s">
+      <c r="C143" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D143" s="14" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B138" s="15" t="s">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B144" s="15" t="s">
         <v>470</v>
       </c>
-      <c r="C138" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D138" s="14" t="s">
+      <c r="C144" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D144" s="14" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B139" s="15" t="s">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B145" s="15" t="s">
         <v>472</v>
       </c>
-      <c r="C139" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D139" s="14" t="s">
+      <c r="C145" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D145" s="14" t="s">
         <v>473</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B140" s="15" t="s">
-        <v>447</v>
-      </c>
-      <c r="C140" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D140" s="14" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B141" s="15" t="s">
-        <v>782</v>
-      </c>
-      <c r="C141" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D141" s="14" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B142" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="C142" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D142" s="14" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B143" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="C143" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D143" s="14" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B144" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="C144" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D144" s="14" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B145" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="C145" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D145" s="14" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -5454,13 +5474,13 @@
         <v>6</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>307</v>
+        <v>910</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>289</v>
+        <v>914</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -5468,377 +5488,377 @@
         <v>6</v>
       </c>
       <c r="B147" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="C147" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D147" s="14" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B148" s="15" t="s">
+        <v>780</v>
+      </c>
+      <c r="C148" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D148" s="14" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B149" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="C149" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D149" s="14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B150" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="C150" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D150" s="14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B151" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="C151" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D151" s="14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B152" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C152" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D152" s="14" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B153" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="C153" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D153" s="14" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B154" s="15" t="s">
+        <v>859</v>
+      </c>
+      <c r="C154" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D154" s="14" t="s">
         <v>861</v>
       </c>
-      <c r="C147" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D147" s="14" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B148" s="15" t="s">
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B155" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="C148" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D148" s="14" t="s">
+      <c r="C155" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D155" s="14" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B149" s="15" t="s">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B156" s="15" t="s">
+        <v>756</v>
+      </c>
+      <c r="C156" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D156" s="14" t="s">
         <v>757</v>
       </c>
-      <c r="C149" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D149" s="14" t="s">
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B157" s="15" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B150" s="15" t="s">
+      <c r="C157" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D157" s="14" t="s">
         <v>759</v>
       </c>
-      <c r="C150" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D150" s="14" t="s">
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B158" s="15" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B151" s="15" t="s">
+      <c r="C158" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D158" s="14" t="s">
         <v>761</v>
       </c>
-      <c r="C151" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D151" s="14" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B152" s="15" t="s">
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B159" s="15" t="s">
+        <v>894</v>
+      </c>
+      <c r="C159" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D159" s="14" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B160" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="C152" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D152" s="14" t="s">
+      <c r="C160" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D160" s="14" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B153" s="15" t="s">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B161" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="C153" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D153" s="14" t="s">
+      <c r="C161" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D161" s="14" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B154" s="15" t="s">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B162" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="C154" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D154" s="14" t="s">
+      <c r="C162" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D162" s="14" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B155" s="15" t="s">
-        <v>895</v>
-      </c>
-      <c r="C155" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D155" s="14" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B156" s="15" t="s">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B163" s="15" t="s">
+        <v>891</v>
+      </c>
+      <c r="C163" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D163" s="14" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B164" s="15" t="s">
+        <v>893</v>
+      </c>
+      <c r="C164" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D164" s="14" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B165" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="C156" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D156" s="14" t="s">
+      <c r="C165" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D165" s="14" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B157" s="15" t="s">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B166" s="15" t="s">
         <v>389</v>
       </c>
-      <c r="C157" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D157" s="14" t="s">
+      <c r="C166" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D166" s="14" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B158" s="15" t="s">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B167" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="C158" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D158" s="14" t="s">
+      <c r="C167" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D167" s="14" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B159" s="15" t="s">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B168" s="15" t="s">
         <v>422</v>
       </c>
-      <c r="C159" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D159" s="14" t="s">
+      <c r="C168" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D168" s="14" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B160" s="15" t="s">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B169" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C160" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D160" s="14" t="s">
+      <c r="C169" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D169" s="14" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B161" s="15" t="s">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B170" s="15" t="s">
         <v>424</v>
       </c>
-      <c r="C161" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D161" s="14" t="s">
+      <c r="C170" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D170" s="14" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B162" s="15" t="s">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B171" s="15" t="s">
+        <v>745</v>
+      </c>
+      <c r="C171" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D171" s="14" t="s">
         <v>746</v>
       </c>
-      <c r="C162" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D162" s="14" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B163" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="C163" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D163" s="14" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B164" s="15" t="s">
-        <v>393</v>
-      </c>
-      <c r="C164" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D164" s="14" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B165" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="C165" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D165" s="14" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B166" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="C166" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D166" s="14" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B167" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="C167" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D167" s="14" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B168" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="C168" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D168" s="14" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B169" s="15" t="s">
-        <v>879</v>
-      </c>
-      <c r="C169" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D169" s="14" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B170" s="15" t="s">
-        <v>411</v>
-      </c>
-      <c r="C170" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D170" s="14" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B171" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="C171" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D171" s="14" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>414</v>
+        <v>899</v>
       </c>
       <c r="C172" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D172" s="14" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>438</v>
+        <v>902</v>
       </c>
       <c r="C173" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D173" s="14" t="s">
-        <v>439</v>
+        <v>900</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -5846,27 +5866,27 @@
         <v>6</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>771</v>
+        <v>901</v>
       </c>
       <c r="C174" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D174" s="14" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>305</v>
+        <v>395</v>
       </c>
       <c r="C175" s="14" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D175" s="14" t="s">
-        <v>278</v>
+        <v>396</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -5874,13 +5894,13 @@
         <v>6</v>
       </c>
       <c r="B176" s="15" t="s">
-        <v>309</v>
+        <v>393</v>
       </c>
       <c r="C176" s="14" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D176" s="14" t="s">
-        <v>280</v>
+        <v>394</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -5888,27 +5908,27 @@
         <v>6</v>
       </c>
       <c r="B177" s="15" t="s">
-        <v>491</v>
+        <v>314</v>
       </c>
       <c r="C177" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D177" s="14" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>742</v>
+        <v>19</v>
       </c>
       <c r="D178" s="14" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -5916,13 +5936,13 @@
         <v>6</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>428</v>
+        <v>317</v>
       </c>
       <c r="C179" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D179" s="14" t="s">
-        <v>430</v>
+        <v>295</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -5930,13 +5950,13 @@
         <v>6</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>429</v>
+        <v>312</v>
       </c>
       <c r="C180" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D180" s="14" t="s">
-        <v>431</v>
+        <v>291</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -5944,13 +5964,13 @@
         <v>6</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>432</v>
+        <v>912</v>
       </c>
       <c r="C181" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D181" s="14" t="s">
-        <v>433</v>
+        <v>913</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -5958,181 +5978,181 @@
         <v>6</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>561</v>
+        <v>947</v>
       </c>
       <c r="C182" s="14" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D182" s="14" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>436</v>
+        <v>875</v>
       </c>
       <c r="C183" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D183" s="14" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B184" s="15" t="s">
-        <v>789</v>
+        <v>411</v>
       </c>
       <c r="C184" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D184" s="14" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
       <c r="C185" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D185" s="14" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>310</v>
+        <v>414</v>
       </c>
       <c r="C186" s="14" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D186" s="14" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>304</v>
+        <v>438</v>
       </c>
       <c r="C187" s="14" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D187" s="14" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>302</v>
+        <v>770</v>
       </c>
       <c r="C188" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D188" s="14" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>487</v>
+        <v>305</v>
       </c>
       <c r="C189" s="14" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D189" s="14" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C190" s="14" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D190" s="14" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>328</v>
+        <v>491</v>
       </c>
       <c r="C191" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D191" s="14" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>875</v>
+        <v>306</v>
       </c>
       <c r="C192" s="14" t="s">
-        <v>19</v>
+        <v>741</v>
       </c>
       <c r="D192" s="14" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>878</v>
+        <v>428</v>
       </c>
       <c r="C193" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D193" s="14" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B194" s="15" t="s">
-        <v>325</v>
+        <v>429</v>
       </c>
       <c r="C194" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D194" s="14" t="s">
-        <v>282</v>
+        <v>431</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -6140,251 +6160,251 @@
         <v>6</v>
       </c>
       <c r="B195" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="C195" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D195" s="14" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B196" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="C196" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D196" s="14" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B197" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="C197" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D197" s="14" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B198" s="15" t="s">
+        <v>787</v>
+      </c>
+      <c r="C198" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D198" s="14" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B199" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="C199" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D199" s="14" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B200" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="C200" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D200" s="14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B201" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C201" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D201" s="14" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B202" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="C202" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D202" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B203" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="C203" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D203" s="14" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B204" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="C204" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D204" s="14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B205" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="C205" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D205" s="14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B206" s="15" t="s">
+        <v>871</v>
+      </c>
+      <c r="C206" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D206" s="14" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B207" s="15" t="s">
+        <v>874</v>
+      </c>
+      <c r="C207" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D207" s="14" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B208" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C208" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D208" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B209" s="15" t="s">
+        <v>952</v>
+      </c>
+      <c r="C209" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D209" s="14" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B210" s="15" t="s">
+        <v>896</v>
+      </c>
+      <c r="C210" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D210" s="14" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B211" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="C195" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D195" s="14" t="s">
+      <c r="C211" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D211" s="14" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B196" s="15" t="s">
-        <v>794</v>
-      </c>
-      <c r="C196" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D196" s="14" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B197" s="15" t="s">
-        <v>860</v>
-      </c>
-      <c r="C197" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D197" s="14" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B198" s="15" t="s">
-        <v>754</v>
-      </c>
-      <c r="C198" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D198" s="14" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B199" s="15" t="s">
-        <v>769</v>
-      </c>
-      <c r="C199" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D199" s="14" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B200" s="15" t="s">
-        <v>777</v>
-      </c>
-      <c r="C200" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D200" s="14" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B201" s="15" t="s">
-        <v>790</v>
-      </c>
-      <c r="C201" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D201" s="14" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B202" s="15" t="s">
-        <v>744</v>
-      </c>
-      <c r="C202" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D202" s="14" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B203" s="15" t="s">
-        <v>749</v>
-      </c>
-      <c r="C203" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D203" s="14" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B204" s="15" t="s">
-        <v>748</v>
-      </c>
-      <c r="C204" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D204" s="14" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B205" s="15" t="s">
-        <v>868</v>
-      </c>
-      <c r="C205" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D205" s="14" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B206" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="C206" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D206" s="14" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B207" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="C207" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D207" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B208" s="15" t="s">
-        <v>811</v>
-      </c>
-      <c r="C208" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D208" s="14" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B209" s="15" t="s">
-        <v>927</v>
-      </c>
-      <c r="C209" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D209" s="14" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B210" s="15" t="s">
-        <v>497</v>
-      </c>
-      <c r="C210" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D210" s="14" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B211" s="15" t="s">
-        <v>535</v>
-      </c>
-      <c r="C211" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D211" s="14" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B212" s="15" t="s">
-        <v>3</v>
+        <v>792</v>
       </c>
       <c r="C212" s="14" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D212" s="14" t="s">
-        <v>4</v>
+        <v>793</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -6392,41 +6412,41 @@
         <v>6</v>
       </c>
       <c r="B213" s="15" t="s">
-        <v>271</v>
+        <v>858</v>
       </c>
       <c r="C213" s="14" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="D213" s="14" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B214" s="15" t="s">
-        <v>857</v>
+        <v>753</v>
       </c>
       <c r="C214" s="14" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D214" s="14" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B215" s="15" t="s">
-        <v>22</v>
+        <v>934</v>
       </c>
       <c r="C215" s="14" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="D215" s="14" t="s">
-        <v>5</v>
+        <v>933</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -6434,55 +6454,55 @@
         <v>6</v>
       </c>
       <c r="B216" s="15" t="s">
-        <v>871</v>
+        <v>768</v>
       </c>
       <c r="C216" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D216" s="14" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B217" s="15" t="s">
-        <v>870</v>
+        <v>775</v>
       </c>
       <c r="C217" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D217" s="14" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B218" s="15" t="s">
-        <v>504</v>
+        <v>788</v>
       </c>
       <c r="C218" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D218" s="14" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B219" s="15" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="C219" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D219" s="14" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -6490,979 +6510,977 @@
         <v>6</v>
       </c>
       <c r="B220" s="15" t="s">
-        <v>543</v>
+        <v>748</v>
       </c>
       <c r="C220" s="14" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D220" s="14" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B221" s="15" t="s">
+        <v>747</v>
+      </c>
+      <c r="C221" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D221" s="14" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B222" s="15" t="s">
+        <v>866</v>
+      </c>
+      <c r="C222" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D222" s="14" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B223" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="C223" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D223" s="14" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B224" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="C224" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D224" s="14" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B225" s="15" t="s">
+        <v>915</v>
+      </c>
+      <c r="C225" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D225" s="14" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B226" s="15" t="s">
+        <v>809</v>
+      </c>
+      <c r="C226" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D226" s="14" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B227" s="15" t="s">
+        <v>954</v>
+      </c>
+      <c r="C227" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D227" s="14" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B228" s="15" t="s">
+        <v>923</v>
+      </c>
+      <c r="C228" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D228" s="14" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B229" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="C229" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D229" s="14" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B230" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="C230" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D230" s="14" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B231" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C231" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D231" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B232" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="C232" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D232" s="14" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B233" s="15" t="s">
+        <v>855</v>
+      </c>
+      <c r="C233" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D233" s="14" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B234" s="15" t="s">
+        <v>887</v>
+      </c>
+      <c r="C234" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D234" s="14" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B235" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C235" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D235" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B236" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="C236" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D236" s="14" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B237" s="15" t="s">
+        <v>868</v>
+      </c>
+      <c r="C237" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D237" s="14" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B238" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="C238" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D238" s="14" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B239" s="15" t="s">
+        <v>917</v>
+      </c>
+      <c r="C239" s="14"/>
+      <c r="D239" s="14" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B240" s="15" t="s">
+        <v>738</v>
+      </c>
+      <c r="C240" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D240" s="14" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B241" s="15" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B221" s="15" t="s">
+      <c r="C241" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D241" s="14" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B242" s="15" t="s">
+        <v>944</v>
+      </c>
+      <c r="C242" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D242" s="14" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B243" s="15" t="s">
         <v>505</v>
       </c>
-      <c r="C221" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D221" s="14" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B222" s="15" t="s">
-        <v>872</v>
-      </c>
-      <c r="C222" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D222" s="14" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B223" s="15" t="s">
+      <c r="C243" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D243" s="14" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B244" s="15" t="s">
         <v>444</v>
       </c>
-      <c r="C223" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D223" s="14" t="s">
+      <c r="C244" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D244" s="14" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B224" s="15" t="s">
-        <v>925</v>
-      </c>
-      <c r="C224" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D224" s="14" t="s">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B245" s="15" t="s">
+        <v>921</v>
+      </c>
+      <c r="C245" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D245" s="14" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B225" s="15" t="s">
-        <v>926</v>
-      </c>
-      <c r="C225" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D225" s="14" t="s">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B246" s="15" t="s">
+        <v>922</v>
+      </c>
+      <c r="C246" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D246" s="14" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B226" s="15" t="s">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B247" s="15" t="s">
+        <v>919</v>
+      </c>
+      <c r="C247" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D247" s="14" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B248" s="15" t="s">
         <v>441</v>
       </c>
-      <c r="C226" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D226" s="14" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B227" s="15" t="s">
+      <c r="C248" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D248" s="14" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B249" s="15" t="s">
         <v>440</v>
       </c>
-      <c r="C227" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D227" s="14" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B228" s="15" t="s">
+      <c r="C249" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D249" s="14" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B250" s="15" t="s">
         <v>490</v>
       </c>
-      <c r="C228" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D228" s="14" t="s">
+      <c r="C250" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D250" s="14" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B251" s="15" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B229" s="15" t="s">
+      <c r="C251" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D251" s="14" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B252" s="15" t="s">
+        <v>932</v>
+      </c>
+      <c r="C252" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D252" s="14" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B253" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="C229" s="14" t="s">
+      <c r="C253" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D229" s="14" t="s">
+      <c r="D253" s="14" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B230" s="15" t="s">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B254" s="15" t="s">
+        <v>751</v>
+      </c>
+      <c r="C254" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D254" s="14" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B255" s="15" t="s">
         <v>752</v>
       </c>
-      <c r="C230" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D230" s="14" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B231" s="15" t="s">
-        <v>753</v>
-      </c>
-      <c r="C231" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D231" s="14" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B232" s="15" t="s">
+      <c r="C255" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D255" s="14" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B256" s="15" t="s">
         <v>448</v>
       </c>
-      <c r="C232" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D232" s="14" t="s">
+      <c r="C256" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D256" s="14" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B233" s="15" t="s">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B257" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C233" s="14" t="s">
+      <c r="C257" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D233" s="14" t="s">
+      <c r="D257" s="14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B234" s="15" t="s">
-        <v>691</v>
-      </c>
-      <c r="C234" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D234" s="14" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B235" s="15" t="s">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B258" s="15" t="s">
+        <v>690</v>
+      </c>
+      <c r="C258" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D258" s="14" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B259" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="C235" s="14" t="s">
+      <c r="C259" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D235" s="14" t="s">
+      <c r="D259" s="14" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B236" s="15" t="s">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B260" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="C236" s="14" t="s">
+      <c r="C260" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D236" s="14" t="s">
+      <c r="D260" s="14" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B237" s="15" t="s">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B261" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="C237" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D237" s="14" t="s">
+      <c r="C261" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D261" s="14" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B238" s="15" t="s">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B262" s="15" t="s">
+        <v>536</v>
+      </c>
+      <c r="C262" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D262" s="14" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B263" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="C263" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D263" s="14" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B264" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C264" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D264" s="14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B265" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C265" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D265" s="14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B266" s="15" t="s">
         <v>537</v>
       </c>
-      <c r="C238" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D238" s="14" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B239" s="15" t="s">
-        <v>495</v>
-      </c>
-      <c r="C239" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D239" s="14" t="s">
+      <c r="C266" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D266" s="14" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B240" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="C240" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D240" s="14" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B241" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="C241" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D241" s="14" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B242" s="15" t="s">
-        <v>538</v>
-      </c>
-      <c r="C242" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D242" s="14" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B243" s="15" t="s">
-        <v>807</v>
-      </c>
-      <c r="C243" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D243" s="14" t="s">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B267" s="15" t="s">
+        <v>805</v>
+      </c>
+      <c r="C267" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D267" s="14" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B244" s="15" t="s">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B268" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="C244" s="14" t="s">
+      <c r="C268" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D244" s="14" t="s">
+      <c r="D268" s="14" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B245" s="15" t="s">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B269" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="C245" s="14" t="s">
+      <c r="C269" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D245" s="14" t="s">
+      <c r="D269" s="14" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B246" s="15" t="s">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B270" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="C246" s="14" t="s">
+      <c r="C270" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D246" s="14" t="s">
+      <c r="D270" s="14" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B247" s="15" t="s">
-        <v>800</v>
-      </c>
-      <c r="C247" s="14" t="s">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B271" s="15" t="s">
+        <v>798</v>
+      </c>
+      <c r="C271" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D247" s="14" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B248" s="15" t="s">
+      <c r="D271" s="14" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B272" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C248" s="14" t="s">
+      <c r="C272" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D248" s="14" t="s">
+      <c r="D272" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B249" s="15" t="s">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B273" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="C249" s="14" t="s">
+      <c r="C273" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D249" s="14" t="s">
+      <c r="D273" s="14" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B250" s="15" t="s">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B274" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C250" s="14" t="s">
+      <c r="C274" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D250" s="14" t="s">
+      <c r="D274" s="14" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B251" s="15" t="s">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B275" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C251" s="14" t="s">
+      <c r="C275" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D251" s="14" t="s">
+      <c r="D275" s="14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B252" s="15" t="s">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B276" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C252" s="14" t="s">
+      <c r="C276" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D252" s="14" t="s">
+      <c r="D276" s="14" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B253" s="15" t="s">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B277" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C253" s="14" t="s">
+      <c r="C277" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D253" s="14" t="s">
+      <c r="D277" s="14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B254" s="15" t="s">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B278" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C254" s="14" t="s">
+      <c r="C278" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D254" s="14" t="s">
+      <c r="D278" s="14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B255" s="15" t="s">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B279" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C255" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D255" s="14" t="s">
+      <c r="C279" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D279" s="14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B256" s="15" t="s">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B280" s="15" t="s">
         <v>111</v>
-      </c>
-      <c r="C256" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D256" s="14" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B257" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C257" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D257" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B258" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C258" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D258" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B259" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="C259" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D259" s="14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B260" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C260" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D260" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B261" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="C261" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D261" s="14" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B262" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="C262" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D262" s="14" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B263" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C263" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D263" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B264" s="15" t="s">
-        <v>731</v>
-      </c>
-      <c r="C264" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D264" s="14" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B265" s="15" t="s">
-        <v>733</v>
-      </c>
-      <c r="C265" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D265" s="14" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B266" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C266" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D266" s="14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B267" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C267" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D267" s="14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B268" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="C268" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D268" s="14" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B269" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="C269" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D269" s="14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B270" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C270" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D270" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B271" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C271" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D271" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B272" s="15" t="s">
-        <v>715</v>
-      </c>
-      <c r="C272" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D272" s="14" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B273" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C273" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D273" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B274" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C274" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D274" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B275" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="C275" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D275" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B276" s="15" t="s">
-        <v>887</v>
-      </c>
-      <c r="C276" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D276" s="14" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B277" s="15" t="s">
-        <v>888</v>
-      </c>
-      <c r="C277" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D277" s="14" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B278" s="15" t="s">
-        <v>689</v>
-      </c>
-      <c r="C278" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D278" s="14" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B279" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C279" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D279" s="14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B280" s="15" t="s">
-        <v>87</v>
       </c>
       <c r="C280" s="14" t="s">
         <v>76</v>
       </c>
       <c r="D280" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>677</v>
+        <v>55</v>
       </c>
       <c r="C281" s="14" t="s">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="D281" s="14" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B282" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C282" s="14" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D282" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B283" s="15" t="s">
-        <v>138</v>
+        <v>187</v>
       </c>
       <c r="C283" s="14" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D283" s="14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B284" s="15" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="C284" s="14" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D284" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B285" s="15" t="s">
-        <v>46</v>
+        <v>189</v>
       </c>
       <c r="C285" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D285" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B286" s="15" t="s">
-        <v>858</v>
+        <v>185</v>
       </c>
       <c r="C286" s="14" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D286" s="14" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B287" s="15" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C287" s="14" t="s">
         <v>33</v>
       </c>
       <c r="D287" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B288" s="15" t="s">
-        <v>58</v>
+        <v>730</v>
       </c>
       <c r="C288" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D288" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B289" s="15" t="s">
-        <v>692</v>
+        <v>732</v>
       </c>
       <c r="C289" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D289" s="14" t="s">
-        <v>693</v>
+        <v>733</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
@@ -7470,13 +7488,13 @@
         <v>7</v>
       </c>
       <c r="B290" s="15" t="s">
-        <v>705</v>
+        <v>127</v>
       </c>
       <c r="C290" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D290" s="14" t="s">
-        <v>706</v>
+        <v>173</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
@@ -7484,72 +7502,72 @@
         <v>7</v>
       </c>
       <c r="B291" s="15" t="s">
-        <v>694</v>
+        <v>128</v>
       </c>
       <c r="C291" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D291" s="14" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B292" s="15" t="s">
-        <v>696</v>
+        <v>175</v>
       </c>
       <c r="C292" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D292" s="14" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B293" s="15" t="s">
-        <v>61</v>
+        <v>172</v>
       </c>
       <c r="C293" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D293" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B294" s="15" t="s">
-        <v>698</v>
+        <v>104</v>
       </c>
       <c r="C294" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D294" s="14" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B295" s="15" t="s">
-        <v>701</v>
+        <v>40</v>
       </c>
       <c r="C295" s="14" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D295" s="14" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="14" t="s">
         <v>7</v>
       </c>
@@ -7560,329 +7578,329 @@
         <v>19</v>
       </c>
       <c r="D296" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B297" s="15" t="s">
-        <v>713</v>
+        <v>115</v>
       </c>
       <c r="C297" s="14" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D297" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B298" s="15" t="s">
-        <v>712</v>
+        <v>24</v>
       </c>
       <c r="C298" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D298" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B299" s="15" t="s">
-        <v>45</v>
+        <v>230</v>
       </c>
       <c r="C299" s="14" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D299" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B300" s="15" t="s">
-        <v>49</v>
+        <v>883</v>
       </c>
       <c r="C300" s="14" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D300" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B301" s="15" t="s">
-        <v>48</v>
+        <v>884</v>
       </c>
       <c r="C301" s="14" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D301" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B302" s="15" t="s">
-        <v>192</v>
+        <v>688</v>
       </c>
       <c r="C302" s="14" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D302" s="14" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B303" s="15" t="s">
-        <v>266</v>
+        <v>113</v>
       </c>
       <c r="C303" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D303" s="14" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B304" s="15" t="s">
-        <v>191</v>
+        <v>87</v>
       </c>
       <c r="C304" s="14" t="s">
         <v>76</v>
       </c>
       <c r="D304" s="14" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B305" s="16" t="s">
-        <v>805</v>
+      <c r="B305" s="15" t="s">
+        <v>676</v>
       </c>
       <c r="C305" s="14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D305" s="14" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B306" s="15" t="s">
-        <v>802</v>
+        <v>30</v>
       </c>
       <c r="C306" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D306" s="14" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B307" s="15" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="C307" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D307" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B308" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C308" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D308" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B309" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C309" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D309" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B310" s="15" t="s">
+        <v>856</v>
+      </c>
+      <c r="C310" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D310" s="14" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B311" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C311" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D307" s="14" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A308" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B308" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C308" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D308" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A309" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B309" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C309" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D309" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A310" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B310" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C310" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D310" s="14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A311" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B311" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C311" s="14" t="s">
-        <v>19</v>
-      </c>
       <c r="D311" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B312" s="15" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C312" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D312" s="14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B313" s="15" t="s">
-        <v>103</v>
+        <v>691</v>
       </c>
       <c r="C313" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D313" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B314" s="15" t="s">
-        <v>98</v>
+        <v>704</v>
       </c>
       <c r="C314" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D314" s="14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B315" s="15" t="s">
-        <v>99</v>
+        <v>693</v>
       </c>
       <c r="C315" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D315" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B316" s="15" t="s">
-        <v>101</v>
+        <v>695</v>
       </c>
       <c r="C316" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D316" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B317" s="15" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="C317" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D317" s="14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B318" s="15" t="s">
-        <v>44</v>
+        <v>697</v>
       </c>
       <c r="C318" s="14" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D318" s="14" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B319" s="15" t="s">
-        <v>717</v>
+        <v>700</v>
       </c>
       <c r="C319" s="14" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D319" s="14" t="s">
-        <v>718</v>
+        <v>699</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
@@ -7890,69 +7908,69 @@
         <v>7</v>
       </c>
       <c r="B320" s="15" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="C320" s="14" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D320" s="14" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B321" s="15" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="C321" s="14" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D321" s="14" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B322" s="15" t="s">
-        <v>25</v>
+        <v>711</v>
       </c>
       <c r="C322" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D322" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B323" s="15" t="s">
-        <v>571</v>
+        <v>45</v>
       </c>
       <c r="C323" s="14" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D323" s="14" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B324" s="15" t="s">
-        <v>572</v>
+        <v>49</v>
       </c>
       <c r="C324" s="14" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D324" s="14" t="s">
-        <v>544</v>
+        <v>52</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
@@ -7960,880 +7978,897 @@
         <v>7</v>
       </c>
       <c r="B325" s="15" t="s">
-        <v>688</v>
+        <v>48</v>
       </c>
       <c r="C325" s="14" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D325" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B326" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C326" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D326" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B327" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="C327" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D327" s="14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B328" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C328" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D328" s="14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B329" s="16" t="s">
+        <v>803</v>
+      </c>
+      <c r="C329" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D329" s="14" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B330" s="15" t="s">
+        <v>800</v>
+      </c>
+      <c r="C330" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D330" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B331" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C331" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D331" s="14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B332" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C332" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D332" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B333" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C333" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D333" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B334" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C334" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D334" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B335" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C335" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D335" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B336" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C336" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D336" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B337" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C337" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D337" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B338" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C338" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D338" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B339" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C339" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D339" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B340" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C340" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D340" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B341" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C341" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D341" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B342" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C342" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D342" s="14" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B343" s="15" t="s">
+        <v>716</v>
+      </c>
+      <c r="C343" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D343" s="14" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B344" s="15" t="s">
+        <v>718</v>
+      </c>
+      <c r="C344" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D344" s="14" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B345" s="15" t="s">
+        <v>702</v>
+      </c>
+      <c r="C345" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D345" s="14" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B346" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C346" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D346" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B347" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="C347" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D347" s="14" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B348" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="C348" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D348" s="14" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B349" s="15" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A326" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B326" s="15" t="s">
+      <c r="C349" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D349" s="14" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B350" s="15" t="s">
+        <v>725</v>
+      </c>
+      <c r="C350" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D350" s="14" t="s">
         <v>726</v>
       </c>
-      <c r="C326" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D326" s="14" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A327" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B327" s="15" t="s">
-        <v>579</v>
-      </c>
-      <c r="C327" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D327" s="14" t="s">
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B351" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="C351" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D351" s="14" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A328" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B328" s="15" t="s">
-        <v>579</v>
-      </c>
-      <c r="C328" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D328" s="14" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A329" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B329" s="15" t="s">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B352" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="C352" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D352" s="14" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B353" s="15" t="s">
+        <v>722</v>
+      </c>
+      <c r="C353" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D353" s="14" t="s">
         <v>723</v>
       </c>
-      <c r="C329" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D329" s="14" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A330" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B330" s="15" t="s">
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B354" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="C354" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D354" s="14" t="s">
         <v>575</v>
       </c>
-      <c r="C330" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D330" s="14" t="s">
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B355" s="15" t="s">
+        <v>577</v>
+      </c>
+      <c r="C355" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D355" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B356" s="15" t="s">
+        <v>684</v>
+      </c>
+      <c r="C356" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D356" s="14" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B357" s="15" t="s">
+        <v>802</v>
+      </c>
+      <c r="C357" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D357" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B358" s="15" t="s">
+        <v>569</v>
+      </c>
+      <c r="C358" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D358" s="14" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B359" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="C359" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D359" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B360" s="15" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A331" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B331" s="15" t="s">
-        <v>578</v>
-      </c>
-      <c r="C331" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D331" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A332" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B332" s="15" t="s">
-        <v>685</v>
-      </c>
-      <c r="C332" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D332" s="14" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A333" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B333" s="15" t="s">
-        <v>804</v>
-      </c>
-      <c r="C333" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D333" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A334" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B334" s="15" t="s">
-        <v>570</v>
-      </c>
-      <c r="C334" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D334" s="14" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A335" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B335" s="15" t="s">
-        <v>574</v>
-      </c>
-      <c r="C335" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D335" s="14" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A336" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B336" s="15" t="s">
-        <v>577</v>
-      </c>
-      <c r="C336" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D336" s="14" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A337" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B337" s="15" t="s">
+      <c r="C360" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D360" s="14" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B361" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C337" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D337" s="14" t="s">
+      <c r="C361" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D361" s="14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A338" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B338" s="15" t="s">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B362" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C338" s="14" t="s">
+      <c r="C362" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D338" s="14" t="s">
+      <c r="D362" s="14" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A339" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B339" s="15" t="s">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B363" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C339" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D339" s="14" t="s">
+      <c r="C363" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D363" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A340" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B340" s="15" t="s">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B364" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C340" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D340" s="14" t="s">
+      <c r="C364" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D364" s="14" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A341" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B341" s="15" t="s">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B365" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C341" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D341" s="14" t="s">
+      <c r="C365" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D365" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A342" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B342" s="15" t="s">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B366" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C342" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D342" s="14" t="s">
+      <c r="C366" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D366" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A343" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B343" s="15" t="s">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B367" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="C343" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D343" s="14" t="s">
+      <c r="C367" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D367" s="17" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A344" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B344" s="15" t="s">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B368" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="C344" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D344" s="14" t="s">
+      <c r="C368" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D368" s="17" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A345" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B345" s="15" t="s">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B369" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C345" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D345" s="14" t="s">
+      <c r="C369" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D369" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A346" s="14" t="s">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="B346" s="15" t="s">
+      <c r="B370" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="C346" s="14" t="s">
+      <c r="C370" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D346" s="14" t="s">
+      <c r="D370" s="17" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A347" s="14" t="s">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="B347" s="15" t="s">
-        <v>682</v>
-      </c>
-      <c r="C347" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D347" s="14" t="s">
+      <c r="B371" s="18" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A348" s="14" t="s">
+      <c r="C371" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D371" s="17" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="B348" s="15" t="s">
-        <v>808</v>
-      </c>
-      <c r="C348" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D348" s="14" t="s">
+      <c r="B372" s="18" t="s">
+        <v>806</v>
+      </c>
+      <c r="C372" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D372" s="17" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A349" s="14" t="s">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="B349" s="15" t="s">
+      <c r="B373" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="C349" s="14" t="s">
+      <c r="C373" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D349" s="14" t="s">
+      <c r="D373" s="17" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A350" s="14" t="s">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="B350" s="15" t="s">
-        <v>803</v>
-      </c>
-      <c r="C350" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D350" s="14" t="s">
+      <c r="B374" s="18" t="s">
+        <v>801</v>
+      </c>
+      <c r="C374" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D374" s="17" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A351" s="14" t="s">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375" s="17" t="s">
+        <v>660</v>
+      </c>
+      <c r="B375" s="18" t="s">
+        <v>659</v>
+      </c>
+      <c r="C375" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D375" s="17" t="s">
         <v>661</v>
       </c>
-      <c r="B351" s="15" t="s">
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376" s="17" t="s">
         <v>660</v>
       </c>
-      <c r="C351" s="14" t="s">
+      <c r="B376" s="18" t="s">
+        <v>675</v>
+      </c>
+      <c r="C376" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D376" s="17" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="B377" s="18" t="s">
+        <v>666</v>
+      </c>
+      <c r="C377" s="14"/>
+      <c r="D377" s="17"/>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="B378" s="18" t="s">
+        <v>662</v>
+      </c>
+      <c r="C378" s="14" t="s">
+        <v>630</v>
+      </c>
+      <c r="D378" s="17" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="B379" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="C379" s="14"/>
+      <c r="D379" s="14"/>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="B380" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="C380" s="17"/>
+      <c r="D380" s="17"/>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="B381" s="18" t="s">
+        <v>629</v>
+      </c>
+      <c r="C381" s="14" t="s">
+        <v>630</v>
+      </c>
+      <c r="D381" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="B382" s="18" t="s">
+        <v>628</v>
+      </c>
+      <c r="C382" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D351" s="14" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A352" s="14" t="s">
-        <v>661</v>
-      </c>
-      <c r="B352" s="15" t="s">
-        <v>676</v>
-      </c>
-      <c r="C352" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D352" s="14" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A353" s="14" t="s">
-        <v>628</v>
-      </c>
-      <c r="B353" s="15" t="s">
-        <v>667</v>
-      </c>
-      <c r="C353" s="14"/>
-      <c r="D353" s="14"/>
-    </row>
-    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A354" s="14" t="s">
-        <v>628</v>
-      </c>
-      <c r="B354" s="15" t="s">
-        <v>663</v>
-      </c>
-      <c r="C354" s="14" t="s">
+      <c r="D382" s="17" t="s">
         <v>631</v>
       </c>
-      <c r="D354" s="14" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A355" s="14" t="s">
-        <v>628</v>
-      </c>
-      <c r="B355" s="15" t="s">
-        <v>669</v>
-      </c>
-      <c r="C355" s="14"/>
-      <c r="D355" s="14"/>
-    </row>
-    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A356" s="14" t="s">
-        <v>628</v>
-      </c>
-      <c r="B356" s="15" t="s">
-        <v>672</v>
-      </c>
-      <c r="C356" s="14"/>
-      <c r="D356" s="14"/>
-    </row>
-    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="14" t="s">
-        <v>628</v>
-      </c>
-      <c r="B357" s="15" t="s">
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="B383" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="C383" s="17" t="s">
         <v>630</v>
       </c>
-      <c r="C357" s="14" t="s">
-        <v>631</v>
-      </c>
-      <c r="D357" s="14" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A358" s="14" t="s">
-        <v>628</v>
-      </c>
-      <c r="B358" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="C358" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D358" s="14" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A359" s="14" t="s">
-        <v>628</v>
-      </c>
-      <c r="B359" s="15" t="s">
+      <c r="D383" s="17" t="s">
         <v>634</v>
       </c>
-      <c r="C359" s="14" t="s">
-        <v>631</v>
-      </c>
-      <c r="D359" s="14" t="s">
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="B384" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="C384" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D384" s="17" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="B385" s="15" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A360" s="14" t="s">
-        <v>628</v>
-      </c>
-      <c r="B360" s="15" t="s">
-        <v>638</v>
-      </c>
-      <c r="C360" s="14" t="s">
+      <c r="C385" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D360" s="14" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A361" s="14" t="s">
-        <v>628</v>
-      </c>
-      <c r="B361" s="15" t="s">
+      <c r="D385" s="14" t="s">
         <v>636</v>
       </c>
-      <c r="C361" s="14" t="s">
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="B386" s="15" t="s">
+        <v>643</v>
+      </c>
+      <c r="C386" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D361" s="14" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A362" s="14" t="s">
-        <v>628</v>
-      </c>
-      <c r="B362" s="15" t="s">
+      <c r="D386" s="14" t="s">
         <v>644</v>
-      </c>
-      <c r="C362" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D362" s="14" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A363" s="14" t="s">
-        <v>628</v>
-      </c>
-      <c r="B363" s="15" t="s">
-        <v>642</v>
-      </c>
-      <c r="C363" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D363" s="14" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A364" s="14" t="s">
-        <v>628</v>
-      </c>
-      <c r="B364" s="15" t="s">
-        <v>640</v>
-      </c>
-      <c r="C364" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D364" s="14" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A365" s="14" t="s">
-        <v>628</v>
-      </c>
-      <c r="B365" s="15" t="s">
-        <v>668</v>
-      </c>
-      <c r="C365" s="14"/>
-      <c r="D365" s="14"/>
-    </row>
-    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B366" s="15"/>
-    </row>
-    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A367" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B367" s="9" t="s">
-        <v>891</v>
-      </c>
-      <c r="C367" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D367" s="5" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A368" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B368" s="9" t="s">
-        <v>894</v>
-      </c>
-      <c r="C368" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D368" s="5" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A369" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B369" s="9" t="s">
-        <v>897</v>
-      </c>
-      <c r="C369" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D369" s="5" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A370" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B370" s="9" t="s">
-        <v>898</v>
-      </c>
-      <c r="C370" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D370" s="5" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A371" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B371" s="9" t="s">
-        <v>900</v>
-      </c>
-      <c r="C371" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D371" s="5" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A372" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B372" s="9" t="s">
-        <v>903</v>
-      </c>
-      <c r="C372" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D372" s="5" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A373" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B373" s="9" t="s">
-        <v>906</v>
-      </c>
-      <c r="C373" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D373" s="5" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A374" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B374" s="9" t="s">
-        <v>905</v>
-      </c>
-      <c r="C374" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D374" s="5" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A375" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B375" s="9" t="s">
-        <v>908</v>
-      </c>
-      <c r="C375" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D375" s="5" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A376" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B376" s="9" t="s">
-        <v>909</v>
-      </c>
-      <c r="C376" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D376" s="5" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A377" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B377" s="9" t="s">
-        <v>910</v>
-      </c>
-      <c r="C377" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D377" s="5" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A378" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B378" s="9" t="s">
-        <v>914</v>
-      </c>
-      <c r="C378" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D378" s="5" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A379" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B379" s="15" t="s">
-        <v>915</v>
-      </c>
-      <c r="C379" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D379" s="14" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A380" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B380" s="9" t="s">
-        <v>916</v>
-      </c>
-      <c r="C380" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D380" s="5" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A381" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B381" s="9" t="s">
-        <v>919</v>
-      </c>
-      <c r="C381" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D381" s="5" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A382" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B382" s="9" t="s">
-        <v>921</v>
-      </c>
-      <c r="D382" s="5" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A383" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B383" s="9" t="s">
-        <v>923</v>
-      </c>
-      <c r="C383" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D383" s="5" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A384" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B384" s="9" t="s">
-        <v>936</v>
-      </c>
-      <c r="C384" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D384" s="5" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A385" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B385" s="15" t="s">
-        <v>938</v>
-      </c>
-      <c r="C385" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D385" s="14" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A386" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B386" s="15" t="s">
-        <v>943</v>
-      </c>
-      <c r="C386" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D386" s="14" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B387" s="9" t="s">
-        <v>948</v>
-      </c>
-      <c r="C387" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D387" s="5" t="s">
-        <v>944</v>
-      </c>
+        <v>627</v>
+      </c>
+      <c r="B387" s="18" t="s">
+        <v>641</v>
+      </c>
+      <c r="C387" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D387" s="17" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="B388" s="18" t="s">
+        <v>639</v>
+      </c>
+      <c r="C388" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D388" s="17" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="B389" s="18" t="s">
+        <v>667</v>
+      </c>
+      <c r="C389" s="17"/>
+      <c r="D389" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D387" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="df.drop_duplicates().reset_index()"/>
-        <filter val="df.drop_duplicates().reset_index(drop=True)"/>
-        <filter val="df.index"/>
-        <filter val="df.index.tolist()"/>
-        <filter val="df.reset_index()"/>
-        <filter val="df.sample(int).index"/>
-        <filter val="df.set_index('colname', inplace=True)"/>
-        <filter val="df.sort_index()"/>
-        <filter val="df.sort_index(ascending=falce)"/>
-        <filter val="df.sort_index(axis=1)"/>
-        <filter val="df.sort_index(inplace=True)"/>
-        <filter val="df['colname'].index"/>
-        <filter val="Index"/>
-        <filter val="list.index(listitem)"/>
-        <filter val="list.insert(index, val)"/>
-        <filter val="pd.concat([df1, df2], ignore_index=True)"/>
-        <filter val="pd.DataFrame.from_dict({'rowindex': {'colindex': 'val'}})"/>
-        <filter val="pd.DateTimeIndex(df['colname']).month"/>
-        <filter val="sorted(list, key=lambda name: name[index])"/>
-        <filter val="str.find('val', startindex, endindex)"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D389" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="51" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8879,13 +8914,13 @@
         <v>479</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>832</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>612</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>834</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -8893,13 +8928,13 @@
         <v>479</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -8907,13 +8942,13 @@
         <v>479</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -8921,13 +8956,13 @@
         <v>479</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>835</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>594</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>837</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -8935,13 +8970,13 @@
         <v>479</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -8949,13 +8984,13 @@
         <v>479</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>837</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>619</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>839</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -8963,13 +8998,13 @@
         <v>479</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>618</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>838</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>619</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>840</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -8977,13 +9012,13 @@
         <v>479</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -8991,13 +9026,13 @@
         <v>479</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -9005,13 +9040,13 @@
         <v>479</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -9019,13 +9054,13 @@
         <v>479</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -9033,13 +9068,13 @@
         <v>479</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -9047,13 +9082,13 @@
         <v>479</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -9061,13 +9096,13 @@
         <v>479</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -9075,13 +9110,13 @@
         <v>479</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -9089,13 +9124,13 @@
         <v>479</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -9103,13 +9138,13 @@
         <v>479</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -9117,13 +9152,13 @@
         <v>479</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -9131,13 +9166,13 @@
         <v>479</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -9145,13 +9180,13 @@
         <v>479</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -9159,13 +9194,13 @@
         <v>479</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -9173,13 +9208,13 @@
         <v>479</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -9187,13 +9222,13 @@
         <v>479</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -9201,13 +9236,13 @@
         <v>479</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -9221,7 +9256,7 @@
         <v>398</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -9232,7 +9267,7 @@
         <v>330</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>350</v>
@@ -9246,7 +9281,7 @@
         <v>330</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>351</v>
@@ -9257,13 +9292,13 @@
         <v>6</v>
       </c>
       <c r="B29" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>817</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>511</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>819</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -9274,7 +9309,7 @@
         <v>404</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>407</v>
@@ -9288,7 +9323,7 @@
         <v>404</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>409</v>
@@ -9302,7 +9337,7 @@
         <v>404</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>405</v>
@@ -9313,10 +9348,10 @@
         <v>6</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D33" s="14"/>
     </row>
@@ -9325,13 +9360,13 @@
         <v>6</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -9339,10 +9374,10 @@
         <v>6</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>500</v>
@@ -9353,13 +9388,13 @@
         <v>6</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -9367,13 +9402,13 @@
         <v>6</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -9381,13 +9416,13 @@
         <v>6</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -9395,13 +9430,13 @@
         <v>6</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -9409,13 +9444,13 @@
         <v>6</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -9423,13 +9458,13 @@
         <v>6</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -9437,13 +9472,13 @@
         <v>6</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -9451,13 +9486,13 @@
         <v>6</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -9465,10 +9500,10 @@
         <v>6</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>443</v>
@@ -9479,13 +9514,13 @@
         <v>6</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -9493,10 +9528,10 @@
         <v>6</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>442</v>
@@ -9507,13 +9542,13 @@
         <v>6</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -9521,13 +9556,13 @@
         <v>6</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -9535,10 +9570,10 @@
         <v>6</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D49" s="14"/>
     </row>
@@ -9547,13 +9582,13 @@
         <v>7</v>
       </c>
       <c r="B50" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>814</v>
+      </c>
+      <c r="D50" s="14" t="s">
         <v>526</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>816</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -9561,13 +9596,13 @@
         <v>7</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -9575,13 +9610,13 @@
         <v>7</v>
       </c>
       <c r="B52" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="C52" s="16" t="s">
         <v>565</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="D52" s="14" t="s">
         <v>566</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -9589,13 +9624,13 @@
         <v>7</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -9603,13 +9638,13 @@
         <v>7</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -9617,13 +9652,13 @@
         <v>7</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -9631,13 +9666,13 @@
         <v>6</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -9645,13 +9680,13 @@
         <v>6</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="C57" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>928</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -9659,13 +9694,13 @@
         <v>6</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -9673,13 +9708,13 @@
         <v>6</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -9687,13 +9722,13 @@
         <v>6</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -9701,13 +9736,13 @@
         <v>6</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
     </row>
   </sheetData>
@@ -9785,10 +9820,10 @@
     </row>
     <row r="3" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>683</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>684</v>
       </c>
     </row>
   </sheetData>
@@ -9876,22 +9911,22 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" s="6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="B14" s="7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
   </sheetData>
@@ -9925,18 +9960,18 @@
     </row>
     <row r="2" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>707</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>728</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>729</v>
       </c>
     </row>
   </sheetData>

--- a/Конспект_Python.xlsx
+++ b/Конспект_Python.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\my_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8E22C4-263F-44BE-A5AB-3A065F231078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720B8B9B-6CC1-416E-8A2B-2BCE4933A0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="728" xr2:uid="{65C49AB7-91AD-4F1F-B814-EFF7DAC5AF74}"/>
+    <workbookView xWindow="7845" yWindow="1215" windowWidth="18510" windowHeight="11295" tabRatio="728" xr2:uid="{65C49AB7-91AD-4F1F-B814-EFF7DAC5AF74}"/>
   </bookViews>
   <sheets>
     <sheet name="Операторы" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="957">
   <si>
     <t>Функция</t>
   </si>
@@ -2962,6 +2962,12 @@
   </si>
   <si>
     <t>df1.merge(df2, on='colname', how='left)</t>
+  </si>
+  <si>
+    <t>pd.Series(data=list, index=list)</t>
+  </si>
+  <si>
+    <t>Сгенерировать Series из списка, с указанными индексами</t>
   </si>
 </sst>
 </file>
@@ -3422,26 +3428,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF12224F-222F-4101-A846-47DB214122BC}">
-  <sheetPr codeName="Лист1">
+  <sheetPr codeName="Лист1" filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D389"/>
+  <dimension ref="A1:D390"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D391" sqref="D391"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.6328125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="70.453125" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="8"/>
+    <col min="1" max="1" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="70.42578125" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
@@ -3455,7 +3461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>129</v>
       </c>
@@ -3469,7 +3475,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>129</v>
       </c>
@@ -3483,7 +3489,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>129</v>
       </c>
@@ -3497,7 +3503,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>129</v>
       </c>
@@ -3511,7 +3517,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>35</v>
       </c>
@@ -3525,7 +3531,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>35</v>
       </c>
@@ -3539,7 +3545,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>35</v>
       </c>
@@ -3553,7 +3559,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>35</v>
       </c>
@@ -3567,7 +3573,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>35</v>
       </c>
@@ -3581,7 +3587,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>35</v>
       </c>
@@ -3595,7 +3601,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>35</v>
       </c>
@@ -3609,7 +3615,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>35</v>
       </c>
@@ -3623,7 +3629,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>783</v>
       </c>
@@ -3637,7 +3643,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>783</v>
       </c>
@@ -3651,7 +3657,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>117</v>
       </c>
@@ -3665,7 +3671,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>117</v>
       </c>
@@ -3679,7 +3685,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>131</v>
       </c>
@@ -3693,7 +3699,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>131</v>
       </c>
@@ -3707,7 +3713,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>131</v>
       </c>
@@ -3721,7 +3727,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>877</v>
       </c>
@@ -3735,7 +3741,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>877</v>
       </c>
@@ -3747,7 +3753,7 @@
       </c>
       <c r="D22" s="14"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>140</v>
       </c>
@@ -3761,7 +3767,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>140</v>
       </c>
@@ -3775,7 +3781,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>140</v>
       </c>
@@ -3789,7 +3795,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>140</v>
       </c>
@@ -3803,7 +3809,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>140</v>
       </c>
@@ -3817,7 +3823,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>734</v>
       </c>
@@ -3831,7 +3837,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>734</v>
       </c>
@@ -3845,7 +3851,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>734</v>
       </c>
@@ -3859,7 +3865,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>15</v>
       </c>
@@ -3873,7 +3879,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>121</v>
       </c>
@@ -3887,7 +3893,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>121</v>
       </c>
@@ -3901,7 +3907,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>121</v>
       </c>
@@ -3915,7 +3921,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>121</v>
       </c>
@@ -3929,7 +3935,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>121</v>
       </c>
@@ -3943,7 +3949,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>479</v>
       </c>
@@ -3957,7 +3963,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>479</v>
       </c>
@@ -3971,7 +3977,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>479</v>
       </c>
@@ -3985,7 +3991,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>479</v>
       </c>
@@ -3999,7 +4005,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>479</v>
       </c>
@@ -4013,7 +4019,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
         <v>479</v>
       </c>
@@ -4027,7 +4033,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
         <v>479</v>
       </c>
@@ -4041,7 +4047,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>479</v>
       </c>
@@ -4055,7 +4061,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
         <v>479</v>
       </c>
@@ -4069,7 +4075,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
         <v>479</v>
       </c>
@@ -4083,7 +4089,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
         <v>479</v>
       </c>
@@ -4097,7 +4103,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
         <v>479</v>
       </c>
@@ -4111,7 +4117,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
         <v>479</v>
       </c>
@@ -4125,7 +4131,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
         <v>479</v>
       </c>
@@ -4139,7 +4145,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
         <v>479</v>
       </c>
@@ -4153,7 +4159,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
         <v>479</v>
       </c>
@@ -4167,7 +4173,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
         <v>479</v>
       </c>
@@ -4181,7 +4187,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
         <v>479</v>
       </c>
@@ -4195,7 +4201,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
         <v>479</v>
       </c>
@@ -4209,7 +4215,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
         <v>479</v>
       </c>
@@ -4223,7 +4229,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
         <v>479</v>
       </c>
@@ -4237,7 +4243,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
         <v>479</v>
       </c>
@@ -4251,7 +4257,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
         <v>479</v>
       </c>
@@ -4265,7 +4271,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
         <v>479</v>
       </c>
@@ -4279,7 +4285,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
         <v>479</v>
       </c>
@@ -4293,7 +4299,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
         <v>479</v>
       </c>
@@ -4307,7 +4313,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
         <v>372</v>
       </c>
@@ -4321,7 +4327,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
         <v>372</v>
       </c>
@@ -4335,7 +4341,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
         <v>372</v>
       </c>
@@ -4349,7 +4355,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
         <v>372</v>
       </c>
@@ -4363,7 +4369,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
         <v>372</v>
       </c>
@@ -4377,7 +4383,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
         <v>372</v>
       </c>
@@ -4391,7 +4397,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
         <v>249</v>
       </c>
@@ -4405,7 +4411,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
         <v>249</v>
       </c>
@@ -4419,7 +4425,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
         <v>249</v>
       </c>
@@ -4433,7 +4439,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
         <v>249</v>
       </c>
@@ -4447,7 +4453,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
         <v>249</v>
       </c>
@@ -4461,7 +4467,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
         <v>249</v>
       </c>
@@ -4475,7 +4481,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="75"